--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C33AA8-B2EB-499B-875C-2FA5738D8F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7140F63-8189-4083-9EF3-D96E7C900BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7140F63-8189-4083-9EF3-D96E7C900BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D609D-1E9C-4D65-8AAF-B9F6280CEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>名字</t>
   </si>
@@ -130,14 +130,6 @@
   </si>
   <si>
     <t>skillTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义技能行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillBehaviourScriptName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +488,7 @@
     <col min="15" max="15" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -519,10 +511,10 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -536,11 +528,8 @@
       <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -566,10 +555,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
@@ -583,11 +572,8 @@
       <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -629,9 +615,6 @@
       </c>
       <c r="N3" t="s">
         <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D609D-1E9C-4D65-8AAF-B9F6280CEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F632A6-E0F6-4E91-98C8-176FDF94A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>名字</t>
   </si>
@@ -146,6 +146,22 @@
   </si>
   <si>
     <t>目标选择类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexEffectPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形效果预制体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillBehaviourScriptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义技能行为</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,11 +500,11 @@
     <col min="10" max="10" width="18.875" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="23.25" customWidth="1"/>
+    <col min="13" max="14" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -526,10 +542,16 @@
         <v>22</v>
       </c>
       <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
         <v>1</v>
       </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -570,10 +592,16 @@
         <v>21</v>
       </c>
       <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>3</v>
       </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -614,7 +642,13 @@
         <v>6</v>
       </c>
       <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
         <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F632A6-E0F6-4E91-98C8-176FDF94A9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E4C24-611B-4E6D-9B1C-714488351266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>名字</t>
   </si>
@@ -162,6 +162,183 @@
   </si>
   <si>
     <t>自定义技能行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRangeSelectorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTargetSelectorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teammate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeammatesInRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemiesInRange</t>
+  </si>
+  <si>
+    <t>EnemiesInRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapHexInRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内所有友军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内所有敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围内所有棋格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nearest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farthest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighestDPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighestLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MostHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeastHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MostTeammatesSurrounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MostEnemiesSurrounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最远的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害最高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级最高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值最多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值最少的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围友军最多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周围敌人最多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级解锁要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊解锁要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelRequire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeRequire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{string typeName,int count}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/FireBall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,13 +361,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,14 +392,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 3" xfId="1" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,24 +685,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="8" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
     <col min="16" max="16" width="23.25" customWidth="1"/>
+    <col min="17" max="17" width="18.25" customWidth="1"/>
+    <col min="18" max="18" width="23.25" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="9.125" customWidth="1"/>
+    <col min="22" max="22" width="17.125" customWidth="1"/>
+    <col min="23" max="23" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="24.625" customWidth="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -527,10 +735,10 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
       </c>
       <c r="K1" t="s">
         <v>18</v>
@@ -550,8 +758,20 @@
       <c r="P1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -577,10 +797,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
@@ -600,8 +820,20 @@
       <c r="P2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -650,9 +882,198 @@
       <c r="P3" t="s">
         <v>6</v>
       </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
+      <formula1>$T$4:$T$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
+      <formula1>$X$4:$X$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
+      <formula1>$V$4:$V$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E4C24-611B-4E6D-9B1C-714488351266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E38E776-C9BE-46D4-9BC7-2151DA67C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>名字</t>
   </si>
@@ -69,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manaCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大施法距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,27 +310,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级解锁要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羁绊解锁要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelRequire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeRequire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{string typeName,int count}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillAnimTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发哪些类别组件的动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{string constructorType, string trigger}[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,80 +690,76 @@
     <col min="9" max="9" width="18.875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="23.25" customWidth="1"/>
-    <col min="17" max="17" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="23.25" customWidth="1"/>
-    <col min="20" max="20" width="10.375" customWidth="1"/>
-    <col min="21" max="21" width="9.125" customWidth="1"/>
-    <col min="22" max="22" width="17.125" customWidth="1"/>
-    <col min="23" max="23" width="14.25" customWidth="1"/>
-    <col min="24" max="24" width="24.625" customWidth="1"/>
-    <col min="25" max="25" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="37.125" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="12.375" customWidth="1"/>
+    <col min="17" max="17" width="23.25" customWidth="1"/>
+    <col min="19" max="19" width="10.375" customWidth="1"/>
+    <col min="20" max="20" width="9.125" customWidth="1"/>
+    <col min="21" max="21" width="17.125" customWidth="1"/>
+    <col min="22" max="22" width="14.25" customWidth="1"/>
+    <col min="23" max="23" width="24.625" customWidth="1"/>
+    <col min="24" max="24" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" t="s">
-        <v>76</v>
-      </c>
+      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -782,58 +770,55 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -844,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -865,10 +850,10 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
@@ -877,42 +862,39 @@
         <v>6</v>
       </c>
       <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>60</v>
+      <c r="D4">
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -921,157 +903,154 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" t="s">
         <v>56</v>
       </c>
-      <c r="J4" t="s">
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
         <v>49</v>
       </c>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="V7" t="s">
         <v>53</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W7" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="X7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W8" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="X8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="V7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W9" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="X9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X8" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W10" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="X10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X9" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W11" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="X11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X10" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W12" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="X12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X11" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W13" t="s">
         <v>63</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="X13" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$T$4:$T$6</formula1>
+      <formula1>$S$4:$S$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$X$4:$X$13</formula1>
+      <formula1>$W$4:$W$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$V$4:$V$7</formula1>
+      <formula1>$U$4:$U$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E38E776-C9BE-46D4-9BC7-2151DA67C867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3292EBF-E764-49FF-9F05-31F3B27A63AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>名字</t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>{string constructorType, string trigger}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否占用其他组件状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBlockOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,20 +702,21 @@
     <col min="9" max="9" width="18.875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="37.125" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="17" width="23.25" customWidth="1"/>
-    <col min="19" max="19" width="10.375" customWidth="1"/>
-    <col min="20" max="20" width="9.125" customWidth="1"/>
-    <col min="21" max="21" width="17.125" customWidth="1"/>
-    <col min="22" max="22" width="14.25" customWidth="1"/>
-    <col min="23" max="23" width="24.625" customWidth="1"/>
-    <col min="24" max="24" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="37.125" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="16" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="18" max="18" width="23.25" customWidth="1"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="9.125" customWidth="1"/>
+    <col min="22" max="22" width="17.125" customWidth="1"/>
+    <col min="23" max="23" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="24.625" customWidth="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -735,31 +748,34 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -794,31 +810,34 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
         <v>76</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -853,10 +872,10 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
         <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
@@ -865,25 +884,28 @@
         <v>6</v>
       </c>
       <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -911,146 +933,146 @@
       <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>73</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>38</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>42</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>50</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>45</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="S5" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
         <v>39</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>46</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>51</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>55</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="S6" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
         <v>41</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>44</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>48</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>52</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>56</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="U7" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="V7" t="s">
         <v>49</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>53</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>57</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="W8" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X8" t="s">
         <v>58</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="W9" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X9" t="s">
         <v>59</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="W10" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X10" t="s">
         <v>60</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="W11" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X11" t="s">
         <v>61</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="W12" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X12" t="s">
         <v>62</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="W13" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X13" t="s">
         <v>63</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$S$4:$S$6</formula1>
+      <formula1>$T$4:$T$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$W$4:$W$13</formula1>
+      <formula1>$X$4:$X$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$U$4:$U$7</formula1>
+      <formula1>$V$4:$V$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3292EBF-E764-49FF-9F05-31F3B27A63AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82D143-4A1D-4419-AA60-8210A23EB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
   <si>
     <t>名字</t>
   </si>
@@ -343,6 +343,10 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +696,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +711,7 @@
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="15" max="16" width="14.25" customWidth="1"/>
     <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="23.25" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
     <col min="20" max="20" width="10.375" customWidth="1"/>
     <col min="21" max="21" width="9.125" customWidth="1"/>
     <col min="22" max="22" width="17.125" customWidth="1"/>
@@ -913,13 +917,13 @@
         <v>34</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -932,6 +936,9 @@
       </c>
       <c r="J4" t="s">
         <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
       </c>
       <c r="N4" t="s">
         <v>73</v>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C82D143-4A1D-4419-AA60-8210A23EB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B3283-0B28-44DE-9CD7-7EA3A19B4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="3225" windowWidth="26295" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>名字</t>
   </si>
@@ -347,6 +347,22 @@
   </si>
   <si>
     <t>Weapon,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int dmg, string type}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,Fire;3,Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,22 +721,23 @@
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="18.875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="37.125" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="16" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="20" max="20" width="10.375" customWidth="1"/>
-    <col min="21" max="21" width="9.125" customWidth="1"/>
-    <col min="22" max="22" width="17.125" customWidth="1"/>
-    <col min="23" max="23" width="14.25" customWidth="1"/>
-    <col min="24" max="24" width="24.625" customWidth="1"/>
-    <col min="25" max="25" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="23.375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="37.125" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="21" max="21" width="10.375" customWidth="1"/>
+    <col min="22" max="22" width="9.125" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="25" max="25" width="24.625" customWidth="1"/>
+    <col min="26" max="26" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -749,37 +766,40 @@
         <v>26</v>
       </c>
       <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -811,37 +831,40 @@
         <v>28</v>
       </c>
       <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>80</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -873,16 +896,16 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>81</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
       </c>
       <c r="O3" t="s">
         <v>6</v>
@@ -891,25 +914,28 @@
         <v>6</v>
       </c>
       <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -926,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
@@ -937,149 +963,152 @@
       <c r="J4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s">
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
         <v>82</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>73</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>38</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>42</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>45</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>50</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
         <v>39</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>46</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>51</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="T6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U6" t="s">
         <v>41</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>44</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>48</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>52</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="V7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>53</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>57</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y8" t="s">
         <v>58</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X9" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y9" t="s">
         <v>59</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X10" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y10" t="s">
         <v>60</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X11" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y11" t="s">
         <v>61</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X12" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y12" t="s">
         <v>62</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="X13" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y13" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$T$4:$T$6</formula1>
+      <formula1>$U$4:$U$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$X$4:$X$13</formula1>
+      <formula1>$Y$4:$Y$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$V$4:$V$7</formula1>
+      <formula1>$W$4:$W$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B3283-0B28-44DE-9CD7-7EA3A19B4C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0575000A-A6FC-4A16-8E62-06C3526005C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="3225" windowWidth="26295" windowHeight="19365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>名字</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>施加的Buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,11 +350,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{int dmg, string type}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,Fire;3,Physical</t>
+    <t>{int dmg, float correction,string type}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,3,Fire;3,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,97 +725,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="37.125" customWidth="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="17" width="14.25" customWidth="1"/>
-    <col min="18" max="18" width="12.375" customWidth="1"/>
-    <col min="19" max="19" width="22" customWidth="1"/>
-    <col min="21" max="21" width="10.375" customWidth="1"/>
-    <col min="22" max="22" width="9.125" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
-    <col min="25" max="25" width="24.625" customWidth="1"/>
-    <col min="26" max="26" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="29.375" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="37.125" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="19" width="14.25" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="23" max="23" width="10.375" customWidth="1"/>
+    <col min="24" max="24" width="9.125" customWidth="1"/>
+    <col min="25" max="25" width="17.125" customWidth="1"/>
+    <col min="26" max="26" width="14.25" customWidth="1"/>
+    <col min="27" max="27" width="24.625" customWidth="1"/>
+    <col min="28" max="28" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -807,64 +830,70 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -872,245 +901,258 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
       <c r="R3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="2"/>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
       <c r="W3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>-1</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="W5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" t="s">
         <v>54</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AB6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y7" t="s">
         <v>47</v>
       </c>
-      <c r="K4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="U5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Z7" t="s">
         <v>51</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA7" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="U6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA8" t="s">
         <v>56</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="W7" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA9" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y8" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA10" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y9" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA11" t="s">
         <v>59</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y10" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA12" t="s">
         <v>60</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y11" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA13" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB13" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="Y13" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$U$4:$U$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
+      <formula1>$W$4:$W$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$Y$4:$Y$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
+      <formula1>$AA$4:$AA$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$W$4:$W$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
+      <formula1>$Y$4:$Y$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0575000A-A6FC-4A16-8E62-06C3526005C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E0C1B-CE05-4775-AEAA-D4A6A6FB1930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33495" yWindow="9315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>名字</t>
   </si>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>manaCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/SkillIcon/Icon_Magic1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1013,6 +1017,9 @@
       <c r="Q4" t="s">
         <v>71</v>
       </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
       <c r="W4" t="s">
         <v>36</v>
       </c>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E0C1B-CE05-4775-AEAA-D4A6A6FB1930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E47FA-F874-40E5-B77C-267C44E9F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33495" yWindow="9315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55,3,Fire;3,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>施法延迟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +379,10 @@
   </si>
   <si>
     <t>Sprite/SkillIcon/Icon_Magic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,3,Fire;3,1,Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,7 +742,7 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="18.875" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="29.375" customWidth="1"/>
+    <col min="13" max="13" width="35.75" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="37.125" customWidth="1"/>
@@ -763,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>72</v>
@@ -834,13 +834,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -1009,7 +1009,7 @@
         <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
         <v>80</v>
@@ -1018,7 +1018,7 @@
         <v>71</v>
       </c>
       <c r="T4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W4" t="s">
         <v>36</v>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E47FA-F874-40E5-B77C-267C44E9F5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9235996-6F43-454A-9D83-B56DE0C97B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="-12720" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="211">
   <si>
     <t>名字</t>
   </si>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillTargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,14 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HighestDPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighestLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MostHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,14 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害最高的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级最高的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命值最多的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消耗次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,51 +314,519 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int dmg, float correction,string type}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/SkillIcon/Icon_Magic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/YellowBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousCastBehaviour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/YellowFireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAW Mortar Napalm Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAW Mortar Napalm Bomb Lvl.2</t>
+  </si>
+  <si>
+    <t>MAW Mortar Napalm Bomb Lvl.3</t>
+  </si>
+  <si>
+    <t>8,1.2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/BlueLightningball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.3</t>
+  </si>
+  <si>
+    <t>15,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-P Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/BlueBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/YellowFlamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-F Flamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/YellowExplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-L Explosion Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget,CastFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shocker Lightning Laser Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/BlueLaser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>6,3,Physical</t>
+  </si>
+  <si>
+    <t>6,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/YellowRocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.2</t>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.3</t>
+  </si>
+  <si>
+    <t>4,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.2</t>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.3</t>
+  </si>
+  <si>
     <t>Weapon,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int dmg, float correction,string type}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargingDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manaCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/SkillIcon/Icon_Magic1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,3,Fire;3,1,Physical</t>
+    <t>18,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/YellowLiquidFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.4</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.5</t>
+  </si>
+  <si>
+    <t>15,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.2</t>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.3</t>
+  </si>
+  <si>
+    <t>5,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/RedFireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.2</t>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.3</t>
+  </si>
+  <si>
+    <t>15,1,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.5,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/GreenPlasma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.2</t>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.3</t>
+  </si>
+  <si>
+    <t>10,1,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1.5,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,2,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/BlueRing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.3</t>
+  </si>
+  <si>
+    <t>20,1.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.2,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.4</t>
+  </si>
+  <si>
+    <t>25,1.8,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/RedSparkler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.3</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.4</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.5</t>
+  </si>
+  <si>
+    <t>8,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0.8,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.6,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,2,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/BlueWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,4,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.4</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.5</t>
+  </si>
+  <si>
+    <t>16,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,2.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,3,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/RedSphere</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,104 +1173,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="26.0703125" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.0703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.35546875" customWidth="1"/>
+    <col min="10" max="10" width="11.92578125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="35.75" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="37.125" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="19" width="14.25" customWidth="1"/>
-    <col min="20" max="20" width="12.375" customWidth="1"/>
-    <col min="21" max="21" width="22" customWidth="1"/>
-    <col min="23" max="23" width="10.375" customWidth="1"/>
-    <col min="24" max="24" width="9.125" customWidth="1"/>
-    <col min="25" max="25" width="17.125" customWidth="1"/>
-    <col min="26" max="26" width="14.25" customWidth="1"/>
-    <col min="27" max="27" width="24.625" customWidth="1"/>
-    <col min="28" max="28" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="35.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" customWidth="1"/>
+    <col min="19" max="19" width="34.28515625" customWidth="1"/>
+    <col min="20" max="21" width="14.2109375" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="25" max="25" width="10.35546875" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" customWidth="1"/>
+    <col min="28" max="28" width="14.2109375" customWidth="1"/>
+    <col min="29" max="29" width="24.640625" customWidth="1"/>
+    <col min="30" max="30" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
       <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -837,67 +1291,73 @@
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" t="s">
-        <v>74</v>
-      </c>
       <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -911,252 +1371,3125 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
         <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" t="s">
-        <v>76</v>
-      </c>
       <c r="Q3" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s">
         <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="2"/>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
       <c r="Y3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="2"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>-0.8</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" t="s">
+        <v>92</v>
+      </c>
+      <c r="S4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>-0.8</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>-0.8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="S10" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.3</v>
+      </c>
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>-1.4</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S15" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>-0.3</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
+      </c>
+      <c r="R16" t="s">
+        <v>117</v>
+      </c>
+      <c r="S16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>-0.3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" t="s">
+        <v>117</v>
+      </c>
+      <c r="S17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>83</v>
+      </c>
+      <c r="W17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>-0.3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" t="s">
+        <v>117</v>
+      </c>
+      <c r="S18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V18" t="s">
+        <v>83</v>
+      </c>
+      <c r="W18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" t="s">
+        <v>122</v>
+      </c>
+      <c r="V19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>-1.6</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" t="s">
+        <v>90</v>
+      </c>
+      <c r="S20" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-1.6</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
+        <v>134</v>
+      </c>
+      <c r="S21" t="s">
+        <v>110</v>
+      </c>
+      <c r="V21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>-1.6</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="S22" t="s">
+        <v>110</v>
+      </c>
+      <c r="V22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23">
+        <v>0.4</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
+        <v>139</v>
+      </c>
+      <c r="R23" t="s">
+        <v>145</v>
+      </c>
+      <c r="S23" t="s">
+        <v>136</v>
+      </c>
+      <c r="V23" t="s">
+        <v>83</v>
+      </c>
+      <c r="W23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24">
+        <v>0.4</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" t="s">
+        <v>140</v>
+      </c>
+      <c r="R24" t="s">
+        <v>145</v>
+      </c>
+      <c r="S24" t="s">
+        <v>136</v>
+      </c>
+      <c r="V24" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+      <c r="R25" t="s">
+        <v>145</v>
+      </c>
+      <c r="S25" t="s">
+        <v>136</v>
+      </c>
+      <c r="V25" t="s">
+        <v>83</v>
+      </c>
+      <c r="W25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1.2</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
+        <v>146</v>
+      </c>
+      <c r="R26" t="s">
+        <v>145</v>
+      </c>
+      <c r="S26" t="s">
+        <v>147</v>
+      </c>
+      <c r="V26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1.2</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" t="s">
+        <v>148</v>
+      </c>
+      <c r="R27" t="s">
+        <v>145</v>
+      </c>
+      <c r="S27" t="s">
+        <v>147</v>
+      </c>
+      <c r="V27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1.2</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" t="s">
+        <v>149</v>
+      </c>
+      <c r="R28" t="s">
+        <v>145</v>
+      </c>
+      <c r="S28" t="s">
+        <v>147</v>
+      </c>
+      <c r="V28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>0.3</v>
+      </c>
+      <c r="E29">
+        <v>-0.8</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>-1</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="R29" t="s">
+        <v>145</v>
+      </c>
+      <c r="S29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0.3</v>
+      </c>
+      <c r="E30">
+        <v>-0.8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" t="s">
+        <v>145</v>
+      </c>
+      <c r="S30" t="s">
+        <v>84</v>
+      </c>
+      <c r="V30" t="s">
+        <v>83</v>
+      </c>
+      <c r="W30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>0.3</v>
+      </c>
+      <c r="E31">
+        <v>-0.8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="R31" t="s">
+        <v>145</v>
+      </c>
+      <c r="S31" t="s">
+        <v>84</v>
+      </c>
+      <c r="V31" t="s">
+        <v>83</v>
+      </c>
+      <c r="W31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0.3</v>
+      </c>
+      <c r="E32">
+        <v>-0.8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" t="s">
+        <v>156</v>
+      </c>
+      <c r="R32" t="s">
+        <v>145</v>
+      </c>
+      <c r="S32" t="s">
+        <v>84</v>
+      </c>
+      <c r="V32" t="s">
+        <v>83</v>
+      </c>
+      <c r="W32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>0.3</v>
+      </c>
+      <c r="E33">
+        <v>-0.8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" t="s">
+        <v>155</v>
+      </c>
+      <c r="R33" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" t="s">
+        <v>84</v>
+      </c>
+      <c r="V33" t="s">
+        <v>83</v>
+      </c>
+      <c r="W33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>0.3</v>
+      </c>
+      <c r="E34">
+        <v>-0.4</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
+        <v>51</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" t="s">
+        <v>160</v>
+      </c>
+      <c r="R34" t="s">
+        <v>145</v>
+      </c>
+      <c r="S34" t="s">
+        <v>162</v>
+      </c>
+      <c r="V34" t="s">
+        <v>83</v>
+      </c>
+      <c r="W34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>32</v>
       </c>
-      <c r="C4">
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>0.3</v>
+      </c>
+      <c r="E35">
+        <v>-0.4</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="R35" t="s">
+        <v>145</v>
+      </c>
+      <c r="S35" t="s">
+        <v>162</v>
+      </c>
+      <c r="V35" t="s">
+        <v>83</v>
+      </c>
+      <c r="W35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>0.3</v>
+      </c>
+      <c r="E36">
+        <v>-0.4</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" t="s">
+        <v>161</v>
+      </c>
+      <c r="R36" t="s">
+        <v>145</v>
+      </c>
+      <c r="S36" t="s">
+        <v>162</v>
+      </c>
+      <c r="V36" t="s">
+        <v>83</v>
+      </c>
+      <c r="W36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" t="s">
+        <v>166</v>
+      </c>
+      <c r="S37" t="s">
+        <v>169</v>
+      </c>
+      <c r="V37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" t="s">
+        <v>167</v>
+      </c>
+      <c r="S38" t="s">
+        <v>169</v>
+      </c>
+      <c r="V38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="s">
+        <v>51</v>
+      </c>
+      <c r="N39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" t="s">
+        <v>168</v>
+      </c>
+      <c r="S39" t="s">
+        <v>169</v>
+      </c>
+      <c r="V39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" t="s">
+        <v>51</v>
+      </c>
+      <c r="N40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" t="s">
+        <v>173</v>
+      </c>
+      <c r="S40" t="s">
+        <v>176</v>
+      </c>
+      <c r="V40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" t="s">
+        <v>174</v>
+      </c>
+      <c r="S41" t="s">
+        <v>176</v>
+      </c>
+      <c r="V41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" t="s">
+        <v>175</v>
+      </c>
+      <c r="S42" t="s">
+        <v>176</v>
+      </c>
+      <c r="V42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" t="s">
+        <v>181</v>
+      </c>
+      <c r="S43" t="s">
+        <v>186</v>
+      </c>
+      <c r="V43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>-1</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>51</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>182</v>
+      </c>
+      <c r="S44" t="s">
+        <v>186</v>
+      </c>
+      <c r="V44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" t="s">
+        <v>180</v>
+      </c>
+      <c r="S45" t="s">
+        <v>186</v>
+      </c>
+      <c r="V45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.3</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" t="s">
+        <v>51</v>
+      </c>
+      <c r="N46" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" t="s">
+        <v>184</v>
+      </c>
+      <c r="S46" t="s">
+        <v>186</v>
+      </c>
+      <c r="V46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <v>-1</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+      <c r="N47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>185</v>
+      </c>
+      <c r="S47" t="s">
+        <v>186</v>
+      </c>
+      <c r="V47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>-0.5</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="G48">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
+      <c r="H48">
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" t="s">
+        <v>193</v>
+      </c>
+      <c r="S48" t="s">
+        <v>197</v>
+      </c>
+      <c r="V48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>-0.5</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N49" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" t="s">
+        <v>194</v>
+      </c>
+      <c r="S49" t="s">
+        <v>197</v>
+      </c>
+      <c r="V49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>-0.5</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N50" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" t="s">
+        <v>181</v>
+      </c>
+      <c r="S50" t="s">
+        <v>197</v>
+      </c>
+      <c r="V50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>-0.5</v>
+      </c>
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>-1</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" t="s">
+        <v>51</v>
+      </c>
+      <c r="N51" t="s">
+        <v>44</v>
+      </c>
+      <c r="O51" t="s">
+        <v>195</v>
+      </c>
+      <c r="S51" t="s">
+        <v>197</v>
+      </c>
+      <c r="V51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>-0.5</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>-1</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" t="s">
+        <v>51</v>
+      </c>
+      <c r="N52" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" t="s">
+        <v>196</v>
+      </c>
+      <c r="S52" t="s">
+        <v>197</v>
+      </c>
+      <c r="V52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>-1.6</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>-1</v>
+      </c>
+      <c r="J53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+      <c r="N53" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" t="s">
+        <v>198</v>
+      </c>
+      <c r="S53" t="s">
+        <v>110</v>
+      </c>
+      <c r="V53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>-1.6</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>-1</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54" t="s">
+        <v>199</v>
+      </c>
+      <c r="S54" t="s">
+        <v>110</v>
+      </c>
+      <c r="V54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>-2</v>
+      </c>
+      <c r="F55">
+        <v>-2</v>
+      </c>
+      <c r="G55">
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>-1</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" t="s">
+        <v>51</v>
+      </c>
+      <c r="N55" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" t="s">
+        <v>205</v>
+      </c>
+      <c r="S55" t="s">
+        <v>210</v>
+      </c>
+      <c r="V55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>-2</v>
+      </c>
+      <c r="F56">
+        <v>-2</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" t="s">
+        <v>206</v>
+      </c>
+      <c r="S56" t="s">
+        <v>210</v>
+      </c>
+      <c r="V56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>-2</v>
+      </c>
+      <c r="F57">
+        <v>-2</v>
+      </c>
+      <c r="G57">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <v>-1</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="W5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="W6" t="s">
-        <v>39</v>
-      </c>
-      <c r="X6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" t="s">
+        <v>51</v>
+      </c>
+      <c r="N57" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" t="s">
+        <v>207</v>
+      </c>
+      <c r="S57" t="s">
+        <v>210</v>
+      </c>
+      <c r="V57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>-2</v>
+      </c>
+      <c r="F58">
+        <v>-2</v>
+      </c>
+      <c r="G58">
         <v>50</v>
       </c>
-      <c r="AA6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="Y7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA8" t="s">
+      <c r="H58">
+        <v>-1</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" t="s">
+        <v>208</v>
+      </c>
+      <c r="S58" t="s">
+        <v>210</v>
+      </c>
+      <c r="V58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>56</v>
       </c>
-      <c r="AB8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA12" t="s">
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>-2</v>
+      </c>
+      <c r="F59">
+        <v>-2</v>
+      </c>
+      <c r="G59">
         <v>60</v>
       </c>
-      <c r="AB12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>70</v>
+      <c r="H59">
+        <v>-1</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O59" t="s">
+        <v>209</v>
+      </c>
+      <c r="S59" t="s">
+        <v>210</v>
+      </c>
+      <c r="V59" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$W$4:$W$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
+      <formula1>$Y$4:$Y$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$AA$4:$AA$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
+      <formula1>$AC$4:$AC$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$Y$4:$Y$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
+      <formula1>$AA$4:$AA$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9235996-6F43-454A-9D83-B56DE0C97B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B863C0-8573-47A6-A30D-3A0668FE4C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="-12720" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39765" yWindow="9510" windowWidth="36030" windowHeight="16560" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="216">
   <si>
     <t>名字</t>
   </si>
@@ -358,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20,1,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,1,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAW Mortar Napalm Bomb Lvl.2</t>
   </si>
   <si>
@@ -416,14 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,1.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/BlueLightningball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,22 +422,10 @@
     <t>Lightning Ray Pulse Lvl.3</t>
   </si>
   <si>
-    <t>15,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,1.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTW-P Shot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/BlueBullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,0.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/YellowExplosion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,18 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shocker Lightning Laser Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STH Double Shoot Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,13 +496,6 @@
     <t>Rifle Shoot Lvl.3</t>
   </si>
   <si>
-    <t>6,3,Physical</t>
-  </si>
-  <si>
-    <t>6,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Explosive Rocket Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,10 +518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cannon Napalm Bomb Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30,0,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,14 +578,6 @@
     <t>SS-G Explosion Bomb Lvl.3</t>
   </si>
   <si>
-    <t>5,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/RedFireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,18 +618,6 @@
     <t>HFEW Energy Ring Lvl.3</t>
   </si>
   <si>
-    <t>10,1,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,1.5,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,2,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/BlueRing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,29 +632,9 @@
     <t>Lightning Sparkler Lvl.3</t>
   </si>
   <si>
-    <t>20,1.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,1,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,1.2,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lightning Sparkler Lvl.4</t>
   </si>
   <si>
-    <t>25,1.8,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/RedSparkler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -762,34 +659,6 @@
     <t>Lightning Wave Lvl.5</t>
   </si>
   <si>
-    <t>8,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,0.8,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,1.6,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,2,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Projectile/Skill/BlueWave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,4,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sniper Shoot Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,27 +675,179 @@
     <t>Sniper Shoot Lvl.5</t>
   </si>
   <si>
-    <t>16,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,2.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,3,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/RedSphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0,Physical;12,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,1.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,Physical;16,1.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,0,Physical;20,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.3,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1,Physical;4,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1.5,Physical;4,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2,Physical;4,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1.2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Physical;10,1,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.5,Physical;14,1.5,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,2,Physical;24,2,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1,Lightning;2,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.2,Lightning;5,1.8,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.5,Lightning;8,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Lightning;18,2.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1.8,Lightning;11,2.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Projectile/Skill/GreenWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Lightning;12,1,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.2,Lightning;20,1.2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.5,Lightning;25,1.5,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.8,Lightning;30,1.8,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Lightning;34,2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,2.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,3,Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,114 +1194,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.0703125" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.0703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.35546875" customWidth="1"/>
-    <col min="10" max="10" width="11.92578125" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" customWidth="1"/>
-    <col min="19" max="19" width="34.28515625" customWidth="1"/>
-    <col min="20" max="21" width="14.2109375" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="25" max="25" width="10.35546875" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" customWidth="1"/>
-    <col min="28" max="28" width="14.2109375" customWidth="1"/>
-    <col min="29" max="29" width="24.640625" customWidth="1"/>
-    <col min="30" max="30" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="35.75" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="37.125" customWidth="1"/>
+    <col min="21" max="21" width="34.25" customWidth="1"/>
+    <col min="22" max="23" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="28.125" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="27" max="27" width="10.375" customWidth="1"/>
+    <col min="28" max="28" width="9.125" customWidth="1"/>
+    <col min="29" max="29" width="17.125" customWidth="1"/>
+    <col min="30" max="30" width="14.25" customWidth="1"/>
+    <col min="31" max="31" width="24.625" customWidth="1"/>
+    <col min="32" max="32" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>69</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1288,88 +1311,88 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>75</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>72</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>68</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>28</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>3</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -1377,135 +1400,142 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
       <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
       </c>
       <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
         <v>76</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>73</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>70</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" t="s">
-        <v>6</v>
       </c>
       <c r="U3" t="s">
         <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W3" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C4">
+        <f>(INT(E4/F4)+1)*D4*(1/(2+G4))</f>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>0.5</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.3</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>-0.8</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
       <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
+      <c r="M4">
+        <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" t="s">
         <v>90</v>
       </c>
-      <c r="R4" t="s">
-        <v>92</v>
-      </c>
-      <c r="S4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" t="s">
-        <v>83</v>
-      </c>
-      <c r="W4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>39</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>47</v>
       </c>
       <c r="AC4" t="s">
         <v>42</v>
@@ -1513,2983 +1543,3383 @@
       <c r="AD4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:C59" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.3</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>-0.8</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
       <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" t="s">
         <v>84</v>
       </c>
-      <c r="V5" t="s">
-        <v>83</v>
-      </c>
-      <c r="W5" t="s">
-        <v>91</v>
+      <c r="X5" t="s">
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.3</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>-0.8</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
       <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
+      <c r="M6">
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
-      </c>
-      <c r="R6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" t="s">
         <v>84</v>
       </c>
-      <c r="V6" t="s">
-        <v>83</v>
-      </c>
-      <c r="W6" t="s">
-        <v>91</v>
+      <c r="X6" t="s">
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="s">
         <v>38</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>49</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>53</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f>D7*(1/(2+G7))</f>
+        <v>6.6666666666666661</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.5</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>25</v>
       </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
       <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>176</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" t="s">
         <v>92</v>
       </c>
-      <c r="S7" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="X7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC7" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>50</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>54</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f t="shared" ref="C8:C15" si="1">D8*(1/(2+G8))</f>
+        <v>8.6666666666666661</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.5</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>35</v>
       </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
       <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>180</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" t="s">
         <v>92</v>
       </c>
-      <c r="S8" t="s">
-        <v>93</v>
-      </c>
-      <c r="V8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="X8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>54</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.5</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>45</v>
       </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
       <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" t="s">
         <v>92</v>
       </c>
-      <c r="S9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="X9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC9" t="s">
         <v>46</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>50</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0.5</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.3</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>20</v>
       </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
       <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
         <v>4</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>51</v>
+      <c r="M10">
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
-      </c>
-      <c r="S10" t="s">
-        <v>102</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE10" t="s">
         <v>55</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.5</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.3</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>22</v>
       </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
       <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
         <v>4</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" t="s">
-        <v>102</v>
-      </c>
-      <c r="V11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>178</v>
+      </c>
+      <c r="U11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE11" t="s">
         <v>56</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0.5</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.3</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>25</v>
       </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
       <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
         <v>4</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
+      <c r="M12">
+        <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
-      </c>
-      <c r="S12" t="s">
-        <v>102</v>
-      </c>
-      <c r="V12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" t="s">
+        <v>98</v>
+      </c>
+      <c r="X12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE12" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>11.666666666666666</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>-1.4</v>
       </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="H13">
-        <v>-1</v>
-      </c>
       <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
+      <c r="M13">
+        <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
-      </c>
-      <c r="S13" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>182</v>
+      </c>
+      <c r="U13" t="s">
+        <v>103</v>
+      </c>
+      <c r="X13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE13" t="s">
         <v>58</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>0.3</v>
-      </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0.4</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>25</v>
       </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
       <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" t="s">
-        <v>51</v>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
-      </c>
-      <c r="S14" t="s">
-        <v>111</v>
-      </c>
-      <c r="V14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>183</v>
+      </c>
+      <c r="U14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0.5</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>20</v>
       </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
       <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15" t="s">
-        <v>114</v>
-      </c>
-      <c r="V15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>184</v>
+      </c>
+      <c r="U15" t="s">
+        <v>106</v>
+      </c>
+      <c r="X15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>10.588235294117647</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>0.5</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.1</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>-0.3</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>12</v>
       </c>
-      <c r="H16">
-        <v>-1</v>
-      </c>
       <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" t="s">
-        <v>51</v>
+      <c r="M16">
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
-      </c>
-      <c r="R16" t="s">
-        <v>117</v>
-      </c>
-      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>186</v>
+      </c>
+      <c r="T16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U16" t="s">
         <v>84</v>
       </c>
-      <c r="V16" t="s">
-        <v>83</v>
-      </c>
-      <c r="W16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>14.117647058823529</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
         <v>0.5</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>0.1</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>-0.3</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>18</v>
       </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
       <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
         <v>5</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" t="s">
-        <v>51</v>
+      <c r="M17">
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>119</v>
-      </c>
-      <c r="R17" t="s">
-        <v>117</v>
-      </c>
-      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T17" t="s">
+        <v>109</v>
+      </c>
+      <c r="U17" t="s">
         <v>84</v>
       </c>
-      <c r="V17" t="s">
-        <v>83</v>
-      </c>
-      <c r="W17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>0.1</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>-0.3</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>24</v>
       </c>
-      <c r="H18">
-        <v>-1</v>
-      </c>
       <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" t="s">
-        <v>51</v>
+      <c r="M18">
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
-      </c>
-      <c r="R18" t="s">
-        <v>117</v>
-      </c>
-      <c r="S18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>187</v>
+      </c>
+      <c r="T18" t="s">
+        <v>109</v>
+      </c>
+      <c r="U18" t="s">
         <v>84</v>
       </c>
-      <c r="V18" t="s">
-        <v>83</v>
-      </c>
-      <c r="W18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>0.2</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>30</v>
       </c>
-      <c r="H19">
-        <v>-1</v>
-      </c>
       <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" t="s">
-        <v>51</v>
+      <c r="M19">
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
-      </c>
-      <c r="S19" t="s">
-        <v>122</v>
-      </c>
-      <c r="V19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>188</v>
+      </c>
+      <c r="U19" t="s">
+        <v>111</v>
+      </c>
+      <c r="X19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f t="shared" ref="C20:C22" si="2">D20*(1/(2+G20))</f>
+        <v>10.000000000000002</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>-1.6</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>10</v>
       </c>
-      <c r="H20">
-        <v>-1</v>
-      </c>
       <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
         <v>4</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" t="s">
-        <v>51</v>
+      <c r="M20">
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
-      </c>
-      <c r="S20" t="s">
-        <v>110</v>
-      </c>
-      <c r="V20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>125</v>
+      </c>
+      <c r="T20" t="s">
+        <v>173</v>
+      </c>
+      <c r="U20" t="s">
+        <v>103</v>
+      </c>
+      <c r="X20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12.500000000000002</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>-1.6</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>12</v>
       </c>
-      <c r="H21">
-        <v>-1</v>
-      </c>
       <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" t="s">
-        <v>51</v>
+      <c r="M21">
+        <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
-      </c>
-      <c r="S21" t="s">
-        <v>110</v>
-      </c>
-      <c r="V21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T21" t="s">
+        <v>173</v>
+      </c>
+      <c r="U21" t="s">
+        <v>103</v>
+      </c>
+      <c r="X21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15.000000000000004</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>-1.6</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="H22">
-        <v>-1</v>
-      </c>
       <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
         <v>4</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M22" t="s">
-        <v>51</v>
+      <c r="M22">
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
-      </c>
-      <c r="S22" t="s">
-        <v>110</v>
-      </c>
-      <c r="V22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>126</v>
+      </c>
+      <c r="T22" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22" t="s">
+        <v>103</v>
+      </c>
+      <c r="X22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
         <v>0.4</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>0.1</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
         <v>0.5</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>20</v>
       </c>
-      <c r="H23">
-        <v>-1</v>
-      </c>
       <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
         <v>3</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" t="s">
-        <v>51</v>
-      </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
-      </c>
-      <c r="R23" t="s">
-        <v>145</v>
-      </c>
-      <c r="S23" t="s">
-        <v>136</v>
-      </c>
-      <c r="V23" t="s">
-        <v>83</v>
-      </c>
-      <c r="W23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>189</v>
+      </c>
+      <c r="T23" t="s">
+        <v>130</v>
+      </c>
+      <c r="U23" t="s">
+        <v>122</v>
+      </c>
+      <c r="X23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
         <v>0.4</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>0.1</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
         <v>0.5</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>25</v>
       </c>
-      <c r="H24">
-        <v>-1</v>
-      </c>
       <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
         <v>3</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" t="s">
-        <v>51</v>
-      </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O24" t="s">
-        <v>140</v>
-      </c>
-      <c r="R24" t="s">
-        <v>145</v>
-      </c>
-      <c r="S24" t="s">
-        <v>136</v>
-      </c>
-      <c r="V24" t="s">
-        <v>83</v>
-      </c>
-      <c r="W24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>190</v>
+      </c>
+      <c r="T24" t="s">
+        <v>130</v>
+      </c>
+      <c r="U24" t="s">
+        <v>122</v>
+      </c>
+      <c r="X24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>0.4</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>0.1</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>0.5</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>30</v>
       </c>
-      <c r="H25">
-        <v>-1</v>
-      </c>
       <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
-        <v>37</v>
-      </c>
-      <c r="M25" t="s">
-        <v>51</v>
-      </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
-      </c>
-      <c r="R25" t="s">
-        <v>145</v>
-      </c>
-      <c r="S25" t="s">
-        <v>136</v>
-      </c>
-      <c r="V25" t="s">
-        <v>83</v>
-      </c>
-      <c r="W25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>191</v>
+      </c>
+      <c r="T25" t="s">
+        <v>130</v>
+      </c>
+      <c r="U25" t="s">
+        <v>122</v>
+      </c>
+      <c r="X25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f t="shared" ref="C26:C28" si="3">D26*(1/(2+G26))</f>
+        <v>5.625</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>1.2</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>0.5</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>25</v>
       </c>
-      <c r="H26">
-        <v>-1</v>
-      </c>
       <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="L26">
         <v>4</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>1</v>
       </c>
-      <c r="L26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" t="s">
-        <v>51</v>
-      </c>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O26" t="s">
-        <v>146</v>
-      </c>
-      <c r="R26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S26" t="s">
-        <v>147</v>
-      </c>
-      <c r="V26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" t="s">
+        <v>130</v>
+      </c>
+      <c r="U26" t="s">
+        <v>132</v>
+      </c>
+      <c r="X26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9.375</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>1.2</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>0.5</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>30</v>
       </c>
-      <c r="H27">
-        <v>-1</v>
-      </c>
       <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="L27">
         <v>4</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>1</v>
       </c>
-      <c r="L27" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" t="s">
-        <v>51</v>
-      </c>
       <c r="N27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O27" t="s">
-        <v>148</v>
-      </c>
-      <c r="R27" t="s">
-        <v>145</v>
-      </c>
-      <c r="S27" t="s">
-        <v>147</v>
-      </c>
-      <c r="V27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>133</v>
+      </c>
+      <c r="T27" t="s">
+        <v>130</v>
+      </c>
+      <c r="U27" t="s">
+        <v>132</v>
+      </c>
+      <c r="X27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14.0625</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>1.2</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>0.5</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>35</v>
       </c>
-      <c r="H28">
-        <v>-1</v>
-      </c>
       <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>1</v>
       </c>
-      <c r="L28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" t="s">
-        <v>51</v>
-      </c>
       <c r="N28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>149</v>
-      </c>
-      <c r="R28" t="s">
-        <v>145</v>
-      </c>
-      <c r="S28" t="s">
-        <v>147</v>
-      </c>
-      <c r="V28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>192</v>
+      </c>
+      <c r="T28" t="s">
+        <v>130</v>
+      </c>
+      <c r="U28" t="s">
+        <v>132</v>
+      </c>
+      <c r="X28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
         <v>0.5</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>0.3</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>-0.8</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>10</v>
       </c>
-      <c r="H29">
-        <v>-1</v>
-      </c>
       <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>37</v>
-      </c>
-      <c r="M29" t="s">
-        <v>51</v>
+      <c r="M29">
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>89</v>
+      </c>
+      <c r="T29" t="s">
+        <v>130</v>
+      </c>
+      <c r="U29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y29" t="s">
         <v>90</v>
       </c>
-      <c r="R29" t="s">
-        <v>145</v>
-      </c>
-      <c r="S29" t="s">
-        <v>84</v>
-      </c>
-      <c r="V29" t="s">
-        <v>83</v>
-      </c>
-      <c r="W29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
         <v>0.5</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>0.3</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>-0.8</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>12</v>
       </c>
-      <c r="H30">
-        <v>-1</v>
-      </c>
       <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
         <v>4</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" t="s">
-        <v>51</v>
+      <c r="M30">
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
-      </c>
-      <c r="R30" t="s">
-        <v>145</v>
-      </c>
-      <c r="S30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>96</v>
+      </c>
+      <c r="T30" t="s">
+        <v>130</v>
+      </c>
+      <c r="U30" t="s">
         <v>84</v>
       </c>
-      <c r="V30" t="s">
-        <v>83</v>
-      </c>
-      <c r="W30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X30" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
         <v>0.5</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>0.3</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>-0.8</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>15</v>
       </c>
-      <c r="H31">
-        <v>-1</v>
-      </c>
       <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="L31">
         <v>4</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>37</v>
-      </c>
-      <c r="M31" t="s">
-        <v>51</v>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
-      </c>
-      <c r="R31" t="s">
-        <v>145</v>
-      </c>
-      <c r="S31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" t="s">
+        <v>130</v>
+      </c>
+      <c r="U31" t="s">
         <v>84</v>
       </c>
-      <c r="V31" t="s">
-        <v>83</v>
-      </c>
-      <c r="W31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
         <v>0.5</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>0.3</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>-0.8</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>18</v>
       </c>
-      <c r="H32">
-        <v>-1</v>
-      </c>
       <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
         <v>4</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>37</v>
-      </c>
-      <c r="M32" t="s">
-        <v>51</v>
+      <c r="M32">
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O32" t="s">
-        <v>156</v>
-      </c>
-      <c r="R32" t="s">
-        <v>145</v>
-      </c>
-      <c r="S32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>140</v>
+      </c>
+      <c r="T32" t="s">
+        <v>130</v>
+      </c>
+      <c r="U32" t="s">
         <v>84</v>
       </c>
-      <c r="V32" t="s">
-        <v>83</v>
-      </c>
-      <c r="W32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
         <v>0.5</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>0.3</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>-0.8</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>22</v>
       </c>
-      <c r="H33">
-        <v>-1</v>
-      </c>
       <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" t="s">
-        <v>51</v>
+      <c r="M33">
+        <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
-      </c>
-      <c r="R33" t="s">
-        <v>145</v>
-      </c>
-      <c r="S33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>139</v>
+      </c>
+      <c r="T33" t="s">
+        <v>130</v>
+      </c>
+      <c r="U33" t="s">
         <v>84</v>
       </c>
-      <c r="V33" t="s">
-        <v>83</v>
-      </c>
-      <c r="W33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X33" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
         <v>0.5</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>0.3</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>-0.4</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>0.5</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>15</v>
       </c>
-      <c r="H34">
-        <v>-1</v>
-      </c>
       <c r="J34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" t="s">
-        <v>51</v>
-      </c>
       <c r="N34" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>160</v>
-      </c>
-      <c r="R34" t="s">
-        <v>145</v>
-      </c>
-      <c r="S34" t="s">
-        <v>162</v>
-      </c>
-      <c r="V34" t="s">
-        <v>83</v>
-      </c>
-      <c r="W34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>196</v>
+      </c>
+      <c r="T34" t="s">
+        <v>130</v>
+      </c>
+      <c r="U34" t="s">
+        <v>144</v>
+      </c>
+      <c r="X34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
         <v>0.5</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>0.3</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>-0.4</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>0.5</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>20</v>
       </c>
-      <c r="H35">
-        <v>-1</v>
-      </c>
       <c r="J35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
         <v>3</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" t="s">
-        <v>51</v>
-      </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>108</v>
+      </c>
+      <c r="T35" t="s">
+        <v>130</v>
+      </c>
+      <c r="U35" t="s">
+        <v>144</v>
+      </c>
+      <c r="X35" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y35" t="s">
         <v>90</v>
       </c>
-      <c r="R35" t="s">
-        <v>145</v>
-      </c>
-      <c r="S35" t="s">
-        <v>162</v>
-      </c>
-      <c r="V35" t="s">
-        <v>83</v>
-      </c>
-      <c r="W35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
         <v>0.5</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>0.3</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>-0.4</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>0.5</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>25</v>
       </c>
-      <c r="H36">
-        <v>-1</v>
-      </c>
       <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
         <v>3</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>1</v>
       </c>
-      <c r="L36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36" t="s">
-        <v>51</v>
-      </c>
       <c r="N36" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O36" t="s">
-        <v>161</v>
-      </c>
-      <c r="R36" t="s">
-        <v>145</v>
-      </c>
-      <c r="S36" t="s">
-        <v>162</v>
-      </c>
-      <c r="V36" t="s">
-        <v>83</v>
-      </c>
-      <c r="W36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>97</v>
+      </c>
+      <c r="T36" t="s">
+        <v>130</v>
+      </c>
+      <c r="U36" t="s">
+        <v>144</v>
+      </c>
+      <c r="X36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f t="shared" ref="C37:C59" si="4">D37*(1/(2+G37))</f>
+        <v>7.5</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>1</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>30</v>
       </c>
-      <c r="H37">
-        <v>-1</v>
-      </c>
       <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
         <v>5</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M37" t="s">
-        <v>51</v>
+      <c r="M37">
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>166</v>
-      </c>
-      <c r="S37" t="s">
-        <v>169</v>
-      </c>
-      <c r="V37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>148</v>
+      </c>
+      <c r="U37" t="s">
+        <v>151</v>
+      </c>
+      <c r="X37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>40</v>
       </c>
-      <c r="H38">
-        <v>-1</v>
-      </c>
       <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
         <v>5</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" t="s">
-        <v>51</v>
+      <c r="M38">
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>167</v>
-      </c>
-      <c r="S38" t="s">
-        <v>169</v>
-      </c>
-      <c r="V38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>149</v>
+      </c>
+      <c r="U38" t="s">
+        <v>151</v>
+      </c>
+      <c r="X38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>12.5</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>50</v>
       </c>
-      <c r="H39">
-        <v>-1</v>
-      </c>
       <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
         <v>5</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" t="s">
-        <v>51</v>
+      <c r="M39">
+        <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>168</v>
-      </c>
-      <c r="S39" t="s">
-        <v>169</v>
-      </c>
-      <c r="V39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>150</v>
+      </c>
+      <c r="U39" t="s">
+        <v>151</v>
+      </c>
+      <c r="X39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7.2</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>0.5</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>0.5</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>20</v>
       </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
       <c r="J40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
         <v>4</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" t="s">
-        <v>51</v>
+      <c r="M40">
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>173</v>
-      </c>
-      <c r="S40" t="s">
-        <v>176</v>
-      </c>
-      <c r="V40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>197</v>
+      </c>
+      <c r="U40" t="s">
+        <v>155</v>
+      </c>
+      <c r="X40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>9.6000000000000014</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>0.5</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>0.5</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>25</v>
       </c>
-      <c r="H41">
-        <v>-1</v>
-      </c>
       <c r="J41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
         <v>4</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41" t="s">
-        <v>37</v>
-      </c>
-      <c r="M41" t="s">
-        <v>51</v>
+      <c r="M41">
+        <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>174</v>
-      </c>
-      <c r="S41" t="s">
-        <v>176</v>
-      </c>
-      <c r="V41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>198</v>
+      </c>
+      <c r="U41" t="s">
+        <v>155</v>
+      </c>
+      <c r="X41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>14.4</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>0.5</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>0.5</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>30</v>
       </c>
-      <c r="H42">
-        <v>-1</v>
-      </c>
       <c r="J42">
+        <v>-1</v>
+      </c>
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42" t="s">
-        <v>37</v>
-      </c>
-      <c r="M42" t="s">
-        <v>51</v>
+      <c r="M42">
+        <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O42" t="s">
-        <v>175</v>
-      </c>
-      <c r="S42" t="s">
-        <v>176</v>
-      </c>
-      <c r="V42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>199</v>
+      </c>
+      <c r="U42" t="s">
+        <v>155</v>
+      </c>
+      <c r="X42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0.3</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>15</v>
       </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
       <c r="J43">
+        <v>-1</v>
+      </c>
+      <c r="L43">
         <v>4</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>37</v>
-      </c>
-      <c r="M43" t="s">
-        <v>51</v>
+      <c r="M43">
+        <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O43" t="s">
-        <v>181</v>
-      </c>
-      <c r="S43" t="s">
-        <v>186</v>
-      </c>
-      <c r="V43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>200</v>
+      </c>
+      <c r="U43" t="s">
+        <v>160</v>
+      </c>
+      <c r="X43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0.3</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>20</v>
       </c>
-      <c r="H44">
-        <v>-1</v>
-      </c>
       <c r="J44">
+        <v>-1</v>
+      </c>
+      <c r="L44">
         <v>4</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>37</v>
-      </c>
-      <c r="M44" t="s">
-        <v>51</v>
+      <c r="M44">
+        <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O44" t="s">
-        <v>182</v>
-      </c>
-      <c r="S44" t="s">
-        <v>186</v>
-      </c>
-      <c r="V44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>201</v>
+      </c>
+      <c r="U44" t="s">
+        <v>160</v>
+      </c>
+      <c r="X44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>0.3</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>25</v>
       </c>
-      <c r="H45">
-        <v>-1</v>
-      </c>
       <c r="J45">
+        <v>-1</v>
+      </c>
+      <c r="L45">
         <v>4</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45" t="s">
-        <v>37</v>
-      </c>
-      <c r="M45" t="s">
-        <v>51</v>
+      <c r="M45">
+        <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O45" t="s">
-        <v>180</v>
-      </c>
-      <c r="S45" t="s">
-        <v>186</v>
-      </c>
-      <c r="V45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P45" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>202</v>
+      </c>
+      <c r="U45" t="s">
+        <v>160</v>
+      </c>
+      <c r="X45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0.3</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>30</v>
       </c>
-      <c r="H46">
-        <v>-1</v>
-      </c>
       <c r="J46">
+        <v>-1</v>
+      </c>
+      <c r="L46">
         <v>4</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>37</v>
-      </c>
-      <c r="M46" t="s">
-        <v>51</v>
+      <c r="M46">
+        <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O46" t="s">
-        <v>184</v>
-      </c>
-      <c r="S46" t="s">
-        <v>186</v>
-      </c>
-      <c r="V46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>204</v>
+      </c>
+      <c r="U46" t="s">
+        <v>160</v>
+      </c>
+      <c r="X46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>0.3</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>35</v>
       </c>
-      <c r="H47">
-        <v>-1</v>
-      </c>
       <c r="J47">
+        <v>-1</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>37</v>
-      </c>
-      <c r="M47" t="s">
-        <v>51</v>
+      <c r="M47">
+        <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O47" t="s">
-        <v>185</v>
-      </c>
-      <c r="S47" t="s">
-        <v>186</v>
-      </c>
-      <c r="V47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>203</v>
+      </c>
+      <c r="U47" t="s">
+        <v>160</v>
+      </c>
+      <c r="X47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7.6923076923076916</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G48">
+        <v>0.6</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>10</v>
       </c>
-      <c r="H48">
-        <v>-1</v>
-      </c>
       <c r="J48">
+        <v>-1</v>
+      </c>
+      <c r="L48">
         <v>4</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>37</v>
-      </c>
-      <c r="M48" t="s">
-        <v>51</v>
+      <c r="M48">
+        <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O48" t="s">
-        <v>193</v>
-      </c>
-      <c r="S48" t="s">
-        <v>197</v>
-      </c>
-      <c r="V48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>206</v>
+      </c>
+      <c r="U48" t="s">
+        <v>205</v>
+      </c>
+      <c r="X48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>11.538461538461537</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G49">
+        <v>0.6</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>12</v>
       </c>
-      <c r="H49">
-        <v>-1</v>
-      </c>
       <c r="J49">
+        <v>-1</v>
+      </c>
+      <c r="L49">
         <v>4</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>37</v>
-      </c>
-      <c r="M49" t="s">
-        <v>51</v>
+      <c r="M49">
+        <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O49" t="s">
-        <v>194</v>
-      </c>
-      <c r="S49" t="s">
-        <v>197</v>
-      </c>
-      <c r="V49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>207</v>
+      </c>
+      <c r="U49" t="s">
+        <v>205</v>
+      </c>
+      <c r="X49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>15.384615384615383</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G50">
+        <v>0.6</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>15</v>
       </c>
-      <c r="H50">
-        <v>-1</v>
-      </c>
       <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
-        <v>37</v>
-      </c>
-      <c r="M50" t="s">
-        <v>51</v>
+      <c r="M50">
+        <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O50" t="s">
-        <v>181</v>
-      </c>
-      <c r="S50" t="s">
-        <v>197</v>
-      </c>
-      <c r="V50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>208</v>
+      </c>
+      <c r="U50" t="s">
+        <v>205</v>
+      </c>
+      <c r="X50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>19.23076923076923</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G51">
+        <v>0.6</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>20</v>
       </c>
-      <c r="H51">
-        <v>-1</v>
-      </c>
       <c r="J51">
+        <v>-1</v>
+      </c>
+      <c r="L51">
         <v>4</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
-        <v>37</v>
-      </c>
-      <c r="M51" t="s">
-        <v>51</v>
+      <c r="M51">
+        <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O51" t="s">
-        <v>195</v>
-      </c>
-      <c r="S51" t="s">
-        <v>197</v>
-      </c>
-      <c r="V51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>209</v>
+      </c>
+      <c r="U51" t="s">
+        <v>205</v>
+      </c>
+      <c r="X51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>24.615384615384613</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G52">
+        <v>0.6</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>24</v>
       </c>
-      <c r="H52">
-        <v>-1</v>
-      </c>
       <c r="J52">
+        <v>-1</v>
+      </c>
+      <c r="L52">
         <v>4</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>37</v>
-      </c>
-      <c r="M52" t="s">
-        <v>51</v>
+      <c r="M52">
+        <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O52" t="s">
-        <v>196</v>
-      </c>
-      <c r="S52" t="s">
-        <v>197</v>
-      </c>
-      <c r="V52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>210</v>
+      </c>
+      <c r="U52" t="s">
+        <v>205</v>
+      </c>
+      <c r="X52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20.000000000000004</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>-1.6</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>12</v>
       </c>
-      <c r="H53">
-        <v>-1</v>
-      </c>
       <c r="J53">
+        <v>-1</v>
+      </c>
+      <c r="L53">
         <v>4</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
-        <v>37</v>
-      </c>
-      <c r="M53" t="s">
-        <v>51</v>
+      <c r="M53">
+        <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O53" t="s">
-        <v>198</v>
-      </c>
-      <c r="S53" t="s">
-        <v>110</v>
-      </c>
-      <c r="V53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>194</v>
+      </c>
+      <c r="U53" t="s">
+        <v>103</v>
+      </c>
+      <c r="X53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>25.000000000000004</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>-1.6</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>15</v>
       </c>
-      <c r="H54">
-        <v>-1</v>
-      </c>
       <c r="J54">
+        <v>-1</v>
+      </c>
+      <c r="L54">
         <v>4</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" t="s">
-        <v>51</v>
+      <c r="M54">
+        <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O54" t="s">
-        <v>199</v>
-      </c>
-      <c r="S54" t="s">
-        <v>110</v>
-      </c>
-      <c r="V54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P54" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>195</v>
+      </c>
+      <c r="U54" t="s">
+        <v>103</v>
+      </c>
+      <c r="X54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
         <v>20</v>
       </c>
-      <c r="H55">
-        <v>-1</v>
-      </c>
       <c r="J55">
+        <v>-1</v>
+      </c>
+      <c r="L55">
         <v>8</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>1</v>
       </c>
-      <c r="L55" t="s">
-        <v>37</v>
-      </c>
-      <c r="M55" t="s">
-        <v>51</v>
-      </c>
       <c r="N55" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O55" t="s">
-        <v>205</v>
-      </c>
-      <c r="S55" t="s">
-        <v>210</v>
-      </c>
-      <c r="V55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P55" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>211</v>
+      </c>
+      <c r="U55" t="s">
+        <v>172</v>
+      </c>
+      <c r="X55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>12.5</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E56">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
         <v>30</v>
       </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
       <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="L56">
         <v>8</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>2</v>
       </c>
-      <c r="L56" t="s">
-        <v>37</v>
-      </c>
-      <c r="M56" t="s">
-        <v>51</v>
-      </c>
       <c r="N56" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O56" t="s">
-        <v>206</v>
-      </c>
-      <c r="S56" t="s">
-        <v>210</v>
-      </c>
-      <c r="V56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>212</v>
+      </c>
+      <c r="U56" t="s">
+        <v>172</v>
+      </c>
+      <c r="X56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E57">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
         <v>40</v>
       </c>
-      <c r="H57">
-        <v>-1</v>
-      </c>
       <c r="J57">
+        <v>-1</v>
+      </c>
+      <c r="L57">
         <v>8</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>3</v>
       </c>
-      <c r="L57" t="s">
-        <v>37</v>
-      </c>
-      <c r="M57" t="s">
-        <v>51</v>
-      </c>
       <c r="N57" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O57" t="s">
-        <v>207</v>
-      </c>
-      <c r="S57" t="s">
-        <v>210</v>
-      </c>
-      <c r="V57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P57" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>213</v>
+      </c>
+      <c r="U57" t="s">
+        <v>172</v>
+      </c>
+      <c r="X57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E58">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
         <v>50</v>
       </c>
-      <c r="H58">
-        <v>-1</v>
-      </c>
       <c r="J58">
+        <v>-1</v>
+      </c>
+      <c r="L58">
         <v>8</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>4</v>
       </c>
-      <c r="L58" t="s">
-        <v>37</v>
-      </c>
-      <c r="M58" t="s">
-        <v>51</v>
-      </c>
       <c r="N58" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O58" t="s">
-        <v>208</v>
-      </c>
-      <c r="S58" t="s">
-        <v>210</v>
-      </c>
-      <c r="V58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="P58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>214</v>
+      </c>
+      <c r="U58" t="s">
+        <v>172</v>
+      </c>
+      <c r="X58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
         <v>60</v>
       </c>
-      <c r="H59">
-        <v>-1</v>
-      </c>
       <c r="J59">
+        <v>-1</v>
+      </c>
+      <c r="L59">
         <v>8</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>5</v>
       </c>
-      <c r="L59" t="s">
-        <v>37</v>
-      </c>
-      <c r="M59" t="s">
-        <v>51</v>
-      </c>
       <c r="N59" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O59" t="s">
-        <v>209</v>
-      </c>
-      <c r="S59" t="s">
-        <v>210</v>
-      </c>
-      <c r="V59" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>215</v>
+      </c>
+      <c r="U59" t="s">
+        <v>172</v>
+      </c>
+      <c r="X59" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$Y$4:$Y$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
+      <formula1>$AA$4:$AA$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$AC$4:$AC$13</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
+      <formula1>$AE$4:$AE$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$AA$4:$AA$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
+      <formula1>$AC$4:$AC$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B863C0-8573-47A6-A30D-3A0668FE4C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BEA36C-617C-4F99-9145-A5160C7AEA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39765" yWindow="9510" windowWidth="36030" windowHeight="16560" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="214">
   <si>
     <t>名字</t>
   </si>
@@ -532,18 +532,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/Projectile/Skill/YellowLiquidFire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LCM-D Double Shoot Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,30 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,0.3,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,1,Physical;4,1,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,10 +723,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>45,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,1.2,Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,6 +812,34 @@
   </si>
   <si>
     <t>100,3,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,0,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1311,10 +1303,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
@@ -1558,7 +1550,7 @@
         <v>113</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C59" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
+        <f t="shared" ref="C5:C36" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
         <v>13.333333333333334</v>
       </c>
       <c r="D5">
@@ -1739,7 +1731,7 @@
         <v>0.5</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>-1</v>
@@ -1760,7 +1752,7 @@
         <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T7" t="s">
         <v>91</v>
@@ -1811,7 +1803,7 @@
         <v>0.5</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -1832,7 +1824,7 @@
         <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T8" t="s">
         <v>91</v>
@@ -1883,7 +1875,7 @@
         <v>0.5</v>
       </c>
       <c r="I9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1904,7 +1896,7 @@
         <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T9" t="s">
         <v>91</v>
@@ -1955,7 +1947,7 @@
         <v>0.3</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1976,7 +1968,7 @@
         <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U10" t="s">
         <v>98</v>
@@ -2018,7 +2010,7 @@
         <v>0.3</v>
       </c>
       <c r="I11">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -2039,7 +2031,7 @@
         <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U11" t="s">
         <v>98</v>
@@ -2081,7 +2073,7 @@
         <v>0.3</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -2102,7 +2094,7 @@
         <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U12" t="s">
         <v>98</v>
@@ -2144,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -2165,7 +2157,7 @@
         <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U13" t="s">
         <v>103</v>
@@ -2189,7 +2181,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2198,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2228,7 +2220,7 @@
         <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="U14" t="s">
         <v>104</v>
@@ -2285,7 +2277,7 @@
         <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="U15" t="s">
         <v>106</v>
@@ -2342,7 +2334,7 @@
         <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="T16" t="s">
         <v>109</v>
@@ -2405,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="Q17" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="T17" t="s">
         <v>109</v>
@@ -2468,7 +2460,7 @@
         <v>44</v>
       </c>
       <c r="Q18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T18" t="s">
         <v>109</v>
@@ -2492,10 +2484,10 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>10.666666666666666</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -2531,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="U19" t="s">
         <v>111</v>
@@ -2591,7 +2583,7 @@
         <v>125</v>
       </c>
       <c r="T20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U20" t="s">
         <v>103</v>
@@ -2648,10 +2640,10 @@
         <v>44</v>
       </c>
       <c r="Q21" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="T21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U21" t="s">
         <v>103</v>
@@ -2711,7 +2703,7 @@
         <v>126</v>
       </c>
       <c r="T22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U22" t="s">
         <v>103</v>
@@ -2753,7 +2745,7 @@
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2768,7 +2760,7 @@
         <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="T23" t="s">
         <v>130</v>
@@ -2816,7 +2808,7 @@
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2831,7 +2823,7 @@
         <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="T24" t="s">
         <v>130</v>
@@ -2879,7 +2871,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -2894,7 +2886,7 @@
         <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="T25" t="s">
         <v>130</v>
@@ -2918,10 +2910,10 @@
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C28" si="3">D26*(1/(2+G26))</f>
-        <v>5.625</v>
+        <v>7.5</v>
       </c>
       <c r="D26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2957,13 +2949,13 @@
         <v>44</v>
       </c>
       <c r="Q26" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="T26" t="s">
         <v>130</v>
       </c>
       <c r="U26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X26" t="s">
         <v>83</v>
@@ -2978,10 +2970,10 @@
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
-        <v>9.375</v>
+        <v>11.25</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3017,13 +3009,13 @@
         <v>44</v>
       </c>
       <c r="Q27" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="T27" t="s">
         <v>130</v>
       </c>
       <c r="U27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X27" t="s">
         <v>83</v>
@@ -3038,10 +3030,10 @@
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
-        <v>14.0625</v>
+        <v>18.75</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3077,13 +3069,13 @@
         <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="T28" t="s">
         <v>130</v>
       </c>
       <c r="U28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X28" t="s">
         <v>83</v>
@@ -3094,7 +3086,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -3157,7 +3149,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3220,7 +3212,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -3283,7 +3275,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -3326,7 +3318,7 @@
         <v>44</v>
       </c>
       <c r="Q32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T32" t="s">
         <v>130</v>
@@ -3346,7 +3338,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -3389,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="Q33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T33" t="s">
         <v>130</v>
@@ -3409,7 +3401,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -3452,13 +3444,13 @@
         <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="T34" t="s">
         <v>130</v>
       </c>
       <c r="U34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X34" t="s">
         <v>83</v>
@@ -3472,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -3494,7 +3486,7 @@
         <v>0.5</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J35">
         <v>-1</v>
@@ -3521,7 +3513,7 @@
         <v>130</v>
       </c>
       <c r="U35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X35" t="s">
         <v>83</v>
@@ -3535,7 +3527,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -3557,7 +3549,7 @@
         <v>0.5</v>
       </c>
       <c r="I36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J36">
         <v>-1</v>
@@ -3584,7 +3576,7 @@
         <v>130</v>
       </c>
       <c r="U36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X36" t="s">
         <v>83</v>
@@ -3598,11 +3590,11 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C59" si="4">D37*(1/(2+G37))</f>
-        <v>7.5</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -3614,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J37">
         <v>-1</v>
@@ -3641,10 +3633,10 @@
         <v>44</v>
       </c>
       <c r="Q37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X37" t="s">
         <v>83</v>
@@ -3655,11 +3647,11 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="D38">
         <v>20</v>
@@ -3671,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -3698,10 +3690,10 @@
         <v>44</v>
       </c>
       <c r="Q38" t="s">
+        <v>147</v>
+      </c>
+      <c r="U38" t="s">
         <v>149</v>
-      </c>
-      <c r="U38" t="s">
-        <v>151</v>
       </c>
       <c r="X38" t="s">
         <v>83</v>
@@ -3712,11 +3704,11 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
-        <v>12.5</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="D39">
         <v>25</v>
@@ -3728,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J39">
         <v>-1</v>
@@ -3755,10 +3747,10 @@
         <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X39" t="s">
         <v>83</v>
@@ -3769,11 +3761,11 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
-        <v>7.2</v>
+        <v>7.8260869565217401</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -3785,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H40">
         <v>0.5</v>
@@ -3812,10 +3804,10 @@
         <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="U40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X40" t="s">
         <v>83</v>
@@ -3826,11 +3818,11 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
-        <v>9.6000000000000014</v>
+        <v>10.434782608695652</v>
       </c>
       <c r="D41">
         <v>24</v>
@@ -3842,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H41">
         <v>0.5</v>
@@ -3869,10 +3861,10 @@
         <v>44</v>
       </c>
       <c r="Q41" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="U41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X41" t="s">
         <v>83</v>
@@ -3883,11 +3875,11 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
-        <v>14.4</v>
+        <v>15.65217391304348</v>
       </c>
       <c r="D42">
         <v>36</v>
@@ -3899,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H42">
         <v>0.5</v>
@@ -3926,10 +3918,10 @@
         <v>44</v>
       </c>
       <c r="Q42" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="U42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X42" t="s">
         <v>83</v>
@@ -3940,7 +3932,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -3983,10 +3975,10 @@
         <v>44</v>
       </c>
       <c r="Q43" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="U43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X43" t="s">
         <v>83</v>
@@ -3997,7 +3989,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -4040,10 +4032,10 @@
         <v>44</v>
       </c>
       <c r="Q44" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="U44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X44" t="s">
         <v>83</v>
@@ -4054,7 +4046,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -4097,10 +4089,10 @@
         <v>44</v>
       </c>
       <c r="Q45" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="U45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X45" t="s">
         <v>83</v>
@@ -4111,7 +4103,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -4154,10 +4146,10 @@
         <v>44</v>
       </c>
       <c r="Q46" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="U46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X46" t="s">
         <v>83</v>
@@ -4168,7 +4160,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -4211,10 +4203,10 @@
         <v>44</v>
       </c>
       <c r="Q47" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="U47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X47" t="s">
         <v>83</v>
@@ -4225,7 +4217,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4247,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J48">
         <v>-1</v>
@@ -4268,10 +4260,10 @@
         <v>44</v>
       </c>
       <c r="Q48" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="U48" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="X48" t="s">
         <v>83</v>
@@ -4282,7 +4274,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4304,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J49">
         <v>-1</v>
@@ -4325,10 +4317,10 @@
         <v>44</v>
       </c>
       <c r="Q49" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="U49" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="X49" t="s">
         <v>83</v>
@@ -4339,7 +4331,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4361,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J50">
         <v>-1</v>
@@ -4382,10 +4374,10 @@
         <v>44</v>
       </c>
       <c r="Q50" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="U50" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="X50" t="s">
         <v>83</v>
@@ -4396,7 +4388,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4418,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J51">
         <v>-1</v>
@@ -4439,10 +4431,10 @@
         <v>44</v>
       </c>
       <c r="Q51" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="U51" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="X51" t="s">
         <v>83</v>
@@ -4453,7 +4445,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4475,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J52">
         <v>-1</v>
@@ -4496,10 +4488,10 @@
         <v>44</v>
       </c>
       <c r="Q52" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="U52" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="X52" t="s">
         <v>83</v>
@@ -4553,7 +4545,7 @@
         <v>44</v>
       </c>
       <c r="Q53" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="U53" t="s">
         <v>103</v>
@@ -4610,7 +4602,7 @@
         <v>44</v>
       </c>
       <c r="Q54" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="U54" t="s">
         <v>103</v>
@@ -4624,7 +4616,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -4643,7 +4635,7 @@
         <v>2</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>20</v>
@@ -4667,10 +4659,10 @@
         <v>44</v>
       </c>
       <c r="Q55" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="U55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X55" t="s">
         <v>83</v>
@@ -4681,7 +4673,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -4700,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>30</v>
@@ -4724,10 +4716,10 @@
         <v>44</v>
       </c>
       <c r="Q56" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="U56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X56" t="s">
         <v>83</v>
@@ -4738,7 +4730,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -4757,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>40</v>
@@ -4781,10 +4773,10 @@
         <v>44</v>
       </c>
       <c r="Q57" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="U57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X57" t="s">
         <v>83</v>
@@ -4795,7 +4787,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -4814,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>50</v>
@@ -4838,10 +4830,10 @@
         <v>44</v>
       </c>
       <c r="Q58" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="U58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X58" t="s">
         <v>83</v>
@@ -4852,7 +4844,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -4871,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>60</v>
@@ -4895,10 +4887,10 @@
         <v>44</v>
       </c>
       <c r="Q59" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="U59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X59" t="s">
         <v>83</v>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BEA36C-617C-4F99-9145-A5160C7AEA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2814DF-E0E5-4B81-B51F-D6FC431A3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="214">
   <si>
     <t>名字</t>
   </si>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2345,9 +2345,6 @@
       <c r="X16" t="s">
         <v>83</v>
       </c>
-      <c r="Y16" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2814DF-E0E5-4B81-B51F-D6FC431A3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD9108-5C36-4EF0-B81B-1FB6F81F8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="254">
   <si>
     <t>名字</t>
   </si>
@@ -354,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/YellowBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,18 +374,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContinuousCastBehaviour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cockpit_Weapon,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/YellowFireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAW Mortar Napalm Bomb Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/BlueLightningball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lightning Ray Pulse Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,22 +410,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/BlueBullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Projectile/Skill/YellowFlamethrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTW-F Flamethrower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/YellowExplosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTW-L Explosion Bomb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/BlueLaser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STH Double Shoot Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/YellowRocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Explosive Rocket Lvl.2</t>
   </si>
   <si>
@@ -532,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/YellowLiquidFire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LCM-D Double Shoot Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,10 +530,6 @@
     <t>SS-G Explosion Bomb Lvl.3</t>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/RedFireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Acid Plasma Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/GreenPlasma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HFEW Energy Ring Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,10 +562,6 @@
     <t>HFEW Energy Ring Lvl.3</t>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/BlueRing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lightning Sparkler Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,10 +575,6 @@
     <t>Lightning Sparkler Lvl.4</t>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/RedSparkler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lightning Sparkler Lvl.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,10 +611,6 @@
     <t>Sniper Shoot Lvl.5</t>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/RedSphere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gadget,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/Projectile/Skill/GreenWave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8,1,Lightning;12,1,Acid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,6 +776,201 @@
   </si>
   <si>
     <t>60,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousEmitBehaviour</t>
+  </si>
+  <si>
+    <t>紧急修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>TeammatesInRange</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽魂立场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teammate</t>
+  </si>
+  <si>
+    <t>Nearest</t>
+  </si>
+  <si>
+    <t>能源回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级能源回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级紧急修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围幽魂立场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射特效预制体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emitFXPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColProjectile_BulletYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletImpactYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowFireSmallMuzzleFlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackProjectile_YellowFireMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBallMuzzleFlashYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowFireImpactV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line_BlueLaserMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserMuzzleFlashBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueLaserImpact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColProjectile_BlueLightningMissile</t>
+  </si>
+  <si>
+    <t>BlueLightningMuzzleFlash</t>
+  </si>
+  <si>
+    <t>BlueLightningImpact</t>
+  </si>
+  <si>
+    <t>BlueFireSmallMuzzleFlash</t>
+  </si>
+  <si>
+    <t>BulletImpactBlue</t>
+  </si>
+  <si>
+    <t>TrackProjectile_YellowFireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowFireImpact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticCol_YellowFlamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomProjectile_YellowRocketMissile</t>
+  </si>
+  <si>
+    <t>RocketMuzzleFlashYellow</t>
+  </si>
+  <si>
+    <t>YellowRocketImpact</t>
+  </si>
+  <si>
+    <t>TrackProjectile_LiquidYellowMissile</t>
+  </si>
+  <si>
+    <t>LiquidMuzzleFlashYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidExplosionYellow</t>
+  </si>
+  <si>
+    <t>TrackProjectile_GreenFireMissile</t>
+  </si>
+  <si>
+    <t>TrackProjectile_LiquidYellowMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenFireImpactV2</t>
+  </si>
+  <si>
+    <t>FireBallMuzzleFlashGreen</t>
+  </si>
+  <si>
+    <t>ColProjectile_GreenPlasmaMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenPlasmaImpact</t>
+  </si>
+  <si>
+    <t>PlasmaMuzzleFlashGreen</t>
+  </si>
+  <si>
+    <t>ColProjectile_BlueRingMissile</t>
+  </si>
+  <si>
+    <t>BlueRingImpact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RingMuzzleFlashBlue</t>
+  </si>
+  <si>
+    <t>ColProjectile_RedSparklerMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSparklerImpact</t>
+  </si>
+  <si>
+    <t>PlasmaMuzzleFlashRed</t>
+  </si>
+  <si>
+    <t>ColProjectile_GreenShockwaveMissile</t>
+  </si>
+  <si>
+    <t>GreenShockwaveImpact</t>
+  </si>
+  <si>
+    <t>GreenLightningMuzzleFlash</t>
+  </si>
+  <si>
+    <t>ColProjectile_RedSphereMissile</t>
+  </si>
+  <si>
+    <t>RedSphereImpact</t>
+  </si>
+  <si>
+    <t>FireBallMuzzleFlashGreen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,10 +1317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF59"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1209,27 +1341,29 @@
     <col min="18" max="18" width="13.5" customWidth="1"/>
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="37.125" customWidth="1"/>
-    <col min="21" max="21" width="34.25" customWidth="1"/>
-    <col min="22" max="23" width="14.25" customWidth="1"/>
-    <col min="24" max="24" width="28.125" customWidth="1"/>
-    <col min="25" max="25" width="22" customWidth="1"/>
-    <col min="27" max="27" width="10.375" customWidth="1"/>
-    <col min="28" max="28" width="9.125" customWidth="1"/>
-    <col min="29" max="29" width="17.125" customWidth="1"/>
-    <col min="30" max="30" width="14.25" customWidth="1"/>
-    <col min="31" max="31" width="24.625" customWidth="1"/>
-    <col min="32" max="32" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="24.5" customWidth="1"/>
+    <col min="22" max="22" width="30.25" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="14.25" customWidth="1"/>
+    <col min="25" max="25" width="28.125" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="28" max="28" width="10.375" customWidth="1"/>
+    <col min="29" max="29" width="9.125" customWidth="1"/>
+    <col min="30" max="30" width="17.125" customWidth="1"/>
+    <col min="31" max="31" width="14.25" customWidth="1"/>
+    <col min="32" max="32" width="24.625" customWidth="1"/>
+    <col min="33" max="33" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
         <v>77</v>
@@ -1274,28 +1408,31 @@
         <v>69</v>
       </c>
       <c r="U1" t="s">
+        <v>210</v>
+      </c>
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1303,16 +1440,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -1357,28 +1494,31 @@
         <v>68</v>
       </c>
       <c r="U2" t="s">
+        <v>211</v>
+      </c>
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>28</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1443,30 +1583,33 @@
         <v>6</v>
       </c>
       <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <f>(INT(E4/F4)+1)*D4*(1/(2+G4))</f>
@@ -1509,45 +1652,51 @@
         <v>44</v>
       </c>
       <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" t="s">
         <v>89</v>
       </c>
-      <c r="T4" t="s">
-        <v>91</v>
-      </c>
       <c r="U4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V4" t="s">
+        <v>212</v>
+      </c>
+      <c r="W4" t="s">
+        <v>213</v>
       </c>
       <c r="Y4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB4" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>42</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>47</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>42</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C36" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
@@ -1590,45 +1739,51 @@
         <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V5" t="s">
+        <v>212</v>
+      </c>
+      <c r="W5" t="s">
+        <v>213</v>
       </c>
       <c r="Y5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB5" t="s">
         <v>36</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>40</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>48</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1671,45 +1826,51 @@
         <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U6" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V6" t="s">
+        <v>212</v>
+      </c>
+      <c r="W6" t="s">
+        <v>213</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB6" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>41</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>45</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>53</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <f>D7*(1/(2+G7))</f>
@@ -1752,36 +1913,42 @@
         <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC7" t="s">
+        <v>216</v>
+      </c>
+      <c r="V7" t="s">
+        <v>215</v>
+      </c>
+      <c r="W7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>50</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>54</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C15" si="1">D8*(1/(2+G8))</f>
@@ -1824,36 +1991,42 @@
         <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="T8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC8" t="s">
+        <v>216</v>
+      </c>
+      <c r="V8" t="s">
+        <v>215</v>
+      </c>
+      <c r="W8" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD8" t="s">
         <v>46</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>50</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>54</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -1896,36 +2069,42 @@
         <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="T9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC9" t="s">
+        <v>216</v>
+      </c>
+      <c r="V9" t="s">
+        <v>215</v>
+      </c>
+      <c r="W9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD9" t="s">
         <v>46</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>50</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>54</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -1968,27 +2147,33 @@
         <v>44</v>
       </c>
       <c r="Q10" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="U10" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE10" t="s">
+        <v>222</v>
+      </c>
+      <c r="V10" t="s">
+        <v>221</v>
+      </c>
+      <c r="W10" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF10" t="s">
         <v>55</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -2031,27 +2216,33 @@
         <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="U11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE11" t="s">
+        <v>222</v>
+      </c>
+      <c r="V11" t="s">
+        <v>221</v>
+      </c>
+      <c r="W11" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF11" t="s">
         <v>56</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -2094,27 +2285,33 @@
         <v>44</v>
       </c>
       <c r="Q12" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="U12" t="s">
-        <v>98</v>
-      </c>
-      <c r="X12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE12" t="s">
+        <v>222</v>
+      </c>
+      <c r="V12" t="s">
+        <v>221</v>
+      </c>
+      <c r="W12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF12" t="s">
         <v>57</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -2157,27 +2354,33 @@
         <v>44</v>
       </c>
       <c r="Q13" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE13" t="s">
+        <v>224</v>
+      </c>
+      <c r="V13" t="s">
+        <v>212</v>
+      </c>
+      <c r="W13" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF13" t="s">
         <v>58</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2220,21 +2423,21 @@
         <v>44</v>
       </c>
       <c r="Q14" t="s">
-        <v>207</v>
-      </c>
-      <c r="U14" t="s">
-        <v>104</v>
-      </c>
-      <c r="X14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="V14" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -2277,21 +2480,27 @@
         <v>44</v>
       </c>
       <c r="Q15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="U15" t="s">
-        <v>106</v>
-      </c>
-      <c r="X15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="V15" t="s">
+        <v>226</v>
+      </c>
+      <c r="W15" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2334,24 +2543,30 @@
         <v>44</v>
       </c>
       <c r="Q16" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
-      </c>
-      <c r="X16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="V16" t="s">
+        <v>212</v>
+      </c>
+      <c r="W16" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2394,27 +2609,33 @@
         <v>44</v>
       </c>
       <c r="Q17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="T17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U17" t="s">
-        <v>84</v>
-      </c>
-      <c r="X17" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V17" t="s">
+        <v>212</v>
+      </c>
+      <c r="W17" t="s">
+        <v>213</v>
       </c>
       <c r="Y17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2457,27 +2678,33 @@
         <v>44</v>
       </c>
       <c r="Q18" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="T18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X18" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V18" t="s">
+        <v>212</v>
+      </c>
+      <c r="W18" t="s">
+        <v>213</v>
       </c>
       <c r="Y18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2520,21 +2747,27 @@
         <v>44</v>
       </c>
       <c r="Q19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="U19" t="s">
-        <v>111</v>
-      </c>
-      <c r="X19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="V19" t="s">
+        <v>218</v>
+      </c>
+      <c r="W19" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C22" si="2">D20*(1/(2+G20))</f>
@@ -2577,24 +2810,30 @@
         <v>44</v>
       </c>
       <c r="Q20" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="T20" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="U20" t="s">
-        <v>103</v>
-      </c>
-      <c r="X20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="V20" t="s">
+        <v>212</v>
+      </c>
+      <c r="W20" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -2637,24 +2876,30 @@
         <v>44</v>
       </c>
       <c r="Q21" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="T21" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="U21" t="s">
-        <v>103</v>
-      </c>
-      <c r="X21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="V21" t="s">
+        <v>212</v>
+      </c>
+      <c r="W21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -2697,24 +2942,30 @@
         <v>44</v>
       </c>
       <c r="Q22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="T22" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="U22" t="s">
-        <v>103</v>
-      </c>
-      <c r="X22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="V22" t="s">
+        <v>212</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2757,27 +3008,33 @@
         <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="T23" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U23" t="s">
-        <v>122</v>
-      </c>
-      <c r="X23" t="s">
-        <v>83</v>
+        <v>230</v>
+      </c>
+      <c r="V23" t="s">
+        <v>229</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -2820,27 +3077,33 @@
         <v>44</v>
       </c>
       <c r="Q24" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="T24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U24" t="s">
-        <v>122</v>
-      </c>
-      <c r="X24" t="s">
-        <v>83</v>
+        <v>230</v>
+      </c>
+      <c r="V24" t="s">
+        <v>229</v>
+      </c>
+      <c r="W24" t="s">
+        <v>231</v>
       </c>
       <c r="Y24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -2883,27 +3146,33 @@
         <v>44</v>
       </c>
       <c r="Q25" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="T25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U25" t="s">
-        <v>122</v>
-      </c>
-      <c r="X25" t="s">
-        <v>83</v>
+        <v>230</v>
+      </c>
+      <c r="V25" t="s">
+        <v>229</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
       </c>
       <c r="Y25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C28" si="3">D26*(1/(2+G26))</f>
@@ -2946,24 +3215,30 @@
         <v>44</v>
       </c>
       <c r="Q26" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="T26" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U26" t="s">
-        <v>131</v>
-      </c>
-      <c r="X26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="V26" t="s">
+        <v>232</v>
+      </c>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -3006,24 +3281,30 @@
         <v>44</v>
       </c>
       <c r="Q27" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="T27" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U27" t="s">
-        <v>131</v>
-      </c>
-      <c r="X27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="V27" t="s">
+        <v>232</v>
+      </c>
+      <c r="W27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -3066,24 +3347,30 @@
         <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="T28" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U28" t="s">
-        <v>131</v>
-      </c>
-      <c r="X28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="V28" t="s">
+        <v>236</v>
+      </c>
+      <c r="W28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -3126,27 +3413,33 @@
         <v>44</v>
       </c>
       <c r="Q29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T29" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U29" t="s">
-        <v>84</v>
-      </c>
-      <c r="X29" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V29" t="s">
+        <v>212</v>
+      </c>
+      <c r="W29" t="s">
+        <v>213</v>
       </c>
       <c r="Y29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3189,27 +3482,33 @@
         <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U30" t="s">
-        <v>84</v>
-      </c>
-      <c r="X30" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V30" t="s">
+        <v>212</v>
+      </c>
+      <c r="W30" t="s">
+        <v>213</v>
       </c>
       <c r="Y30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -3252,27 +3551,33 @@
         <v>44</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T31" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U31" t="s">
-        <v>84</v>
-      </c>
-      <c r="X31" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V31" t="s">
+        <v>212</v>
+      </c>
+      <c r="W31" t="s">
+        <v>213</v>
       </c>
       <c r="Y31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -3315,27 +3620,33 @@
         <v>44</v>
       </c>
       <c r="Q32" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="T32" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U32" t="s">
-        <v>84</v>
-      </c>
-      <c r="X32" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V32" t="s">
+        <v>212</v>
+      </c>
+      <c r="W32" t="s">
+        <v>213</v>
       </c>
       <c r="Y32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -3378,27 +3689,33 @@
         <v>44</v>
       </c>
       <c r="Q33" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="T33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U33" t="s">
-        <v>84</v>
-      </c>
-      <c r="X33" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="V33" t="s">
+        <v>212</v>
+      </c>
+      <c r="W33" t="s">
+        <v>213</v>
       </c>
       <c r="Y33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -3441,27 +3758,33 @@
         <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="T34" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U34" t="s">
-        <v>142</v>
-      </c>
-      <c r="X34" t="s">
-        <v>83</v>
+        <v>253</v>
+      </c>
+      <c r="V34" t="s">
+        <v>235</v>
+      </c>
+      <c r="W34" t="s">
+        <v>237</v>
       </c>
       <c r="Y34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -3504,27 +3827,33 @@
         <v>44</v>
       </c>
       <c r="Q35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="T35" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U35" t="s">
-        <v>142</v>
-      </c>
-      <c r="X35" t="s">
-        <v>83</v>
+        <v>238</v>
+      </c>
+      <c r="V35" t="s">
+        <v>235</v>
+      </c>
+      <c r="W35" t="s">
+        <v>237</v>
       </c>
       <c r="Y35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -3567,27 +3896,33 @@
         <v>44</v>
       </c>
       <c r="Q36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T36" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="U36" t="s">
-        <v>142</v>
-      </c>
-      <c r="X36" t="s">
-        <v>83</v>
+        <v>238</v>
+      </c>
+      <c r="V36" t="s">
+        <v>235</v>
+      </c>
+      <c r="W36" t="s">
+        <v>237</v>
       </c>
       <c r="Y36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C59" si="4">D37*(1/(2+G37))</f>
@@ -3630,21 +3965,27 @@
         <v>44</v>
       </c>
       <c r="Q37" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="U37" t="s">
-        <v>149</v>
-      </c>
-      <c r="X37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="V37" t="s">
+        <v>239</v>
+      </c>
+      <c r="W37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -3687,21 +4028,27 @@
         <v>44</v>
       </c>
       <c r="Q38" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="U38" t="s">
-        <v>149</v>
-      </c>
-      <c r="X38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="V38" t="s">
+        <v>239</v>
+      </c>
+      <c r="W38" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -3744,21 +4091,27 @@
         <v>44</v>
       </c>
       <c r="Q39" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="U39" t="s">
-        <v>149</v>
-      </c>
-      <c r="X39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="V39" t="s">
+        <v>239</v>
+      </c>
+      <c r="W39" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -3801,21 +4154,27 @@
         <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="U40" t="s">
-        <v>153</v>
-      </c>
-      <c r="X40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="V40" t="s">
+        <v>242</v>
+      </c>
+      <c r="W40" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -3858,21 +4217,27 @@
         <v>44</v>
       </c>
       <c r="Q41" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="U41" t="s">
-        <v>153</v>
-      </c>
-      <c r="X41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="V41" t="s">
+        <v>242</v>
+      </c>
+      <c r="W41" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -3915,21 +4280,27 @@
         <v>44</v>
       </c>
       <c r="Q42" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="U42" t="s">
-        <v>153</v>
-      </c>
-      <c r="X42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="V42" t="s">
+        <v>242</v>
+      </c>
+      <c r="W42" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -3972,21 +4343,27 @@
         <v>44</v>
       </c>
       <c r="Q43" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="U43" t="s">
-        <v>158</v>
-      </c>
-      <c r="X43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V43" t="s">
+        <v>245</v>
+      </c>
+      <c r="W43" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -4029,21 +4406,27 @@
         <v>44</v>
       </c>
       <c r="Q44" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="U44" t="s">
-        <v>158</v>
-      </c>
-      <c r="X44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V44" t="s">
+        <v>245</v>
+      </c>
+      <c r="W44" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -4086,21 +4469,27 @@
         <v>44</v>
       </c>
       <c r="Q45" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="U45" t="s">
-        <v>158</v>
-      </c>
-      <c r="X45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V45" t="s">
+        <v>245</v>
+      </c>
+      <c r="W45" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -4143,21 +4532,27 @@
         <v>44</v>
       </c>
       <c r="Q46" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="U46" t="s">
-        <v>158</v>
-      </c>
-      <c r="X46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V46" t="s">
+        <v>245</v>
+      </c>
+      <c r="W46" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -4200,21 +4595,27 @@
         <v>44</v>
       </c>
       <c r="Q47" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="U47" t="s">
-        <v>158</v>
-      </c>
-      <c r="X47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V47" t="s">
+        <v>245</v>
+      </c>
+      <c r="W47" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4257,21 +4658,27 @@
         <v>44</v>
       </c>
       <c r="Q48" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="U48" t="s">
-        <v>196</v>
-      </c>
-      <c r="X48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="V48" t="s">
+        <v>248</v>
+      </c>
+      <c r="W48" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4314,21 +4721,27 @@
         <v>44</v>
       </c>
       <c r="Q49" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="U49" t="s">
-        <v>196</v>
-      </c>
-      <c r="X49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="V49" t="s">
+        <v>248</v>
+      </c>
+      <c r="W49" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4371,21 +4784,27 @@
         <v>44</v>
       </c>
       <c r="Q50" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="U50" t="s">
-        <v>196</v>
-      </c>
-      <c r="X50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="V50" t="s">
+        <v>248</v>
+      </c>
+      <c r="W50" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4428,21 +4847,27 @@
         <v>44</v>
       </c>
       <c r="Q51" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="U51" t="s">
-        <v>196</v>
-      </c>
-      <c r="X51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="V51" t="s">
+        <v>248</v>
+      </c>
+      <c r="W51" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4485,21 +4910,27 @@
         <v>44</v>
       </c>
       <c r="Q52" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="U52" t="s">
-        <v>196</v>
-      </c>
-      <c r="X52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="V52" t="s">
+        <v>248</v>
+      </c>
+      <c r="W52" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -4542,21 +4973,27 @@
         <v>44</v>
       </c>
       <c r="Q53" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="U53" t="s">
-        <v>103</v>
-      </c>
-      <c r="X53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="V53" t="s">
+        <v>212</v>
+      </c>
+      <c r="W53" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -4599,21 +5036,27 @@
         <v>44</v>
       </c>
       <c r="Q54" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="U54" t="s">
-        <v>103</v>
-      </c>
-      <c r="X54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="V54" t="s">
+        <v>212</v>
+      </c>
+      <c r="W54" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -4656,21 +5099,27 @@
         <v>44</v>
       </c>
       <c r="Q55" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="U55" t="s">
-        <v>170</v>
-      </c>
-      <c r="X55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V55" t="s">
+        <v>251</v>
+      </c>
+      <c r="W55" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -4713,21 +5162,27 @@
         <v>44</v>
       </c>
       <c r="Q56" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="U56" t="s">
-        <v>170</v>
-      </c>
-      <c r="X56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V56" t="s">
+        <v>251</v>
+      </c>
+      <c r="W56" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -4770,21 +5225,27 @@
         <v>44</v>
       </c>
       <c r="Q57" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="U57" t="s">
-        <v>170</v>
-      </c>
-      <c r="X57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V57" t="s">
+        <v>251</v>
+      </c>
+      <c r="W57" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -4827,21 +5288,27 @@
         <v>44</v>
       </c>
       <c r="Q58" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="U58" t="s">
-        <v>170</v>
-      </c>
-      <c r="X58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="V58" t="s">
+        <v>251</v>
+      </c>
+      <c r="W58" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -4884,31 +5351,366 @@
         <v>44</v>
       </c>
       <c r="Q59" t="s">
+        <v>190</v>
+      </c>
+      <c r="U59" t="s">
+        <v>247</v>
+      </c>
+      <c r="V59" t="s">
+        <v>251</v>
+      </c>
+      <c r="W59" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.4</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>30</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>200</v>
+      </c>
+      <c r="O62" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" t="s">
+        <v>201</v>
+      </c>
+      <c r="R62">
+        <v>2001</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>200</v>
+      </c>
+      <c r="O63" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" t="s">
+        <v>201</v>
+      </c>
+      <c r="R63">
+        <v>2002</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0.8</v>
+      </c>
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+      <c r="I64">
+        <v>30</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>204</v>
+      </c>
+      <c r="O64" t="s">
+        <v>205</v>
+      </c>
+      <c r="P64" t="s">
+        <v>201</v>
+      </c>
+      <c r="R64">
+        <v>2003</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>204</v>
+      </c>
+      <c r="B65" t="s">
         <v>206</v>
       </c>
-      <c r="U59" t="s">
-        <v>170</v>
-      </c>
-      <c r="X59" t="s">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.2</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
+        <v>200</v>
+      </c>
+      <c r="O65" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" t="s">
+        <v>201</v>
+      </c>
+      <c r="R65">
+        <v>2004</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>205</v>
+      </c>
+      <c r="B66" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.4</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>200</v>
+      </c>
+      <c r="O66" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" t="s">
+        <v>201</v>
+      </c>
+      <c r="R66">
+        <v>2005</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.6</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>50</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>200</v>
+      </c>
+      <c r="O67" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" t="s">
+        <v>201</v>
+      </c>
+      <c r="R67">
+        <v>2006</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.3</v>
+      </c>
+      <c r="H68">
+        <v>0.2</v>
+      </c>
+      <c r="I68">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>200</v>
+      </c>
+      <c r="O68" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" t="s">
+        <v>201</v>
+      </c>
+      <c r="R68">
+        <v>2007</v>
+      </c>
+      <c r="Y68" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$AA$4:$AA$6</formula1>
+      <formula1>$AB$4:$AB$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$AE$4:$AE$13</formula1>
+      <formula1>$AF$4:$AF$13</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$AC$4:$AC$7</formula1>
+      <formula1>$AD$4:$AD$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD9108-5C36-4EF0-B81B-1FB6F81F8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF09FF-E475-45CB-9F87-86BD0F3F359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
+    <sheet name="EffectSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="257">
   <si>
     <t>名字</t>
   </si>
@@ -141,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillBehaviourScriptName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义技能行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillTargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,9 +773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContinuousEmitBehaviour</t>
-  </si>
-  <si>
     <t>紧急修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,6 +962,29 @@
   </si>
   <si>
     <t>FireBallMuzzleFlashGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义技能修饰器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillDecorators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousEmitDecorator</t>
+  </si>
+  <si>
+    <t>ContinuousEmitDecorator,RandomTargetDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousEmitDecorator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,9 +1333,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,22 +1374,22 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -1396,19 +1410,19 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
@@ -1423,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="Z1" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -1440,28 +1454,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -1482,19 +1496,19 @@
         <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
         <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="V2" t="s">
         <v>15</v>
@@ -1509,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1562,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s">
         <v>21</v>
       </c>
       <c r="S3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U3" t="s">
         <v>6</v>
@@ -1589,18 +1603,18 @@
         <v>5</v>
       </c>
       <c r="Z3" t="s">
-        <v>6</v>
+        <v>253</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="2"/>
     </row>
@@ -1609,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <f>(INT(E4/F4)+1)*D4*(1/(2+G4))</f>
@@ -1643,52 +1657,52 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>211</v>
+      </c>
+      <c r="V4" t="s">
+        <v>209</v>
+      </c>
+      <c r="W4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" t="s">
         <v>37</v>
       </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>88</v>
-      </c>
-      <c r="T4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U4" t="s">
-        <v>214</v>
-      </c>
-      <c r="V4" t="s">
-        <v>212</v>
-      </c>
-      <c r="W4" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>39</v>
-      </c>
       <c r="AD4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1696,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C36" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
@@ -1730,52 +1744,52 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="AB5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1783,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1817,52 +1831,52 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" t="s">
+        <v>211</v>
+      </c>
+      <c r="V6" t="s">
+        <v>209</v>
+      </c>
+      <c r="W6" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" t="s">
         <v>51</v>
       </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U6" t="s">
-        <v>214</v>
-      </c>
-      <c r="V6" t="s">
-        <v>212</v>
-      </c>
-      <c r="W6" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>53</v>
-      </c>
       <c r="AG6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -1870,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <f>D7*(1/(2+G7))</f>
@@ -1904,43 +1918,43 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>157</v>
+      </c>
+      <c r="T7" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" t="s">
+        <v>212</v>
+      </c>
+      <c r="W7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" t="s">
-        <v>159</v>
-      </c>
-      <c r="T7" t="s">
-        <v>89</v>
-      </c>
-      <c r="U7" t="s">
-        <v>216</v>
-      </c>
-      <c r="V7" t="s">
-        <v>215</v>
-      </c>
-      <c r="W7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>46</v>
-      </c>
       <c r="AE7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -1948,7 +1962,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C15" si="1">D8*(1/(2+G8))</f>
@@ -1982,43 +1996,43 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>161</v>
+      </c>
+      <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" t="s">
+        <v>212</v>
+      </c>
+      <c r="W8" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" t="s">
-        <v>163</v>
-      </c>
-      <c r="T8" t="s">
-        <v>89</v>
-      </c>
-      <c r="U8" t="s">
-        <v>216</v>
-      </c>
-      <c r="V8" t="s">
-        <v>215</v>
-      </c>
-      <c r="W8" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>46</v>
-      </c>
       <c r="AE8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -2026,7 +2040,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -2060,43 +2074,43 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" t="s">
+        <v>212</v>
+      </c>
+      <c r="W9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" t="s">
-        <v>89</v>
-      </c>
-      <c r="U9" t="s">
-        <v>216</v>
-      </c>
-      <c r="V9" t="s">
-        <v>215</v>
-      </c>
-      <c r="W9" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>46</v>
-      </c>
       <c r="AE9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -2104,7 +2118,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -2138,34 +2152,34 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="W10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -2173,7 +2187,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -2207,34 +2221,34 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="W11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -2242,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -2276,34 +2290,34 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="V12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="W12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -2311,7 +2325,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -2345,34 +2359,34 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="U13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AG13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
@@ -2380,7 +2394,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2414,22 +2428,22 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Y14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -2437,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -2471,28 +2485,28 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="W15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -2500,7 +2514,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2534,31 +2548,31 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -2566,7 +2580,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2600,34 +2614,34 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -2635,7 +2649,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2669,34 +2683,34 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -2704,7 +2718,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2738,28 +2752,28 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="V19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="W19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -2767,7 +2781,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C22" si="2">D20*(1/(2+G20))</f>
@@ -2801,31 +2815,31 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -2833,7 +2847,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -2867,31 +2881,31 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="T21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -2899,7 +2913,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -2933,31 +2947,31 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="U22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2965,7 +2979,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -2999,34 +3013,34 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="V23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -3034,7 +3048,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -3068,34 +3082,34 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="V24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -3103,7 +3117,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -3137,34 +3151,34 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="V25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Y25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -3172,7 +3186,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C28" si="3">D26*(1/(2+G26))</f>
@@ -3206,31 +3220,31 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="V26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="W26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -3238,7 +3252,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -3272,31 +3286,31 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="V27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="W27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -3304,7 +3318,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -3338,31 +3352,31 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U28" t="s">
+        <v>230</v>
+      </c>
+      <c r="V28" t="s">
         <v>233</v>
       </c>
-      <c r="V28" t="s">
-        <v>236</v>
-      </c>
       <c r="W28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Y28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -3370,7 +3384,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -3404,34 +3418,34 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -3439,7 +3453,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3473,34 +3487,34 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -3508,7 +3522,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -3542,34 +3556,34 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -3577,7 +3591,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -3611,34 +3625,34 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -3646,7 +3660,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -3680,34 +3694,34 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="T33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Y33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -3715,7 +3729,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -3749,34 +3763,34 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U34" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="V34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="W34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -3784,7 +3798,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -3818,34 +3832,34 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="W35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
@@ -3853,7 +3867,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -3887,34 +3901,34 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="V36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="W36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Y36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -3922,7 +3936,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C59" si="4">D37*(1/(2+G37))</f>
@@ -3956,28 +3970,28 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="W37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Y37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
@@ -3985,7 +3999,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -4019,28 +4033,28 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="W38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Y38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
@@ -4048,7 +4062,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -4082,28 +4096,28 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="W39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Y39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
@@ -4111,7 +4125,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -4145,28 +4159,28 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="W40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
@@ -4174,7 +4188,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -4208,28 +4222,28 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="W41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
@@ -4237,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -4271,28 +4285,28 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="W42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Y42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
@@ -4300,7 +4314,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -4334,28 +4348,28 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V43" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
@@ -4363,7 +4377,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -4397,28 +4411,28 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
@@ -4426,7 +4440,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -4460,28 +4474,28 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U45" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -4489,7 +4503,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -4523,28 +4537,28 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
@@ -4552,7 +4566,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -4586,28 +4600,28 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V47" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="W47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
@@ -4615,7 +4629,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4649,28 +4663,28 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U48" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V48" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W48" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -4678,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4712,28 +4726,28 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V49" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W49" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
@@ -4741,7 +4755,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4775,28 +4789,28 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V50" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W50" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -4804,7 +4818,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4838,28 +4852,28 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V51" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W51" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
@@ -4867,7 +4881,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4901,28 +4915,28 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U52" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V52" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W52" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
@@ -4930,7 +4944,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -4964,28 +4978,28 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U53" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W53" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -4993,7 +5007,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -5027,28 +5041,28 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="W54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
@@ -5056,7 +5070,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -5087,31 +5101,31 @@
         <v>8</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V55" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
@@ -5119,7 +5133,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -5150,31 +5164,31 @@
         <v>8</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V56" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W56" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
@@ -5182,7 +5196,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -5213,31 +5227,31 @@
         <v>8</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U57" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W57" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -5245,7 +5259,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -5276,31 +5290,31 @@
         <v>8</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U58" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V58" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
@@ -5308,7 +5322,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -5339,31 +5353,31 @@
         <v>8</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U59" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W59" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
@@ -5371,7 +5385,7 @@
         <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5398,19 +5412,19 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R62">
         <v>2001</v>
       </c>
       <c r="Y62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -5418,7 +5432,7 @@
         <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5445,19 +5459,19 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R63">
         <v>2002</v>
       </c>
       <c r="Y63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
@@ -5465,7 +5479,7 @@
         <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5492,19 +5506,19 @@
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O64" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R64">
         <v>2003</v>
       </c>
       <c r="Y64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
@@ -5512,7 +5526,7 @@
         <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5539,19 +5553,19 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R65">
         <v>2004</v>
       </c>
       <c r="Y65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
@@ -5559,7 +5573,7 @@
         <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5586,19 +5600,19 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R66">
         <v>2005</v>
       </c>
       <c r="Y66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
@@ -5606,7 +5620,7 @@
         <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5633,19 +5647,19 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R67">
         <v>2006</v>
       </c>
       <c r="Y67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -5653,7 +5667,7 @@
         <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5680,19 +5694,19 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="R68">
         <v>2007</v>
       </c>
       <c r="Y68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5716,4 +5730,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C502AE29-D253-415D-8A2D-FF13FF4CDB73}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228E65DD-8B46-4A55-9FE9-782D81DA489A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF09FF-E475-45CB-9F87-86BD0F3F359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F887B167-C23D-4F7A-A3D7-0940987BF004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="268">
   <si>
     <t>名字</t>
   </si>
@@ -376,615 +376,658 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>8,1.2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.3</t>
+  </si>
+  <si>
+    <t>GTW-P Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-F Flamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-L Explosion Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget,CastFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shocker Lightning Laser Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.2</t>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.3</t>
+  </si>
+  <si>
+    <t>4,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.2</t>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.3</t>
+  </si>
+  <si>
+    <t>Weapon,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.4</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.5</t>
+  </si>
+  <si>
+    <t>15,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.2</t>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.3</t>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.2</t>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.3</t>
+  </si>
+  <si>
+    <t>15,1,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.5,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.2</t>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.3</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.3</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.4</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.3</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.4</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.5</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.4</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.5</t>
+  </si>
+  <si>
+    <t>Gadget,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0,Physical;12,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,1.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,Physical;16,1.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,0,Physical;20,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1,Physical;4,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1.5,Physical;4,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2,Physical;4,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1.2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Physical;10,1,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.5,Physical;14,1.5,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,2,Physical;24,2,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1,Lightning;2,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.2,Lightning;5,1.8,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.5,Lightning;8,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Lightning;18,2.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1.8,Lightning;11,2.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Lightning;12,1,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.2,Lightning;20,1.2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.5,Lightning;25,1.5,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.8,Lightning;30,1.8,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Lightning;34,2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,2.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,3,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>TeammatesInRange</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽魂立场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teammate</t>
+  </si>
+  <si>
+    <t>Nearest</t>
+  </si>
+  <si>
+    <t>能源回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级能源回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级紧急修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围幽魂立场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射特效预制体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emitFXPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColProjectile_BulletYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletImpactYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowFireSmallMuzzleFlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackProjectile_YellowFireMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBallMuzzleFlashYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowFireImpactV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line_BlueLaserMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserMuzzleFlashBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueLaserImpact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColProjectile_BlueLightningMissile</t>
+  </si>
+  <si>
+    <t>BlueLightningMuzzleFlash</t>
+  </si>
+  <si>
+    <t>BlueLightningImpact</t>
+  </si>
+  <si>
+    <t>BlueFireSmallMuzzleFlash</t>
+  </si>
+  <si>
+    <t>BulletImpactBlue</t>
+  </si>
+  <si>
+    <t>TrackProjectile_YellowFireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YellowFireImpact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticCol_YellowFlamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomProjectile_YellowRocketMissile</t>
+  </si>
+  <si>
+    <t>RocketMuzzleFlashYellow</t>
+  </si>
+  <si>
+    <t>YellowRocketImpact</t>
+  </si>
+  <si>
+    <t>TrackProjectile_LiquidYellowMissile</t>
+  </si>
+  <si>
+    <t>LiquidMuzzleFlashYellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidExplosionYellow</t>
+  </si>
+  <si>
+    <t>TrackProjectile_GreenFireMissile</t>
+  </si>
+  <si>
+    <t>TrackProjectile_LiquidYellowMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenFireImpactV2</t>
+  </si>
+  <si>
+    <t>FireBallMuzzleFlashGreen</t>
+  </si>
+  <si>
+    <t>ColProjectile_GreenPlasmaMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenPlasmaImpact</t>
+  </si>
+  <si>
+    <t>PlasmaMuzzleFlashGreen</t>
+  </si>
+  <si>
+    <t>ColProjectile_BlueRingMissile</t>
+  </si>
+  <si>
+    <t>BlueRingImpact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RingMuzzleFlashBlue</t>
+  </si>
+  <si>
+    <t>ColProjectile_RedSparklerMissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedSparklerImpact</t>
+  </si>
+  <si>
+    <t>PlasmaMuzzleFlashRed</t>
+  </si>
+  <si>
+    <t>ColProjectile_GreenShockwaveMissile</t>
+  </si>
+  <si>
+    <t>GreenShockwaveImpact</t>
+  </si>
+  <si>
+    <t>GreenLightningMuzzleFlash</t>
+  </si>
+  <si>
+    <t>ColProjectile_RedSphereMissile</t>
+  </si>
+  <si>
+    <t>RedSphereImpact</t>
+  </si>
+  <si>
+    <t>FireBallMuzzleFlashGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义技能修饰器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillDecorators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousEmitDecorator</t>
+  </si>
+  <si>
+    <t>{string decorator, string values}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/SkillIcon/Icon_Magic0</t>
+  </si>
+  <si>
+    <t>MAW Mortar Napalm Bomb Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAW Mortar Napalm Bomb Lvl.2</t>
-  </si>
-  <si>
-    <t>MAW Mortar Napalm Bomb Lvl.3</t>
-  </si>
-  <si>
-    <t>8,1.2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Ray Pulse Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Ray Pulse Lvl.2</t>
-  </si>
-  <si>
-    <t>Lightning Ray Pulse Lvl.3</t>
-  </si>
-  <si>
-    <t>GTW-P Shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTW-F Flamethrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTW-L Explosion Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget,CastFire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shocker Lightning Laser Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH Double Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH Double Shoot Lvl.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH Double Shoot Lvl.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minigun Continuous Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minigun Continuous Shoot Lvl.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minigun Continuous Shoot Lvl.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rifle Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rifle Shoot Lvl.2</t>
-  </si>
-  <si>
-    <t>Rifle Shoot Lvl.3</t>
-  </si>
-  <si>
-    <t>Explosive Rocket Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explosive Rocket Lvl.2</t>
-  </si>
-  <si>
-    <t>Explosive Rocket Lvl.3</t>
-  </si>
-  <si>
-    <t>4,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannon Napalm Bomb Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannon Napalm Bomb Lvl.2</t>
-  </si>
-  <si>
-    <t>Cannon Napalm Bomb Lvl.3</t>
-  </si>
-  <si>
-    <t>Weapon,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.2</t>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.3</t>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.4</t>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.5</t>
-  </si>
-  <si>
-    <t>15,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,1.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-G Explosion Bomb Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-G Explosion Bomb Lvl.2</t>
-  </si>
-  <si>
-    <t>SS-G Explosion Bomb Lvl.3</t>
-  </si>
-  <si>
-    <t>Acid Plasma Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Lvl.2</t>
-  </si>
-  <si>
-    <t>Acid Plasma Lvl.3</t>
-  </si>
-  <si>
-    <t>15,1,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1.5,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Energy Ring Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Energy Ring Lvl.2</t>
-  </si>
-  <si>
-    <t>HFEW Energy Ring Lvl.3</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.2</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.3</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.4</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.2</t>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.3</t>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.4</t>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.5</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.2</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.3</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.4</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.5</t>
-  </si>
-  <si>
-    <t>Gadget,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,0,Physical;12,1,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,1,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,1.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,0,Physical;16,1.2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,0,Physical;20,1.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1,Physical;4,1,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1.5,Physical;4,1.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,2,Physical;4,2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1.2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1,Physical;10,1,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1.5,Physical;14,1.5,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,2,Physical;24,2,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,1,Lightning;2,1.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,1.2,Lightning;5,1.8,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1.5,Lightning;8,2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2,Lightning;18,2.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,1.8,Lightning;11,2.2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1,Lightning;12,1,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1.2,Lightning;20,1.2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,1.5,Lightning;25,1.5,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1.8,Lightning;30,1.8,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2,Lightning;34,2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,2.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,3,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.8,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>TeammatesInRange</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽魂立场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teammate</t>
-  </si>
-  <si>
-    <t>Nearest</t>
-  </si>
-  <si>
-    <t>能源回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级能源回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级紧急修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围幽魂立场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射特效预制体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emitFXPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColProjectile_BulletYellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletImpactYellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowFireSmallMuzzleFlash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrackProjectile_YellowFireMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBallMuzzleFlashYellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowFireImpactV2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line_BlueLaserMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserMuzzleFlashBlue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlueLaserImpact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColProjectile_BlueLightningMissile</t>
-  </si>
-  <si>
-    <t>BlueLightningMuzzleFlash</t>
-  </si>
-  <si>
-    <t>BlueLightningImpact</t>
-  </si>
-  <si>
-    <t>BlueFireSmallMuzzleFlash</t>
-  </si>
-  <si>
-    <t>BulletImpactBlue</t>
-  </si>
-  <si>
-    <t>TrackProjectile_YellowFireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YellowFireImpact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaticCol_YellowFlamethrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomProjectile_YellowRocketMissile</t>
-  </si>
-  <si>
-    <t>RocketMuzzleFlashYellow</t>
-  </si>
-  <si>
-    <t>YellowRocketImpact</t>
-  </si>
-  <si>
-    <t>TrackProjectile_LiquidYellowMissile</t>
-  </si>
-  <si>
-    <t>LiquidMuzzleFlashYellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiquidExplosionYellow</t>
-  </si>
-  <si>
-    <t>TrackProjectile_GreenFireMissile</t>
-  </si>
-  <si>
-    <t>TrackProjectile_LiquidYellowMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenFireImpactV2</t>
-  </si>
-  <si>
-    <t>FireBallMuzzleFlashGreen</t>
-  </si>
-  <si>
-    <t>ColProjectile_GreenPlasmaMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GreenPlasmaImpact</t>
-  </si>
-  <si>
-    <t>PlasmaMuzzleFlashGreen</t>
-  </si>
-  <si>
-    <t>ColProjectile_BlueRingMissile</t>
-  </si>
-  <si>
-    <t>BlueRingImpact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RingMuzzleFlashBlue</t>
-  </si>
-  <si>
-    <t>ColProjectile_RedSparklerMissile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedSparklerImpact</t>
-  </si>
-  <si>
-    <t>PlasmaMuzzleFlashRed</t>
-  </si>
-  <si>
-    <t>ColProjectile_GreenShockwaveMissile</t>
-  </si>
-  <si>
-    <t>GreenShockwaveImpact</t>
-  </si>
-  <si>
-    <t>GreenLightningMuzzleFlash</t>
-  </si>
-  <si>
-    <t>ColProjectile_RedSphereMissile</t>
-  </si>
-  <si>
-    <t>RedSphereImpact</t>
-  </si>
-  <si>
-    <t>FireBallMuzzleFlashGreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义技能修饰器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillDecorators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shotgun Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shotgun Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>Shotgun Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>12,1.2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousEmitDecorator,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageDecayDecorator,0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ContinuousEmitDecorator</t>
-  </si>
-  <si>
-    <t>ContinuousEmitDecorator,RandomTargetDecorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContinuousEmitDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousEmitDecorator,;RandomTargetDecorator,;DamageDecayDecorator,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageDecayDecorator,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalovEmitBDecorator,4_1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,11 +1374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA26" sqref="AA26"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,7 +1403,8 @@
     <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="24" width="14.25" customWidth="1"/>
     <col min="25" max="25" width="28.125" customWidth="1"/>
-    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="26" max="26" width="65.375" customWidth="1"/>
+    <col min="27" max="27" width="10.625" customWidth="1"/>
     <col min="28" max="28" width="10.375" customWidth="1"/>
     <col min="29" max="29" width="9.125" customWidth="1"/>
     <col min="30" max="30" width="17.125" customWidth="1"/>
@@ -1422,7 +1466,7 @@
         <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
@@ -1437,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="Z1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -1454,10 +1498,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -1508,7 +1552,7 @@
         <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V2" t="s">
         <v>15</v>
@@ -1523,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="Z2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1623,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>(INT(E4/F4)+1)*D4*(1/(2+G4))</f>
@@ -1672,19 +1716,19 @@
         <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y4" t="s">
         <v>81</v>
       </c>
       <c r="Z4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AB4" t="s">
         <v>33</v>
@@ -1710,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C36" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
@@ -1753,25 +1797,25 @@
         <v>42</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T5" t="s">
         <v>87</v>
       </c>
       <c r="U5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y5" t="s">
         <v>81</v>
       </c>
       <c r="Z5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AB5" t="s">
         <v>34</v>
@@ -1797,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1840,25 +1884,25 @@
         <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T6" t="s">
         <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y6" t="s">
         <v>81</v>
       </c>
       <c r="Z6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AB6" t="s">
         <v>36</v>
@@ -1915,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
         <v>35</v>
@@ -1927,22 +1971,25 @@
         <v>42</v>
       </c>
       <c r="Q7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="T7" t="s">
         <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V7" t="s">
+        <v>210</v>
+      </c>
+      <c r="W7" t="s">
         <v>212</v>
       </c>
-      <c r="W7" t="s">
-        <v>214</v>
-      </c>
       <c r="Y7" t="s">
         <v>81</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>263</v>
       </c>
       <c r="AD7" t="s">
         <v>44</v>
@@ -1962,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C15" si="1">D8*(1/(2+G8))</f>
@@ -1993,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
         <v>35</v>
@@ -2005,22 +2052,25 @@
         <v>42</v>
       </c>
       <c r="Q8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T8" t="s">
         <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W8" t="s">
         <v>212</v>
       </c>
-      <c r="W8" t="s">
-        <v>214</v>
-      </c>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>254</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>263</v>
       </c>
       <c r="AD8" t="s">
         <v>44</v>
@@ -2040,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -2071,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -2083,22 +2133,25 @@
         <v>42</v>
       </c>
       <c r="Q9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T9" t="s">
         <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V9" t="s">
+        <v>210</v>
+      </c>
+      <c r="W9" t="s">
         <v>212</v>
       </c>
-      <c r="W9" t="s">
-        <v>214</v>
-      </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>254</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>263</v>
       </c>
       <c r="AD9" t="s">
         <v>44</v>
@@ -2118,7 +2171,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -2161,16 +2214,16 @@
         <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="U10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V10" t="s">
+        <v>216</v>
+      </c>
+      <c r="W10" t="s">
         <v>218</v>
-      </c>
-      <c r="W10" t="s">
-        <v>220</v>
       </c>
       <c r="Y10" t="s">
         <v>81</v>
@@ -2187,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -2230,16 +2283,16 @@
         <v>42</v>
       </c>
       <c r="Q11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="U11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V11" t="s">
+        <v>216</v>
+      </c>
+      <c r="W11" t="s">
         <v>218</v>
-      </c>
-      <c r="W11" t="s">
-        <v>220</v>
       </c>
       <c r="Y11" t="s">
         <v>81</v>
@@ -2256,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -2299,16 +2352,16 @@
         <v>42</v>
       </c>
       <c r="Q12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="V12" t="s">
+        <v>216</v>
+      </c>
+      <c r="W12" t="s">
         <v>218</v>
-      </c>
-      <c r="W12" t="s">
-        <v>220</v>
       </c>
       <c r="Y12" t="s">
         <v>81</v>
@@ -2325,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -2368,16 +2421,16 @@
         <v>42</v>
       </c>
       <c r="Q13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="U13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y13" t="s">
         <v>81</v>
@@ -2394,7 +2447,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2437,10 +2490,10 @@
         <v>42</v>
       </c>
       <c r="Q14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Y14" t="s">
         <v>81</v>
@@ -2451,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -2494,19 +2547,22 @@
         <v>42</v>
       </c>
       <c r="Q15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Y15" t="s">
         <v>81</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -2514,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2557,19 +2613,19 @@
         <v>42</v>
       </c>
       <c r="Q16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s">
         <v>81</v>
@@ -2580,7 +2636,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2623,25 +2679,25 @@
         <v>42</v>
       </c>
       <c r="Q17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y17" t="s">
         <v>81</v>
       </c>
       <c r="Z17" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -2649,7 +2705,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2692,25 +2748,25 @@
         <v>42</v>
       </c>
       <c r="Q18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s">
         <v>81</v>
       </c>
       <c r="Z18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -2718,7 +2774,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2761,16 +2817,16 @@
         <v>42</v>
       </c>
       <c r="Q19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V19" t="s">
+        <v>213</v>
+      </c>
+      <c r="W19" t="s">
         <v>215</v>
-      </c>
-      <c r="W19" t="s">
-        <v>217</v>
       </c>
       <c r="Y19" t="s">
         <v>81</v>
@@ -2781,7 +2837,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C22" si="2">D20*(1/(2+G20))</f>
@@ -2824,19 +2880,19 @@
         <v>42</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
         <v>81</v>
@@ -2847,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -2890,19 +2946,19 @@
         <v>42</v>
       </c>
       <c r="Q21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s">
         <v>81</v>
@@ -2913,7 +2969,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -2956,19 +3012,19 @@
         <v>42</v>
       </c>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
         <v>81</v>
@@ -2979,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -3022,25 +3078,25 @@
         <v>42</v>
       </c>
       <c r="Q23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="T23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V23" t="s">
+        <v>224</v>
+      </c>
+      <c r="W23" t="s">
         <v>226</v>
       </c>
-      <c r="W23" t="s">
-        <v>228</v>
-      </c>
       <c r="Y23" t="s">
         <v>81</v>
       </c>
       <c r="Z23" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -3048,7 +3104,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -3091,25 +3147,25 @@
         <v>42</v>
       </c>
       <c r="Q24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V24" t="s">
+        <v>224</v>
+      </c>
+      <c r="W24" t="s">
         <v>226</v>
       </c>
-      <c r="W24" t="s">
-        <v>228</v>
-      </c>
       <c r="Y24" t="s">
         <v>81</v>
       </c>
       <c r="Z24" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -3117,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -3160,25 +3216,25 @@
         <v>42</v>
       </c>
       <c r="Q25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="V25" t="s">
+        <v>224</v>
+      </c>
+      <c r="W25" t="s">
         <v>226</v>
       </c>
-      <c r="W25" t="s">
-        <v>228</v>
-      </c>
       <c r="Y25" t="s">
         <v>81</v>
       </c>
       <c r="Z25" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -3186,7 +3242,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C28" si="3">D26*(1/(2+G26))</f>
@@ -3217,7 +3273,7 @@
         <v>4</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
         <v>35</v>
@@ -3229,22 +3285,25 @@
         <v>42</v>
       </c>
       <c r="Q26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="V26" t="s">
+        <v>227</v>
+      </c>
+      <c r="W26" t="s">
         <v>229</v>
       </c>
-      <c r="W26" t="s">
-        <v>231</v>
-      </c>
       <c r="Y26" t="s">
         <v>81</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -3252,7 +3311,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -3283,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
         <v>35</v>
@@ -3295,22 +3354,25 @@
         <v>42</v>
       </c>
       <c r="Q27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="V27" t="s">
+        <v>227</v>
+      </c>
+      <c r="W27" t="s">
         <v>229</v>
       </c>
-      <c r="W27" t="s">
-        <v>231</v>
-      </c>
       <c r="Y27" t="s">
         <v>81</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -3318,7 +3380,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -3349,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
         <v>35</v>
@@ -3361,22 +3423,25 @@
         <v>42</v>
       </c>
       <c r="Q28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="V28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="W28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s">
         <v>81</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -3384,7 +3449,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -3430,22 +3495,22 @@
         <v>86</v>
       </c>
       <c r="T29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s">
         <v>81</v>
       </c>
       <c r="Z29" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -3453,7 +3518,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3496,25 +3561,25 @@
         <v>42</v>
       </c>
       <c r="Q30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y30" t="s">
         <v>81</v>
       </c>
       <c r="Z30" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -3522,7 +3587,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -3565,25 +3630,25 @@
         <v>42</v>
       </c>
       <c r="Q31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y31" t="s">
         <v>81</v>
       </c>
       <c r="Z31" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -3591,7 +3656,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -3634,25 +3699,25 @@
         <v>42</v>
       </c>
       <c r="Q32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y32" t="s">
         <v>81</v>
       </c>
       <c r="Z32" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -3660,7 +3725,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -3703,25 +3768,25 @@
         <v>42</v>
       </c>
       <c r="Q33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y33" t="s">
         <v>81</v>
       </c>
       <c r="Z33" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
@@ -3729,7 +3794,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -3772,25 +3837,25 @@
         <v>42</v>
       </c>
       <c r="Q34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V34" t="s">
+        <v>230</v>
+      </c>
+      <c r="W34" t="s">
         <v>232</v>
       </c>
-      <c r="W34" t="s">
-        <v>234</v>
-      </c>
       <c r="Y34" t="s">
         <v>81</v>
       </c>
       <c r="Z34" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
@@ -3798,7 +3863,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -3841,25 +3906,25 @@
         <v>42</v>
       </c>
       <c r="Q35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V35" t="s">
+        <v>230</v>
+      </c>
+      <c r="W35" t="s">
         <v>232</v>
       </c>
-      <c r="W35" t="s">
-        <v>234</v>
-      </c>
       <c r="Y35" t="s">
         <v>81</v>
       </c>
       <c r="Z35" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
@@ -3867,7 +3932,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -3910,25 +3975,25 @@
         <v>42</v>
       </c>
       <c r="Q36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V36" t="s">
+        <v>230</v>
+      </c>
+      <c r="W36" t="s">
         <v>232</v>
       </c>
-      <c r="W36" t="s">
-        <v>234</v>
-      </c>
       <c r="Y36" t="s">
         <v>81</v>
       </c>
       <c r="Z36" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
@@ -3936,10 +4001,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C59" si="4">D37*(1/(2+G37))</f>
+        <f t="shared" ref="C37:C62" si="4">D37*(1/(2+G37))</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="D37">
@@ -3979,16 +4044,16 @@
         <v>42</v>
       </c>
       <c r="Q37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Y37" t="s">
         <v>81</v>
@@ -3999,7 +4064,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -4042,16 +4107,16 @@
         <v>42</v>
       </c>
       <c r="Q38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Y38" t="s">
         <v>81</v>
@@ -4062,7 +4127,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -4105,16 +4170,16 @@
         <v>42</v>
       </c>
       <c r="Q39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U39" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="V39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Y39" t="s">
         <v>81</v>
@@ -4125,7 +4190,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -4168,16 +4233,16 @@
         <v>42</v>
       </c>
       <c r="Q40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Y40" t="s">
         <v>81</v>
@@ -4188,7 +4253,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -4231,16 +4296,16 @@
         <v>42</v>
       </c>
       <c r="Q41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Y41" t="s">
         <v>81</v>
@@ -4251,7 +4316,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -4294,16 +4359,16 @@
         <v>42</v>
       </c>
       <c r="Q42" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="W42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Y42" t="s">
         <v>81</v>
@@ -4314,7 +4379,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -4357,16 +4422,16 @@
         <v>42</v>
       </c>
       <c r="Q43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y43" t="s">
         <v>81</v>
@@ -4377,7 +4442,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -4420,16 +4485,16 @@
         <v>42</v>
       </c>
       <c r="Q44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="U44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y44" t="s">
         <v>81</v>
@@ -4440,7 +4505,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -4483,16 +4548,16 @@
         <v>42</v>
       </c>
       <c r="Q45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="U45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y45" t="s">
         <v>81</v>
@@ -4503,7 +4568,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -4546,16 +4611,16 @@
         <v>42</v>
       </c>
       <c r="Q46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y46" t="s">
         <v>81</v>
@@ -4566,7 +4631,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -4609,16 +4674,16 @@
         <v>42</v>
       </c>
       <c r="Q47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Y47" t="s">
         <v>81</v>
@@ -4629,7 +4694,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4672,27 +4737,27 @@
         <v>42</v>
       </c>
       <c r="Q48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4735,27 +4800,27 @@
         <v>42</v>
       </c>
       <c r="Q49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U49" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y49" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4798,27 +4863,27 @@
         <v>42</v>
       </c>
       <c r="Q50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4861,27 +4926,27 @@
         <v>42</v>
       </c>
       <c r="Q51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4924,27 +4989,27 @@
         <v>42</v>
       </c>
       <c r="Q52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="W52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Y52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -4987,27 +5052,27 @@
         <v>42</v>
       </c>
       <c r="Q53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="U53" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -5050,27 +5115,27 @@
         <v>42</v>
       </c>
       <c r="Q54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -5113,27 +5178,27 @@
         <v>42</v>
       </c>
       <c r="Q55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -5176,27 +5241,27 @@
         <v>42</v>
       </c>
       <c r="Q56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -5239,27 +5304,27 @@
         <v>42</v>
       </c>
       <c r="Q57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -5302,27 +5367,27 @@
         <v>42</v>
       </c>
       <c r="Q58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U58" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W58" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -5365,168 +5430,234 @@
         <v>42</v>
       </c>
       <c r="Q59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="V59" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Y59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <v>0.5</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>-1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" t="s">
+        <v>49</v>
+      </c>
+      <c r="P60" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>97</v>
+      </c>
+      <c r="T60" t="s">
+        <v>152</v>
+      </c>
+      <c r="U60" t="s">
+        <v>209</v>
+      </c>
+      <c r="V60" t="s">
+        <v>207</v>
+      </c>
+      <c r="W60" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>0.5</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <v>-1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" t="s">
+        <v>49</v>
+      </c>
+      <c r="P61" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>260</v>
+      </c>
+      <c r="T61" t="s">
+        <v>152</v>
+      </c>
+      <c r="U61" t="s">
+        <v>209</v>
+      </c>
+      <c r="V61" t="s">
+        <v>207</v>
+      </c>
+      <c r="W61" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>259</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="D62">
+        <v>70</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G62">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="O62" t="s">
         <v>49</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
-      </c>
-      <c r="R62">
-        <v>2001</v>
+        <v>42</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>261</v>
+      </c>
+      <c r="T62" t="s">
+        <v>152</v>
+      </c>
+      <c r="U62" t="s">
+        <v>209</v>
+      </c>
+      <c r="V62" t="s">
+        <v>207</v>
+      </c>
+      <c r="W62" t="s">
+        <v>208</v>
       </c>
       <c r="Y62" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>202</v>
-      </c>
-      <c r="B63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>10</v>
-      </c>
-      <c r="J63">
-        <v>3</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
-        <v>197</v>
-      </c>
-      <c r="O63" t="s">
-        <v>49</v>
-      </c>
-      <c r="P63" t="s">
-        <v>198</v>
-      </c>
-      <c r="R63">
-        <v>2002</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>203</v>
-      </c>
-      <c r="B64" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0.8</v>
-      </c>
-      <c r="H64">
-        <v>0.5</v>
-      </c>
-      <c r="I64">
-        <v>30</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-      <c r="N64" t="s">
-        <v>201</v>
-      </c>
-      <c r="O64" t="s">
-        <v>202</v>
-      </c>
-      <c r="P64" t="s">
-        <v>198</v>
-      </c>
-      <c r="R64">
-        <v>2003</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>81</v>
+      <c r="Z62" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5535,13 +5666,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -5553,16 +5684,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O65" t="s">
         <v>49</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R65">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="Y65" t="s">
         <v>81</v>
@@ -5570,10 +5701,10 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5582,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -5600,16 +5731,16 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" t="s">
         <v>49</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R66">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="Y66" t="s">
         <v>81</v>
@@ -5617,10 +5748,10 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5629,34 +5760,34 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I67">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O67" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R67">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="Y67" t="s">
         <v>81</v>
@@ -5664,10 +5795,10 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5676,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H68">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -5691,21 +5822,162 @@
         <v>0</v>
       </c>
       <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>195</v>
+      </c>
+      <c r="O68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P68" t="s">
+        <v>196</v>
+      </c>
+      <c r="R68">
+        <v>2004</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>205</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.4</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>195</v>
+      </c>
+      <c r="O69" t="s">
+        <v>49</v>
+      </c>
+      <c r="P69" t="s">
+        <v>196</v>
+      </c>
+      <c r="R69">
+        <v>2005</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.6</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>50</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>195</v>
+      </c>
+      <c r="O70" t="s">
+        <v>49</v>
+      </c>
+      <c r="P70" t="s">
+        <v>196</v>
+      </c>
+      <c r="R70">
+        <v>2006</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.3</v>
+      </c>
+      <c r="H71">
+        <v>0.2</v>
+      </c>
+      <c r="I71">
+        <v>20</v>
+      </c>
+      <c r="J71">
         <v>2</v>
       </c>
-      <c r="N68" t="s">
-        <v>197</v>
-      </c>
-      <c r="O68" t="s">
-        <v>49</v>
-      </c>
-      <c r="P68" t="s">
-        <v>198</v>
-      </c>
-      <c r="R68">
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>195</v>
+      </c>
+      <c r="O71" t="s">
+        <v>49</v>
+      </c>
+      <c r="P71" t="s">
+        <v>196</v>
+      </c>
+      <c r="R71">
         <v>2007</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Y71" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5734,12 +6006,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C502AE29-D253-415D-8A2D-FF13FF4CDB73}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F887B167-C23D-4F7A-A3D7-0940987BF004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A1B93-5834-402D-90EF-47DDD891951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
-    <sheet name="EffectSkill" sheetId="2" r:id="rId2"/>
-    <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="EffectSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="298">
   <si>
     <t>名字</t>
   </si>
@@ -143,668 +144,513 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillRangeSelectorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillTargetSelectorType</t>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>EnemiesInRange</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>消耗次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillAnimTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发哪些类别组件的动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{string constructorType, string trigger}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否占用其他组件状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBlockOther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int dmg, float correction,string type}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargingDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manaCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/SkillIcon/Icon_Magic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cockpit_Weapon,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAW Mortar Napalm Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1.2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Ray Pulse Lvl.3</t>
+  </si>
+  <si>
+    <t>GTW-P Shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-F Flamethrower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTW-L Explosion Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gadget,CastFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shocker Lightning Laser Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STH Double Shoot Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minigun Continuous Shoot Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.2</t>
+  </si>
+  <si>
+    <t>Explosive Rocket Lvl.3</t>
+  </si>
+  <si>
+    <t>4,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.2</t>
+  </si>
+  <si>
+    <t>Cannon Napalm Bomb Lvl.3</t>
+  </si>
+  <si>
+    <t>Weapon,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.4</t>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot Lvl.5</t>
+  </si>
+  <si>
+    <t>15,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.2</t>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb Lvl.3</t>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.2</t>
+  </si>
+  <si>
+    <t>Acid Plasma Lvl.3</t>
+  </si>
+  <si>
+    <t>15,1,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.5,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.2</t>
+  </si>
+  <si>
+    <t>HFEW Energy Ring Lvl.3</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.3</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.4</t>
+  </si>
+  <si>
+    <t>Lightning Sparkler Lvl.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.2</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.3</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.4</t>
+  </si>
+  <si>
+    <t>Lightning Wave Lvl.5</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.2</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.3</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.4</t>
+  </si>
+  <si>
+    <t>Sniper Shoot Lvl.5</t>
+  </si>
+  <si>
+    <t>Gadget,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0,Physical;12,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,1.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,Physical;16,1.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,0,Physical;20,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1,Physical;4,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1.5,Physical;4,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,2,Physical;4,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1.2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Physical;10,1,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.5,Physical;14,1.5,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,2,Physical;24,2,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,1,Lightning;2,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.2,Lightning;5,1.8,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.5,Lightning;8,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Lightning;18,2.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,1.8,Lightning;11,2.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1,Lightning;12,1,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1.2,Lightning;20,1.2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1.5,Lightning;25,1.5,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.8,Lightning;30,1.8,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Lightning;34,2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,1.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,2,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,2.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,3,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,0,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Self</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeammatesInRange</t>
   </si>
   <si>
     <t>Teammate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TeammatesInRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnemiesInRange</t>
-  </si>
-  <si>
-    <t>EnemiesInRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapHexInRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内所有友军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内所有敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围内所有棋格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nearest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Farthest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MostHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeastHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MostTeammatesSurrounded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MostEnemiesSurrounded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最远的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值最多的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值最少的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周围友军最多的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周围敌人最多的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillAnimTrigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能触发哪些类别组件的动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{string constructorType, string trigger}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否占用其他组件状态机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBlockOther</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{int dmg, float correction,string type}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能延迟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargingDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>castDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manaCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite/SkillIcon/Icon_Magic1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cockpit_Weapon,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAW Mortar Napalm Bomb Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1.2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Ray Pulse Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Ray Pulse Lvl.2</t>
-  </si>
-  <si>
-    <t>Lightning Ray Pulse Lvl.3</t>
-  </si>
-  <si>
-    <t>GTW-P Shot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTW-F Flamethrower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTW-L Explosion Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gadget,CastFire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shocker Lightning Laser Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH Double Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH Double Shoot Lvl.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STH Double Shoot Lvl.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minigun Continuous Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minigun Continuous Shoot Lvl.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minigun Continuous Shoot Lvl.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rifle Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rifle Shoot Lvl.2</t>
-  </si>
-  <si>
-    <t>Rifle Shoot Lvl.3</t>
-  </si>
-  <si>
-    <t>Explosive Rocket Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explosive Rocket Lvl.2</t>
-  </si>
-  <si>
-    <t>Explosive Rocket Lvl.3</t>
-  </si>
-  <si>
-    <t>4,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannon Napalm Bomb Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannon Napalm Bomb Lvl.2</t>
-  </si>
-  <si>
-    <t>Cannon Napalm Bomb Lvl.3</t>
-  </si>
-  <si>
-    <t>Weapon,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.2</t>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.3</t>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.4</t>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot Lvl.5</t>
-  </si>
-  <si>
-    <t>15,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,1.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-G Explosion Bomb Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-G Explosion Bomb Lvl.2</t>
-  </si>
-  <si>
-    <t>SS-G Explosion Bomb Lvl.3</t>
-  </si>
-  <si>
-    <t>Acid Plasma Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma Lvl.2</t>
-  </si>
-  <si>
-    <t>Acid Plasma Lvl.3</t>
-  </si>
-  <si>
-    <t>15,1,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1.5,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Energy Ring Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Energy Ring Lvl.2</t>
-  </si>
-  <si>
-    <t>HFEW Energy Ring Lvl.3</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.2</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.3</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.4</t>
-  </si>
-  <si>
-    <t>Lightning Sparkler Lvl.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.2</t>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.3</t>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.4</t>
-  </si>
-  <si>
-    <t>Lightning Wave Lvl.5</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.2</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.3</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.4</t>
-  </si>
-  <si>
-    <t>Sniper Shoot Lvl.5</t>
-  </si>
-  <si>
-    <t>Gadget,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,0,Physical;12,1,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,1,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,1.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,0,Physical;16,1.2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,0,Physical;20,1.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1,Physical;4,1,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,1.5,Physical;4,1.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,2,Physical;4,2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1.2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1,Physical;10,1,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1.5,Physical;14,1.5,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,2,Physical;24,2,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,1,Lightning;2,1.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,1.2,Lightning;5,1.8,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1.5,Lightning;8,2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2,Lightning;18,2.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,1.8,Lightning;11,2.2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,1,Lightning;12,1,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1.2,Lightning;20,1.2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,1.5,Lightning;25,1.5,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1.8,Lightning;30,1.8,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2,Lightning;34,2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,2.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,3,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.8,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>TeammatesInRange</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽魂立场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teammate</t>
-  </si>
-  <si>
-    <t>Nearest</t>
-  </si>
-  <si>
-    <t>能源回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级能源回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级紧急修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围幽魂立场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发射特效预制体</t>
@@ -974,10 +820,6 @@
     <t>ContinuousEmitDecorator</t>
   </si>
   <si>
-    <t>{string decorator, string values}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite/SkillIcon/Icon_Magic0</t>
   </si>
   <si>
@@ -1007,35 +849,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContinuousEmitDecorator,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageDecayDecorator,0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ContinuousEmitDecorator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContinuousEmitDecorator,;RandomTargetDecorator,;DamageDecayDecorator,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageDecayDecorator,0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalovEmitBDecorator,4_1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>吸收周围敌人护盾值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急修复 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源回收 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源回收 Lvl.2</t>
+  </si>
+  <si>
+    <t>紧急修复 Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源回收 Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复 Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复 Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急修复 Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急能源回收 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急能源回收 Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急能源回收 Lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围修复 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围修复 Lvl.2</t>
+  </si>
+  <si>
+    <t>范围修复 Lvl.3</t>
+  </si>
+  <si>
+    <t>范围能源回收 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围能源回收 Lvl.2</t>
+  </si>
+  <si>
+    <t>范围能源回收 Lvl.3</t>
+  </si>
+  <si>
+    <t>冲刺 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺 Lvl.2</t>
+  </si>
+  <si>
+    <t>冲刺 Lvl.3</t>
+  </si>
+  <si>
+    <t>过载 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载 lvl.2</t>
+  </si>
+  <si>
+    <t>过载 lvl.3</t>
+  </si>
+  <si>
+    <t>均衡护盾立场 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡护盾立场 lvl.2</t>
+  </si>
+  <si>
+    <t>均衡护盾立场 lvl.3</t>
+  </si>
+  <si>
+    <t>大型均衡护盾立场 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型均衡护盾立场 lvl.2</t>
+  </si>
+  <si>
+    <t>大型均衡护盾立场 lvl.3</t>
+  </si>
+  <si>
+    <t>火焰护盾立场 lvl.1</t>
+  </si>
+  <si>
+    <t>火焰护盾立场 lvl.2</t>
+  </si>
+  <si>
+    <t>火焰护盾立场 lvl.3</t>
+  </si>
+  <si>
+    <t>寒冰护盾立场 lvl.1</t>
+  </si>
+  <si>
+    <t>寒冰护盾立场 lvl.2</t>
+  </si>
+  <si>
+    <t>寒冰护盾立场 lvl.3</t>
+  </si>
+  <si>
+    <t>酸蚀护盾立场 lvl.1</t>
+  </si>
+  <si>
+    <t>酸蚀护盾立场 lvl.2</t>
+  </si>
+  <si>
+    <t>酸蚀护盾立场 lvl.3</t>
+  </si>
+  <si>
+    <t>ShieldEffect_NormalSmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{string name,string value}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageDecay,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageDecay,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageDecay,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectCount,4;spacing,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageDecayDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousEmitDecorator,RandomTargetDecorator,DamageDecayDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalovEmitBDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击护盾立场 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击护盾立场 lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击护盾立场 lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_FireShield</t>
+  </si>
+  <si>
+    <t>4,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0.3,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_ForcefieldBlue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,26 +1148,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1081,22 +1166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 3" xfId="1" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1374,11 +1454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z56" sqref="Z56"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,46 +1474,40 @@
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="35.75" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="37.125" customWidth="1"/>
-    <col min="21" max="21" width="24.5" customWidth="1"/>
-    <col min="22" max="22" width="30.25" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="14.25" customWidth="1"/>
-    <col min="25" max="25" width="28.125" customWidth="1"/>
-    <col min="26" max="26" width="65.375" customWidth="1"/>
-    <col min="27" max="27" width="10.625" customWidth="1"/>
-    <col min="28" max="28" width="10.375" customWidth="1"/>
-    <col min="29" max="29" width="9.125" customWidth="1"/>
-    <col min="30" max="30" width="17.125" customWidth="1"/>
-    <col min="31" max="31" width="14.25" customWidth="1"/>
-    <col min="32" max="32" width="24.625" customWidth="1"/>
-    <col min="33" max="33" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="33.25" customWidth="1"/>
+    <col min="18" max="18" width="65.375" customWidth="1"/>
+    <col min="19" max="19" width="33.25" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="37.125" customWidth="1"/>
+    <col min="23" max="23" width="24.5" customWidth="1"/>
+    <col min="24" max="24" width="30.25" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
+    <col min="26" max="26" width="14.25" customWidth="1"/>
+    <col min="27" max="27" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -1454,43 +1528,40 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" t="s">
-        <v>67</v>
-      </c>
       <c r="U1" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>166</v>
+      </c>
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1498,28 +1569,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -1540,43 +1611,40 @@
         <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
+        <v>211</v>
+      </c>
+      <c r="S2" t="s">
+        <v>265</v>
+      </c>
+      <c r="T2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
       <c r="U2" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>167</v>
+      </c>
+      <c r="X2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>17</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1620,22 +1688,22 @@
         <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" t="s">
         <v>21</v>
       </c>
-      <c r="S3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" t="s">
-        <v>68</v>
-      </c>
       <c r="U3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
         <v>6</v>
@@ -1644,30 +1712,21 @@
         <v>6</v>
       </c>
       <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG3" s="2"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <f>(INT(E4/F4)+1)*D4*(1/(2+G4))</f>
@@ -1701,60 +1760,42 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" t="s">
-        <v>209</v>
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>222</v>
       </c>
       <c r="V4" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X4" t="s">
+        <v>168</v>
       </c>
       <c r="Y4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C36" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
@@ -1788,60 +1829,42 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5" t="s">
-        <v>87</v>
-      </c>
-      <c r="U5" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="R5" t="s">
+        <v>222</v>
       </c>
       <c r="V5" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X5" t="s">
+        <v>168</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1875,60 +1898,42 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" t="s">
-        <v>209</v>
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>222</v>
       </c>
       <c r="V6" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X6" t="s">
+        <v>168</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <f>D7*(1/(2+G7))</f>
@@ -1962,54 +1967,45 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>155</v>
-      </c>
-      <c r="T7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U7" t="s">
-        <v>211</v>
+        <v>124</v>
+      </c>
+      <c r="R7" t="s">
+        <v>278</v>
+      </c>
+      <c r="S7" t="s">
+        <v>267</v>
       </c>
       <c r="V7" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>212</v>
+        <v>172</v>
+      </c>
+      <c r="X7" t="s">
+        <v>171</v>
       </c>
       <c r="Y7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C15" si="1">D8*(1/(2+G8))</f>
@@ -2043,54 +2039,45 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>159</v>
-      </c>
-      <c r="T8" t="s">
-        <v>87</v>
-      </c>
-      <c r="U8" t="s">
-        <v>211</v>
+        <v>128</v>
+      </c>
+      <c r="R8" t="s">
+        <v>278</v>
+      </c>
+      <c r="S8" t="s">
+        <v>267</v>
       </c>
       <c r="V8" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>212</v>
+        <v>172</v>
+      </c>
+      <c r="X8" t="s">
+        <v>171</v>
       </c>
       <c r="Y8" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -2124,54 +2111,45 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" t="s">
-        <v>211</v>
+        <v>129</v>
+      </c>
+      <c r="R9" t="s">
+        <v>278</v>
+      </c>
+      <c r="S9" t="s">
+        <v>267</v>
       </c>
       <c r="V9" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>212</v>
+        <v>172</v>
+      </c>
+      <c r="X9" t="s">
+        <v>171</v>
       </c>
       <c r="Y9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -2205,42 +2183,36 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>156</v>
-      </c>
-      <c r="U10" t="s">
-        <v>217</v>
-      </c>
-      <c r="V10" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="W10" t="s">
-        <v>218</v>
+        <v>178</v>
+      </c>
+      <c r="X10" t="s">
+        <v>177</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -2274,42 +2246,36 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>157</v>
-      </c>
-      <c r="U11" t="s">
-        <v>217</v>
-      </c>
-      <c r="V11" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="W11" t="s">
-        <v>218</v>
+        <v>178</v>
+      </c>
+      <c r="X11" t="s">
+        <v>177</v>
       </c>
       <c r="Y11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -2343,42 +2309,36 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>158</v>
-      </c>
-      <c r="U12" t="s">
-        <v>217</v>
-      </c>
-      <c r="V12" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="W12" t="s">
-        <v>218</v>
+        <v>178</v>
+      </c>
+      <c r="X12" t="s">
+        <v>177</v>
       </c>
       <c r="Y12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -2412,42 +2372,36 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>161</v>
-      </c>
-      <c r="U13" t="s">
-        <v>219</v>
-      </c>
-      <c r="V13" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="W13" t="s">
-        <v>220</v>
+        <v>180</v>
+      </c>
+      <c r="X13" t="s">
+        <v>168</v>
       </c>
       <c r="Y13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -2481,30 +2435,30 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>187</v>
-      </c>
-      <c r="V14" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -2535,42 +2489,45 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>188</v>
-      </c>
-      <c r="U15" t="s">
-        <v>211</v>
-      </c>
-      <c r="V15" t="s">
-        <v>221</v>
+        <v>157</v>
+      </c>
+      <c r="R15" t="s">
+        <v>278</v>
+      </c>
+      <c r="S15" t="s">
+        <v>267</v>
       </c>
       <c r="W15" t="s">
-        <v>222</v>
+        <v>172</v>
+      </c>
+      <c r="X15" t="s">
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -2604,39 +2561,39 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>189</v>
-      </c>
-      <c r="T16" t="s">
-        <v>98</v>
-      </c>
-      <c r="U16" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="V16" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="W16" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -2670,42 +2627,42 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" t="s">
-        <v>98</v>
-      </c>
-      <c r="U17" t="s">
-        <v>209</v>
+        <v>81</v>
+      </c>
+      <c r="R17" t="s">
+        <v>222</v>
       </c>
       <c r="V17" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="W17" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -2739,42 +2696,42 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q18" t="s">
-        <v>165</v>
-      </c>
-      <c r="T18" t="s">
-        <v>98</v>
-      </c>
-      <c r="U18" t="s">
-        <v>209</v>
+        <v>134</v>
+      </c>
+      <c r="R18" t="s">
+        <v>213</v>
       </c>
       <c r="V18" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="W18" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
       </c>
       <c r="Y18" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -2808,36 +2765,36 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>190</v>
-      </c>
-      <c r="U19" t="s">
-        <v>214</v>
-      </c>
-      <c r="V19" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="W19" t="s">
-        <v>215</v>
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
+        <v>174</v>
       </c>
       <c r="Y19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C22" si="2">D20*(1/(2+G20))</f>
@@ -2871,39 +2828,39 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q20" t="s">
-        <v>112</v>
-      </c>
-      <c r="T20" t="s">
-        <v>152</v>
-      </c>
-      <c r="U20" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="W20" t="s">
-        <v>220</v>
+        <v>180</v>
+      </c>
+      <c r="X20" t="s">
+        <v>168</v>
       </c>
       <c r="Y20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -2937,39 +2894,39 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>165</v>
-      </c>
-      <c r="T21" t="s">
-        <v>152</v>
-      </c>
-      <c r="U21" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="V21" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
+        <v>168</v>
       </c>
       <c r="Y21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -3003,39 +2960,39 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>113</v>
-      </c>
-      <c r="T22" t="s">
-        <v>152</v>
-      </c>
-      <c r="U22" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>180</v>
+      </c>
+      <c r="X22" t="s">
+        <v>168</v>
       </c>
       <c r="Y22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -3066,45 +3023,48 @@
         <v>5</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>162</v>
-      </c>
-      <c r="T23" t="s">
-        <v>117</v>
-      </c>
-      <c r="U23" t="s">
-        <v>225</v>
+        <v>131</v>
+      </c>
+      <c r="R23" t="s">
+        <v>279</v>
+      </c>
+      <c r="S23" t="s">
+        <v>268</v>
       </c>
       <c r="V23" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>186</v>
+      </c>
+      <c r="X23" t="s">
+        <v>185</v>
       </c>
       <c r="Y23" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -3135,45 +3095,48 @@
         <v>5</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>163</v>
-      </c>
-      <c r="T24" t="s">
-        <v>117</v>
-      </c>
-      <c r="U24" t="s">
-        <v>225</v>
+        <v>132</v>
+      </c>
+      <c r="R24" t="s">
+        <v>279</v>
+      </c>
+      <c r="S24" t="s">
+        <v>268</v>
       </c>
       <c r="V24" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>186</v>
+      </c>
+      <c r="X24" t="s">
+        <v>185</v>
       </c>
       <c r="Y24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -3204,45 +3167,48 @@
         <v>5</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q25" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" t="s">
-        <v>117</v>
-      </c>
-      <c r="U25" t="s">
-        <v>225</v>
+        <v>133</v>
+      </c>
+      <c r="R25" t="s">
+        <v>279</v>
+      </c>
+      <c r="S25" t="s">
+        <v>268</v>
       </c>
       <c r="V25" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>186</v>
+      </c>
+      <c r="X25" t="s">
+        <v>185</v>
       </c>
       <c r="Y25" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C28" si="3">D26*(1/(2+G26))</f>
@@ -3276,42 +3242,45 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>191</v>
-      </c>
-      <c r="T26" t="s">
-        <v>117</v>
-      </c>
-      <c r="U26" t="s">
-        <v>228</v>
+        <v>160</v>
+      </c>
+      <c r="R26" t="s">
+        <v>278</v>
+      </c>
+      <c r="S26" t="s">
+        <v>269</v>
       </c>
       <c r="V26" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>189</v>
+      </c>
+      <c r="X26" t="s">
+        <v>188</v>
       </c>
       <c r="Y26" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <f t="shared" si="3"/>
@@ -3345,42 +3314,45 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O27" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>192</v>
-      </c>
-      <c r="T27" t="s">
-        <v>117</v>
-      </c>
-      <c r="U27" t="s">
-        <v>228</v>
+        <v>161</v>
+      </c>
+      <c r="R27" t="s">
+        <v>278</v>
+      </c>
+      <c r="S27" t="s">
+        <v>269</v>
       </c>
       <c r="V27" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>189</v>
+      </c>
+      <c r="X27" t="s">
+        <v>188</v>
       </c>
       <c r="Y27" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <f t="shared" si="3"/>
@@ -3414,42 +3386,45 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q28" t="s">
-        <v>193</v>
-      </c>
-      <c r="T28" t="s">
-        <v>117</v>
-      </c>
-      <c r="U28" t="s">
-        <v>228</v>
+        <v>162</v>
+      </c>
+      <c r="R28" t="s">
+        <v>278</v>
+      </c>
+      <c r="S28" t="s">
+        <v>269</v>
       </c>
       <c r="V28" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>189</v>
+      </c>
+      <c r="X28" t="s">
+        <v>192</v>
       </c>
       <c r="Y28" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -3483,42 +3458,42 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q29" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" t="s">
+        <v>222</v>
+      </c>
+      <c r="V29" t="s">
         <v>86</v>
       </c>
-      <c r="T29" t="s">
-        <v>117</v>
-      </c>
-      <c r="U29" t="s">
-        <v>209</v>
-      </c>
-      <c r="V29" t="s">
-        <v>207</v>
-      </c>
       <c r="W29" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X29" t="s">
+        <v>168</v>
       </c>
       <c r="Y29" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3552,42 +3527,42 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="s">
-        <v>89</v>
-      </c>
-      <c r="T30" t="s">
-        <v>117</v>
-      </c>
-      <c r="U30" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="R30" t="s">
+        <v>222</v>
       </c>
       <c r="V30" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="W30" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X30" t="s">
+        <v>168</v>
       </c>
       <c r="Y30" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -3621,42 +3596,42 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>90</v>
-      </c>
-      <c r="T31" t="s">
-        <v>117</v>
-      </c>
-      <c r="U31" t="s">
-        <v>209</v>
+        <v>59</v>
+      </c>
+      <c r="R31" t="s">
+        <v>222</v>
       </c>
       <c r="V31" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="W31" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X31" t="s">
+        <v>168</v>
       </c>
       <c r="Y31" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -3690,42 +3665,42 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O32" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>124</v>
-      </c>
-      <c r="T32" t="s">
-        <v>117</v>
-      </c>
-      <c r="U32" t="s">
-        <v>209</v>
+        <v>93</v>
+      </c>
+      <c r="R32" t="s">
+        <v>222</v>
       </c>
       <c r="V32" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="W32" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X32" t="s">
+        <v>168</v>
       </c>
       <c r="Y32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -3759,42 +3734,42 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>123</v>
-      </c>
-      <c r="T33" t="s">
-        <v>117</v>
-      </c>
-      <c r="U33" t="s">
-        <v>209</v>
+        <v>92</v>
+      </c>
+      <c r="R33" t="s">
+        <v>222</v>
       </c>
       <c r="V33" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="W33" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X33" t="s">
+        <v>168</v>
       </c>
       <c r="Y33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -3825,45 +3800,45 @@
         <v>3</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q34" t="s">
-        <v>168</v>
-      </c>
-      <c r="T34" t="s">
-        <v>117</v>
-      </c>
-      <c r="U34" t="s">
-        <v>248</v>
+        <v>137</v>
+      </c>
+      <c r="R34" t="s">
+        <v>222</v>
       </c>
       <c r="V34" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="W34" t="s">
-        <v>232</v>
+        <v>209</v>
+      </c>
+      <c r="X34" t="s">
+        <v>191</v>
       </c>
       <c r="Y34" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -3894,45 +3869,45 @@
         <v>3</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
-      </c>
-      <c r="T35" t="s">
-        <v>117</v>
-      </c>
-      <c r="U35" t="s">
-        <v>233</v>
+        <v>66</v>
+      </c>
+      <c r="R35" t="s">
+        <v>222</v>
       </c>
       <c r="V35" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="W35" t="s">
-        <v>232</v>
+        <v>194</v>
+      </c>
+      <c r="X35" t="s">
+        <v>191</v>
       </c>
       <c r="Y35" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -3963,45 +3938,45 @@
         <v>3</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q36" t="s">
-        <v>90</v>
-      </c>
-      <c r="T36" t="s">
-        <v>117</v>
-      </c>
-      <c r="U36" t="s">
-        <v>233</v>
+        <v>59</v>
+      </c>
+      <c r="R36" t="s">
+        <v>222</v>
       </c>
       <c r="V36" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="W36" t="s">
-        <v>232</v>
+        <v>194</v>
+      </c>
+      <c r="X36" t="s">
+        <v>191</v>
       </c>
       <c r="Y36" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C62" si="4">D37*(1/(2+G37))</f>
@@ -4035,36 +4010,36 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q37" t="s">
-        <v>131</v>
-      </c>
-      <c r="U37" t="s">
-        <v>236</v>
-      </c>
-      <c r="V37" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="W37" t="s">
-        <v>235</v>
+        <v>197</v>
+      </c>
+      <c r="X37" t="s">
+        <v>195</v>
       </c>
       <c r="Y37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
@@ -4098,36 +4073,36 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P38" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q38" t="s">
-        <v>132</v>
-      </c>
-      <c r="U38" t="s">
-        <v>236</v>
-      </c>
-      <c r="V38" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="W38" t="s">
-        <v>235</v>
+        <v>197</v>
+      </c>
+      <c r="X38" t="s">
+        <v>195</v>
       </c>
       <c r="Y38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
@@ -4161,36 +4136,36 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O39" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P39" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q39" t="s">
-        <v>133</v>
-      </c>
-      <c r="U39" t="s">
-        <v>236</v>
-      </c>
-      <c r="V39" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="W39" t="s">
-        <v>235</v>
+        <v>197</v>
+      </c>
+      <c r="X39" t="s">
+        <v>195</v>
       </c>
       <c r="Y39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
@@ -4224,36 +4199,36 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O40" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P40" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q40" t="s">
-        <v>169</v>
-      </c>
-      <c r="U40" t="s">
-        <v>239</v>
-      </c>
-      <c r="V40" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="W40" t="s">
-        <v>238</v>
+        <v>200</v>
+      </c>
+      <c r="X40" t="s">
+        <v>198</v>
       </c>
       <c r="Y40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
@@ -4287,36 +4262,36 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O41" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P41" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q41" t="s">
-        <v>170</v>
-      </c>
-      <c r="U41" t="s">
-        <v>239</v>
-      </c>
-      <c r="V41" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="W41" t="s">
-        <v>238</v>
+        <v>200</v>
+      </c>
+      <c r="X41" t="s">
+        <v>198</v>
       </c>
       <c r="Y41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
@@ -4350,36 +4325,36 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O42" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P42" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q42" t="s">
-        <v>171</v>
-      </c>
-      <c r="U42" t="s">
-        <v>239</v>
-      </c>
-      <c r="V42" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="W42" t="s">
-        <v>238</v>
+        <v>200</v>
+      </c>
+      <c r="X42" t="s">
+        <v>198</v>
       </c>
       <c r="Y42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
@@ -4413,36 +4388,36 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O43" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q43" t="s">
-        <v>172</v>
-      </c>
-      <c r="U43" t="s">
-        <v>242</v>
-      </c>
-      <c r="V43" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="W43" t="s">
-        <v>241</v>
+        <v>203</v>
+      </c>
+      <c r="X43" t="s">
+        <v>201</v>
       </c>
       <c r="Y43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
@@ -4476,36 +4451,36 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O44" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P44" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="s">
-        <v>173</v>
-      </c>
-      <c r="U44" t="s">
-        <v>242</v>
-      </c>
-      <c r="V44" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="W44" t="s">
-        <v>241</v>
+        <v>203</v>
+      </c>
+      <c r="X44" t="s">
+        <v>201</v>
       </c>
       <c r="Y44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
@@ -4539,36 +4514,36 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O45" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P45" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q45" t="s">
-        <v>174</v>
-      </c>
-      <c r="U45" t="s">
-        <v>242</v>
-      </c>
-      <c r="V45" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="W45" t="s">
-        <v>241</v>
+        <v>203</v>
+      </c>
+      <c r="X45" t="s">
+        <v>201</v>
       </c>
       <c r="Y45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
@@ -4602,36 +4577,36 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O46" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P46" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q46" t="s">
-        <v>176</v>
-      </c>
-      <c r="U46" t="s">
-        <v>242</v>
-      </c>
-      <c r="V46" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="W46" t="s">
-        <v>241</v>
+        <v>203</v>
+      </c>
+      <c r="X46" t="s">
+        <v>201</v>
       </c>
       <c r="Y46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
@@ -4665,36 +4640,36 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O47" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P47" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q47" t="s">
-        <v>175</v>
-      </c>
-      <c r="U47" t="s">
-        <v>242</v>
-      </c>
-      <c r="V47" t="s">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="W47" t="s">
-        <v>241</v>
+        <v>203</v>
+      </c>
+      <c r="X47" t="s">
+        <v>201</v>
       </c>
       <c r="Y47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
@@ -4728,36 +4703,36 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O48" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P48" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q48" t="s">
-        <v>177</v>
-      </c>
-      <c r="U48" t="s">
-        <v>245</v>
-      </c>
-      <c r="V48" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="W48" t="s">
-        <v>244</v>
+        <v>206</v>
+      </c>
+      <c r="X48" t="s">
+        <v>204</v>
       </c>
       <c r="Y48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
@@ -4791,36 +4766,36 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O49" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P49" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q49" t="s">
-        <v>178</v>
-      </c>
-      <c r="U49" t="s">
-        <v>245</v>
-      </c>
-      <c r="V49" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="W49" t="s">
-        <v>244</v>
+        <v>206</v>
+      </c>
+      <c r="X49" t="s">
+        <v>204</v>
       </c>
       <c r="Y49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
@@ -4854,36 +4829,36 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O50" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q50" t="s">
-        <v>179</v>
-      </c>
-      <c r="U50" t="s">
-        <v>245</v>
-      </c>
-      <c r="V50" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="W50" t="s">
-        <v>244</v>
+        <v>206</v>
+      </c>
+      <c r="X50" t="s">
+        <v>204</v>
       </c>
       <c r="Y50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
@@ -4917,36 +4892,36 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O51" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P51" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q51" t="s">
-        <v>180</v>
-      </c>
-      <c r="U51" t="s">
-        <v>245</v>
-      </c>
-      <c r="V51" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="W51" t="s">
-        <v>244</v>
+        <v>206</v>
+      </c>
+      <c r="X51" t="s">
+        <v>204</v>
       </c>
       <c r="Y51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
@@ -4980,36 +4955,36 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O52" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P52" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q52" t="s">
-        <v>181</v>
-      </c>
-      <c r="U52" t="s">
-        <v>245</v>
-      </c>
-      <c r="V52" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="W52" t="s">
-        <v>244</v>
+        <v>206</v>
+      </c>
+      <c r="X52" t="s">
+        <v>204</v>
       </c>
       <c r="Y52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
@@ -5043,36 +5018,36 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O53" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P53" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q53" t="s">
-        <v>166</v>
-      </c>
-      <c r="U53" t="s">
-        <v>219</v>
-      </c>
-      <c r="V53" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="W53" t="s">
-        <v>220</v>
+        <v>180</v>
+      </c>
+      <c r="X53" t="s">
+        <v>168</v>
       </c>
       <c r="Y53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
@@ -5106,36 +5081,36 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O54" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P54" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q54" t="s">
-        <v>167</v>
-      </c>
-      <c r="U54" t="s">
-        <v>219</v>
-      </c>
-      <c r="V54" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="W54" t="s">
-        <v>220</v>
+        <v>180</v>
+      </c>
+      <c r="X54" t="s">
+        <v>168</v>
       </c>
       <c r="Y54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
@@ -5169,36 +5144,36 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O55" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P55" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q55" t="s">
-        <v>182</v>
-      </c>
-      <c r="U55" t="s">
-        <v>242</v>
-      </c>
-      <c r="V55" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="W55" t="s">
-        <v>247</v>
+        <v>203</v>
+      </c>
+      <c r="X55" t="s">
+        <v>207</v>
       </c>
       <c r="Y55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C56">
         <f t="shared" si="4"/>
@@ -5232,36 +5207,36 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O56" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P56" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q56" t="s">
-        <v>183</v>
-      </c>
-      <c r="U56" t="s">
-        <v>242</v>
-      </c>
-      <c r="V56" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="W56" t="s">
-        <v>247</v>
+        <v>203</v>
+      </c>
+      <c r="X56" t="s">
+        <v>207</v>
       </c>
       <c r="Y56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C57">
         <f t="shared" si="4"/>
@@ -5295,36 +5270,36 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O57" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q57" t="s">
-        <v>184</v>
-      </c>
-      <c r="U57" t="s">
-        <v>242</v>
-      </c>
-      <c r="V57" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="W57" t="s">
-        <v>247</v>
+        <v>203</v>
+      </c>
+      <c r="X57" t="s">
+        <v>207</v>
       </c>
       <c r="Y57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C58">
         <f t="shared" si="4"/>
@@ -5358,36 +5333,36 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O58" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q58" t="s">
-        <v>185</v>
-      </c>
-      <c r="U58" t="s">
-        <v>242</v>
-      </c>
-      <c r="V58" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="W58" t="s">
-        <v>247</v>
+        <v>203</v>
+      </c>
+      <c r="X58" t="s">
+        <v>207</v>
       </c>
       <c r="Y58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C59">
         <f t="shared" si="4"/>
@@ -5421,36 +5396,36 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q59" t="s">
-        <v>186</v>
-      </c>
-      <c r="U59" t="s">
-        <v>242</v>
-      </c>
-      <c r="V59" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="W59" t="s">
-        <v>247</v>
+        <v>203</v>
+      </c>
+      <c r="X59" t="s">
+        <v>207</v>
       </c>
       <c r="Y59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="C60">
         <f t="shared" si="4"/>
@@ -5484,42 +5459,45 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O60" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P60" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q60" t="s">
-        <v>97</v>
-      </c>
-      <c r="T60" t="s">
-        <v>152</v>
-      </c>
-      <c r="U60" t="s">
-        <v>209</v>
+        <v>66</v>
+      </c>
+      <c r="R60" t="s">
+        <v>280</v>
+      </c>
+      <c r="S60" t="s">
+        <v>270</v>
       </c>
       <c r="V60" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="W60" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X60" t="s">
+        <v>168</v>
       </c>
       <c r="Y60" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="C61">
         <f t="shared" si="4"/>
@@ -5553,42 +5531,45 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O61" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P61" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q61" t="s">
-        <v>260</v>
-      </c>
-      <c r="T61" t="s">
-        <v>152</v>
-      </c>
-      <c r="U61" t="s">
-        <v>209</v>
+        <v>220</v>
+      </c>
+      <c r="R61" t="s">
+        <v>280</v>
+      </c>
+      <c r="S61" t="s">
+        <v>270</v>
       </c>
       <c r="V61" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="W61" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X61" t="s">
+        <v>168</v>
       </c>
       <c r="Y61" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="C62">
         <f t="shared" si="4"/>
@@ -5622,42 +5603,45 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O62" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P62" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q62" t="s">
-        <v>261</v>
-      </c>
-      <c r="T62" t="s">
-        <v>152</v>
-      </c>
-      <c r="U62" t="s">
-        <v>209</v>
+        <v>221</v>
+      </c>
+      <c r="R62" t="s">
+        <v>280</v>
+      </c>
+      <c r="S62" t="s">
+        <v>270</v>
       </c>
       <c r="V62" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="W62" t="s">
-        <v>208</v>
+        <v>170</v>
+      </c>
+      <c r="X62" t="s">
+        <v>168</v>
       </c>
       <c r="Y62" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5669,7 +5653,7 @@
         <v>0.4</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I65">
         <v>30</v>
@@ -5678,325 +5662,2170 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65" t="s">
+        <v>163</v>
+      </c>
+      <c r="O65" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" t="s">
+        <v>164</v>
+      </c>
+      <c r="T65">
+        <v>180</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.4</v>
+      </c>
+      <c r="H66">
+        <v>0.2</v>
+      </c>
+      <c r="I66">
+        <v>50</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>99</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
+        <v>163</v>
+      </c>
+      <c r="O66" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" t="s">
+        <v>164</v>
+      </c>
+      <c r="T66">
+        <v>181</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.4</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="I67">
+        <v>80</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>99</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>163</v>
+      </c>
+      <c r="O67" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" t="s">
+        <v>164</v>
+      </c>
+      <c r="T67">
+        <v>182</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="L68">
+        <v>99</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
+        <v>163</v>
+      </c>
+      <c r="O68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" t="s">
+        <v>164</v>
+      </c>
+      <c r="T68">
+        <v>183</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>84</v>
+      </c>
+      <c r="B69" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>-1</v>
+      </c>
+      <c r="L69">
+        <v>99</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
+        <v>163</v>
+      </c>
+      <c r="O69" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" t="s">
+        <v>164</v>
+      </c>
+      <c r="T69">
+        <v>184</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>-1</v>
+      </c>
+      <c r="L70">
+        <v>99</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
+        <v>163</v>
+      </c>
+      <c r="O70" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" t="s">
+        <v>164</v>
+      </c>
+      <c r="T70">
+        <v>185</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>86</v>
+      </c>
+      <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>99</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>163</v>
+      </c>
+      <c r="O71" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" t="s">
+        <v>164</v>
+      </c>
+      <c r="T71">
+        <v>186</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>87</v>
+      </c>
+      <c r="B72" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>99</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>163</v>
+      </c>
+      <c r="O72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" t="s">
+        <v>164</v>
+      </c>
+      <c r="T72">
+        <v>187</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>231</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>99</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
+        <v>163</v>
+      </c>
+      <c r="O73" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" t="s">
+        <v>164</v>
+      </c>
+      <c r="T73">
+        <v>188</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>99</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
+        <v>163</v>
+      </c>
+      <c r="O74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" t="s">
+        <v>164</v>
+      </c>
+      <c r="T74">
+        <v>189</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.4</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>99</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
+        <v>163</v>
+      </c>
+      <c r="O75" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" t="s">
+        <v>164</v>
+      </c>
+      <c r="T75">
+        <v>190</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>91</v>
+      </c>
+      <c r="B76" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0.4</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>99</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>163</v>
+      </c>
+      <c r="O76" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" t="s">
+        <v>164</v>
+      </c>
+      <c r="T76">
+        <v>191</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>92</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.5</v>
+      </c>
+      <c r="H77">
+        <v>0.3</v>
+      </c>
+      <c r="I77">
+        <v>40</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>99</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>165</v>
+      </c>
+      <c r="O77" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" t="s">
+        <v>164</v>
+      </c>
+      <c r="T77">
+        <v>192</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
+      <c r="H78">
+        <v>0.3</v>
+      </c>
+      <c r="I78">
+        <v>70</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>99</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>165</v>
+      </c>
+      <c r="O78" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" t="s">
+        <v>164</v>
+      </c>
+      <c r="T78">
+        <v>193</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.5</v>
+      </c>
+      <c r="H79">
+        <v>0.3</v>
+      </c>
+      <c r="I79">
+        <v>110</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>99</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>165</v>
+      </c>
+      <c r="O79" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" t="s">
+        <v>164</v>
+      </c>
+      <c r="T79">
+        <v>194</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>99</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>165</v>
+      </c>
+      <c r="O80" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" t="s">
+        <v>164</v>
+      </c>
+      <c r="T80">
         <v>195</v>
       </c>
-      <c r="O65" t="s">
-        <v>49</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="AA80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>96</v>
+      </c>
+      <c r="B81" t="s">
+        <v>240</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>99</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>165</v>
+      </c>
+      <c r="O81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" t="s">
+        <v>164</v>
+      </c>
+      <c r="T81">
         <v>196</v>
       </c>
-      <c r="R65">
-        <v>2001</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="AA81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>97</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>99</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>165</v>
+      </c>
+      <c r="O82" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" t="s">
+        <v>164</v>
+      </c>
+      <c r="T82">
+        <v>197</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>99</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>163</v>
+      </c>
+      <c r="O83" t="s">
+        <v>32</v>
+      </c>
+      <c r="P83" t="s">
+        <v>164</v>
+      </c>
+      <c r="T83">
+        <v>198</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>99</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>163</v>
+      </c>
+      <c r="O84" t="s">
+        <v>32</v>
+      </c>
+      <c r="P84" t="s">
+        <v>164</v>
+      </c>
+      <c r="T84">
+        <v>199</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>99</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>163</v>
+      </c>
+      <c r="O85" t="s">
+        <v>32</v>
+      </c>
+      <c r="P85" t="s">
+        <v>164</v>
+      </c>
+      <c r="T85">
+        <v>200</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>101</v>
+      </c>
+      <c r="B86" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>-0.7</v>
+      </c>
+      <c r="I86">
+        <v>20</v>
+      </c>
+      <c r="J86">
+        <v>-1</v>
+      </c>
+      <c r="L86">
+        <v>99</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>163</v>
+      </c>
+      <c r="O86" t="s">
+        <v>32</v>
+      </c>
+      <c r="P86" t="s">
+        <v>164</v>
+      </c>
+      <c r="T86">
+        <v>201</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>102</v>
+      </c>
+      <c r="B87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>-1.2</v>
+      </c>
+      <c r="I87">
+        <v>40</v>
+      </c>
+      <c r="J87">
+        <v>-1</v>
+      </c>
+      <c r="L87">
+        <v>99</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
+        <v>163</v>
+      </c>
+      <c r="O87" t="s">
+        <v>32</v>
+      </c>
+      <c r="P87" t="s">
+        <v>164</v>
+      </c>
+      <c r="T87">
         <v>202</v>
       </c>
-      <c r="B66" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
+      <c r="AA87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>-1.8</v>
+      </c>
+      <c r="I88">
+        <v>70</v>
+      </c>
+      <c r="J88">
+        <v>-1</v>
+      </c>
+      <c r="L88">
+        <v>99</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>163</v>
+      </c>
+      <c r="O88" t="s">
+        <v>32</v>
+      </c>
+      <c r="P88" t="s">
+        <v>164</v>
+      </c>
+      <c r="T88">
+        <v>203</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>104</v>
+      </c>
+      <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0.8</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89">
+        <v>30</v>
+      </c>
+      <c r="J89">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>10</v>
-      </c>
-      <c r="J66">
-        <v>3</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
-        <v>195</v>
-      </c>
-      <c r="O66" t="s">
-        <v>49</v>
-      </c>
-      <c r="P66" t="s">
-        <v>196</v>
-      </c>
-      <c r="R66">
-        <v>2002</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>203</v>
-      </c>
-      <c r="B67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>163</v>
+      </c>
+      <c r="O89" t="s">
+        <v>32</v>
+      </c>
+      <c r="P89" t="s">
+        <v>164</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="X89" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
         <v>0.8</v>
       </c>
-      <c r="H67">
+      <c r="H90">
         <v>0.5</v>
       </c>
-      <c r="I67">
+      <c r="I90">
+        <v>40</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>163</v>
+      </c>
+      <c r="O90" t="s">
+        <v>32</v>
+      </c>
+      <c r="P90" t="s">
+        <v>164</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="X90" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>106</v>
+      </c>
+      <c r="B91" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.8</v>
+      </c>
+      <c r="H91">
+        <v>0.5</v>
+      </c>
+      <c r="I91">
+        <v>60</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>163</v>
+      </c>
+      <c r="O91" t="s">
+        <v>32</v>
+      </c>
+      <c r="P91" t="s">
+        <v>164</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="X91" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0.8</v>
+      </c>
+      <c r="I92">
+        <v>45</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>163</v>
+      </c>
+      <c r="O92" t="s">
+        <v>32</v>
+      </c>
+      <c r="P92" t="s">
+        <v>164</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="X92" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0.8</v>
+      </c>
+      <c r="I93">
+        <v>70</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
+        <v>163</v>
+      </c>
+      <c r="O93" t="s">
+        <v>32</v>
+      </c>
+      <c r="P93" t="s">
+        <v>164</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="X93" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0.8</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>163</v>
+      </c>
+      <c r="O94" t="s">
+        <v>32</v>
+      </c>
+      <c r="P94" t="s">
+        <v>164</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="X94" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0.8</v>
+      </c>
+      <c r="H95">
+        <v>0.5</v>
+      </c>
+      <c r="I95">
         <v>30</v>
       </c>
-      <c r="J67">
+      <c r="J95">
         <v>1</v>
       </c>
-      <c r="L67">
+      <c r="L95">
         <v>1</v>
       </c>
-      <c r="M67">
+      <c r="M95">
         <v>2</v>
       </c>
-      <c r="N67" t="s">
-        <v>199</v>
-      </c>
-      <c r="O67" t="s">
-        <v>200</v>
-      </c>
-      <c r="P67" t="s">
-        <v>196</v>
-      </c>
-      <c r="R67">
-        <v>2003</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>204</v>
-      </c>
-      <c r="B68" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0.2</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
+      <c r="N95" t="s">
+        <v>163</v>
+      </c>
+      <c r="O95" t="s">
+        <v>32</v>
+      </c>
+      <c r="P95" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>291</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="X95" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0.8</v>
+      </c>
+      <c r="H96">
+        <v>0.5</v>
+      </c>
+      <c r="I96">
+        <v>30</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
         <v>2</v>
       </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-      <c r="O68" t="s">
-        <v>49</v>
-      </c>
-      <c r="P68" t="s">
-        <v>196</v>
-      </c>
-      <c r="R68">
-        <v>2004</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>205</v>
-      </c>
-      <c r="B69" t="s">
-        <v>202</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0.4</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>3</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-      <c r="O69" t="s">
-        <v>49</v>
-      </c>
-      <c r="P69" t="s">
-        <v>196</v>
-      </c>
-      <c r="R69">
-        <v>2005</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>206</v>
-      </c>
-      <c r="B70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0.6</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>50</v>
-      </c>
-      <c r="J70">
-        <v>3</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70" t="s">
-        <v>195</v>
-      </c>
-      <c r="O70" t="s">
-        <v>49</v>
-      </c>
-      <c r="P70" t="s">
-        <v>196</v>
-      </c>
-      <c r="R70">
-        <v>2006</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>207</v>
-      </c>
-      <c r="B71" t="s">
-        <v>198</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0.3</v>
-      </c>
-      <c r="H71">
-        <v>0.2</v>
-      </c>
-      <c r="I71">
-        <v>20</v>
-      </c>
-      <c r="J71">
+      <c r="N96" t="s">
+        <v>163</v>
+      </c>
+      <c r="O96" t="s">
+        <v>32</v>
+      </c>
+      <c r="P96" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>292</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="X96" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0.8</v>
+      </c>
+      <c r="H97">
+        <v>0.5</v>
+      </c>
+      <c r="I97">
+        <v>30</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
         <v>2</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>2</v>
-      </c>
-      <c r="N71" t="s">
-        <v>195</v>
-      </c>
-      <c r="O71" t="s">
-        <v>49</v>
-      </c>
-      <c r="P71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R71">
-        <v>2007</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>81</v>
+      <c r="N97" t="s">
+        <v>163</v>
+      </c>
+      <c r="O97" t="s">
+        <v>32</v>
+      </c>
+      <c r="P97" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>293</v>
+      </c>
+      <c r="S97" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="X97" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA113" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA126" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA128" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA130" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA135" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA136" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA144" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA145" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA146" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA147" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA148" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA152" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA153" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA155" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA156" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA157" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA159" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA160" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA163" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA166" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA167" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA168" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA170" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA172" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA173" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA174" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA175" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA176" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA177" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA179" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA180" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA181" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA183" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA184" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA185" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA186" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA187" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA190" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA192" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA197" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA198" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA199" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA200" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA206" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA207" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA208" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA210" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>$AB$4:$AB$6</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
-      <formula1>$AF$4:$AF$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{1422E5E5-B95E-4F64-8D42-7EE6487FBC1B}">
-      <formula1>$AD$4:$AD$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:P1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6005,6 +7834,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C502AE29-D253-415D-8A2D-FF13FF4CDB73}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -6025,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -6037,7 +7946,7 @@
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6048,7 +7957,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -6060,7 +7969,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6083,7 +7992,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6093,7 +8002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228E65DD-8B46-4A55-9FE9-782D81DA489A}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41A1B93-5834-402D-90EF-47DDD891951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691735B-68EE-4831-B4B8-6EB773C27825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="EffectSkill" sheetId="2" r:id="rId3"/>
     <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="302">
   <si>
     <t>名字</t>
   </si>
@@ -1114,19 +1114,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShieldEffect_ForcefieldBlue</t>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_IceShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1457,8 +1473,8 @@
   <dimension ref="A1:AA210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P92" sqref="P92"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O79" sqref="O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6790,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="L89">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -6840,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -6890,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -6940,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -6958,7 +6974,7 @@
         <v>284</v>
       </c>
       <c r="X92" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA92" t="s">
         <v>50</v>
@@ -6990,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -7008,7 +7024,7 @@
         <v>285</v>
       </c>
       <c r="X93" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA93" t="s">
         <v>50</v>
@@ -7040,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -7058,7 +7074,7 @@
         <v>286</v>
       </c>
       <c r="X94" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA94" t="s">
         <v>50</v>
@@ -7090,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M95">
         <v>2</v>
@@ -7108,7 +7124,7 @@
         <v>291</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X95" t="s">
         <v>290</v>
@@ -7143,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M96">
         <v>2</v>
@@ -7161,7 +7177,7 @@
         <v>292</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="X96" t="s">
         <v>290</v>
@@ -7196,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="M97">
         <v>2</v>
@@ -7214,7 +7230,7 @@
         <v>293</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="X97" t="s">
         <v>290</v>
@@ -7223,25 +7239,151 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>113</v>
+      </c>
       <c r="B98" t="s">
         <v>257</v>
       </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0.8</v>
+      </c>
+      <c r="I98">
+        <v>30</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>99</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>163</v>
+      </c>
+      <c r="O98" t="s">
+        <v>32</v>
+      </c>
+      <c r="P98" t="s">
+        <v>164</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="X98" t="s">
+        <v>301</v>
+      </c>
       <c r="AA98" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>114</v>
+      </c>
       <c r="B99" t="s">
         <v>258</v>
       </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0.8</v>
+      </c>
+      <c r="I99">
+        <v>30</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>99</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>163</v>
+      </c>
+      <c r="O99" t="s">
+        <v>32</v>
+      </c>
+      <c r="P99" t="s">
+        <v>164</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="X99" t="s">
+        <v>301</v>
+      </c>
       <c r="AA99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>115</v>
+      </c>
       <c r="B100" t="s">
         <v>259</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0.8</v>
+      </c>
+      <c r="I100">
+        <v>30</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>99</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>163</v>
+      </c>
+      <c r="O100" t="s">
+        <v>32</v>
+      </c>
+      <c r="P100" t="s">
+        <v>164</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="X100" t="s">
+        <v>301</v>
       </c>
       <c r="AA100" t="s">
         <v>50</v>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691735B-68EE-4831-B4B8-6EB773C27825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770E6F7-9BC9-465A-8312-B4F7367F4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="3945" windowWidth="28800" windowHeight="15435" tabRatio="516" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
     <sheet name="EffectSkill" sheetId="2" r:id="rId3"/>
     <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId4"/>
+    <sheet name="技能" sheetId="6" r:id="rId5"/>
+    <sheet name="效果" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="306">
   <si>
     <t>名字</t>
   </si>
@@ -1142,6 +1144,22 @@
   </si>
   <si>
     <t>ShieldEffect_IceShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usableCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,9 +1490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O79" sqref="O79"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8155,4 +8173,148 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04C4F02-7AEC-4C27-8FFB-4D404A92A80C}">
+  <dimension ref="B1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N3" xr:uid="{955865A9-FA2E-4EA3-8018-FB7838469A24}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{6580F472-D21E-4020-8A7C-E1BE9C8D0150}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86EF6B-8077-4C7A-9945-6AF4BAA57BF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F770E6F7-9BC9-465A-8312-B4F7367F4895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF006D-449E-4880-9F95-26D56980D42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="3945" windowWidth="28800" windowHeight="15435" tabRatio="516" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="技能" sheetId="6" r:id="rId5"/>
     <sheet name="效果" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="302">
   <si>
     <t>名字</t>
   </si>
@@ -155,14 +155,6 @@
     <t>Any</t>
   </si>
   <si>
-    <t>消耗次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillAnimTrigger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,14 +224,6 @@
   </si>
   <si>
     <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1490,9 +1474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA210"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:Q3"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1526,22 +1510,22 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -1562,25 +1546,25 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="S1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="T1" t="s">
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="X1" t="s">
         <v>16</v>
@@ -1603,28 +1587,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -1645,25 +1629,25 @@
         <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="S2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="T2" t="s">
         <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="X2" t="s">
         <v>15</v>
@@ -1689,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1722,22 +1706,22 @@
         <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="S3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="T3" t="s">
         <v>21</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="W3" t="s">
         <v>6</v>
@@ -1760,20 +1744,20 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <f>(INT(E4/F4)+1)*D4*(1/(2+G4))</f>
-        <v>10</v>
+        <f>D4*F4</f>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>-0.8</v>
@@ -1803,25 +1787,25 @@
         <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -1829,20 +1813,20 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C36" si="0">(INT(E5/F5)+1)*D5*(1/(2+G5))</f>
-        <v>13.333333333333334</v>
+        <f t="shared" ref="C5:C62" si="0">D5*F5</f>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>-0.8</v>
@@ -1872,25 +1856,25 @@
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -1898,20 +1882,20 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>-0.8</v>
@@ -1941,25 +1925,25 @@
         <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -1967,11 +1951,11 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <f>D7*(1/(2+G7))</f>
-        <v>6.6666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -1980,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2010,28 +1994,28 @@
         <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="X7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Y7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -2039,11 +2023,11 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C15" si="1">D8*(1/(2+G8))</f>
-        <v>8.6666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>26</v>
@@ -2052,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2082,28 +2066,28 @@
         <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="X8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Y8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -2111,11 +2095,11 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>11.666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -2124,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2154,28 +2138,28 @@
         <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="W9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="X9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Y9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -2183,11 +2167,11 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -2196,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0.5</v>
@@ -2226,19 +2210,19 @@
         <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="W10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="X10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -2246,11 +2230,11 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -2259,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0.5</v>
@@ -2289,19 +2273,19 @@
         <v>31</v>
       </c>
       <c r="Q11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="W11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="X11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -2309,11 +2293,11 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -2322,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0.5</v>
@@ -2352,19 +2336,19 @@
         <v>31</v>
       </c>
       <c r="Q12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="W12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="X12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -2372,11 +2356,11 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>11.666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -2385,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>-1.4</v>
@@ -2415,19 +2399,19 @@
         <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="W13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2435,11 +2419,11 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2448,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2478,13 +2462,13 @@
         <v>31</v>
       </c>
       <c r="Q14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AA14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2492,11 +2476,11 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2505,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2535,25 +2519,25 @@
         <v>31</v>
       </c>
       <c r="Q15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="W15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -2561,11 +2545,11 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>10.588235294117647</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2574,7 +2558,7 @@
         <v>0.5</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>-0.3</v>
@@ -2604,22 +2588,22 @@
         <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -2627,11 +2611,11 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>14.117647058823529</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -2640,7 +2624,7 @@
         <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>-0.3</v>
@@ -2670,25 +2654,25 @@
         <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
@@ -2696,11 +2680,11 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>17.647058823529413</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2709,7 +2693,7 @@
         <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>-0.3</v>
@@ -2739,25 +2723,25 @@
         <v>31</v>
       </c>
       <c r="Q18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="R18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="V18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -2765,11 +2749,11 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -2778,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2808,19 +2792,19 @@
         <v>31</v>
       </c>
       <c r="Q19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="W19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="X19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AA19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -2828,11 +2812,11 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C22" si="2">D20*(1/(2+G20))</f>
-        <v>10.000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -2841,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>-1.6</v>
@@ -2871,22 +2855,22 @@
         <v>31</v>
       </c>
       <c r="Q20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -2894,11 +2878,11 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>12.500000000000002</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -2907,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>-1.6</v>
@@ -2937,22 +2921,22 @@
         <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
@@ -2960,11 +2944,11 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>15.000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -2973,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>-1.6</v>
@@ -3003,22 +2987,22 @@
         <v>31</v>
       </c>
       <c r="Q22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -3026,11 +3010,11 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -3039,7 +3023,7 @@
         <v>0.4</v>
       </c>
       <c r="F23">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -3069,28 +3053,28 @@
         <v>31</v>
       </c>
       <c r="Q23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="R23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="V23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
@@ -3098,11 +3082,11 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -3111,7 +3095,7 @@
         <v>0.4</v>
       </c>
       <c r="F24">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -3141,28 +3125,28 @@
         <v>31</v>
       </c>
       <c r="Q24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="R24" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="V24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -3170,11 +3154,11 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>12</v>
@@ -3183,7 +3167,7 @@
         <v>0.4</v>
       </c>
       <c r="F25">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3213,28 +3197,28 @@
         <v>31</v>
       </c>
       <c r="Q25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -3242,11 +3226,11 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C28" si="3">D26*(1/(2+G26))</f>
-        <v>7.5</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -3255,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1.2</v>
@@ -3285,28 +3269,28 @@
         <v>31</v>
       </c>
       <c r="Q26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="X26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Y26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AA26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -3314,11 +3298,11 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
-        <v>11.25</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>36</v>
@@ -3327,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1.2</v>
@@ -3357,28 +3341,28 @@
         <v>31</v>
       </c>
       <c r="Q27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="R27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="X27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Y27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AA27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -3386,11 +3370,11 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
-        <v>18.75</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>60</v>
@@ -3399,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1.2</v>
@@ -3429,28 +3413,28 @@
         <v>31</v>
       </c>
       <c r="Q28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="R28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="X28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Y28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AA28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -3458,20 +3442,20 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>6</v>
       </c>
       <c r="E29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F29">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>-0.8</v>
@@ -3501,25 +3485,25 @@
         <v>31</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R29" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -3527,20 +3511,20 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>16</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>-0.8</v>
@@ -3570,25 +3554,25 @@
         <v>31</v>
       </c>
       <c r="Q30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y30" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -3596,20 +3580,20 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>10</v>
       </c>
       <c r="E31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F31">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>-0.8</v>
@@ -3639,25 +3623,25 @@
         <v>31</v>
       </c>
       <c r="Q31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
@@ -3665,20 +3649,20 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>12</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F32">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>-0.8</v>
@@ -3708,25 +3692,25 @@
         <v>31</v>
       </c>
       <c r="Q32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y32" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
@@ -3734,20 +3718,20 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F33">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>-0.8</v>
@@ -3777,25 +3761,25 @@
         <v>31</v>
       </c>
       <c r="Q33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -3803,20 +3787,20 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F34">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>-0.4</v>
@@ -3846,25 +3830,25 @@
         <v>31</v>
       </c>
       <c r="Q34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R34" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="X34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
@@ -3872,20 +3856,20 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F35">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>-0.4</v>
@@ -3915,25 +3899,25 @@
         <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="X35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
@@ -3941,20 +3925,20 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F36">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>-0.4</v>
@@ -3984,25 +3968,25 @@
         <v>31</v>
       </c>
       <c r="Q36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="V36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="X36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Y36" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AA36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
@@ -4010,11 +3994,11 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C62" si="4">D37*(1/(2+G37))</f>
-        <v>8.3333333333333339</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -4023,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>-0.2</v>
@@ -4053,19 +4037,19 @@
         <v>31</v>
       </c>
       <c r="Q37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="W37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="X37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y37" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AA37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -4073,11 +4057,11 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>20</v>
@@ -4086,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>-0.2</v>
@@ -4116,19 +4100,19 @@
         <v>31</v>
       </c>
       <c r="Q38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="X38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AA38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -4136,11 +4120,11 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C39">
-        <f t="shared" si="4"/>
-        <v>13.888888888888889</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>25</v>
@@ -4149,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>-0.2</v>
@@ -4179,19 +4163,19 @@
         <v>31</v>
       </c>
       <c r="Q39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="X39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AA39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -4199,11 +4183,11 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40">
-        <f t="shared" si="4"/>
-        <v>7.8260869565217401</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -4212,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0.3</v>
@@ -4242,19 +4226,19 @@
         <v>31</v>
       </c>
       <c r="Q40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="W40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="X40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AA40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -4262,11 +4246,11 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C41">
-        <f t="shared" si="4"/>
-        <v>10.434782608695652</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D41">
         <v>24</v>
@@ -4275,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0.3</v>
@@ -4305,19 +4289,19 @@
         <v>31</v>
       </c>
       <c r="Q41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="W41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="X41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AA41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
@@ -4325,11 +4309,11 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C42">
-        <f t="shared" si="4"/>
-        <v>15.65217391304348</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>36</v>
@@ -4338,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0.3</v>
@@ -4368,19 +4352,19 @@
         <v>31</v>
       </c>
       <c r="Q42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="W42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="X42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AA42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
@@ -4388,11 +4372,11 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C43">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>14</v>
@@ -4401,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4431,19 +4415,19 @@
         <v>31</v>
       </c>
       <c r="Q43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X43" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y43" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
@@ -4451,11 +4435,11 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D44">
         <v>20</v>
@@ -4464,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4494,19 +4478,19 @@
         <v>31</v>
       </c>
       <c r="Q44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W44" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y44" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
@@ -4514,11 +4498,11 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>28</v>
@@ -4527,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4557,19 +4541,19 @@
         <v>31</v>
       </c>
       <c r="Q45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="W45" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
@@ -4577,11 +4561,11 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="D46">
         <v>36</v>
@@ -4590,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4620,19 +4604,19 @@
         <v>31</v>
       </c>
       <c r="Q46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="W46" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X46" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y46" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
@@ -4640,11 +4624,11 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>48</v>
@@ -4653,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4683,19 +4667,19 @@
         <v>31</v>
       </c>
       <c r="Q47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W47" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y47" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
@@ -4703,11 +4687,11 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C48">
-        <f t="shared" si="4"/>
-        <v>7.6923076923076916</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>20</v>
@@ -4716,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0.6</v>
@@ -4746,19 +4730,19 @@
         <v>31</v>
       </c>
       <c r="Q48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="W48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X48" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
@@ -4766,11 +4750,11 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C49">
-        <f t="shared" si="4"/>
-        <v>11.538461538461537</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>30</v>
@@ -4779,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0.6</v>
@@ -4809,19 +4793,19 @@
         <v>31</v>
       </c>
       <c r="Q49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="W49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y49" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.2">
@@ -4829,11 +4813,11 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C50">
-        <f t="shared" si="4"/>
-        <v>15.384615384615383</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D50">
         <v>40</v>
@@ -4842,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0.6</v>
@@ -4872,19 +4856,19 @@
         <v>31</v>
       </c>
       <c r="Q50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X50" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
@@ -4892,11 +4876,11 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C51">
-        <f t="shared" si="4"/>
-        <v>19.23076923076923</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -4905,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0.6</v>
@@ -4935,19 +4919,19 @@
         <v>31</v>
       </c>
       <c r="Q51" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="W51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X51" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y51" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.2">
@@ -4955,11 +4939,11 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C52">
-        <f t="shared" si="4"/>
-        <v>24.615384615384613</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="D52">
         <v>64</v>
@@ -4968,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0.6</v>
@@ -4998,19 +4982,19 @@
         <v>31</v>
       </c>
       <c r="Q52" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="W52" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X52" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y52" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
@@ -5018,11 +5002,11 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C53">
-        <f t="shared" si="4"/>
-        <v>20.000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -5031,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>-1.6</v>
@@ -5061,19 +5045,19 @@
         <v>31</v>
       </c>
       <c r="Q53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="W53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
@@ -5081,11 +5065,11 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C54">
-        <f t="shared" si="4"/>
-        <v>25.000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>10</v>
@@ -5094,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>-1.6</v>
@@ -5124,19 +5108,19 @@
         <v>31</v>
       </c>
       <c r="Q54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="W54" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y54" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AA54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
@@ -5144,11 +5128,11 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C55">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="D55">
         <v>40</v>
@@ -5157,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5187,19 +5171,19 @@
         <v>31</v>
       </c>
       <c r="Q55" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="W55" t="s">
+        <v>199</v>
+      </c>
+      <c r="X55" t="s">
         <v>203</v>
       </c>
-      <c r="X55" t="s">
-        <v>207</v>
-      </c>
       <c r="Y55" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
@@ -5207,11 +5191,11 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C56">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -5220,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5250,19 +5234,19 @@
         <v>31</v>
       </c>
       <c r="Q56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="W56" t="s">
+        <v>199</v>
+      </c>
+      <c r="X56" t="s">
         <v>203</v>
       </c>
-      <c r="X56" t="s">
-        <v>207</v>
-      </c>
       <c r="Y56" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.2">
@@ -5270,11 +5254,11 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C57">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>60</v>
@@ -5283,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5313,19 +5297,19 @@
         <v>31</v>
       </c>
       <c r="Q57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="W57" t="s">
+        <v>199</v>
+      </c>
+      <c r="X57" t="s">
         <v>203</v>
       </c>
-      <c r="X57" t="s">
-        <v>207</v>
-      </c>
       <c r="Y57" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.2">
@@ -5333,11 +5317,11 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C58">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="D58">
         <v>80</v>
@@ -5346,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5376,19 +5360,19 @@
         <v>31</v>
       </c>
       <c r="Q58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="W58" t="s">
+        <v>199</v>
+      </c>
+      <c r="X58" t="s">
         <v>203</v>
       </c>
-      <c r="X58" t="s">
-        <v>207</v>
-      </c>
       <c r="Y58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA58" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
@@ -5396,11 +5380,11 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C59">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="D59">
         <v>100</v>
@@ -5409,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5439,19 +5423,19 @@
         <v>31</v>
       </c>
       <c r="Q59" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="W59" t="s">
+        <v>199</v>
+      </c>
+      <c r="X59" t="s">
         <v>203</v>
       </c>
-      <c r="X59" t="s">
-        <v>207</v>
-      </c>
       <c r="Y59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
@@ -5459,11 +5443,11 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C60">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D60">
         <v>30</v>
@@ -5472,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0.5</v>
@@ -5502,28 +5486,28 @@
         <v>31</v>
       </c>
       <c r="Q60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R60" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S60" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="V60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X60" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA60" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
@@ -5531,11 +5515,11 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C61">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="D61">
         <v>50</v>
@@ -5544,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0.5</v>
@@ -5574,28 +5558,28 @@
         <v>31</v>
       </c>
       <c r="Q61" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R61" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S61" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="V61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W61" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X61" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y61" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
@@ -5603,11 +5587,11 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C62">
-        <f t="shared" si="4"/>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="D62">
         <v>70</v>
@@ -5616,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0.5</v>
@@ -5646,28 +5630,28 @@
         <v>31</v>
       </c>
       <c r="Q62" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R62" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S62" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="V62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W62" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y62" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.2">
@@ -5675,7 +5659,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5702,19 +5686,19 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O65" t="s">
         <v>32</v>
       </c>
       <c r="P65" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T65">
         <v>180</v>
       </c>
       <c r="AA65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
@@ -5722,7 +5706,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5749,19 +5733,19 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O66" t="s">
         <v>32</v>
       </c>
       <c r="P66" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T66">
         <v>181</v>
       </c>
       <c r="AA66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
@@ -5769,7 +5753,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -5796,19 +5780,19 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O67" t="s">
         <v>32</v>
       </c>
       <c r="P67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T67">
         <v>182</v>
       </c>
       <c r="AA67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.2">
@@ -5816,7 +5800,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -5843,19 +5827,19 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O68" t="s">
         <v>32</v>
       </c>
       <c r="P68" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T68">
         <v>183</v>
       </c>
       <c r="AA68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
@@ -5863,7 +5847,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5890,19 +5874,19 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O69" t="s">
         <v>32</v>
       </c>
       <c r="P69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T69">
         <v>184</v>
       </c>
       <c r="AA69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
@@ -5910,7 +5894,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5937,19 +5921,19 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O70" t="s">
         <v>32</v>
       </c>
       <c r="P70" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T70">
         <v>185</v>
       </c>
       <c r="AA70" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
@@ -5957,7 +5941,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5984,19 +5968,19 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O71" t="s">
         <v>32</v>
       </c>
       <c r="P71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T71">
         <v>186</v>
       </c>
       <c r="AA71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
@@ -6004,7 +5988,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6031,19 +6015,19 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O72" t="s">
         <v>32</v>
       </c>
       <c r="P72" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T72">
         <v>187</v>
       </c>
       <c r="AA72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
@@ -6051,7 +6035,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6078,19 +6062,19 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O73" t="s">
         <v>32</v>
       </c>
       <c r="P73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T73">
         <v>188</v>
       </c>
       <c r="AA73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
@@ -6098,7 +6082,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6125,19 +6109,19 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O74" t="s">
         <v>32</v>
       </c>
       <c r="P74" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T74">
         <v>189</v>
       </c>
       <c r="AA74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
@@ -6145,7 +6129,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6172,19 +6156,19 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O75" t="s">
         <v>32</v>
       </c>
       <c r="P75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T75">
         <v>190</v>
       </c>
       <c r="AA75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
@@ -6192,7 +6176,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6219,19 +6203,19 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O76" t="s">
         <v>32</v>
       </c>
       <c r="P76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T76">
         <v>191</v>
       </c>
       <c r="AA76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
@@ -6239,7 +6223,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6266,19 +6250,19 @@
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O77" t="s">
         <v>32</v>
       </c>
       <c r="P77" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T77">
         <v>192</v>
       </c>
       <c r="AA77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
@@ -6286,7 +6270,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6313,19 +6297,19 @@
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O78" t="s">
         <v>32</v>
       </c>
       <c r="P78" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T78">
         <v>193</v>
       </c>
       <c r="AA78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
@@ -6333,7 +6317,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6360,19 +6344,19 @@
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O79" t="s">
         <v>32</v>
       </c>
       <c r="P79" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T79">
         <v>194</v>
       </c>
       <c r="AA79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
@@ -6380,7 +6364,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6407,19 +6391,19 @@
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O80" t="s">
         <v>32</v>
       </c>
       <c r="P80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T80">
         <v>195</v>
       </c>
       <c r="AA80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
@@ -6427,7 +6411,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6454,19 +6438,19 @@
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O81" t="s">
         <v>32</v>
       </c>
       <c r="P81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T81">
         <v>196</v>
       </c>
       <c r="AA81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
@@ -6474,7 +6458,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6501,19 +6485,19 @@
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O82" t="s">
         <v>32</v>
       </c>
       <c r="P82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T82">
         <v>197</v>
       </c>
       <c r="AA82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.2">
@@ -6521,7 +6505,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -6548,19 +6532,19 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O83" t="s">
         <v>32</v>
       </c>
       <c r="P83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T83">
         <v>198</v>
       </c>
       <c r="AA83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
@@ -6568,7 +6552,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -6595,19 +6579,19 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O84" t="s">
         <v>32</v>
       </c>
       <c r="P84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T84">
         <v>199</v>
       </c>
       <c r="AA84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
@@ -6615,7 +6599,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6642,19 +6626,19 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O85" t="s">
         <v>32</v>
       </c>
       <c r="P85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T85">
         <v>200</v>
       </c>
       <c r="AA85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
@@ -6662,7 +6646,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6689,19 +6673,19 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O86" t="s">
         <v>32</v>
       </c>
       <c r="P86" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T86">
         <v>201</v>
       </c>
       <c r="AA86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
@@ -6709,7 +6693,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -6736,19 +6720,19 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O87" t="s">
         <v>32</v>
       </c>
       <c r="P87" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T87">
         <v>202</v>
       </c>
       <c r="AA87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.2">
@@ -6756,7 +6740,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6783,19 +6767,19 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O88" t="s">
         <v>32</v>
       </c>
       <c r="P88" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T88">
         <v>203</v>
       </c>
       <c r="AA88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -6803,7 +6787,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -6830,22 +6814,22 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O89" t="s">
         <v>32</v>
       </c>
       <c r="P89" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="X89" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -6853,7 +6837,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6880,22 +6864,22 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O90" t="s">
         <v>32</v>
       </c>
       <c r="P90" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="X90" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA90" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -6903,7 +6887,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6930,22 +6914,22 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O91" t="s">
         <v>32</v>
       </c>
       <c r="P91" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="X91" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -6953,7 +6937,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6980,22 +6964,22 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O92" t="s">
         <v>32</v>
       </c>
       <c r="P92" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="X92" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AA92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7003,7 +6987,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7030,22 +7014,22 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O93" t="s">
         <v>32</v>
       </c>
       <c r="P93" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="X93" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AA93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7053,7 +7037,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7080,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O94" t="s">
         <v>32</v>
       </c>
       <c r="P94" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="X94" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AA94" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7103,7 +7087,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7130,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O95" t="s">
         <v>32</v>
@@ -7139,16 +7123,16 @@
         <v>31</v>
       </c>
       <c r="Q95" t="s">
+        <v>287</v>
+      </c>
+      <c r="S95" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="S95" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="X95" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AA95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7156,7 +7140,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7183,7 +7167,7 @@
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O96" t="s">
         <v>32</v>
@@ -7192,16 +7176,16 @@
         <v>31</v>
       </c>
       <c r="Q96" t="s">
+        <v>288</v>
+      </c>
+      <c r="S96" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="S96" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="X96" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AA96" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7209,7 +7193,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7236,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O97" t="s">
         <v>32</v>
@@ -7245,16 +7229,16 @@
         <v>31</v>
       </c>
       <c r="Q97" t="s">
+        <v>289</v>
+      </c>
+      <c r="S97" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="S97" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="X97" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AA97" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7262,7 +7246,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7289,22 +7273,22 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O98" t="s">
         <v>32</v>
       </c>
       <c r="P98" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="X98" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AA98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7312,7 +7296,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7339,22 +7323,22 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O99" t="s">
         <v>32</v>
       </c>
       <c r="P99" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="X99" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AA99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
@@ -7362,7 +7346,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7389,593 +7373,593 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O100" t="s">
         <v>32</v>
       </c>
       <c r="P100" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="X100" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AA100" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AA101" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AA102" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AA103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AA104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AA105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AA106" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA107" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA108" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA109" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA111" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA112" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA114" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA115" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA116" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA117" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA119" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA120" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA124" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA125" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA127" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA128" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AA132" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA133" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA135" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA136" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA139" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA142" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA143" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="2:27" x14ac:dyDescent="0.2">
       <c r="AA144" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA145" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA146" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA147" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA148" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA149" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA150" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA151" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA152" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA154" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA155" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA156" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA157" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA158" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA159" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA160" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA161" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA162" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA163" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA164" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA165" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA166" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA167" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA168" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA170" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA171" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA172" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA174" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA175" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA176" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA177" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA178" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA179" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA180" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA181" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA182" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA183" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA184" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA185" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA186" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA187" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA188" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA189" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA190" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA191" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA192" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA193" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA194" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA195" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA196" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA197" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA198" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA199" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA200" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA201" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA202" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="203" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA203" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA204" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA205" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA206" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA207" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA208" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA209" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210" spans="27:27" x14ac:dyDescent="0.2">
       <c r="AA210" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -8005,66 +7989,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" t="s">
         <v>271</v>
-      </c>
-      <c r="C1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" t="s">
         <v>273</v>
-      </c>
-      <c r="D4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -8094,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -8106,7 +8090,7 @@
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8117,7 +8101,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -8129,7 +8113,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8152,7 +8136,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8179,8 +8163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04C4F02-7AEC-4C27-8FFB-4D404A92A80C}">
   <dimension ref="B1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8195,13 +8179,13 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
@@ -8209,22 +8193,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -8245,7 +8229,7 @@
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
@@ -8289,7 +8273,7 @@
         <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF006D-449E-4880-9F95-26D56980D42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B95BF-53BF-4CCE-87AB-2C0406BA84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="EffectSkill" sheetId="2" r:id="rId3"/>
-    <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId4"/>
-    <sheet name="技能" sheetId="6" r:id="rId5"/>
-    <sheet name="效果" sheetId="7" r:id="rId6"/>
+    <sheet name="EffectSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId3"/>
+    <sheet name="技能" sheetId="6" r:id="rId4"/>
+    <sheet name="效果" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="300">
   <si>
     <t>名字</t>
   </si>
@@ -803,9 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContinuousEmitDecorator</t>
-  </si>
-  <si>
     <t>Sprite/SkillIcon/Icon_Magic0</t>
   </si>
   <si>
@@ -835,10 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContinuousEmitDecorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吸收周围敌人护盾值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1041,10 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ContinuousEmitDecorator,RandomTargetDecorator,DamageDecayDecorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SalovEmitBDecorator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,6 +1133,10 @@
   </si>
   <si>
     <t>usableCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomTargetDecorator,DamageDecayDecorator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1486,7 @@
     <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="33.25" customWidth="1"/>
-    <col min="18" max="18" width="65.375" customWidth="1"/>
+    <col min="18" max="18" width="44.375" customWidth="1"/>
     <col min="19" max="19" width="33.25" customWidth="1"/>
     <col min="20" max="20" width="12.375" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
@@ -1513,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G1" t="s">
         <v>42</v>
@@ -1525,7 +1518,7 @@
         <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -1552,7 +1545,7 @@
         <v>206</v>
       </c>
       <c r="S1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T1" t="s">
         <v>14</v>
@@ -1596,7 +1589,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -1608,7 +1601,7 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -1635,7 +1628,7 @@
         <v>207</v>
       </c>
       <c r="S2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T2" t="s">
         <v>22</v>
@@ -1712,7 +1705,7 @@
         <v>208</v>
       </c>
       <c r="S3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T3" t="s">
         <v>21</v>
@@ -1754,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1788,9 +1781,6 @@
       </c>
       <c r="Q4" t="s">
         <v>51</v>
-      </c>
-      <c r="R4" t="s">
-        <v>218</v>
       </c>
       <c r="V4" t="s">
         <v>52</v>
@@ -1823,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1857,9 +1847,6 @@
       </c>
       <c r="Q5" t="s">
         <v>54</v>
-      </c>
-      <c r="R5" t="s">
-        <v>218</v>
       </c>
       <c r="V5" t="s">
         <v>52</v>
@@ -1892,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1926,9 +1913,6 @@
       </c>
       <c r="Q6" t="s">
         <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>218</v>
       </c>
       <c r="V6" t="s">
         <v>52</v>
@@ -1997,10 +1981,10 @@
         <v>120</v>
       </c>
       <c r="R7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V7" t="s">
         <v>52</v>
@@ -2023,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2069,10 +2053,10 @@
         <v>124</v>
       </c>
       <c r="R8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V8" t="s">
         <v>52</v>
@@ -2087,7 +2071,7 @@
         <v>169</v>
       </c>
       <c r="AA8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -2095,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2141,10 +2125,10 @@
         <v>125</v>
       </c>
       <c r="R9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="V9" t="s">
         <v>52</v>
@@ -2159,7 +2143,7 @@
         <v>169</v>
       </c>
       <c r="AA9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -2522,10 +2506,10 @@
         <v>153</v>
       </c>
       <c r="R15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="W15" t="s">
         <v>168</v>
@@ -2656,9 +2640,6 @@
       <c r="Q17" t="s">
         <v>77</v>
       </c>
-      <c r="R17" t="s">
-        <v>218</v>
-      </c>
       <c r="V17" t="s">
         <v>63</v>
       </c>
@@ -2725,9 +2706,6 @@
       <c r="Q18" t="s">
         <v>130</v>
       </c>
-      <c r="R18" t="s">
-        <v>209</v>
-      </c>
       <c r="V18" t="s">
         <v>63</v>
       </c>
@@ -3056,10 +3034,10 @@
         <v>127</v>
       </c>
       <c r="R23" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="S23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V23" t="s">
         <v>82</v>
@@ -3128,10 +3106,10 @@
         <v>128</v>
       </c>
       <c r="R24" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="S24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V24" t="s">
         <v>82</v>
@@ -3200,10 +3178,10 @@
         <v>129</v>
       </c>
       <c r="R25" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="S25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V25" t="s">
         <v>82</v>
@@ -3272,10 +3250,10 @@
         <v>156</v>
       </c>
       <c r="R26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="V26" t="s">
         <v>82</v>
@@ -3344,10 +3322,10 @@
         <v>157</v>
       </c>
       <c r="R27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="V27" t="s">
         <v>82</v>
@@ -3416,10 +3394,10 @@
         <v>158</v>
       </c>
       <c r="R28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="V28" t="s">
         <v>82</v>
@@ -3452,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3486,9 +3464,6 @@
       </c>
       <c r="Q29" t="s">
         <v>51</v>
-      </c>
-      <c r="R29" t="s">
-        <v>218</v>
       </c>
       <c r="V29" t="s">
         <v>82</v>
@@ -3521,7 +3496,7 @@
         <v>8</v>
       </c>
       <c r="E30">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -3555,9 +3530,6 @@
       </c>
       <c r="Q30" t="s">
         <v>54</v>
-      </c>
-      <c r="R30" t="s">
-        <v>218</v>
       </c>
       <c r="V30" t="s">
         <v>82</v>
@@ -3590,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -3624,9 +3596,6 @@
       </c>
       <c r="Q31" t="s">
         <v>55</v>
-      </c>
-      <c r="R31" t="s">
-        <v>218</v>
       </c>
       <c r="V31" t="s">
         <v>82</v>
@@ -3659,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -3694,9 +3663,6 @@
       <c r="Q32" t="s">
         <v>89</v>
       </c>
-      <c r="R32" t="s">
-        <v>218</v>
-      </c>
       <c r="V32" t="s">
         <v>82</v>
       </c>
@@ -3728,7 +3694,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -3762,9 +3728,6 @@
       </c>
       <c r="Q33" t="s">
         <v>88</v>
-      </c>
-      <c r="R33" t="s">
-        <v>218</v>
       </c>
       <c r="V33" t="s">
         <v>82</v>
@@ -3832,9 +3795,6 @@
       <c r="Q34" t="s">
         <v>133</v>
       </c>
-      <c r="R34" t="s">
-        <v>218</v>
-      </c>
       <c r="V34" t="s">
         <v>82</v>
       </c>
@@ -3901,9 +3861,6 @@
       <c r="Q35" t="s">
         <v>62</v>
       </c>
-      <c r="R35" t="s">
-        <v>218</v>
-      </c>
       <c r="V35" t="s">
         <v>82</v>
       </c>
@@ -3970,9 +3927,6 @@
       <c r="Q36" t="s">
         <v>55</v>
       </c>
-      <c r="R36" t="s">
-        <v>218</v>
-      </c>
       <c r="V36" t="s">
         <v>82</v>
       </c>
@@ -5443,7 +5397,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -5489,10 +5443,10 @@
         <v>62</v>
       </c>
       <c r="R60" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V60" t="s">
         <v>117</v>
@@ -5515,7 +5469,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -5558,13 +5512,13 @@
         <v>31</v>
       </c>
       <c r="Q61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V61" t="s">
         <v>117</v>
@@ -5587,7 +5541,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -5630,13 +5584,13 @@
         <v>31</v>
       </c>
       <c r="Q62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V62" t="s">
         <v>117</v>
@@ -5659,13 +5613,13 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0.4</v>
@@ -5706,13 +5660,13 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0.4</v>
@@ -5753,13 +5707,13 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0.4</v>
@@ -5800,13 +5754,13 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -5847,13 +5801,13 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -5894,13 +5848,13 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5941,13 +5895,13 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -5988,13 +5942,13 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6035,13 +5989,13 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6082,13 +6036,13 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6129,13 +6083,13 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6176,13 +6130,13 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6223,13 +6177,13 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0.5</v>
@@ -6270,13 +6224,13 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0.5</v>
@@ -6317,13 +6271,13 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>0.5</v>
@@ -6364,13 +6318,13 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -6411,13 +6365,13 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -6458,13 +6412,13 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -6505,13 +6459,13 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -6552,13 +6506,13 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -6599,13 +6553,13 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -6646,13 +6600,13 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -6693,13 +6647,13 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -6740,13 +6694,13 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -6787,13 +6741,13 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>0.8</v>
@@ -6823,10 +6777,10 @@
         <v>160</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="X89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA89" t="s">
         <v>48</v>
@@ -6837,13 +6791,13 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0.8</v>
@@ -6873,10 +6827,10 @@
         <v>160</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="X90" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA90" t="s">
         <v>48</v>
@@ -6887,13 +6841,13 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0.8</v>
@@ -6923,10 +6877,10 @@
         <v>160</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="X91" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AA91" t="s">
         <v>48</v>
@@ -6937,13 +6891,13 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -6973,10 +6927,10 @@
         <v>160</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="X92" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AA92" t="s">
         <v>48</v>
@@ -6987,13 +6941,13 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -7023,10 +6977,10 @@
         <v>160</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="X93" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AA93" t="s">
         <v>48</v>
@@ -7037,13 +6991,13 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -7073,10 +7027,10 @@
         <v>160</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="X94" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AA94" t="s">
         <v>48</v>
@@ -7087,13 +7041,13 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0.8</v>
@@ -7123,13 +7077,13 @@
         <v>31</v>
       </c>
       <c r="Q95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X95" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AA95" t="s">
         <v>48</v>
@@ -7140,13 +7094,13 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0.8</v>
@@ -7176,13 +7130,13 @@
         <v>31</v>
       </c>
       <c r="Q96" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="X96" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AA96" t="s">
         <v>48</v>
@@ -7193,13 +7147,13 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>0.8</v>
@@ -7229,13 +7183,13 @@
         <v>31</v>
       </c>
       <c r="Q97" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="X97" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AA97" t="s">
         <v>48</v>
@@ -7246,13 +7200,13 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -7282,10 +7236,10 @@
         <v>160</v>
       </c>
       <c r="S98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="X98" t="s">
         <v>294</v>
-      </c>
-      <c r="X98" t="s">
-        <v>297</v>
       </c>
       <c r="AA98" t="s">
         <v>48</v>
@@ -7296,13 +7250,13 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -7332,10 +7286,10 @@
         <v>160</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="X99" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA99" t="s">
         <v>48</v>
@@ -7346,13 +7300,13 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -7382,10 +7336,10 @@
         <v>160</v>
       </c>
       <c r="S100" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="X100" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AA100" t="s">
         <v>48</v>
@@ -7393,7 +7347,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AA101" t="s">
         <v>48</v>
@@ -7401,7 +7355,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AA102" t="s">
         <v>48</v>
@@ -7409,7 +7363,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA103" t="s">
         <v>48</v>
@@ -7417,7 +7371,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AA104" t="s">
         <v>48</v>
@@ -7425,7 +7379,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA105" t="s">
         <v>48</v>
@@ -7433,7 +7387,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AA106" t="s">
         <v>48</v>
@@ -7566,7 +7520,7 @@
     </row>
     <row r="132" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AA132" t="s">
         <v>48</v>
@@ -7978,165 +7932,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C502AE29-D253-415D-8A2D-FF13FF4CDB73}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="2" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>162</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>163</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8146,7 +7992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228E65DD-8B46-4A55-9FE9-782D81DA489A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8159,12 +8005,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04C4F02-7AEC-4C27-8FFB-4D404A92A80C}">
   <dimension ref="B1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8182,10 +8028,10 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
@@ -8196,7 +8042,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -8208,7 +8054,7 @@
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -8290,7 +8136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86EF6B-8077-4C7A-9945-6AF4BAA57BF3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8301,4 +8147,84 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B95BF-53BF-4CCE-87AB-2C0406BA84E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18621252-4139-4D2E-9CE9-2E7FAE941D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5415" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
-    <sheet name="EffectSkill" sheetId="2" r:id="rId2"/>
-    <sheet name="EffectDecoratorSkill" sheetId="3" r:id="rId3"/>
-    <sheet name="技能" sheetId="6" r:id="rId4"/>
-    <sheet name="效果" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="303">
   <si>
     <t>名字</t>
   </si>
@@ -1137,6 +1133,18 @@
   </si>
   <si>
     <t>RandomTargetDecorator,DamageDecayDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDirectEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1465,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA210"/>
+  <dimension ref="A1:AB210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1477,28 +1485,28 @@
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="33.25" customWidth="1"/>
-    <col min="18" max="18" width="44.375" customWidth="1"/>
-    <col min="19" max="19" width="33.25" customWidth="1"/>
-    <col min="20" max="20" width="12.375" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="37.125" customWidth="1"/>
-    <col min="23" max="23" width="24.5" customWidth="1"/>
-    <col min="24" max="24" width="30.25" customWidth="1"/>
-    <col min="25" max="25" width="22" customWidth="1"/>
-    <col min="26" max="26" width="14.25" customWidth="1"/>
-    <col min="27" max="27" width="28.125" customWidth="1"/>
+    <col min="5" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="18.875" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="33.25" customWidth="1"/>
+    <col min="19" max="19" width="44.375" customWidth="1"/>
+    <col min="20" max="20" width="33.25" customWidth="1"/>
+    <col min="21" max="21" width="12.375" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="37.125" customWidth="1"/>
+    <col min="24" max="24" width="24.5" customWidth="1"/>
+    <col min="25" max="25" width="30.25" customWidth="1"/>
+    <col min="26" max="26" width="22" customWidth="1"/>
+    <col min="27" max="27" width="14.25" customWidth="1"/>
+    <col min="28" max="28" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1509,70 +1517,73 @@
         <v>295</v>
       </c>
       <c r="G1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>296</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>206</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>162</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1592,70 +1603,73 @@
         <v>297</v>
       </c>
       <c r="G2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>298</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>207</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>259</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>22</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>163</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1669,28 +1683,28 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
       <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
         <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
       </c>
       <c r="M3" t="s">
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O3" t="s">
         <v>6</v>
@@ -1699,25 +1713,25 @@
         <v>6</v>
       </c>
       <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
         <v>41</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>208</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>260</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>38</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>35</v>
-      </c>
-      <c r="W3" t="s">
-        <v>6</v>
       </c>
       <c r="X3" t="s">
         <v>6</v>
@@ -1729,10 +1743,13 @@
         <v>6</v>
       </c>
       <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1752,53 +1769,56 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>-0.8</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
       <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>51</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>52</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>166</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>165</v>
       </c>
-      <c r="AA4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1818,53 +1838,56 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>-0.8</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>15</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-1</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
       <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>54</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>52</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>166</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>164</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>165</v>
       </c>
-      <c r="AA5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1884,53 +1907,56 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>-0.8</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>30</v>
       </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
       <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>55</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>52</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>166</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>164</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>165</v>
       </c>
-      <c r="AA6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1950,59 +1976,62 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
+      <c r="G7" t="b">
+        <v>0</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>24</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
-        <v>32</v>
-      </c>
       <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>120</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>272</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>261</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>52</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>168</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>167</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>169</v>
       </c>
-      <c r="AA7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2022,59 +2051,62 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="G8" t="b">
+        <v>0</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.5</v>
       </c>
-      <c r="I8">
-        <v>32</v>
-      </c>
       <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
         <v>-1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>30</v>
       </c>
-      <c r="O8" t="s">
-        <v>32</v>
-      </c>
       <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>124</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>272</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>261</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>52</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>168</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>167</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>169</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2094,59 +2126,62 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1</v>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>40</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-1</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
       <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>125</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>272</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>261</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>52</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>168</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>167</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>169</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2166,50 +2201,53 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>8</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>30</v>
       </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
       <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>121</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>174</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>173</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>175</v>
       </c>
-      <c r="AA10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2229,50 +2267,53 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-1</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>30</v>
       </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
       <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>122</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>174</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>173</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>175</v>
       </c>
-      <c r="AA11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2292,50 +2333,53 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.5</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>18</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-1</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
       <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>123</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>174</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>173</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>175</v>
       </c>
-      <c r="AA12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2355,50 +2399,53 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>-1.4</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>30</v>
       </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
       <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>126</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>176</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>164</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>177</v>
       </c>
-      <c r="AA13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2407,7 +2454,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2416,46 +2463,52 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>25</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>30</v>
       </c>
-      <c r="O14" t="s">
-        <v>32</v>
-      </c>
       <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>152</v>
       </c>
-      <c r="X14" t="s">
+      <c r="T14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y14" t="s">
         <v>180</v>
       </c>
-      <c r="AA14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2475,56 +2528,59 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0.5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>20</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>30</v>
       </c>
-      <c r="O15" t="s">
-        <v>32</v>
-      </c>
       <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>153</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>272</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>261</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>168</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>178</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>179</v>
       </c>
-      <c r="AA15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2544,53 +2600,56 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>-0.3</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>12</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-1</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>5</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
         <v>30</v>
       </c>
-      <c r="O16" t="s">
-        <v>32</v>
-      </c>
       <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>154</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>63</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>166</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>164</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>165</v>
       </c>
-      <c r="AA16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2610,53 +2669,56 @@
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>-0.3</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>18</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-1</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>30</v>
       </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
       <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>77</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>63</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>166</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>164</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>165</v>
       </c>
-      <c r="AA17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2676,53 +2738,56 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>-0.3</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>24</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-1</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>30</v>
       </c>
-      <c r="O18" t="s">
-        <v>32</v>
-      </c>
       <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>130</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>63</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>166</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>164</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>165</v>
       </c>
-      <c r="AA18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2742,50 +2807,53 @@
       <c r="F19">
         <v>15</v>
       </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="G19" t="b">
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>30</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-1</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>30</v>
       </c>
-      <c r="O19" t="s">
-        <v>32</v>
-      </c>
       <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>155</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>171</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>170</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>172</v>
       </c>
-      <c r="AA19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2805,53 +2873,56 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>-1.6</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>10</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-1</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>30</v>
       </c>
-      <c r="O20" t="s">
-        <v>32</v>
-      </c>
       <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>77</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>117</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>176</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>164</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>177</v>
       </c>
-      <c r="AA20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2871,53 +2942,56 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>-1.6</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>12</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
         <v>30</v>
       </c>
-      <c r="O21" t="s">
-        <v>32</v>
-      </c>
       <c r="P21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>130</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>117</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>176</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>164</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>177</v>
       </c>
-      <c r="AA21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2937,53 +3011,56 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>-1.6</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>15</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-1</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
         <v>30</v>
       </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
       <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>78</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>117</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>176</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>164</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>177</v>
       </c>
-      <c r="AA22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3003,59 +3080,62 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.5</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>20</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-1</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>5</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>30</v>
       </c>
-      <c r="O23" t="s">
-        <v>32</v>
-      </c>
       <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>127</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>299</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>262</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>82</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>182</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>181</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>183</v>
       </c>
-      <c r="AA23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3075,59 +3155,62 @@
       <c r="F24">
         <v>4</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>25</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-1</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>5</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>30</v>
       </c>
-      <c r="O24" t="s">
-        <v>32</v>
-      </c>
       <c r="P24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>128</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>299</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>262</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>82</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>182</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>181</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>183</v>
       </c>
-      <c r="AA24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3147,59 +3230,62 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.5</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>30</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-1</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>5</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>30</v>
       </c>
-      <c r="O25" t="s">
-        <v>32</v>
-      </c>
       <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
         <v>31</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>129</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>299</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>262</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>82</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>182</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>181</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>183</v>
       </c>
-      <c r="AA25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3219,59 +3305,62 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>1.2</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.5</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>25</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-1</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>4</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>30</v>
       </c>
-      <c r="O26" t="s">
-        <v>32</v>
-      </c>
       <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" t="s">
         <v>31</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>156</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>272</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>263</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>82</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>185</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>184</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>186</v>
       </c>
-      <c r="AA26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3291,59 +3380,62 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>1.2</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.5</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>30</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>30</v>
       </c>
-      <c r="O27" t="s">
-        <v>32</v>
-      </c>
       <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
         <v>31</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>157</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>272</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>263</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>82</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>185</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>184</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>186</v>
       </c>
-      <c r="AA27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3363,59 +3455,62 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>1.2</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.5</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>35</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-1</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>4</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>30</v>
       </c>
-      <c r="O28" t="s">
-        <v>32</v>
-      </c>
       <c r="P28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" t="s">
         <v>31</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>158</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>272</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>263</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>82</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>185</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>188</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>186</v>
       </c>
-      <c r="AA28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -3435,53 +3530,56 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>-0.8</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>10</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-1</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>30</v>
       </c>
-      <c r="O29" t="s">
-        <v>32</v>
-      </c>
       <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="s">
         <v>31</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>51</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>82</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>166</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>164</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>165</v>
       </c>
-      <c r="AA29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -3501,53 +3599,56 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>-0.8</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>12</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>4</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
         <v>30</v>
       </c>
-      <c r="O30" t="s">
-        <v>32</v>
-      </c>
       <c r="P30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>54</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>82</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>166</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>164</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>165</v>
       </c>
-      <c r="AA30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -3567,53 +3668,56 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>-0.8</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>15</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-1</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
         <v>30</v>
       </c>
-      <c r="O31" t="s">
-        <v>32</v>
-      </c>
       <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" t="s">
         <v>31</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>55</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>82</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>166</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>164</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>165</v>
       </c>
-      <c r="AA31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -3633,53 +3737,56 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>-0.8</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>18</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-1</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>4</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
         <v>30</v>
       </c>
-      <c r="O32" t="s">
-        <v>32</v>
-      </c>
       <c r="P32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" t="s">
         <v>31</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>89</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>82</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>166</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>164</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>165</v>
       </c>
-      <c r="AA32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -3699,53 +3806,56 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>-0.8</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>22</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-1</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>4</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
         <v>30</v>
       </c>
-      <c r="O33" t="s">
-        <v>32</v>
-      </c>
       <c r="P33" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" t="s">
         <v>31</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>88</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>82</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>166</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>164</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>165</v>
       </c>
-      <c r="AA33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -3765,53 +3875,56 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>-0.4</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.5</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>15</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-1</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>3</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>30</v>
       </c>
-      <c r="O34" t="s">
-        <v>32</v>
-      </c>
       <c r="P34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>133</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>82</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>205</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>187</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>189</v>
       </c>
-      <c r="AA34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -3831,53 +3944,56 @@
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>-0.4</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.5</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>18</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-1</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>3</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>30</v>
       </c>
-      <c r="O35" t="s">
-        <v>32</v>
-      </c>
       <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" t="s">
         <v>31</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>62</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>82</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>190</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>187</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>189</v>
       </c>
-      <c r="AA35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -3897,53 +4013,56 @@
       <c r="F36">
         <v>2</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>-0.4</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.5</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>22</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-1</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>30</v>
       </c>
-      <c r="O36" t="s">
-        <v>32</v>
-      </c>
       <c r="P36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" t="s">
         <v>31</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>55</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>82</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>190</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>187</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>189</v>
       </c>
-      <c r="AA36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -3963,50 +4082,53 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>-0.2</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
       <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
         <v>20</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-1</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>5</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
         <v>30</v>
       </c>
-      <c r="O37" t="s">
-        <v>32</v>
-      </c>
       <c r="P37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="s">
         <v>31</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>96</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>193</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>191</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>192</v>
       </c>
-      <c r="AA37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4026,50 +4148,53 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>-0.2</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>24</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-1</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>5</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>30</v>
       </c>
-      <c r="O38" t="s">
-        <v>32</v>
-      </c>
       <c r="P38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" t="s">
         <v>31</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>97</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>193</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>191</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>192</v>
       </c>
-      <c r="AA38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4089,50 +4214,53 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>-0.2</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <v>30</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-1</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>5</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
         <v>30</v>
       </c>
-      <c r="O39" t="s">
-        <v>32</v>
-      </c>
       <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" t="s">
         <v>31</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>98</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>193</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>191</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>192</v>
       </c>
-      <c r="AA39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4152,50 +4280,53 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0.3</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.5</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>20</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-1</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>4</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
         <v>30</v>
       </c>
-      <c r="O40" t="s">
-        <v>32</v>
-      </c>
       <c r="P40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>134</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>196</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>194</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>195</v>
       </c>
-      <c r="AA40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4215,50 +4346,53 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0.3</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.5</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>25</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-1</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>4</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
         <v>30</v>
       </c>
-      <c r="O41" t="s">
-        <v>32</v>
-      </c>
       <c r="P41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="s">
         <v>31</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>135</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>196</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>194</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>195</v>
       </c>
-      <c r="AA41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4278,50 +4412,53 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0.3</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.5</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>30</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-1</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
         <v>30</v>
       </c>
-      <c r="O42" t="s">
-        <v>32</v>
-      </c>
       <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" t="s">
         <v>31</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>136</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>196</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>194</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>195</v>
       </c>
-      <c r="AA42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -4341,50 +4478,53 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>0.3</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>15</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-1</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>4</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
         <v>30</v>
       </c>
-      <c r="O43" t="s">
-        <v>32</v>
-      </c>
       <c r="P43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q43" t="s">
         <v>31</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>137</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>199</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>197</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>198</v>
       </c>
-      <c r="AA43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -4404,50 +4544,53 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>0.3</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>20</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-1</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>4</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
         <v>30</v>
       </c>
-      <c r="O44" t="s">
-        <v>32</v>
-      </c>
       <c r="P44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" t="s">
         <v>31</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>138</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>199</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>197</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>198</v>
       </c>
-      <c r="AA44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -4467,50 +4610,53 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>0.3</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>25</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-1</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>4</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
         <v>30</v>
       </c>
-      <c r="O45" t="s">
-        <v>32</v>
-      </c>
       <c r="P45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" t="s">
         <v>31</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>139</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>199</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>197</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>198</v>
       </c>
-      <c r="AA45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -4530,50 +4676,53 @@
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>0.3</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>30</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-1</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>4</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
         <v>30</v>
       </c>
-      <c r="O46" t="s">
-        <v>32</v>
-      </c>
       <c r="P46" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" t="s">
         <v>31</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>141</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>199</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>197</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>198</v>
       </c>
-      <c r="AA46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -4593,50 +4742,53 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>0.3</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>35</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-1</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>4</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
         <v>30</v>
       </c>
-      <c r="O47" t="s">
-        <v>32</v>
-      </c>
       <c r="P47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="s">
         <v>31</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>140</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>199</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>197</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>198</v>
       </c>
-      <c r="AA47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -4656,50 +4808,53 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>0.6</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>20</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-1</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>4</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>30</v>
       </c>
-      <c r="O48" t="s">
-        <v>32</v>
-      </c>
       <c r="P48" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>142</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>202</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>200</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>201</v>
       </c>
-      <c r="AA48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -4719,50 +4874,53 @@
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>0.6</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>24</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-1</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>4</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
         <v>30</v>
       </c>
-      <c r="O49" t="s">
-        <v>32</v>
-      </c>
       <c r="P49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" t="s">
         <v>31</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>143</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>202</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>200</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>201</v>
       </c>
-      <c r="AA49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -4782,50 +4940,53 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>0.6</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>30</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-1</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>4</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
         <v>30</v>
       </c>
-      <c r="O50" t="s">
-        <v>32</v>
-      </c>
       <c r="P50" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" t="s">
         <v>31</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>144</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>202</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>200</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>201</v>
       </c>
-      <c r="AA50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -4845,50 +5006,53 @@
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>0.6</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>36</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>-1</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>4</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
         <v>30</v>
       </c>
-      <c r="O51" t="s">
-        <v>32</v>
-      </c>
       <c r="P51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" t="s">
         <v>31</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>145</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>202</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>200</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>201</v>
       </c>
-      <c r="AA51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4908,50 +5072,53 @@
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>0.6</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>45</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-1</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>4</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
         <v>30</v>
       </c>
-      <c r="O52" t="s">
-        <v>32</v>
-      </c>
       <c r="P52" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" t="s">
         <v>31</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>146</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>202</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>200</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>201</v>
       </c>
-      <c r="AA52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -4971,50 +5138,53 @@
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>-1.6</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>12</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>-1</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>4</v>
       </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
         <v>30</v>
       </c>
-      <c r="O53" t="s">
-        <v>32</v>
-      </c>
       <c r="P53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" t="s">
         <v>31</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>131</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>176</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>164</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>177</v>
       </c>
-      <c r="AA53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -5034,50 +5204,53 @@
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>-1.6</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
       <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <v>15</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-1</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>4</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
         <v>30</v>
       </c>
-      <c r="O54" t="s">
-        <v>32</v>
-      </c>
       <c r="P54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" t="s">
         <v>31</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>132</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>176</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>164</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>177</v>
       </c>
-      <c r="AA54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -5097,50 +5270,53 @@
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
       <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>20</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-1</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>8</v>
       </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
         <v>30</v>
       </c>
-      <c r="O55" t="s">
-        <v>32</v>
-      </c>
       <c r="P55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" t="s">
         <v>31</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>147</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>199</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>203</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>204</v>
       </c>
-      <c r="AA55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -5160,50 +5336,53 @@
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
       <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
         <v>30</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-1</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>8</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>30</v>
       </c>
-      <c r="O56" t="s">
-        <v>32</v>
-      </c>
       <c r="P56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" t="s">
         <v>31</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>148</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>199</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>203</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>204</v>
       </c>
-      <c r="AA56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -5223,50 +5402,53 @@
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>2</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
       <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>40</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>-1</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>8</v>
       </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
         <v>30</v>
       </c>
-      <c r="O57" t="s">
-        <v>32</v>
-      </c>
       <c r="P57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>149</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>199</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>203</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>204</v>
       </c>
-      <c r="AA57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -5286,50 +5468,53 @@
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>2</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
         <v>50</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>-1</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>8</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
         <v>30</v>
       </c>
-      <c r="O58" t="s">
-        <v>32</v>
-      </c>
       <c r="P58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" t="s">
         <v>31</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>150</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>199</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>203</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>204</v>
       </c>
-      <c r="AA58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -5349,50 +5534,53 @@
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
       <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
         <v>60</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-1</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>8</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
         <v>30</v>
       </c>
-      <c r="O59" t="s">
-        <v>32</v>
-      </c>
       <c r="P59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" t="s">
         <v>31</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>151</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>199</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>203</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>204</v>
       </c>
-      <c r="AA59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -5412,59 +5600,62 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>0.5</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
       <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <v>12</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-1</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>3</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
         <v>30</v>
       </c>
-      <c r="O60" t="s">
-        <v>32</v>
-      </c>
       <c r="P60" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" t="s">
         <v>31</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>62</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>273</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>264</v>
       </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
         <v>117</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>166</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>164</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>165</v>
       </c>
-      <c r="AA60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -5484,59 +5675,62 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>0.5</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <v>16</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-1</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>3</v>
       </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
         <v>30</v>
       </c>
-      <c r="O61" t="s">
-        <v>32</v>
-      </c>
       <c r="P61" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q61" t="s">
         <v>31</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>215</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>273</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>264</v>
       </c>
-      <c r="V61" t="s">
+      <c r="W61" t="s">
         <v>117</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>166</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>164</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>165</v>
       </c>
-      <c r="AA61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -5556,59 +5750,62 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>0.5</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
       <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>24</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>-1</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>3</v>
       </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
         <v>30</v>
       </c>
-      <c r="O62" t="s">
-        <v>32</v>
-      </c>
       <c r="P62" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q62" t="s">
         <v>31</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>216</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>273</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>264</v>
       </c>
-      <c r="V62" t="s">
+      <c r="W62" t="s">
         <v>117</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>166</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>164</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>165</v>
       </c>
-      <c r="AA62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>80</v>
       </c>
@@ -5621,41 +5818,44 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
         <v>0.4</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>0.2</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>30</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>99</v>
       </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
         <v>159</v>
       </c>
-      <c r="O65" t="s">
-        <v>32</v>
-      </c>
       <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" t="s">
         <v>160</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>180</v>
       </c>
-      <c r="AA65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>81</v>
       </c>
@@ -5668,41 +5868,44 @@
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
         <v>0.4</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>0.2</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>50</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>2</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>99</v>
       </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
         <v>159</v>
       </c>
-      <c r="O66" t="s">
-        <v>32</v>
-      </c>
       <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" t="s">
         <v>160</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>181</v>
       </c>
-      <c r="AA66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>82</v>
       </c>
@@ -5715,41 +5918,44 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
         <v>0.4</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>0.2</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>80</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>99</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
         <v>159</v>
       </c>
-      <c r="O67" t="s">
-        <v>32</v>
-      </c>
       <c r="P67" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" t="s">
         <v>160</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>182</v>
       </c>
-      <c r="AA67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>83</v>
       </c>
@@ -5762,41 +5968,44 @@
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="G68">
-        <v>0</v>
+      <c r="G68" t="b">
+        <v>1</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>0.5</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
         <v>-1</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>99</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
         <v>159</v>
       </c>
-      <c r="O68" t="s">
-        <v>32</v>
-      </c>
       <c r="P68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q68" t="s">
         <v>160</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>183</v>
       </c>
-      <c r="AA68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>84</v>
       </c>
@@ -5809,41 +6018,44 @@
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69">
-        <v>0</v>
+      <c r="G69" t="b">
+        <v>1</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>0.5</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
       <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
         <v>-1</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>99</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
         <v>159</v>
       </c>
-      <c r="O69" t="s">
-        <v>32</v>
-      </c>
       <c r="P69" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" t="s">
         <v>160</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>184</v>
       </c>
-      <c r="AA69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>85</v>
       </c>
@@ -5856,41 +6068,44 @@
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="G70">
-        <v>0</v>
+      <c r="G70" t="b">
+        <v>1</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>0.5</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>-1</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>99</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70" t="s">
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
         <v>159</v>
       </c>
-      <c r="O70" t="s">
-        <v>32</v>
-      </c>
       <c r="P70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70" t="s">
         <v>160</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>185</v>
       </c>
-      <c r="AA70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>86</v>
       </c>
@@ -5903,8 +6118,8 @@
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71">
-        <v>0</v>
+      <c r="G71" t="b">
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -5913,31 +6128,34 @@
         <v>0</v>
       </c>
       <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>3</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>99</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
         <v>159</v>
       </c>
-      <c r="O71" t="s">
-        <v>32</v>
-      </c>
       <c r="P71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" t="s">
         <v>160</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>186</v>
       </c>
-      <c r="AA71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>87</v>
       </c>
@@ -5950,8 +6168,8 @@
       <c r="F72">
         <v>1</v>
       </c>
-      <c r="G72">
-        <v>0</v>
+      <c r="G72" t="b">
+        <v>1</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -5960,31 +6178,34 @@
         <v>0</v>
       </c>
       <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
         <v>3</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>99</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
         <v>159</v>
       </c>
-      <c r="O72" t="s">
-        <v>32</v>
-      </c>
       <c r="P72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" t="s">
         <v>160</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>187</v>
       </c>
-      <c r="AA72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>88</v>
       </c>
@@ -5997,8 +6218,8 @@
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73">
-        <v>0</v>
+      <c r="G73" t="b">
+        <v>1</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6007,31 +6228,34 @@
         <v>0</v>
       </c>
       <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
         <v>3</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>99</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
         <v>159</v>
       </c>
-      <c r="O73" t="s">
-        <v>32</v>
-      </c>
       <c r="P73" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q73" t="s">
         <v>160</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>188</v>
       </c>
-      <c r="AA73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>89</v>
       </c>
@@ -6044,41 +6268,44 @@
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74">
-        <v>0</v>
+      <c r="G74" t="b">
+        <v>1</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>0.4</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
       <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
         <v>2</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>99</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
         <v>159</v>
       </c>
-      <c r="O74" t="s">
-        <v>32</v>
-      </c>
       <c r="P74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" t="s">
         <v>160</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>189</v>
       </c>
-      <c r="AA74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>90</v>
       </c>
@@ -6091,41 +6318,44 @@
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75">
-        <v>0</v>
+      <c r="G75" t="b">
+        <v>1</v>
       </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>0.4</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <v>2</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>99</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
         <v>159</v>
       </c>
-      <c r="O75" t="s">
-        <v>32</v>
-      </c>
       <c r="P75" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" t="s">
         <v>160</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>190</v>
       </c>
-      <c r="AA75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>91</v>
       </c>
@@ -6138,41 +6368,44 @@
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="G76">
-        <v>0</v>
+      <c r="G76" t="b">
+        <v>1</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>0.4</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>2</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>99</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76" t="s">
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
         <v>159</v>
       </c>
-      <c r="O76" t="s">
-        <v>32</v>
-      </c>
       <c r="P76" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" t="s">
         <v>160</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>191</v>
       </c>
-      <c r="AA76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>92</v>
       </c>
@@ -6185,41 +6418,44 @@
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
         <v>0.5</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.3</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>40</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>2</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>99</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>3</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>161</v>
       </c>
-      <c r="O77" t="s">
-        <v>32</v>
-      </c>
       <c r="P77" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" t="s">
         <v>160</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>192</v>
       </c>
-      <c r="AA77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>93</v>
       </c>
@@ -6232,41 +6468,44 @@
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
         <v>0.5</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.3</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>70</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>2</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>99</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>3</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>161</v>
       </c>
-      <c r="O78" t="s">
-        <v>32</v>
-      </c>
       <c r="P78" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q78" t="s">
         <v>160</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>193</v>
       </c>
-      <c r="AA78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6279,41 +6518,44 @@
       <c r="F79">
         <v>1</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>0.5</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.3</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>110</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>2</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>99</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>3</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>161</v>
       </c>
-      <c r="O79" t="s">
-        <v>32</v>
-      </c>
       <c r="P79" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" t="s">
         <v>160</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>194</v>
       </c>
-      <c r="AA79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6326,41 +6568,44 @@
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80">
-        <v>0</v>
+      <c r="G80" t="b">
+        <v>1</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>0.7</v>
       </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
       <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>99</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>3</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>161</v>
       </c>
-      <c r="O80" t="s">
-        <v>32</v>
-      </c>
       <c r="P80" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q80" t="s">
         <v>160</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>195</v>
       </c>
-      <c r="AA80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>96</v>
       </c>
@@ -6373,41 +6618,44 @@
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="G81">
-        <v>0</v>
+      <c r="G81" t="b">
+        <v>1</v>
       </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <v>0.7</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
       <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
         <v>2</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>99</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>3</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>161</v>
       </c>
-      <c r="O81" t="s">
-        <v>32</v>
-      </c>
       <c r="P81" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q81" t="s">
         <v>160</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>196</v>
       </c>
-      <c r="AA81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>97</v>
       </c>
@@ -6420,41 +6668,44 @@
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82">
-        <v>0</v>
+      <c r="G82" t="b">
+        <v>1</v>
       </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>0.7</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
       <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
         <v>2</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>99</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>3</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>161</v>
       </c>
-      <c r="O82" t="s">
-        <v>32</v>
-      </c>
       <c r="P82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q82" t="s">
         <v>160</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>197</v>
       </c>
-      <c r="AA82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>98</v>
       </c>
@@ -6467,41 +6718,44 @@
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83">
-        <v>0</v>
+      <c r="G83" t="b">
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
         <v>10</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>3</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>99</v>
       </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83" t="s">
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
         <v>159</v>
       </c>
-      <c r="O83" t="s">
-        <v>32</v>
-      </c>
       <c r="P83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q83" t="s">
         <v>160</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>198</v>
       </c>
-      <c r="AA83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>99</v>
       </c>
@@ -6514,41 +6768,44 @@
       <c r="F84">
         <v>1</v>
       </c>
-      <c r="G84">
-        <v>0</v>
+      <c r="G84" t="b">
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
         <v>10</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>3</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>99</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84" t="s">
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
         <v>159</v>
       </c>
-      <c r="O84" t="s">
-        <v>32</v>
-      </c>
       <c r="P84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q84" t="s">
         <v>160</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>199</v>
       </c>
-      <c r="AA84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>100</v>
       </c>
@@ -6561,41 +6818,44 @@
       <c r="F85">
         <v>1</v>
       </c>
-      <c r="G85">
-        <v>0</v>
+      <c r="G85" t="b">
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
         <v>10</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>3</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>99</v>
       </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
         <v>159</v>
       </c>
-      <c r="O85" t="s">
-        <v>32</v>
-      </c>
       <c r="P85" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q85" t="s">
         <v>160</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>200</v>
       </c>
-      <c r="AA85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>101</v>
       </c>
@@ -6608,41 +6868,44 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86">
-        <v>0</v>
+      <c r="G86" t="b">
+        <v>1</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>-0.7</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>20</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>-1</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>99</v>
       </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
         <v>159</v>
       </c>
-      <c r="O86" t="s">
-        <v>32</v>
-      </c>
       <c r="P86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q86" t="s">
         <v>160</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>201</v>
       </c>
-      <c r="AA86" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>102</v>
       </c>
@@ -6655,41 +6918,44 @@
       <c r="F87">
         <v>1</v>
       </c>
-      <c r="G87">
-        <v>0</v>
+      <c r="G87" t="b">
+        <v>1</v>
       </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <v>-1.2</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>40</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-1</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>99</v>
       </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87" t="s">
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
         <v>159</v>
       </c>
-      <c r="O87" t="s">
-        <v>32</v>
-      </c>
       <c r="P87" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q87" t="s">
         <v>160</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>202</v>
       </c>
-      <c r="AA87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>103</v>
       </c>
@@ -6702,41 +6968,44 @@
       <c r="F88">
         <v>1</v>
       </c>
-      <c r="G88">
-        <v>0</v>
+      <c r="G88" t="b">
+        <v>1</v>
       </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <v>-1.8</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>70</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>-1</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>99</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
         <v>159</v>
       </c>
-      <c r="O88" t="s">
-        <v>32</v>
-      </c>
       <c r="P88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q88" t="s">
         <v>160</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>203</v>
       </c>
-      <c r="AA88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>104</v>
       </c>
@@ -6749,44 +7018,47 @@
       <c r="F89">
         <v>1</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>0.8</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>0.5</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>30</v>
       </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="L89">
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="M89">
         <v>99</v>
       </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89" t="s">
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
         <v>159</v>
       </c>
-      <c r="O89" t="s">
-        <v>32</v>
-      </c>
       <c r="P89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q89" t="s">
         <v>160</v>
       </c>
-      <c r="S89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>257</v>
       </c>
-      <c r="AA89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>105</v>
       </c>
@@ -6799,44 +7071,47 @@
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
         <v>0.8</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>0.5</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>40</v>
       </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="L90">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="M90">
         <v>99</v>
       </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90" t="s">
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
         <v>159</v>
       </c>
-      <c r="O90" t="s">
-        <v>32</v>
-      </c>
       <c r="P90" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q90" t="s">
         <v>160</v>
       </c>
-      <c r="S90" s="1" t="s">
+      <c r="T90" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>257</v>
       </c>
-      <c r="AA90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>106</v>
       </c>
@@ -6849,44 +7124,47 @@
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>0.8</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>0.5</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>60</v>
       </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-      <c r="L91">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="M91">
         <v>99</v>
       </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91" t="s">
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
         <v>159</v>
       </c>
-      <c r="O91" t="s">
-        <v>32</v>
-      </c>
       <c r="P91" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q91" t="s">
         <v>160</v>
       </c>
-      <c r="S91" s="1" t="s">
+      <c r="T91" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>257</v>
       </c>
-      <c r="AA91" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>107</v>
       </c>
@@ -6899,44 +7177,47 @@
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="G92">
-        <v>1</v>
+      <c r="G92" t="b">
+        <v>0</v>
       </c>
       <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>0.8</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>45</v>
       </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="L92">
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="M92">
         <v>99</v>
       </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92" t="s">
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
         <v>159</v>
       </c>
-      <c r="O92" t="s">
-        <v>32</v>
-      </c>
       <c r="P92" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q92" t="s">
         <v>160</v>
       </c>
-      <c r="S92" s="1" t="s">
+      <c r="T92" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>287</v>
       </c>
-      <c r="AA92" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>108</v>
       </c>
@@ -6949,44 +7230,47 @@
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="G93">
-        <v>1</v>
+      <c r="G93" t="b">
+        <v>0</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>0.8</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>70</v>
       </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="L93">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="M93">
         <v>99</v>
       </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93" t="s">
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
         <v>159</v>
       </c>
-      <c r="O93" t="s">
-        <v>32</v>
-      </c>
       <c r="P93" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q93" t="s">
         <v>160</v>
       </c>
-      <c r="S93" s="1" t="s">
+      <c r="T93" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>287</v>
       </c>
-      <c r="AA93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>109</v>
       </c>
@@ -6999,44 +7283,47 @@
       <c r="F94">
         <v>1</v>
       </c>
-      <c r="G94">
-        <v>1</v>
+      <c r="G94" t="b">
+        <v>0</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
         <v>0.8</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>100</v>
       </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="L94">
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="M94">
         <v>99</v>
       </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94" t="s">
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
         <v>159</v>
       </c>
-      <c r="O94" t="s">
-        <v>32</v>
-      </c>
       <c r="P94" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q94" t="s">
         <v>160</v>
       </c>
-      <c r="S94" s="1" t="s">
+      <c r="T94" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>287</v>
       </c>
-      <c r="AA94" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>110</v>
       </c>
@@ -7049,47 +7336,50 @@
       <c r="F95">
         <v>1</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>0.8</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.5</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>30</v>
       </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="L95">
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="M95">
         <v>99</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>2</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>159</v>
       </c>
-      <c r="O95" t="s">
-        <v>32</v>
-      </c>
       <c r="P95" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q95" t="s">
         <v>31</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>284</v>
       </c>
-      <c r="S95" s="1" t="s">
+      <c r="T95" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>283</v>
       </c>
-      <c r="AA95" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>111</v>
       </c>
@@ -7102,47 +7392,50 @@
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>0.8</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.5</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>30</v>
       </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="L96">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="M96">
         <v>99</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>2</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>159</v>
       </c>
-      <c r="O96" t="s">
-        <v>32</v>
-      </c>
       <c r="P96" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q96" t="s">
         <v>31</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>285</v>
       </c>
-      <c r="S96" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>283</v>
       </c>
-      <c r="AA96" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>112</v>
       </c>
@@ -7155,47 +7448,50 @@
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>0.8</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>0.5</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>30</v>
       </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="L97">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="M97">
         <v>99</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>2</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>159</v>
       </c>
-      <c r="O97" t="s">
-        <v>32</v>
-      </c>
       <c r="P97" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q97" t="s">
         <v>31</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>286</v>
       </c>
-      <c r="S97" s="1" t="s">
+      <c r="T97" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>283</v>
       </c>
-      <c r="AA97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>113</v>
       </c>
@@ -7208,44 +7504,47 @@
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98">
-        <v>1</v>
+      <c r="G98" t="b">
+        <v>0</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0.8</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>30</v>
       </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="L98">
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="M98">
         <v>99</v>
       </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
         <v>159</v>
       </c>
-      <c r="O98" t="s">
-        <v>32</v>
-      </c>
       <c r="P98" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q98" t="s">
         <v>160</v>
       </c>
-      <c r="S98" s="1" t="s">
+      <c r="T98" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>294</v>
       </c>
-      <c r="AA98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>114</v>
       </c>
@@ -7258,44 +7557,47 @@
       <c r="F99">
         <v>1</v>
       </c>
-      <c r="G99">
-        <v>1</v>
+      <c r="G99" t="b">
+        <v>0</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>0.8</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>30</v>
       </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="L99">
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="M99">
         <v>99</v>
       </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99" t="s">
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99" t="s">
         <v>159</v>
       </c>
-      <c r="O99" t="s">
-        <v>32</v>
-      </c>
       <c r="P99" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q99" t="s">
         <v>160</v>
       </c>
-      <c r="S99" s="1" t="s">
+      <c r="T99" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>294</v>
       </c>
-      <c r="AA99" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="AB99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>115</v>
       </c>
@@ -7308,621 +7610,624 @@
       <c r="F100">
         <v>1</v>
       </c>
-      <c r="G100">
-        <v>1</v>
+      <c r="G100" t="b">
+        <v>0</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>0.8</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>30</v>
       </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="L100">
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="M100">
         <v>99</v>
       </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100" t="s">
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
         <v>159</v>
       </c>
-      <c r="O100" t="s">
-        <v>32</v>
-      </c>
       <c r="P100" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q100" t="s">
         <v>160</v>
       </c>
-      <c r="S100" s="1" t="s">
+      <c r="T100" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>294</v>
       </c>
-      <c r="AA100" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>280</v>
       </c>
-      <c r="AA101" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>281</v>
       </c>
-      <c r="AA102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>282</v>
       </c>
-      <c r="AA103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>254</v>
       </c>
-      <c r="AA104" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>255</v>
       </c>
-      <c r="AA105" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB105" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>256</v>
       </c>
-      <c r="AA106" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA107" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA109" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA110" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA111" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA112" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA113" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA115" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA116" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA117" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA118" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA119" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA121" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA122" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA124" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA125" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA126" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA127" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA128" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA129" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA130" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA131" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB106" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB110" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB111" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB115" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB121" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB130" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB131" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>217</v>
       </c>
-      <c r="AA132" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA133" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA134" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA135" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA136" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA137" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA138" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA139" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA140" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA141" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA142" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA143" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="AA144" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA145" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA146" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="147" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA147" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="148" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA148" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA149" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="150" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA150" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="151" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA151" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="152" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA152" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="153" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA153" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="154" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA154" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA155" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA156" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="157" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA157" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="158" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA158" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="159" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA159" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="160" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA160" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="161" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA161" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="162" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA162" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="163" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA163" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="164" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA164" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="165" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA165" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="166" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA166" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="167" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA167" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="168" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA168" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="169" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA169" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="170" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA170" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="171" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA171" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="172" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA172" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="173" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA173" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA174" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="175" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA175" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="176" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA176" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="177" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA177" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="178" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA178" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="179" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA179" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="180" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA180" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="181" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA181" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="182" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA182" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="183" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA183" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="184" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA184" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="185" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA185" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="186" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA186" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="187" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA187" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="188" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA188" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="189" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA189" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="190" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA190" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="191" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA191" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="192" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA192" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="193" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA193" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="194" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA194" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="195" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA195" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="196" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA196" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="197" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA197" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="198" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA198" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="199" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA199" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="200" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA200" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="201" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA201" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="202" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA202" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="203" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA203" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="204" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA204" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="205" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA205" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="206" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA206" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="207" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA207" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="208" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA208" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="209" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA209" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="210" spans="27:27" x14ac:dyDescent="0.2">
-      <c r="AA210" t="s">
+      <c r="AB132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB134" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB135" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB136" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB137" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB138" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB139" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB140" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB141" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="142" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB142" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="143" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB143" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB144" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB145" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB146" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB147" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB148" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB149" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB150" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB151" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB152" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB153" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="154" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB154" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB155" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB156" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB157" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB158" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB159" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB161" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB165" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB166" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB167" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB169" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB170" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB171" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB172" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB173" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB174" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB175" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB176" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="177" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB177" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="178" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB178" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB179" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB180" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="181" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB181" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="182" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB182" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB183" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="184" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB184" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="185" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB185" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB186" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB187" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB188" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB189" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB190" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB191" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB192" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB193" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB194" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB195" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB196" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB197" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB198" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="199" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB200" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB201" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB202" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB203" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB204" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB205" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB206" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB207" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB208" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB209" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="AB210" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:P1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:Q1048576" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7932,224 +8237,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C502AE29-D253-415D-8A2D-FF13FF4CDB73}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="4" width="28.125" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228E65DD-8B46-4A55-9FE9-782D81DA489A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04C4F02-7AEC-4C27-8FFB-4D404A92A80C}">
-  <dimension ref="B1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:N3" xr:uid="{955865A9-FA2E-4EA3-8018-FB7838469A24}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{6580F472-D21E-4020-8A7C-E1BE9C8D0150}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86EF6B-8077-4C7A-9945-6AF4BAA57BF3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18621252-4139-4D2E-9CE9-2E7FAE941D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBCDBFB-1D12-4688-AFB4-4869658E5392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="309">
   <si>
     <t>名字</t>
   </si>
@@ -948,203 +948,228 @@
     <t>火焰护盾立场 lvl.3</t>
   </si>
   <si>
+    <t>寒冰护盾立场 lvl.2</t>
+  </si>
+  <si>
+    <t>寒冰护盾立场 lvl.3</t>
+  </si>
+  <si>
+    <t>酸蚀护盾立场 lvl.1</t>
+  </si>
+  <si>
+    <t>酸蚀护盾立场 lvl.2</t>
+  </si>
+  <si>
+    <t>酸蚀护盾立场 lvl.3</t>
+  </si>
+  <si>
+    <t>ShieldEffect_NormalSmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{string name,string value}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageDecay,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageDecay,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageDecay,0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectCount,4;spacing,1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageDecayDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalovEmitBDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击护盾立场 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击护盾立场 lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击护盾立场 lvl.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_FireShield</t>
+  </si>
+  <si>
+    <t>4,0,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0.3,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_ForcefieldBlue</t>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_IceShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usableCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomTargetDecorator,DamageDecayDecorator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDirectEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否直接生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>寒冰护盾立场 lvl.1</t>
-  </si>
-  <si>
-    <t>寒冰护盾立场 lvl.2</t>
-  </si>
-  <si>
-    <t>寒冰护盾立场 lvl.3</t>
-  </si>
-  <si>
-    <t>酸蚀护盾立场 lvl.1</t>
-  </si>
-  <si>
-    <t>酸蚀护盾立场 lvl.2</t>
-  </si>
-  <si>
-    <t>酸蚀护盾立场 lvl.3</t>
-  </si>
-  <si>
-    <t>ShieldEffect_NormalSmall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paramValues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{string name,string value}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageDecay,0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageDecay,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageDecay,0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectCount,4;spacing,1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageDecayDecorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalovEmitBDecorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,1;maxMech,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电击护盾立场 lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电击护盾立场 lvl.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电击护盾立场 lvl.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldEffect_FireShield</t>
-  </si>
-  <si>
-    <t>4,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,0.2,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,0.3,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldEffect_ForcefieldBlue</t>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,0.4;iceCorrection,2;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1.5;iceCorrection,0.5;lightningCorrection,2;acidCorrection,1;maxMech,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldEffect_IceShield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveTimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usableCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomTargetDecorator,DamageDecayDecorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDirectEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否直接生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectEffectiveTimes,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.5,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,Lightning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,9 +1500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S101" sqref="S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1514,10 +1539,10 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
         <v>42</v>
@@ -1529,7 +1554,7 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1556,7 +1581,7 @@
         <v>206</v>
       </c>
       <c r="T1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -1600,10 +1625,10 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -1615,7 +1640,7 @@
         <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -1642,7 +1667,7 @@
         <v>207</v>
       </c>
       <c r="T2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U2" t="s">
         <v>22</v>
@@ -1722,7 +1747,7 @@
         <v>208</v>
       </c>
       <c r="T3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U3" t="s">
         <v>21</v>
@@ -2010,10 +2035,10 @@
         <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W7" t="s">
         <v>52</v>
@@ -2085,10 +2110,10 @@
         <v>124</v>
       </c>
       <c r="S8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W8" t="s">
         <v>52</v>
@@ -2160,10 +2185,10 @@
         <v>125</v>
       </c>
       <c r="S9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W9" t="s">
         <v>52</v>
@@ -2499,7 +2524,7 @@
         <v>152</v>
       </c>
       <c r="T14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y14" t="s">
         <v>180</v>
@@ -2562,10 +2587,10 @@
         <v>153</v>
       </c>
       <c r="S15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X15" t="s">
         <v>168</v>
@@ -3114,10 +3139,10 @@
         <v>127</v>
       </c>
       <c r="S23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W23" t="s">
         <v>82</v>
@@ -3189,10 +3214,10 @@
         <v>128</v>
       </c>
       <c r="S24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W24" t="s">
         <v>82</v>
@@ -3264,10 +3289,10 @@
         <v>129</v>
       </c>
       <c r="S25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W25" t="s">
         <v>82</v>
@@ -3339,10 +3364,10 @@
         <v>156</v>
       </c>
       <c r="S26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W26" t="s">
         <v>82</v>
@@ -3414,10 +3439,10 @@
         <v>157</v>
       </c>
       <c r="S27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W27" t="s">
         <v>82</v>
@@ -3489,10 +3514,10 @@
         <v>158</v>
       </c>
       <c r="S28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W28" t="s">
         <v>82</v>
@@ -5634,10 +5659,10 @@
         <v>62</v>
       </c>
       <c r="S60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W60" t="s">
         <v>117</v>
@@ -5709,10 +5734,10 @@
         <v>215</v>
       </c>
       <c r="S61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W61" t="s">
         <v>117</v>
@@ -5784,10 +5809,10 @@
         <v>216</v>
       </c>
       <c r="S62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="W62" t="s">
         <v>117</v>
@@ -7049,10 +7074,10 @@
         <v>160</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -7102,10 +7127,10 @@
         <v>160</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -7155,10 +7180,10 @@
         <v>160</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -7208,10 +7233,10 @@
         <v>160</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -7261,10 +7286,10 @@
         <v>160</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -7314,10 +7339,10 @@
         <v>160</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -7367,13 +7392,13 @@
         <v>31</v>
       </c>
       <c r="R95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
@@ -7423,13 +7448,13 @@
         <v>31</v>
       </c>
       <c r="R96" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -7479,13 +7504,13 @@
         <v>31</v>
       </c>
       <c r="R97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -7496,7 +7521,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7523,7 +7548,7 @@
         <v>99</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="s">
         <v>159</v>
@@ -7532,13 +7557,16 @@
         <v>32</v>
       </c>
       <c r="Q98" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="U98">
+        <v>204</v>
       </c>
       <c r="Y98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -7549,7 +7577,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7576,7 +7604,7 @@
         <v>99</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="s">
         <v>159</v>
@@ -7585,13 +7613,16 @@
         <v>32</v>
       </c>
       <c r="Q99" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="U99">
+        <v>205</v>
       </c>
       <c r="Y99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
@@ -7602,7 +7633,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7629,7 +7660,7 @@
         <v>99</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" t="s">
         <v>159</v>
@@ -7638,37 +7669,175 @@
         <v>32</v>
       </c>
       <c r="Q100" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="T100" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="U100">
+        <v>206</v>
+      </c>
+      <c r="Y100" t="s">
         <v>293</v>
       </c>
-      <c r="Y100" t="s">
-        <v>294</v>
-      </c>
       <c r="AB100" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>116</v>
+      </c>
       <c r="B101" t="s">
+        <v>279</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>0.3</v>
+      </c>
+      <c r="J101">
+        <v>40</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>99</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" t="s">
+        <v>159</v>
+      </c>
+      <c r="P101" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>31</v>
+      </c>
+      <c r="R101" t="s">
+        <v>306</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
         <v>280</v>
       </c>
-      <c r="AB101" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0.3</v>
+      </c>
+      <c r="J102">
+        <v>40</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>99</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>159</v>
+      </c>
+      <c r="P102" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>31</v>
+      </c>
+      <c r="R102" t="s">
+        <v>307</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>118</v>
+      </c>
+      <c r="B103" t="s">
         <v>281</v>
       </c>
-      <c r="AB102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>282</v>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0.3</v>
+      </c>
+      <c r="J103">
+        <v>40</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>99</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>159</v>
+      </c>
+      <c r="P103" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" t="s">
+        <v>308</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
@@ -7676,7 +7845,7 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
@@ -7684,7 +7853,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
@@ -7692,7 +7861,7 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB106" t="s">
         <v>48</v>
@@ -8248,66 +8417,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
         <v>265</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>266</v>
       </c>
-      <c r="D1" t="s">
-        <v>267</v>
-      </c>
       <c r="E1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
         <v>270</v>
       </c>
-      <c r="D2" t="s">
-        <v>271</v>
-      </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" t="s">
         <v>267</v>
       </c>
-      <c r="D4" t="s">
-        <v>268</v>
-      </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBCDBFB-1D12-4688-AFB4-4869658E5392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F070DD-0A2B-4682-ADC6-EA93F8037CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="340">
   <si>
     <t>名字</t>
   </si>
@@ -1149,18 +1149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,0,Lightning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1170,6 +1158,130 @@
   </si>
   <si>
     <t>2,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,20;intervel,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,50;intervel,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,1.2;acidCorrection,1;maxMech,100;intervel,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_LightningShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,3,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,2,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,4,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,0.5;maxMech,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,0.5;maxMech,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalCorrection,1;fireCorrection,1;iceCorrection,1;lightningCorrection,2;acidCorrection,0.5;maxMech,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldEffect_AcidShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PurpleSharpImpact</t>
+  </si>
+  <si>
+    <t>ModularSparklerImpact</t>
+  </si>
+  <si>
+    <t>GreenNova</t>
+  </si>
+  <si>
+    <t>RedFireImpactV2</t>
+  </si>
+  <si>
+    <t>RedFireImpactV0</t>
+  </si>
+  <si>
+    <t>RedFireImpactV1</t>
+  </si>
+  <si>
+    <t>BlueLaserImpact</t>
+  </si>
+  <si>
+    <t>BlueRiftExplosion</t>
+  </si>
+  <si>
+    <t>RotateColEffect_TripleFlame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联火焰 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联火焰 lvl.2</t>
+  </si>
+  <si>
+    <t>三联火焰 lvl.3</t>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1.2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切割 Lvl.2</t>
+  </si>
+  <si>
+    <t>切割 Lvl.3</t>
+  </si>
+  <si>
+    <t>10,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,1,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1.6,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm,Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1500,9 +1612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S101" sqref="S101"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1622,9 @@
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="7" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
@@ -7079,6 +7193,9 @@
       <c r="Y89" t="s">
         <v>256</v>
       </c>
+      <c r="Z89" t="s">
+        <v>172</v>
+      </c>
       <c r="AB89" t="s">
         <v>48</v>
       </c>
@@ -7132,6 +7249,9 @@
       <c r="Y90" t="s">
         <v>256</v>
       </c>
+      <c r="Z90" t="s">
+        <v>323</v>
+      </c>
       <c r="AB90" t="s">
         <v>48</v>
       </c>
@@ -7185,6 +7305,9 @@
       <c r="Y91" t="s">
         <v>256</v>
       </c>
+      <c r="Z91" t="s">
+        <v>323</v>
+      </c>
       <c r="AB91" t="s">
         <v>48</v>
       </c>
@@ -7238,6 +7361,9 @@
       <c r="Y92" t="s">
         <v>286</v>
       </c>
+      <c r="Z92" t="s">
+        <v>324</v>
+      </c>
       <c r="AB92" t="s">
         <v>48</v>
       </c>
@@ -7291,6 +7417,9 @@
       <c r="Y93" t="s">
         <v>286</v>
       </c>
+      <c r="Z93" t="s">
+        <v>324</v>
+      </c>
       <c r="AB93" t="s">
         <v>48</v>
       </c>
@@ -7344,6 +7473,9 @@
       <c r="Y94" t="s">
         <v>286</v>
       </c>
+      <c r="Z94" t="s">
+        <v>324</v>
+      </c>
       <c r="AB94" t="s">
         <v>48</v>
       </c>
@@ -7400,6 +7532,9 @@
       <c r="Y95" t="s">
         <v>282</v>
       </c>
+      <c r="Z95" t="s">
+        <v>321</v>
+      </c>
       <c r="AB95" t="s">
         <v>48</v>
       </c>
@@ -7427,7 +7562,7 @@
         <v>0.5</v>
       </c>
       <c r="J96">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -7455,6 +7590,9 @@
       </c>
       <c r="Y96" t="s">
         <v>282</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>322</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -7483,7 +7621,7 @@
         <v>0.5</v>
       </c>
       <c r="J97">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -7511,6 +7649,9 @@
       </c>
       <c r="Y97" t="s">
         <v>282</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>320</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -7568,6 +7709,9 @@
       <c r="Y98" t="s">
         <v>293</v>
       </c>
+      <c r="Z98" t="s">
+        <v>318</v>
+      </c>
       <c r="AB98" t="s">
         <v>48</v>
       </c>
@@ -7595,7 +7739,7 @@
         <v>0.8</v>
       </c>
       <c r="J99">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -7623,6 +7767,9 @@
       </c>
       <c r="Y99" t="s">
         <v>293</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>318</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
@@ -7651,7 +7798,7 @@
         <v>0.8</v>
       </c>
       <c r="J100">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -7679,6 +7826,9 @@
       </c>
       <c r="Y100" t="s">
         <v>293</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>318</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
@@ -7728,10 +7878,16 @@
         <v>31</v>
       </c>
       <c r="R101" t="s">
+        <v>303</v>
+      </c>
+      <c r="T101" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="T101" s="1" t="s">
-        <v>303</v>
+      <c r="Y101" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>317</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
@@ -7760,7 +7916,7 @@
         <v>0.3</v>
       </c>
       <c r="J102">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -7781,10 +7937,16 @@
         <v>31</v>
       </c>
       <c r="R102" t="s">
+        <v>304</v>
+      </c>
+      <c r="T102" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="T102" s="1" t="s">
-        <v>304</v>
+      <c r="Y102" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>317</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
@@ -7813,7 +7975,7 @@
         <v>0.3</v>
       </c>
       <c r="J103">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -7834,65 +7996,521 @@
         <v>31</v>
       </c>
       <c r="R103" t="s">
+        <v>305</v>
+      </c>
+      <c r="T103" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T103" s="1" t="s">
-        <v>305</v>
+      <c r="Y103" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>317</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>119</v>
+      </c>
       <c r="B104" t="s">
         <v>253</v>
       </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.7</v>
+      </c>
+      <c r="I104">
+        <v>0.7</v>
+      </c>
+      <c r="J104">
+        <v>20</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>99</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>159</v>
+      </c>
+      <c r="P104" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>31</v>
+      </c>
+      <c r="R104" t="s">
+        <v>311</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>319</v>
+      </c>
       <c r="AB104" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>120</v>
+      </c>
       <c r="B105" t="s">
         <v>254</v>
       </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0.7</v>
+      </c>
+      <c r="I105">
+        <v>0.7</v>
+      </c>
+      <c r="J105">
+        <v>30</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>99</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>159</v>
+      </c>
+      <c r="P105" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>31</v>
+      </c>
+      <c r="R105" t="s">
+        <v>310</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>319</v>
+      </c>
       <c r="AB105" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>121</v>
+      </c>
       <c r="B106" t="s">
         <v>255</v>
       </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0.7</v>
+      </c>
+      <c r="I106">
+        <v>0.7</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>99</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>159</v>
+      </c>
+      <c r="P106" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>31</v>
+      </c>
+      <c r="R106" t="s">
+        <v>312</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>319</v>
+      </c>
       <c r="AB106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>326</v>
+      </c>
+      <c r="E107">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>25</v>
+      </c>
+      <c r="K107">
+        <v>-1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>30</v>
+      </c>
+      <c r="P107" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>31</v>
+      </c>
+      <c r="R107" t="s">
+        <v>330</v>
+      </c>
+      <c r="T107" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>325</v>
+      </c>
       <c r="AB107" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>327</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>25</v>
+      </c>
+      <c r="K108">
+        <v>-1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>30</v>
+      </c>
+      <c r="P108" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>31</v>
+      </c>
+      <c r="R108" t="s">
+        <v>331</v>
+      </c>
+      <c r="T108" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>325</v>
+      </c>
       <c r="AB108" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>124</v>
+      </c>
+      <c r="B109" t="s">
+        <v>328</v>
+      </c>
+      <c r="E109">
+        <v>8</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>25</v>
+      </c>
+      <c r="K109">
+        <v>-1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>30</v>
+      </c>
+      <c r="P109" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>31</v>
+      </c>
+      <c r="R109" t="s">
+        <v>332</v>
+      </c>
+      <c r="T109" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>325</v>
+      </c>
       <c r="AB109" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>333</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>-1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110" t="s">
+        <v>30</v>
+      </c>
+      <c r="P110" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>31</v>
+      </c>
+      <c r="R110" t="s">
+        <v>336</v>
+      </c>
+      <c r="W110" t="s">
+        <v>339</v>
+      </c>
       <c r="AB110" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>126</v>
+      </c>
+      <c r="B111" t="s">
+        <v>334</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>-1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>30</v>
+      </c>
+      <c r="P111" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>31</v>
+      </c>
+      <c r="R111" t="s">
+        <v>337</v>
+      </c>
+      <c r="W111" t="s">
+        <v>339</v>
+      </c>
       <c r="AB111" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>127</v>
+      </c>
+      <c r="B112" t="s">
+        <v>335</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>-1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>30</v>
+      </c>
+      <c r="P112" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>31</v>
+      </c>
+      <c r="R112" t="s">
+        <v>338</v>
+      </c>
+      <c r="W112" t="s">
+        <v>339</v>
+      </c>
       <c r="AB112" t="s">
         <v>48</v>
       </c>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F070DD-0A2B-4682-ADC6-EA93F8037CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2EE41-109D-459C-A030-9EA6D24987A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1613,8 +1613,8 @@
   <dimension ref="A1:AB210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I115" sqref="I115"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8196,7 +8196,7 @@
         <v>326</v>
       </c>
       <c r="E107">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J107">
         <v>25</v>
@@ -8252,7 +8252,7 @@
         <v>327</v>
       </c>
       <c r="E108">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J108">
         <v>25</v>
@@ -8308,7 +8308,7 @@
         <v>328</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J109">
         <v>25</v>
@@ -8373,10 +8373,10 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J110">
         <v>0</v>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2EE41-109D-459C-A030-9EA6D24987A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB9543-A478-4016-AC39-6432FCA16B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="370">
   <si>
     <t>名字</t>
   </si>
@@ -828,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吸收周围敌人护盾值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>紧急修复 Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1283,12 +1279,130 @@
   <si>
     <t>Arm,Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联飞锯 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联飞锯 lvl.2</t>
+  </si>
+  <si>
+    <t>三联飞锯 lvl.3</t>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.3,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotateColEffect_TripleSaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotateColEffect_TripleLightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联球状闪电 lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联球状闪电 lvl.2</t>
+  </si>
+  <si>
+    <t>三联球状闪电 lvl.3</t>
+  </si>
+  <si>
+    <t>1.5,0.5,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,0,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温火弹 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温火弹 Lvl.2</t>
+  </si>
+  <si>
+    <t>高温火弹 Lvl.3</t>
+  </si>
+  <si>
+    <t>12,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColProjectile_RedPlasmaMissile_Large</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰轰炸 Lvl.3</t>
+  </si>
+  <si>
+    <t>火焰轰炸 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰轰炸 Lvl.2</t>
+  </si>
+  <si>
+    <t>5,0.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,0.7,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticCol_RedAreaExplosion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1325,11 +1439,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1613,12 +1729,13 @@
   <dimension ref="A1:AB210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="6.25" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
@@ -1639,13 +1756,14 @@
     <col min="22" max="22" width="18" customWidth="1"/>
     <col min="23" max="23" width="37.125" customWidth="1"/>
     <col min="24" max="24" width="24.5" customWidth="1"/>
-    <col min="25" max="25" width="30.25" customWidth="1"/>
+    <col min="25" max="25" width="32" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
     <col min="27" max="27" width="14.25" customWidth="1"/>
     <col min="28" max="28" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1653,10 +1771,10 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
         <v>42</v>
@@ -1668,7 +1786,7 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1695,7 +1813,7 @@
         <v>206</v>
       </c>
       <c r="T1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -1723,7 +1841,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -1739,10 +1857,10 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -1754,7 +1872,7 @@
         <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -1781,7 +1899,7 @@
         <v>207</v>
       </c>
       <c r="T2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U2" t="s">
         <v>22</v>
@@ -1809,7 +1927,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1861,7 +1979,7 @@
         <v>208</v>
       </c>
       <c r="T3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U3" t="s">
         <v>21</v>
@@ -1889,7 +2007,7 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -1958,7 +2076,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -2027,7 +2145,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -2096,7 +2214,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2149,10 +2267,10 @@
         <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W7" t="s">
         <v>52</v>
@@ -2171,7 +2289,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -2224,10 +2342,10 @@
         <v>124</v>
       </c>
       <c r="S8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W8" t="s">
         <v>52</v>
@@ -2246,7 +2364,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -2299,10 +2417,10 @@
         <v>125</v>
       </c>
       <c r="S9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W9" t="s">
         <v>52</v>
@@ -2321,7 +2439,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" t="s">
@@ -2387,7 +2505,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -2453,7 +2571,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" t="s">
@@ -2519,7 +2637,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" t="s">
@@ -2585,7 +2703,7 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" t="s">
@@ -2638,7 +2756,7 @@
         <v>152</v>
       </c>
       <c r="T14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y14" t="s">
         <v>180</v>
@@ -2648,7 +2766,7 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -2701,10 +2819,10 @@
         <v>153</v>
       </c>
       <c r="S15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X15" t="s">
         <v>168</v>
@@ -2720,7 +2838,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" t="s">
@@ -2789,7 +2907,7 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" t="s">
@@ -2858,7 +2976,7 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" t="s">
@@ -2927,7 +3045,7 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" t="s">
@@ -2993,7 +3111,7 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" t="s">
@@ -3062,7 +3180,7 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" t="s">
@@ -3131,7 +3249,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -3200,7 +3318,7 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" t="s">
@@ -3253,10 +3371,10 @@
         <v>127</v>
       </c>
       <c r="S23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W23" t="s">
         <v>82</v>
@@ -3275,7 +3393,7 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" t="s">
@@ -3328,10 +3446,10 @@
         <v>128</v>
       </c>
       <c r="S24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W24" t="s">
         <v>82</v>
@@ -3350,7 +3468,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -3403,10 +3521,10 @@
         <v>129</v>
       </c>
       <c r="S25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W25" t="s">
         <v>82</v>
@@ -3425,7 +3543,7 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
       <c r="B26" t="s">
@@ -3478,10 +3596,10 @@
         <v>156</v>
       </c>
       <c r="S26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W26" t="s">
         <v>82</v>
@@ -3500,7 +3618,7 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -3553,10 +3671,10 @@
         <v>157</v>
       </c>
       <c r="S27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W27" t="s">
         <v>82</v>
@@ -3575,7 +3693,7 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
       <c r="B28" t="s">
@@ -3628,10 +3746,10 @@
         <v>158</v>
       </c>
       <c r="S28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W28" t="s">
         <v>82</v>
@@ -3650,7 +3768,7 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
       <c r="B29" t="s">
@@ -3719,7 +3837,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
       <c r="B30" t="s">
@@ -3788,7 +3906,7 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
       <c r="B31" t="s">
@@ -3857,7 +3975,7 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -3926,7 +4044,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
       <c r="B33" t="s">
@@ -3995,7 +4113,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
       <c r="B34" t="s">
@@ -4064,7 +4182,7 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
       <c r="B35" t="s">
@@ -4133,7 +4251,7 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>33</v>
       </c>
       <c r="B36" t="s">
@@ -4202,7 +4320,7 @@
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
       <c r="B37" t="s">
@@ -4268,7 +4386,7 @@
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
       <c r="B38" t="s">
@@ -4334,7 +4452,7 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
       <c r="B39" t="s">
@@ -4400,7 +4518,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
       <c r="B40" t="s">
@@ -4466,7 +4584,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
       <c r="B41" t="s">
@@ -4532,7 +4650,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
       <c r="B42" t="s">
@@ -4598,7 +4716,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
       <c r="B43" t="s">
@@ -4664,7 +4782,7 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
       <c r="B44" t="s">
@@ -4730,7 +4848,7 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
       <c r="B45" t="s">
@@ -4796,7 +4914,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
       <c r="B46" t="s">
@@ -4862,7 +4980,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
       <c r="B47" t="s">
@@ -4928,7 +5046,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>45</v>
       </c>
       <c r="B48" t="s">
@@ -4994,7 +5112,7 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
       <c r="B49" t="s">
@@ -5060,7 +5178,7 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>47</v>
       </c>
       <c r="B50" t="s">
@@ -5126,7 +5244,7 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>48</v>
       </c>
       <c r="B51" t="s">
@@ -5192,7 +5310,7 @@
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>49</v>
       </c>
       <c r="B52" t="s">
@@ -5258,7 +5376,7 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>50</v>
       </c>
       <c r="B53" t="s">
@@ -5324,7 +5442,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>51</v>
       </c>
       <c r="B54" t="s">
@@ -5390,7 +5508,7 @@
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>52</v>
       </c>
       <c r="B55" t="s">
@@ -5456,7 +5574,7 @@
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>53</v>
       </c>
       <c r="B56" t="s">
@@ -5522,7 +5640,7 @@
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>54</v>
       </c>
       <c r="B57" t="s">
@@ -5588,7 +5706,7 @@
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>55</v>
       </c>
       <c r="B58" t="s">
@@ -5654,7 +5772,7 @@
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>56</v>
       </c>
       <c r="B59" t="s">
@@ -5720,7 +5838,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>57</v>
       </c>
       <c r="B60" t="s">
@@ -5773,10 +5891,10 @@
         <v>62</v>
       </c>
       <c r="S60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W60" t="s">
         <v>117</v>
@@ -5795,7 +5913,7 @@
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>58</v>
       </c>
       <c r="B61" t="s">
@@ -5848,10 +5966,10 @@
         <v>215</v>
       </c>
       <c r="S61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W61" t="s">
         <v>117</v>
@@ -5870,7 +5988,7 @@
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>59</v>
       </c>
       <c r="B62" t="s">
@@ -5923,10 +6041,10 @@
         <v>216</v>
       </c>
       <c r="S62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W62" t="s">
         <v>117</v>
@@ -5945,11 +6063,11 @@
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5995,11 +6113,11 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6045,11 +6163,11 @@
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6095,11 +6213,11 @@
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6145,11 +6263,11 @@
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6195,11 +6313,11 @@
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6245,11 +6363,11 @@
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6295,11 +6413,11 @@
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6345,11 +6463,11 @@
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6395,11 +6513,11 @@
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6445,11 +6563,11 @@
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6495,11 +6613,11 @@
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6545,11 +6663,11 @@
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6595,11 +6713,11 @@
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6645,11 +6763,11 @@
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6695,11 +6813,11 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6745,11 +6863,11 @@
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6795,11 +6913,11 @@
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6845,11 +6963,11 @@
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -6895,11 +7013,11 @@
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="2">
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -6945,11 +7063,11 @@
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="2">
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -6995,11 +7113,11 @@
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7045,11 +7163,11 @@
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="2">
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7095,11 +7213,11 @@
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7145,11 +7263,11 @@
       </c>
     </row>
     <row r="89" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="2">
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7188,10 +7306,10 @@
         <v>160</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z89" t="s">
         <v>172</v>
@@ -7201,11 +7319,11 @@
       </c>
     </row>
     <row r="90" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7244,24 +7362,24 @@
         <v>160</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="2">
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7300,24 +7418,24 @@
         <v>160</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7356,24 +7474,24 @@
         <v>160</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="2">
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7412,24 +7530,24 @@
         <v>160</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z93" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7468,24 +7586,24 @@
         <v>160</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="2">
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7524,27 +7642,27 @@
         <v>31</v>
       </c>
       <c r="R95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7583,27 +7701,27 @@
         <v>31</v>
       </c>
       <c r="R96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="2">
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7642,27 +7760,27 @@
         <v>31</v>
       </c>
       <c r="R97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7701,27 +7819,27 @@
         <v>31</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U98">
         <v>204</v>
       </c>
       <c r="Y98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z98" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="2">
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7760,27 +7878,27 @@
         <v>31</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U99">
         <v>205</v>
       </c>
       <c r="Y99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z99" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7819,27 +7937,27 @@
         <v>31</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U100">
         <v>206</v>
       </c>
       <c r="Y100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="2">
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7878,27 +7996,27 @@
         <v>31</v>
       </c>
       <c r="R101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -7937,27 +8055,27 @@
         <v>31</v>
       </c>
       <c r="R102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y102" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="2">
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -7996,27 +8114,27 @@
         <v>31</v>
       </c>
       <c r="R103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T103" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y103" t="s">
         <v>308</v>
       </c>
-      <c r="Y103" t="s">
-        <v>309</v>
-      </c>
       <c r="Z103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8055,27 +8173,27 @@
         <v>31</v>
       </c>
       <c r="R104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="2">
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8114,27 +8232,27 @@
         <v>31</v>
       </c>
       <c r="R105" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8173,27 +8291,27 @@
         <v>31</v>
       </c>
       <c r="R106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T106" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y106" t="s">
         <v>315</v>
       </c>
-      <c r="Y106" t="s">
-        <v>316</v>
-      </c>
       <c r="Z106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB106" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="2">
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8232,24 +8350,24 @@
         <v>31</v>
       </c>
       <c r="R107" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T107" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB107" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8288,24 +8406,24 @@
         <v>31</v>
       </c>
       <c r="R108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T108" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB108" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="2">
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -8344,24 +8462,24 @@
         <v>31</v>
       </c>
       <c r="R109" t="s">
+        <v>331</v>
+      </c>
+      <c r="T109" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>125</v>
+      </c>
+      <c r="B110" t="s">
         <v>332</v>
-      </c>
-      <c r="T109" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB109" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>125</v>
-      </c>
-      <c r="B110" t="s">
-        <v>333</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8400,21 +8518,21 @@
         <v>31</v>
       </c>
       <c r="R110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W110" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB110" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="2">
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8453,21 +8571,21 @@
         <v>31</v>
       </c>
       <c r="R111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W111" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB111" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8506,174 +8624,819 @@
         <v>31</v>
       </c>
       <c r="R112" t="s">
+        <v>337</v>
+      </c>
+      <c r="W112" t="s">
         <v>338</v>
       </c>
-      <c r="W112" t="s">
+      <c r="AB112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>128</v>
+      </c>
+      <c r="B113" t="s">
         <v>339</v>
       </c>
-      <c r="AB112" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="113" spans="28:28" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+      <c r="J113">
+        <v>25</v>
+      </c>
+      <c r="K113">
+        <v>-1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113" t="s">
+        <v>30</v>
+      </c>
+      <c r="P113" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>31</v>
+      </c>
+      <c r="R113" t="s">
+        <v>343</v>
+      </c>
+      <c r="T113" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>344</v>
+      </c>
       <c r="AB113" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>129</v>
+      </c>
+      <c r="B114" t="s">
+        <v>340</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <v>25</v>
+      </c>
+      <c r="K114">
+        <v>-1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>30</v>
+      </c>
+      <c r="P114" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" t="s">
+        <v>350</v>
+      </c>
+      <c r="T114" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>344</v>
+      </c>
       <c r="AB114" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>6</v>
+      </c>
+      <c r="J115">
+        <v>25</v>
+      </c>
+      <c r="K115">
+        <v>-1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115" t="s">
+        <v>30</v>
+      </c>
+      <c r="P115" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" t="s">
+        <v>351</v>
+      </c>
+      <c r="T115" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>344</v>
+      </c>
       <c r="AB115" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>131</v>
+      </c>
+      <c r="B116" t="s">
+        <v>347</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="J116">
+        <v>25</v>
+      </c>
+      <c r="K116">
+        <v>-1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>30</v>
+      </c>
+      <c r="P116" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>31</v>
+      </c>
+      <c r="R116" t="s">
+        <v>352</v>
+      </c>
+      <c r="T116" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>345</v>
+      </c>
       <c r="AB116" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>132</v>
+      </c>
+      <c r="B117" t="s">
+        <v>348</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="J117">
+        <v>25</v>
+      </c>
+      <c r="K117">
+        <v>-1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117" t="s">
+        <v>30</v>
+      </c>
+      <c r="P117" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>31</v>
+      </c>
+      <c r="R117" t="s">
+        <v>353</v>
+      </c>
+      <c r="T117" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>345</v>
+      </c>
       <c r="AB117" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>133</v>
+      </c>
+      <c r="B118" t="s">
+        <v>349</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118">
+        <v>25</v>
+      </c>
+      <c r="K118">
+        <v>-1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118" t="s">
+        <v>30</v>
+      </c>
+      <c r="P118" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>31</v>
+      </c>
+      <c r="R118" t="s">
+        <v>354</v>
+      </c>
+      <c r="T118" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>345</v>
+      </c>
       <c r="AB118" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>134</v>
+      </c>
+      <c r="B119" t="s">
+        <v>355</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0.3</v>
+      </c>
+      <c r="I119">
+        <v>0.4</v>
+      </c>
+      <c r="J119">
+        <v>20</v>
+      </c>
+      <c r="K119">
+        <v>-1</v>
+      </c>
+      <c r="M119">
+        <v>8</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>30</v>
+      </c>
+      <c r="P119" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>31</v>
+      </c>
+      <c r="R119" t="s">
+        <v>358</v>
+      </c>
+      <c r="W119" t="s">
+        <v>82</v>
+      </c>
+      <c r="X119" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>204</v>
+      </c>
       <c r="AB119" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>135</v>
+      </c>
+      <c r="B120" t="s">
+        <v>356</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0.3</v>
+      </c>
+      <c r="I120">
+        <v>0.4</v>
+      </c>
+      <c r="J120">
+        <v>30</v>
+      </c>
+      <c r="K120">
+        <v>-1</v>
+      </c>
+      <c r="M120">
+        <v>8</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>30</v>
+      </c>
+      <c r="P120" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>31</v>
+      </c>
+      <c r="R120" t="s">
+        <v>359</v>
+      </c>
+      <c r="W120" t="s">
+        <v>82</v>
+      </c>
+      <c r="X120" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>204</v>
+      </c>
       <c r="AB120" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>357</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0.3</v>
+      </c>
+      <c r="I121">
+        <v>0.4</v>
+      </c>
+      <c r="J121">
+        <v>40</v>
+      </c>
+      <c r="K121">
+        <v>-1</v>
+      </c>
+      <c r="M121">
+        <v>8</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>31</v>
+      </c>
+      <c r="R121" t="s">
+        <v>360</v>
+      </c>
+      <c r="W121" t="s">
+        <v>82</v>
+      </c>
+      <c r="X121" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>204</v>
+      </c>
       <c r="AB121" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>137</v>
+      </c>
+      <c r="B122" t="s">
+        <v>363</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>30</v>
+      </c>
+      <c r="K122">
+        <v>-1</v>
+      </c>
+      <c r="M122">
+        <v>8</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>30</v>
+      </c>
+      <c r="P122" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>31</v>
+      </c>
+      <c r="R122" t="s">
+        <v>365</v>
+      </c>
+      <c r="T122" t="s">
+        <v>368</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="W122" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>369</v>
+      </c>
       <c r="AB122" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>138</v>
+      </c>
+      <c r="B123" t="s">
+        <v>364</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>30</v>
+      </c>
+      <c r="K123">
+        <v>-1</v>
+      </c>
+      <c r="M123">
+        <v>8</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>30</v>
+      </c>
+      <c r="P123" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>31</v>
+      </c>
+      <c r="R123" t="s">
+        <v>366</v>
+      </c>
+      <c r="T123" t="s">
+        <v>368</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="W123" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>369</v>
+      </c>
       <c r="AB123" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>139</v>
+      </c>
+      <c r="B124" t="s">
+        <v>362</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>30</v>
+      </c>
+      <c r="K124">
+        <v>-1</v>
+      </c>
+      <c r="M124">
+        <v>8</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>30</v>
+      </c>
+      <c r="P124" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>31</v>
+      </c>
+      <c r="R124" t="s">
+        <v>367</v>
+      </c>
+      <c r="T124" t="s">
+        <v>368</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="W124" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>369</v>
+      </c>
       <c r="AB124" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB125" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB126" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB127" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB128" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB129" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="130" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="131" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB131" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>217</v>
-      </c>
+    <row r="132" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB132" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB133" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB134" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB137" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB138" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB139" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB140" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB141" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB142" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB143" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="28:28" x14ac:dyDescent="0.2">
       <c r="AB144" t="s">
         <v>48</v>
       </c>
@@ -9035,66 +9798,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" t="s">
         <v>264</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>265</v>
       </c>
-      <c r="D1" t="s">
-        <v>266</v>
-      </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
         <v>269</v>
       </c>
-      <c r="D2" t="s">
-        <v>270</v>
-      </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" t="s">
         <v>266</v>
       </c>
-      <c r="D4" t="s">
-        <v>267</v>
-      </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB9543-A478-4016-AC39-6432FCA16B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1384D-261A-4993-8240-6FF61F465946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="372">
   <si>
     <t>名字</t>
   </si>
@@ -671,10 +671,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LaserMuzzleFlashBlue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BlueLaserImpact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,10 +1113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effectiveTimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>usableCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1394,6 +1386,22 @@
   </si>
   <si>
     <t>StaticCol_RedAreaExplosion</t>
+  </si>
+  <si>
+    <t>LaserStartBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserEndBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectCounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1401,7 +1409,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1439,13 +1447,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1729,8 +1736,8 @@
   <dimension ref="A1:AB210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1770,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1771,10 +1778,10 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H1" t="s">
         <v>42</v>
@@ -1786,7 +1793,7 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1810,10 +1817,10 @@
         <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -1841,7 +1848,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -1857,10 +1864,10 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -1872,7 +1879,7 @@
         <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -1896,10 +1903,10 @@
         <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U2" t="s">
         <v>22</v>
@@ -1927,7 +1934,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1976,10 +1983,10 @@
         <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U3" t="s">
         <v>21</v>
@@ -2267,10 +2274,10 @@
         <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W7" t="s">
         <v>52</v>
@@ -2293,7 +2300,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2342,10 +2349,10 @@
         <v>124</v>
       </c>
       <c r="S8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W8" t="s">
         <v>52</v>
@@ -2360,7 +2367,7 @@
         <v>169</v>
       </c>
       <c r="AB8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -2368,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2417,10 +2424,10 @@
         <v>125</v>
       </c>
       <c r="S9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W9" t="s">
         <v>52</v>
@@ -2435,7 +2442,7 @@
         <v>169</v>
       </c>
       <c r="AB9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -2492,13 +2499,13 @@
         <v>121</v>
       </c>
       <c r="X10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z10" t="s">
         <v>174</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>175</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2558,13 +2565,13 @@
         <v>122</v>
       </c>
       <c r="X11" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z11" t="s">
         <v>174</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>175</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2624,13 +2631,13 @@
         <v>123</v>
       </c>
       <c r="X12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z12" t="s">
         <v>174</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>175</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2690,13 +2697,13 @@
         <v>126</v>
       </c>
       <c r="X13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y13" t="s">
         <v>164</v>
       </c>
       <c r="Z13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2756,10 +2763,10 @@
         <v>152</v>
       </c>
       <c r="T14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Y14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2819,19 +2826,19 @@
         <v>153</v>
       </c>
       <c r="S15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X15" t="s">
         <v>168</v>
       </c>
       <c r="Y15" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z15" t="s">
         <v>178</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>179</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -3053,7 +3060,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -3062,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -3097,14 +3104,17 @@
       <c r="R19" t="s">
         <v>155</v>
       </c>
+      <c r="T19" t="s">
+        <v>370</v>
+      </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>368</v>
       </c>
       <c r="Y19" t="s">
         <v>170</v>
       </c>
       <c r="Z19" t="s">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3167,13 +3177,13 @@
         <v>117</v>
       </c>
       <c r="X20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s">
         <v>164</v>
       </c>
       <c r="Z20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3236,13 +3246,13 @@
         <v>117</v>
       </c>
       <c r="X21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s">
         <v>164</v>
       </c>
       <c r="Z21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3305,13 +3315,13 @@
         <v>117</v>
       </c>
       <c r="X22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y22" t="s">
         <v>164</v>
       </c>
       <c r="Z22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3371,22 +3381,22 @@
         <v>127</v>
       </c>
       <c r="S23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W23" t="s">
         <v>82</v>
       </c>
       <c r="X23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z23" t="s">
         <v>182</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>183</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3446,22 +3456,22 @@
         <v>128</v>
       </c>
       <c r="S24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W24" t="s">
         <v>82</v>
       </c>
       <c r="X24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z24" t="s">
         <v>182</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>183</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3521,22 +3531,22 @@
         <v>129</v>
       </c>
       <c r="S25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="T25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W25" t="s">
         <v>82</v>
       </c>
       <c r="X25" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z25" t="s">
         <v>182</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>183</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3596,22 +3606,22 @@
         <v>156</v>
       </c>
       <c r="S26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W26" t="s">
         <v>82</v>
       </c>
       <c r="X26" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z26" t="s">
         <v>185</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>186</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3671,22 +3681,22 @@
         <v>157</v>
       </c>
       <c r="S27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W27" t="s">
         <v>82</v>
       </c>
       <c r="X27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z27" t="s">
         <v>185</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>186</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3746,22 +3756,22 @@
         <v>158</v>
       </c>
       <c r="S28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W28" t="s">
         <v>82</v>
       </c>
       <c r="X28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z28" t="s">
         <v>185</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>186</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -4169,13 +4179,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4238,13 +4248,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4307,13 +4317,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4373,13 +4383,13 @@
         <v>96</v>
       </c>
       <c r="X37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y37" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z37" t="s">
         <v>191</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>192</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4439,13 +4449,13 @@
         <v>97</v>
       </c>
       <c r="X38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y38" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z38" t="s">
         <v>191</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>192</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4505,13 +4515,13 @@
         <v>98</v>
       </c>
       <c r="X39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y39" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z39" t="s">
         <v>191</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>192</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4571,13 +4581,13 @@
         <v>134</v>
       </c>
       <c r="X40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y40" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z40" t="s">
         <v>194</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>195</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4637,13 +4647,13 @@
         <v>135</v>
       </c>
       <c r="X41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y41" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z41" t="s">
         <v>194</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>195</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4703,13 +4713,13 @@
         <v>136</v>
       </c>
       <c r="X42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y42" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z42" t="s">
         <v>194</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>195</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4769,13 +4779,13 @@
         <v>137</v>
       </c>
       <c r="X43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y43" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z43" t="s">
         <v>197</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>198</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4835,13 +4845,13 @@
         <v>138</v>
       </c>
       <c r="X44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y44" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z44" t="s">
         <v>197</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>198</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -4901,13 +4911,13 @@
         <v>139</v>
       </c>
       <c r="X45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y45" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z45" t="s">
         <v>197</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>198</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -4967,13 +4977,13 @@
         <v>141</v>
       </c>
       <c r="X46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y46" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z46" t="s">
         <v>197</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>198</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5033,13 +5043,13 @@
         <v>140</v>
       </c>
       <c r="X47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y47" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z47" t="s">
         <v>197</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>198</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5099,13 +5109,13 @@
         <v>142</v>
       </c>
       <c r="X48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y48" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z48" t="s">
         <v>200</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>201</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5165,13 +5175,13 @@
         <v>143</v>
       </c>
       <c r="X49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y49" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z49" t="s">
         <v>200</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>201</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5231,13 +5241,13 @@
         <v>144</v>
       </c>
       <c r="X50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y50" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z50" t="s">
         <v>200</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>201</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5297,13 +5307,13 @@
         <v>145</v>
       </c>
       <c r="X51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y51" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z51" t="s">
         <v>200</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>201</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5363,13 +5373,13 @@
         <v>146</v>
       </c>
       <c r="X52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y52" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z52" t="s">
         <v>200</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>201</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5429,13 +5439,13 @@
         <v>131</v>
       </c>
       <c r="X53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y53" t="s">
         <v>164</v>
       </c>
       <c r="Z53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5495,13 +5505,13 @@
         <v>132</v>
       </c>
       <c r="X54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y54" t="s">
         <v>164</v>
       </c>
       <c r="Z54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5561,13 +5571,13 @@
         <v>147</v>
       </c>
       <c r="X55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y55" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z55" t="s">
         <v>203</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>204</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5627,13 +5637,13 @@
         <v>148</v>
       </c>
       <c r="X56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y56" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z56" t="s">
         <v>203</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>204</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5693,13 +5703,13 @@
         <v>149</v>
       </c>
       <c r="X57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y57" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z57" t="s">
         <v>203</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>204</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -5759,13 +5769,13 @@
         <v>150</v>
       </c>
       <c r="X58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y58" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z58" t="s">
         <v>203</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>204</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -5825,13 +5835,13 @@
         <v>151</v>
       </c>
       <c r="X59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y59" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z59" t="s">
         <v>203</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>204</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -5842,7 +5852,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -5891,10 +5901,10 @@
         <v>62</v>
       </c>
       <c r="S60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W60" t="s">
         <v>117</v>
@@ -5917,7 +5927,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -5963,13 +5973,13 @@
         <v>31</v>
       </c>
       <c r="R61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W61" t="s">
         <v>117</v>
@@ -5992,7 +6002,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -6038,13 +6048,13 @@
         <v>31</v>
       </c>
       <c r="R62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W62" t="s">
         <v>117</v>
@@ -6067,7 +6077,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -6117,7 +6127,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6167,7 +6177,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6217,7 +6227,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6267,7 +6277,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6317,7 +6327,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6367,7 +6377,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6417,7 +6427,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6467,7 +6477,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6517,7 +6527,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6567,7 +6577,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6617,7 +6627,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6667,7 +6677,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6717,7 +6727,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6767,7 +6777,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6817,7 +6827,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6867,7 +6877,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6917,7 +6927,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6967,7 +6977,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7017,7 +7027,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7067,7 +7077,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7117,7 +7127,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7167,7 +7177,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7217,7 +7227,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7267,7 +7277,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7306,13 +7316,13 @@
         <v>160</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -7323,7 +7333,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7362,13 +7372,13 @@
         <v>160</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -7379,7 +7389,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7418,13 +7428,13 @@
         <v>160</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z91" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -7435,7 +7445,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7474,13 +7484,13 @@
         <v>160</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z92" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -7491,7 +7501,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7530,13 +7540,13 @@
         <v>160</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z93" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -7547,7 +7557,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7586,13 +7596,13 @@
         <v>160</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Y94" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z94" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -7603,7 +7613,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7642,16 +7652,16 @@
         <v>31</v>
       </c>
       <c r="R95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z95" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
@@ -7662,7 +7672,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7701,16 +7711,16 @@
         <v>31</v>
       </c>
       <c r="R96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z96" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -7721,7 +7731,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7760,16 +7770,16 @@
         <v>31</v>
       </c>
       <c r="R97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Z97" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -7780,7 +7790,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7819,16 +7829,16 @@
         <v>31</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U98">
         <v>204</v>
       </c>
       <c r="Y98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z98" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -7839,7 +7849,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7878,16 +7888,16 @@
         <v>31</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U99">
         <v>205</v>
       </c>
       <c r="Y99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
@@ -7898,7 +7908,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7937,16 +7947,16 @@
         <v>31</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U100">
         <v>206</v>
       </c>
       <c r="Y100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
@@ -7957,7 +7967,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7996,16 +8006,16 @@
         <v>31</v>
       </c>
       <c r="R101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Y101" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z101" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
@@ -8016,7 +8026,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8055,16 +8065,16 @@
         <v>31</v>
       </c>
       <c r="R102" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="T102" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y102" t="s">
         <v>306</v>
       </c>
-      <c r="Y102" t="s">
-        <v>308</v>
-      </c>
       <c r="Z102" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
@@ -8075,7 +8085,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8114,16 +8124,16 @@
         <v>31</v>
       </c>
       <c r="R103" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y103" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z103" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
@@ -8134,7 +8144,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8173,16 +8183,16 @@
         <v>31</v>
       </c>
       <c r="R104" t="s">
+        <v>308</v>
+      </c>
+      <c r="T104" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="T104" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="Y104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Z104" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
@@ -8193,7 +8203,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8232,16 +8242,16 @@
         <v>31</v>
       </c>
       <c r="R105" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="T105" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y105" t="s">
         <v>313</v>
       </c>
-      <c r="Y105" t="s">
-        <v>315</v>
-      </c>
       <c r="Z105" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
@@ -8252,7 +8262,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8291,16 +8301,16 @@
         <v>31</v>
       </c>
       <c r="R106" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Y106" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Z106" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AB106" t="s">
         <v>48</v>
@@ -8311,7 +8321,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8350,13 +8360,13 @@
         <v>31</v>
       </c>
       <c r="R107" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="T107" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Y107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AB107" t="s">
         <v>48</v>
@@ -8367,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8406,13 +8416,13 @@
         <v>31</v>
       </c>
       <c r="R108" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="T108" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Y108" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AB108" t="s">
         <v>48</v>
@@ -8423,7 +8433,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -8462,13 +8472,13 @@
         <v>31</v>
       </c>
       <c r="R109" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="T109" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Y109" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AB109" t="s">
         <v>48</v>
@@ -8479,7 +8489,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8518,10 +8528,10 @@
         <v>31</v>
       </c>
       <c r="R110" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W110" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AB110" t="s">
         <v>48</v>
@@ -8532,7 +8542,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8571,10 +8581,10 @@
         <v>31</v>
       </c>
       <c r="R111" t="s">
+        <v>334</v>
+      </c>
+      <c r="W111" t="s">
         <v>336</v>
-      </c>
-      <c r="W111" t="s">
-        <v>338</v>
       </c>
       <c r="AB111" t="s">
         <v>48</v>
@@ -8585,7 +8595,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8624,10 +8634,10 @@
         <v>31</v>
       </c>
       <c r="R112" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W112" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AB112" t="s">
         <v>48</v>
@@ -8638,7 +8648,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8677,13 +8687,13 @@
         <v>31</v>
       </c>
       <c r="R113" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="T113" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y113" t="s">
         <v>342</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>344</v>
       </c>
       <c r="AB113" t="s">
         <v>48</v>
@@ -8694,7 +8704,7 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -8733,13 +8743,13 @@
         <v>31</v>
       </c>
       <c r="R114" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T114" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y114" t="s">
         <v>342</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>344</v>
       </c>
       <c r="AB114" t="s">
         <v>48</v>
@@ -8750,7 +8760,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -8789,13 +8799,13 @@
         <v>31</v>
       </c>
       <c r="R115" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="T115" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y115" t="s">
         <v>342</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>344</v>
       </c>
       <c r="AB115" t="s">
         <v>48</v>
@@ -8806,7 +8816,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -8845,13 +8855,13 @@
         <v>31</v>
       </c>
       <c r="R116" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T116" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Y116" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB116" t="s">
         <v>48</v>
@@ -8862,7 +8872,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -8901,13 +8911,13 @@
         <v>31</v>
       </c>
       <c r="R117" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="T117" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Y117" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB117" t="s">
         <v>48</v>
@@ -8918,7 +8928,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -8957,13 +8967,13 @@
         <v>31</v>
       </c>
       <c r="R118" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="T118" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Y118" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AB118" t="s">
         <v>48</v>
@@ -8974,7 +8984,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -9013,19 +9023,19 @@
         <v>31</v>
       </c>
       <c r="R119" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="W119" t="s">
         <v>82</v>
       </c>
       <c r="X119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y119" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Z119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB119" t="s">
         <v>48</v>
@@ -9036,7 +9046,7 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9075,19 +9085,19 @@
         <v>31</v>
       </c>
       <c r="R120" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="W120" t="s">
         <v>82</v>
       </c>
       <c r="X120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y120" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Z120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB120" t="s">
         <v>48</v>
@@ -9098,7 +9108,7 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9137,19 +9147,19 @@
         <v>31</v>
       </c>
       <c r="R121" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W121" t="s">
         <v>82</v>
       </c>
       <c r="X121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y121" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Z121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB121" t="s">
         <v>48</v>
@@ -9160,7 +9170,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9199,10 +9209,10 @@
         <v>31</v>
       </c>
       <c r="R122" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="T122" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U122">
         <v>1</v>
@@ -9211,7 +9221,7 @@
         <v>82</v>
       </c>
       <c r="Y122" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AB122" t="s">
         <v>48</v>
@@ -9222,7 +9232,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -9261,10 +9271,10 @@
         <v>31</v>
       </c>
       <c r="R123" t="s">
+        <v>364</v>
+      </c>
+      <c r="T123" t="s">
         <v>366</v>
-      </c>
-      <c r="T123" t="s">
-        <v>368</v>
       </c>
       <c r="U123">
         <v>1</v>
@@ -9273,7 +9283,7 @@
         <v>82</v>
       </c>
       <c r="Y123" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AB123" t="s">
         <v>48</v>
@@ -9284,7 +9294,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9323,10 +9333,10 @@
         <v>31</v>
       </c>
       <c r="R124" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T124" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U124">
         <v>1</v>
@@ -9335,7 +9345,7 @@
         <v>82</v>
       </c>
       <c r="Y124" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AB124" t="s">
         <v>48</v>
@@ -9798,66 +9808,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" t="s">
-        <v>265</v>
-      </c>
       <c r="E1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
         <v>268</v>
       </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
         <v>265</v>
       </c>
-      <c r="D4" t="s">
-        <v>266</v>
-      </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1384D-261A-4993-8240-6FF61F465946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161798B4-6D72-499B-B6D7-408952D83F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="380">
   <si>
     <t>名字</t>
   </si>
@@ -1369,25 +1369,6 @@
     <t>火焰轰炸 Lvl.2</t>
   </si>
   <si>
-    <t>5,0.5,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,0.7,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectEffectiveTimes,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaticCol_RedAreaExplosion</t>
-  </si>
-  <si>
     <t>LaserStartBlue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,6 +1383,53 @@
   <si>
     <t>effectCounts</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectEffectiveTimes,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,2,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,3,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,4,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticCol_TopRocketExplosion</t>
+  </si>
+  <si>
+    <t>冰冻手雷 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻手雷 Lvl.2</t>
+  </si>
+  <si>
+    <t>冰冻手雷 Lvl.3</t>
+  </si>
+  <si>
+    <t>15,2,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,3,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,4,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceRangeImpact</t>
+  </si>
+  <si>
+    <t>Grenade_Ice</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1765,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1892,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G2" t="s">
         <v>296</v>
@@ -3105,16 +3133,16 @@
         <v>155</v>
       </c>
       <c r="T19" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="X19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Y19" t="s">
         <v>170</v>
       </c>
       <c r="Z19" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -9194,7 +9222,7 @@
         <v>-1</v>
       </c>
       <c r="M122">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -9209,10 +9237,10 @@
         <v>31</v>
       </c>
       <c r="R122" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="T122" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U122">
         <v>1</v>
@@ -9221,7 +9249,7 @@
         <v>82</v>
       </c>
       <c r="Y122" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AB122" t="s">
         <v>48</v>
@@ -9256,7 +9284,7 @@
         <v>-1</v>
       </c>
       <c r="M123">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -9271,10 +9299,10 @@
         <v>31</v>
       </c>
       <c r="R123" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="T123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U123">
         <v>1</v>
@@ -9283,7 +9311,7 @@
         <v>82</v>
       </c>
       <c r="Y123" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AB123" t="s">
         <v>48</v>
@@ -9318,7 +9346,7 @@
         <v>-1</v>
       </c>
       <c r="M124">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -9333,10 +9361,10 @@
         <v>31</v>
       </c>
       <c r="R124" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="T124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U124">
         <v>1</v>
@@ -9345,23 +9373,206 @@
         <v>82</v>
       </c>
       <c r="Y124" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AB124" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>140</v>
+      </c>
+      <c r="B125" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ref="C125:C127" si="1">D125*F125</f>
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0.4</v>
+      </c>
+      <c r="I125">
+        <v>0.5</v>
+      </c>
+      <c r="J125">
+        <v>15</v>
+      </c>
+      <c r="K125">
+        <v>-1</v>
+      </c>
+      <c r="M125">
+        <v>9</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>30</v>
+      </c>
+      <c r="P125" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>31</v>
+      </c>
+      <c r="R125" t="s">
+        <v>375</v>
+      </c>
+      <c r="W125" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>378</v>
+      </c>
       <c r="AB125" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>141</v>
+      </c>
+      <c r="B126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0.4</v>
+      </c>
+      <c r="I126">
+        <v>0.5</v>
+      </c>
+      <c r="J126">
+        <v>18</v>
+      </c>
+      <c r="K126">
+        <v>-1</v>
+      </c>
+      <c r="M126">
+        <v>9</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>30</v>
+      </c>
+      <c r="P126" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>31</v>
+      </c>
+      <c r="R126" t="s">
+        <v>376</v>
+      </c>
+      <c r="W126" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>378</v>
+      </c>
       <c r="AB126" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s">
+        <v>374</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0.4</v>
+      </c>
+      <c r="I127">
+        <v>0.5</v>
+      </c>
+      <c r="J127">
+        <v>22</v>
+      </c>
+      <c r="K127">
+        <v>-1</v>
+      </c>
+      <c r="M127">
+        <v>9</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>30</v>
+      </c>
+      <c r="P127" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>31</v>
+      </c>
+      <c r="R127" t="s">
+        <v>377</v>
+      </c>
+      <c r="W127" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>378</v>
+      </c>
       <c r="AB127" t="s">
         <v>48</v>
       </c>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161798B4-6D72-499B-B6D7-408952D83F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A51F2A-8575-4E63-9452-A1C626D34AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -610,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,0.5,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24,0,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1430,6 +1426,10 @@
   </si>
   <si>
     <t>Grenade_Ice</t>
+  </si>
+  <si>
+    <t>3,0.5,Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1765,7 +1765,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V28" sqref="V28"/>
+      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1806,10 +1806,10 @@
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H1" t="s">
         <v>42</v>
@@ -1821,7 +1821,7 @@
         <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1845,10 +1845,10 @@
         <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -1860,7 +1860,7 @@
         <v>34</v>
       </c>
       <c r="X1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y1" t="s">
         <v>16</v>
@@ -1892,10 +1892,10 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -1907,7 +1907,7 @@
         <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -1931,10 +1931,10 @@
         <v>40</v>
       </c>
       <c r="S2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U2" t="s">
         <v>22</v>
@@ -1946,7 +1946,7 @@
         <v>33</v>
       </c>
       <c r="X2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y2" t="s">
         <v>15</v>
@@ -2011,10 +2011,10 @@
         <v>41</v>
       </c>
       <c r="S3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U3" t="s">
         <v>21</v>
@@ -2098,13 +2098,13 @@
         <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z4" t="s">
         <v>164</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>165</v>
       </c>
       <c r="AB4" t="s">
         <v>48</v>
@@ -2167,13 +2167,13 @@
         <v>52</v>
       </c>
       <c r="X5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z5" t="s">
         <v>164</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>165</v>
       </c>
       <c r="AB5" t="s">
         <v>48</v>
@@ -2236,13 +2236,13 @@
         <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z6" t="s">
         <v>164</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>165</v>
       </c>
       <c r="AB6" t="s">
         <v>48</v>
@@ -2302,22 +2302,22 @@
         <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W7" t="s">
         <v>52</v>
       </c>
       <c r="X7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z7" t="s">
         <v>168</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>169</v>
       </c>
       <c r="AB7" t="s">
         <v>48</v>
@@ -2328,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -2377,25 +2377,25 @@
         <v>124</v>
       </c>
       <c r="S8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W8" t="s">
         <v>52</v>
       </c>
       <c r="X8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z8" t="s">
         <v>168</v>
       </c>
-      <c r="Y8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>169</v>
-      </c>
       <c r="AB8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -2403,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -2452,25 +2452,25 @@
         <v>125</v>
       </c>
       <c r="S9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W9" t="s">
         <v>52</v>
       </c>
       <c r="X9" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z9" t="s">
         <v>168</v>
       </c>
-      <c r="Y9" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>169</v>
-      </c>
       <c r="AB9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -2527,13 +2527,13 @@
         <v>121</v>
       </c>
       <c r="X10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z10" t="s">
         <v>173</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>174</v>
       </c>
       <c r="AB10" t="s">
         <v>48</v>
@@ -2593,13 +2593,13 @@
         <v>122</v>
       </c>
       <c r="X11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z11" t="s">
         <v>173</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>174</v>
       </c>
       <c r="AB11" t="s">
         <v>48</v>
@@ -2659,13 +2659,13 @@
         <v>123</v>
       </c>
       <c r="X12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z12" t="s">
         <v>173</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>174</v>
       </c>
       <c r="AB12" t="s">
         <v>48</v>
@@ -2725,13 +2725,13 @@
         <v>126</v>
       </c>
       <c r="X13" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z13" t="s">
         <v>175</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>176</v>
       </c>
       <c r="AB13" t="s">
         <v>48</v>
@@ -2791,10 +2791,10 @@
         <v>152</v>
       </c>
       <c r="T14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB14" t="s">
         <v>48</v>
@@ -2854,19 +2854,19 @@
         <v>153</v>
       </c>
       <c r="S15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z15" t="s">
         <v>177</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>178</v>
       </c>
       <c r="AB15" t="s">
         <v>48</v>
@@ -2929,13 +2929,13 @@
         <v>63</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z16" t="s">
         <v>164</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>165</v>
       </c>
       <c r="AB16" t="s">
         <v>48</v>
@@ -2998,13 +2998,13 @@
         <v>63</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z17" t="s">
         <v>164</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>165</v>
       </c>
       <c r="AB17" t="s">
         <v>48</v>
@@ -3067,13 +3067,13 @@
         <v>63</v>
       </c>
       <c r="X18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z18" t="s">
         <v>164</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>165</v>
       </c>
       <c r="AB18" t="s">
         <v>48</v>
@@ -3130,19 +3130,19 @@
         <v>31</v>
       </c>
       <c r="R19" t="s">
-        <v>155</v>
+        <v>379</v>
       </c>
       <c r="T19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X19" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z19" t="s">
         <v>363</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>364</v>
       </c>
       <c r="AB19" t="s">
         <v>48</v>
@@ -3205,13 +3205,13 @@
         <v>117</v>
       </c>
       <c r="X20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z20" t="s">
         <v>175</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>176</v>
       </c>
       <c r="AB20" t="s">
         <v>48</v>
@@ -3274,13 +3274,13 @@
         <v>117</v>
       </c>
       <c r="X21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z21" t="s">
         <v>175</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>176</v>
       </c>
       <c r="AB21" t="s">
         <v>48</v>
@@ -3343,13 +3343,13 @@
         <v>117</v>
       </c>
       <c r="X22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z22" t="s">
         <v>175</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>176</v>
       </c>
       <c r="AB22" t="s">
         <v>48</v>
@@ -3409,22 +3409,22 @@
         <v>127</v>
       </c>
       <c r="S23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W23" t="s">
         <v>82</v>
       </c>
       <c r="X23" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z23" t="s">
         <v>181</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>182</v>
       </c>
       <c r="AB23" t="s">
         <v>48</v>
@@ -3484,22 +3484,22 @@
         <v>128</v>
       </c>
       <c r="S24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W24" t="s">
         <v>82</v>
       </c>
       <c r="X24" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z24" t="s">
         <v>181</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>182</v>
       </c>
       <c r="AB24" t="s">
         <v>48</v>
@@ -3559,22 +3559,22 @@
         <v>129</v>
       </c>
       <c r="S25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W25" t="s">
         <v>82</v>
       </c>
       <c r="X25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z25" t="s">
         <v>181</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>182</v>
       </c>
       <c r="AB25" t="s">
         <v>48</v>
@@ -3631,25 +3631,25 @@
         <v>31</v>
       </c>
       <c r="R26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W26" t="s">
         <v>82</v>
       </c>
       <c r="X26" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z26" t="s">
         <v>184</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>185</v>
       </c>
       <c r="AB26" t="s">
         <v>48</v>
@@ -3706,25 +3706,25 @@
         <v>31</v>
       </c>
       <c r="R27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W27" t="s">
         <v>82</v>
       </c>
       <c r="X27" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z27" t="s">
         <v>184</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>185</v>
       </c>
       <c r="AB27" t="s">
         <v>48</v>
@@ -3781,25 +3781,25 @@
         <v>31</v>
       </c>
       <c r="R28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W28" t="s">
         <v>82</v>
       </c>
       <c r="X28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z28" t="s">
         <v>184</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>185</v>
       </c>
       <c r="AB28" t="s">
         <v>48</v>
@@ -3862,13 +3862,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y29" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z29" t="s">
         <v>164</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>165</v>
       </c>
       <c r="AB29" t="s">
         <v>48</v>
@@ -3931,13 +3931,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y30" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z30" t="s">
         <v>164</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>165</v>
       </c>
       <c r="AB30" t="s">
         <v>48</v>
@@ -4000,13 +4000,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y31" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z31" t="s">
         <v>164</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>165</v>
       </c>
       <c r="AB31" t="s">
         <v>48</v>
@@ -4069,13 +4069,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y32" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z32" t="s">
         <v>164</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>165</v>
       </c>
       <c r="AB32" t="s">
         <v>48</v>
@@ -4138,13 +4138,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y33" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z33" t="s">
         <v>164</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>165</v>
       </c>
       <c r="AB33" t="s">
         <v>48</v>
@@ -4207,13 +4207,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB34" t="s">
         <v>48</v>
@@ -4276,13 +4276,13 @@
         <v>82</v>
       </c>
       <c r="X35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB35" t="s">
         <v>48</v>
@@ -4345,13 +4345,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB36" t="s">
         <v>48</v>
@@ -4411,13 +4411,13 @@
         <v>96</v>
       </c>
       <c r="X37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y37" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z37" t="s">
         <v>190</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>191</v>
       </c>
       <c r="AB37" t="s">
         <v>48</v>
@@ -4477,13 +4477,13 @@
         <v>97</v>
       </c>
       <c r="X38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y38" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z38" t="s">
         <v>190</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>191</v>
       </c>
       <c r="AB38" t="s">
         <v>48</v>
@@ -4543,13 +4543,13 @@
         <v>98</v>
       </c>
       <c r="X39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y39" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z39" t="s">
         <v>190</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>191</v>
       </c>
       <c r="AB39" t="s">
         <v>48</v>
@@ -4609,13 +4609,13 @@
         <v>134</v>
       </c>
       <c r="X40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y40" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z40" t="s">
         <v>193</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>194</v>
       </c>
       <c r="AB40" t="s">
         <v>48</v>
@@ -4675,13 +4675,13 @@
         <v>135</v>
       </c>
       <c r="X41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y41" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z41" t="s">
         <v>193</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>194</v>
       </c>
       <c r="AB41" t="s">
         <v>48</v>
@@ -4741,13 +4741,13 @@
         <v>136</v>
       </c>
       <c r="X42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y42" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z42" t="s">
         <v>193</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>194</v>
       </c>
       <c r="AB42" t="s">
         <v>48</v>
@@ -4807,13 +4807,13 @@
         <v>137</v>
       </c>
       <c r="X43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y43" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z43" t="s">
         <v>196</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>197</v>
       </c>
       <c r="AB43" t="s">
         <v>48</v>
@@ -4873,13 +4873,13 @@
         <v>138</v>
       </c>
       <c r="X44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y44" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z44" t="s">
         <v>196</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>197</v>
       </c>
       <c r="AB44" t="s">
         <v>48</v>
@@ -4939,13 +4939,13 @@
         <v>139</v>
       </c>
       <c r="X45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z45" t="s">
         <v>196</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>197</v>
       </c>
       <c r="AB45" t="s">
         <v>48</v>
@@ -5005,13 +5005,13 @@
         <v>141</v>
       </c>
       <c r="X46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y46" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z46" t="s">
         <v>196</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>197</v>
       </c>
       <c r="AB46" t="s">
         <v>48</v>
@@ -5071,13 +5071,13 @@
         <v>140</v>
       </c>
       <c r="X47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y47" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z47" t="s">
         <v>196</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>197</v>
       </c>
       <c r="AB47" t="s">
         <v>48</v>
@@ -5137,13 +5137,13 @@
         <v>142</v>
       </c>
       <c r="X48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y48" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z48" t="s">
         <v>199</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>200</v>
       </c>
       <c r="AB48" t="s">
         <v>48</v>
@@ -5203,13 +5203,13 @@
         <v>143</v>
       </c>
       <c r="X49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y49" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z49" t="s">
         <v>199</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>200</v>
       </c>
       <c r="AB49" t="s">
         <v>48</v>
@@ -5269,13 +5269,13 @@
         <v>144</v>
       </c>
       <c r="X50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z50" t="s">
         <v>199</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>200</v>
       </c>
       <c r="AB50" t="s">
         <v>48</v>
@@ -5335,13 +5335,13 @@
         <v>145</v>
       </c>
       <c r="X51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y51" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z51" t="s">
         <v>199</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>200</v>
       </c>
       <c r="AB51" t="s">
         <v>48</v>
@@ -5401,13 +5401,13 @@
         <v>146</v>
       </c>
       <c r="X52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y52" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z52" t="s">
         <v>199</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>200</v>
       </c>
       <c r="AB52" t="s">
         <v>48</v>
@@ -5467,13 +5467,13 @@
         <v>131</v>
       </c>
       <c r="X53" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z53" t="s">
         <v>175</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>176</v>
       </c>
       <c r="AB53" t="s">
         <v>48</v>
@@ -5533,13 +5533,13 @@
         <v>132</v>
       </c>
       <c r="X54" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z54" t="s">
         <v>175</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>176</v>
       </c>
       <c r="AB54" t="s">
         <v>48</v>
@@ -5599,13 +5599,13 @@
         <v>147</v>
       </c>
       <c r="X55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y55" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z55" t="s">
         <v>202</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>203</v>
       </c>
       <c r="AB55" t="s">
         <v>48</v>
@@ -5665,13 +5665,13 @@
         <v>148</v>
       </c>
       <c r="X56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y56" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z56" t="s">
         <v>202</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>203</v>
       </c>
       <c r="AB56" t="s">
         <v>48</v>
@@ -5731,13 +5731,13 @@
         <v>149</v>
       </c>
       <c r="X57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y57" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z57" t="s">
         <v>202</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>203</v>
       </c>
       <c r="AB57" t="s">
         <v>48</v>
@@ -5797,13 +5797,13 @@
         <v>150</v>
       </c>
       <c r="X58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y58" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z58" t="s">
         <v>202</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>203</v>
       </c>
       <c r="AB58" t="s">
         <v>48</v>
@@ -5863,13 +5863,13 @@
         <v>151</v>
       </c>
       <c r="X59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y59" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z59" t="s">
         <v>202</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>203</v>
       </c>
       <c r="AB59" t="s">
         <v>48</v>
@@ -5880,7 +5880,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -5929,22 +5929,22 @@
         <v>62</v>
       </c>
       <c r="S60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W60" t="s">
         <v>117</v>
       </c>
       <c r="X60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y60" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z60" t="s">
         <v>164</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>165</v>
       </c>
       <c r="AB60" t="s">
         <v>48</v>
@@ -5955,7 +5955,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -6001,25 +6001,25 @@
         <v>31</v>
       </c>
       <c r="R61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W61" t="s">
         <v>117</v>
       </c>
       <c r="X61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y61" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z61" t="s">
         <v>164</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>165</v>
       </c>
       <c r="AB61" t="s">
         <v>48</v>
@@ -6030,7 +6030,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -6076,25 +6076,25 @@
         <v>31</v>
       </c>
       <c r="R62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W62" t="s">
         <v>117</v>
       </c>
       <c r="X62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y62" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z62" t="s">
         <v>164</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>165</v>
       </c>
       <c r="AB62" t="s">
         <v>48</v>
@@ -6105,7 +6105,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -6135,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
+        <v>158</v>
+      </c>
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" t="s">
         <v>159</v>
-      </c>
-      <c r="P65" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>160</v>
       </c>
       <c r="U65">
         <v>180</v>
@@ -6155,7 +6155,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6185,13 +6185,13 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
+        <v>158</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" t="s">
         <v>159</v>
-      </c>
-      <c r="P66" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>160</v>
       </c>
       <c r="U66">
         <v>181</v>
@@ -6205,7 +6205,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6235,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
+        <v>158</v>
+      </c>
+      <c r="P67" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" t="s">
         <v>159</v>
-      </c>
-      <c r="P67" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>160</v>
       </c>
       <c r="U67">
         <v>182</v>
@@ -6255,7 +6255,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6285,13 +6285,13 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
+        <v>158</v>
+      </c>
+      <c r="P68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q68" t="s">
         <v>159</v>
-      </c>
-      <c r="P68" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>160</v>
       </c>
       <c r="U68">
         <v>183</v>
@@ -6305,7 +6305,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6335,13 +6335,13 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
+        <v>158</v>
+      </c>
+      <c r="P69" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" t="s">
         <v>159</v>
-      </c>
-      <c r="P69" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>160</v>
       </c>
       <c r="U69">
         <v>184</v>
@@ -6355,7 +6355,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6385,13 +6385,13 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
+        <v>158</v>
+      </c>
+      <c r="P70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70" t="s">
         <v>159</v>
-      </c>
-      <c r="P70" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>160</v>
       </c>
       <c r="U70">
         <v>185</v>
@@ -6405,7 +6405,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6435,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" t="s">
         <v>159</v>
-      </c>
-      <c r="P71" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>160</v>
       </c>
       <c r="U71">
         <v>186</v>
@@ -6455,7 +6455,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6485,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
+        <v>158</v>
+      </c>
+      <c r="P72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" t="s">
         <v>159</v>
-      </c>
-      <c r="P72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>160</v>
       </c>
       <c r="U72">
         <v>187</v>
@@ -6505,7 +6505,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6535,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
+        <v>158</v>
+      </c>
+      <c r="P73" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q73" t="s">
         <v>159</v>
-      </c>
-      <c r="P73" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>160</v>
       </c>
       <c r="U73">
         <v>188</v>
@@ -6555,7 +6555,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6585,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
+        <v>158</v>
+      </c>
+      <c r="P74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" t="s">
         <v>159</v>
-      </c>
-      <c r="P74" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>160</v>
       </c>
       <c r="U74">
         <v>189</v>
@@ -6605,7 +6605,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -6635,13 +6635,13 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
+        <v>158</v>
+      </c>
+      <c r="P75" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" t="s">
         <v>159</v>
-      </c>
-      <c r="P75" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>160</v>
       </c>
       <c r="U75">
         <v>190</v>
@@ -6655,7 +6655,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
+        <v>158</v>
+      </c>
+      <c r="P76" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" t="s">
         <v>159</v>
-      </c>
-      <c r="P76" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>160</v>
       </c>
       <c r="U76">
         <v>191</v>
@@ -6705,7 +6705,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>3</v>
       </c>
       <c r="O77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P77" t="s">
         <v>32</v>
       </c>
       <c r="Q77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U77">
         <v>192</v>
@@ -6755,7 +6755,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6785,13 +6785,13 @@
         <v>3</v>
       </c>
       <c r="O78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P78" t="s">
         <v>32</v>
       </c>
       <c r="Q78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U78">
         <v>193</v>
@@ -6805,7 +6805,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6835,13 +6835,13 @@
         <v>3</v>
       </c>
       <c r="O79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P79" t="s">
         <v>32</v>
       </c>
       <c r="Q79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U79">
         <v>194</v>
@@ -6855,7 +6855,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6885,13 +6885,13 @@
         <v>3</v>
       </c>
       <c r="O80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P80" t="s">
         <v>32</v>
       </c>
       <c r="Q80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U80">
         <v>195</v>
@@ -6905,7 +6905,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6935,13 +6935,13 @@
         <v>3</v>
       </c>
       <c r="O81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P81" t="s">
         <v>32</v>
       </c>
       <c r="Q81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U81">
         <v>196</v>
@@ -6955,7 +6955,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6985,13 +6985,13 @@
         <v>3</v>
       </c>
       <c r="O82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P82" t="s">
         <v>32</v>
       </c>
       <c r="Q82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U82">
         <v>197</v>
@@ -7005,7 +7005,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7035,13 +7035,13 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
+        <v>158</v>
+      </c>
+      <c r="P83" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q83" t="s">
         <v>159</v>
-      </c>
-      <c r="P83" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>160</v>
       </c>
       <c r="U83">
         <v>198</v>
@@ -7055,7 +7055,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7085,13 +7085,13 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
+        <v>158</v>
+      </c>
+      <c r="P84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q84" t="s">
         <v>159</v>
-      </c>
-      <c r="P84" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>160</v>
       </c>
       <c r="U84">
         <v>199</v>
@@ -7105,7 +7105,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7135,13 +7135,13 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
+        <v>158</v>
+      </c>
+      <c r="P85" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q85" t="s">
         <v>159</v>
-      </c>
-      <c r="P85" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>160</v>
       </c>
       <c r="U85">
         <v>200</v>
@@ -7155,7 +7155,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7185,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="O86" t="s">
+        <v>158</v>
+      </c>
+      <c r="P86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q86" t="s">
         <v>159</v>
-      </c>
-      <c r="P86" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>160</v>
       </c>
       <c r="U86">
         <v>201</v>
@@ -7205,7 +7205,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7235,13 +7235,13 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
+        <v>158</v>
+      </c>
+      <c r="P87" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q87" t="s">
         <v>159</v>
-      </c>
-      <c r="P87" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>160</v>
       </c>
       <c r="U87">
         <v>202</v>
@@ -7255,7 +7255,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7285,13 +7285,13 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
+        <v>158</v>
+      </c>
+      <c r="P88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q88" t="s">
         <v>159</v>
-      </c>
-      <c r="P88" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>160</v>
       </c>
       <c r="U88">
         <v>203</v>
@@ -7305,7 +7305,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7335,22 +7335,22 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
+        <v>158</v>
+      </c>
+      <c r="P89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q89" t="s">
         <v>159</v>
       </c>
-      <c r="P89" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>160</v>
-      </c>
       <c r="T89" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB89" t="s">
         <v>48</v>
@@ -7361,7 +7361,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7391,22 +7391,22 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
+        <v>158</v>
+      </c>
+      <c r="P90" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q90" t="s">
         <v>159</v>
       </c>
-      <c r="P90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>160</v>
-      </c>
       <c r="T90" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB90" t="s">
         <v>48</v>
@@ -7417,7 +7417,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7447,22 +7447,22 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
+        <v>158</v>
+      </c>
+      <c r="P91" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q91" t="s">
         <v>159</v>
       </c>
-      <c r="P91" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>160</v>
-      </c>
       <c r="T91" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Y91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB91" t="s">
         <v>48</v>
@@ -7473,7 +7473,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
+        <v>158</v>
+      </c>
+      <c r="P92" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q92" t="s">
         <v>159</v>
       </c>
-      <c r="P92" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>160</v>
-      </c>
       <c r="T92" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y92" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB92" t="s">
         <v>48</v>
@@ -7529,7 +7529,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7559,22 +7559,22 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
+        <v>158</v>
+      </c>
+      <c r="P93" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q93" t="s">
         <v>159</v>
       </c>
-      <c r="P93" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>160</v>
-      </c>
       <c r="T93" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB93" t="s">
         <v>48</v>
@@ -7585,7 +7585,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7615,22 +7615,22 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
+        <v>158</v>
+      </c>
+      <c r="P94" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q94" t="s">
         <v>159</v>
       </c>
-      <c r="P94" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>160</v>
-      </c>
       <c r="T94" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z94" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB94" t="s">
         <v>48</v>
@@ -7641,7 +7641,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7671,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="O95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P95" t="s">
         <v>32</v>
@@ -7680,16 +7680,16 @@
         <v>31</v>
       </c>
       <c r="R95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB95" t="s">
         <v>48</v>
@@ -7700,7 +7700,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>2</v>
       </c>
       <c r="O96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P96" t="s">
         <v>32</v>
@@ -7739,16 +7739,16 @@
         <v>31</v>
       </c>
       <c r="R96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB96" t="s">
         <v>48</v>
@@ -7759,7 +7759,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="O97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P97" t="s">
         <v>32</v>
@@ -7798,16 +7798,16 @@
         <v>31</v>
       </c>
       <c r="R97" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z97" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB97" t="s">
         <v>48</v>
@@ -7818,7 +7818,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7848,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="O98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P98" t="s">
         <v>32</v>
@@ -7857,16 +7857,16 @@
         <v>31</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U98">
         <v>204</v>
       </c>
       <c r="Y98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z98" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB98" t="s">
         <v>48</v>
@@ -7877,7 +7877,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P99" t="s">
         <v>32</v>
@@ -7916,16 +7916,16 @@
         <v>31</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U99">
         <v>205</v>
       </c>
       <c r="Y99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB99" t="s">
         <v>48</v>
@@ -7936,7 +7936,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7966,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P100" t="s">
         <v>32</v>
@@ -7975,16 +7975,16 @@
         <v>31</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U100">
         <v>206</v>
       </c>
       <c r="Y100" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB100" t="s">
         <v>48</v>
@@ -7995,7 +7995,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="O101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P101" t="s">
         <v>32</v>
@@ -8034,16 +8034,16 @@
         <v>31</v>
       </c>
       <c r="R101" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y101" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z101" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB101" t="s">
         <v>48</v>
@@ -8054,7 +8054,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P102" t="s">
         <v>32</v>
@@ -8093,16 +8093,16 @@
         <v>31</v>
       </c>
       <c r="R102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Z102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB102" t="s">
         <v>48</v>
@@ -8113,7 +8113,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="O103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P103" t="s">
         <v>32</v>
@@ -8152,16 +8152,16 @@
         <v>31</v>
       </c>
       <c r="R103" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y103" t="s">
         <v>305</v>
       </c>
-      <c r="Y103" t="s">
-        <v>306</v>
-      </c>
       <c r="Z103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB103" t="s">
         <v>48</v>
@@ -8172,7 +8172,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="O104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P104" t="s">
         <v>32</v>
@@ -8211,16 +8211,16 @@
         <v>31</v>
       </c>
       <c r="R104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y104" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB104" t="s">
         <v>48</v>
@@ -8231,7 +8231,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>2</v>
       </c>
       <c r="O105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P105" t="s">
         <v>32</v>
@@ -8270,16 +8270,16 @@
         <v>31</v>
       </c>
       <c r="R105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y105" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Z105" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB105" t="s">
         <v>48</v>
@@ -8290,7 +8290,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>2</v>
       </c>
       <c r="O106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P106" t="s">
         <v>32</v>
@@ -8329,16 +8329,16 @@
         <v>31</v>
       </c>
       <c r="R106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y106" t="s">
         <v>312</v>
       </c>
-      <c r="Y106" t="s">
-        <v>313</v>
-      </c>
       <c r="Z106" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB106" t="s">
         <v>48</v>
@@ -8349,7 +8349,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8388,13 +8388,13 @@
         <v>31</v>
       </c>
       <c r="R107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y107" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB107" t="s">
         <v>48</v>
@@ -8405,7 +8405,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8444,13 +8444,13 @@
         <v>31</v>
       </c>
       <c r="R108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T108" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB108" t="s">
         <v>48</v>
@@ -8461,7 +8461,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -8500,13 +8500,13 @@
         <v>31</v>
       </c>
       <c r="R109" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y109" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB109" t="s">
         <v>48</v>
@@ -8517,7 +8517,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8556,10 +8556,10 @@
         <v>31</v>
       </c>
       <c r="R110" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB110" t="s">
         <v>48</v>
@@ -8570,7 +8570,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8609,10 +8609,10 @@
         <v>31</v>
       </c>
       <c r="R111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB111" t="s">
         <v>48</v>
@@ -8623,7 +8623,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8662,10 +8662,10 @@
         <v>31</v>
       </c>
       <c r="R112" t="s">
+        <v>334</v>
+      </c>
+      <c r="W112" t="s">
         <v>335</v>
-      </c>
-      <c r="W112" t="s">
-        <v>336</v>
       </c>
       <c r="AB112" t="s">
         <v>48</v>
@@ -8676,7 +8676,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8715,13 +8715,13 @@
         <v>31</v>
       </c>
       <c r="R113" t="s">
+        <v>340</v>
+      </c>
+      <c r="T113" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y113" t="s">
         <v>341</v>
-      </c>
-      <c r="T113" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>342</v>
       </c>
       <c r="AB113" t="s">
         <v>48</v>
@@ -8732,7 +8732,7 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -8771,13 +8771,13 @@
         <v>31</v>
       </c>
       <c r="R114" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB114" t="s">
         <v>48</v>
@@ -8788,7 +8788,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -8827,13 +8827,13 @@
         <v>31</v>
       </c>
       <c r="R115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T115" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y115" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB115" t="s">
         <v>48</v>
@@ -8844,7 +8844,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -8883,13 +8883,13 @@
         <v>31</v>
       </c>
       <c r="R116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y116" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB116" t="s">
         <v>48</v>
@@ -8900,7 +8900,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -8939,13 +8939,13 @@
         <v>31</v>
       </c>
       <c r="R117" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB117" t="s">
         <v>48</v>
@@ -8956,7 +8956,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -8995,13 +8995,13 @@
         <v>31</v>
       </c>
       <c r="R118" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y118" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB118" t="s">
         <v>48</v>
@@ -9012,7 +9012,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -9051,19 +9051,19 @@
         <v>31</v>
       </c>
       <c r="R119" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W119" t="s">
         <v>82</v>
       </c>
       <c r="X119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y119" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB119" t="s">
         <v>48</v>
@@ -9074,7 +9074,7 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9113,19 +9113,19 @@
         <v>31</v>
       </c>
       <c r="R120" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W120" t="s">
         <v>82</v>
       </c>
       <c r="X120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y120" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB120" t="s">
         <v>48</v>
@@ -9136,7 +9136,7 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>31</v>
       </c>
       <c r="R121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W121" t="s">
         <v>82</v>
       </c>
       <c r="X121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y121" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB121" t="s">
         <v>48</v>
@@ -9198,7 +9198,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9237,10 +9237,10 @@
         <v>31</v>
       </c>
       <c r="R122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U122">
         <v>1</v>
@@ -9249,7 +9249,7 @@
         <v>82</v>
       </c>
       <c r="Y122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AB122" t="s">
         <v>48</v>
@@ -9260,7 +9260,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -9299,10 +9299,10 @@
         <v>31</v>
       </c>
       <c r="R123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U123">
         <v>1</v>
@@ -9311,7 +9311,7 @@
         <v>82</v>
       </c>
       <c r="Y123" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AB123" t="s">
         <v>48</v>
@@ -9322,7 +9322,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9361,10 +9361,10 @@
         <v>31</v>
       </c>
       <c r="R124" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U124">
         <v>1</v>
@@ -9373,7 +9373,7 @@
         <v>82</v>
       </c>
       <c r="Y124" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AB124" t="s">
         <v>48</v>
@@ -9384,7 +9384,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C125">
         <f t="shared" ref="C125:C127" si="1">D125*F125</f>
@@ -9430,16 +9430,16 @@
         <v>31</v>
       </c>
       <c r="R125" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W125" t="s">
         <v>82</v>
       </c>
       <c r="Y125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AB125" t="s">
         <v>48</v>
@@ -9450,7 +9450,7 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
@@ -9496,16 +9496,16 @@
         <v>31</v>
       </c>
       <c r="R126" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W126" t="s">
         <v>82</v>
       </c>
       <c r="Y126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z126" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AB126" t="s">
         <v>48</v>
@@ -9516,7 +9516,7 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
@@ -9562,16 +9562,16 @@
         <v>31</v>
       </c>
       <c r="R127" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W127" t="s">
         <v>82</v>
       </c>
       <c r="Y127" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z127" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AB127" t="s">
         <v>48</v>
@@ -10019,66 +10019,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
         <v>262</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>263</v>
       </c>
-      <c r="D1" t="s">
-        <v>264</v>
-      </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
         <v>267</v>
       </c>
-      <c r="D2" t="s">
-        <v>268</v>
-      </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
         <v>264</v>
       </c>
-      <c r="D4" t="s">
-        <v>265</v>
-      </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A51F2A-8575-4E63-9452-A1C626D34AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABA90D-2437-4552-A2D8-858B56CFAFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43440" yWindow="-1560" windowWidth="28800" windowHeight="27285" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="389">
   <si>
     <t>名字</t>
   </si>
@@ -1430,6 +1430,37 @@
   <si>
     <t>3,0.5,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电浆 Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电浆 Lvl.2</t>
+  </si>
+  <si>
+    <t>电浆 Lvl.3</t>
+  </si>
+  <si>
+    <t>12,0,Fire;5,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0,Fire;8,2,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,0,Fire;12,3,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningFlash</t>
+  </si>
+  <si>
+    <t>White_LightningShockwave</t>
+  </si>
+  <si>
+    <t>Beam_LightningPlasma</t>
   </si>
 </sst>
 </file>
@@ -1764,8 +1795,8 @@
   <dimension ref="A1:AB210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9578,86 +9609,257 @@
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>143</v>
+      </c>
+      <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0.5</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>20</v>
+      </c>
+      <c r="K128">
+        <v>-1</v>
+      </c>
+      <c r="M128">
+        <v>5</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>30</v>
+      </c>
+      <c r="P128" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>31</v>
+      </c>
+      <c r="R128" t="s">
+        <v>383</v>
+      </c>
+      <c r="W128" t="s">
+        <v>82</v>
+      </c>
+      <c r="X128" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>387</v>
+      </c>
       <c r="AB128" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>144</v>
+      </c>
+      <c r="B129" t="s">
+        <v>381</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0.5</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>30</v>
+      </c>
+      <c r="K129">
+        <v>-1</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129" t="s">
+        <v>30</v>
+      </c>
+      <c r="P129" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>31</v>
+      </c>
+      <c r="R129" t="s">
+        <v>384</v>
+      </c>
+      <c r="W129" t="s">
+        <v>82</v>
+      </c>
+      <c r="X129" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>387</v>
+      </c>
       <c r="AB129" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>145</v>
+      </c>
+      <c r="B130" t="s">
+        <v>382</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0.5</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>40</v>
+      </c>
+      <c r="K130">
+        <v>-1</v>
+      </c>
+      <c r="M130">
+        <v>5</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>30</v>
+      </c>
+      <c r="P130" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>31</v>
+      </c>
+      <c r="R130" t="s">
+        <v>385</v>
+      </c>
+      <c r="W130" t="s">
+        <v>82</v>
+      </c>
+      <c r="X130" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>387</v>
+      </c>
       <c r="AB130" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB131" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB132" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB133" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB134" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB137" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB138" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB139" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB140" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB141" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB142" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB143" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="28:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="AB144" t="s">
         <v>48</v>
       </c>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394AF6F1-1B84-487F-9C35-5463B496EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8735CA0-B75D-4C09-A65C-8BF4C7962EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43725" yWindow="-1035" windowWidth="28800" windowHeight="27285" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="59415" yWindow="-1095" windowWidth="28800" windowHeight="27285" activeTab="1" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
+    <workbookView xWindow="42660" yWindow="6810" windowWidth="13860" windowHeight="11385" activeTab="1" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="440">
   <si>
     <t>名字</t>
   </si>
@@ -298,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rifle Shoot Lvl.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rifle Shoot Lvl.2</t>
   </si>
   <si>
@@ -599,14 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20,1,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24,0,Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1492,42 +1479,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Cannon Napalm Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCM-D Double Shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS-G Explosion Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Plasma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFEW Energy Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Sparkler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lightning Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rifle Shoot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cannon Napalm Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LCM-D Double Shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS-G Explosion Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acid Plasma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HFEW Energy Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Sparkler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rifle Shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sniper Shoot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1648,6 +1631,38 @@
   </si>
   <si>
     <t>GTW-L Acid Bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,1,Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1.2,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Shoot Lvl.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Ice Shoot Lvl.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rifle Ice Shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explosive Rocket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1982,11 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2025,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G1" t="s">
         <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
@@ -2049,7 +2060,7 @@
         <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -2073,10 +2084,10 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="W1" t="s">
         <v>14</v>
@@ -2088,7 +2099,7 @@
         <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AA1" t="s">
         <v>16</v>
@@ -2111,25 +2122,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
@@ -2141,7 +2152,7 @@
         <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -2165,10 +2176,10 @@
         <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="V2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="W2" t="s">
         <v>22</v>
@@ -2180,7 +2191,7 @@
         <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AA2" t="s">
         <v>15</v>
@@ -2203,10 +2214,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -2251,10 +2262,10 @@
         <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="V3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="W3" t="s">
         <v>21</v>
@@ -2286,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2361,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2436,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2511,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2551,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
@@ -2563,13 +2574,10 @@
         <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>119</v>
-      </c>
-      <c r="U7" t="s">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="V7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Y7" t="s">
         <v>52</v>
@@ -2592,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2632,7 +2640,7 @@
         <v>3</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
@@ -2644,13 +2652,10 @@
         <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U8" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="V8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Y8" t="s">
         <v>52</v>
@@ -2665,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -2673,7 +2678,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2713,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="s">
         <v>30</v>
@@ -2725,13 +2730,10 @@
         <v>31</v>
       </c>
       <c r="T9" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="V9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Y9" t="s">
         <v>52</v>
@@ -2746,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -2754,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2806,7 +2808,7 @@
         <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z10" t="b">
         <v>1</v>
@@ -2826,7 +2828,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2878,7 +2880,7 @@
         <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z11" t="b">
         <v>1</v>
@@ -2898,7 +2900,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2950,7 +2952,7 @@
         <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z12" t="b">
         <v>1</v>
@@ -3022,7 +3024,7 @@
         <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z13" t="b">
         <v>1</v>
@@ -3094,10 +3096,10 @@
         <v>31</v>
       </c>
       <c r="T14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3157,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="s">
         <v>30</v>
@@ -3169,13 +3171,10 @@
         <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>152</v>
-      </c>
-      <c r="U15" t="s">
-        <v>267</v>
+        <v>432</v>
       </c>
       <c r="V15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Z15" t="b">
         <v>1</v>
@@ -3195,7 +3194,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3247,7 +3246,7 @@
         <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="Y16" t="s">
         <v>62</v>
@@ -3270,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3322,7 +3321,7 @@
         <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="Y17" t="s">
         <v>62</v>
@@ -3345,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -3397,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>129</v>
+        <v>435</v>
       </c>
       <c r="Y18" t="s">
         <v>62</v>
@@ -3420,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3472,10 +3471,10 @@
         <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="V19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
@@ -3495,7 +3494,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -3547,10 +3546,10 @@
         <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z20" t="b">
         <v>1</v>
@@ -3570,7 +3569,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -3622,10 +3621,10 @@
         <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z21" t="b">
         <v>1</v>
@@ -3645,7 +3644,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -3697,10 +3696,10 @@
         <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z22" t="b">
         <v>1</v>
@@ -3720,7 +3719,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>439</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -3730,16 +3729,16 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
       <c r="G23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -3760,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="s">
         <v>30</v>
@@ -3772,16 +3771,16 @@
         <v>31</v>
       </c>
       <c r="T23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="b">
         <v>1</v>
@@ -3801,7 +3800,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>439</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -3841,7 +3840,7 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="s">
         <v>30</v>
@@ -3853,16 +3852,16 @@
         <v>31</v>
       </c>
       <c r="T24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="b">
         <v>1</v>
@@ -3882,7 +3881,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>439</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -3892,16 +3891,16 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>12</v>
       </c>
       <c r="G25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -3922,7 +3921,7 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="s">
         <v>30</v>
@@ -3934,16 +3933,16 @@
         <v>31</v>
       </c>
       <c r="T25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="b">
         <v>1</v>
@@ -3963,7 +3962,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4015,16 +4014,16 @@
         <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="b">
         <v>1</v>
@@ -4044,7 +4043,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4096,16 +4095,16 @@
         <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="U27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="b">
         <v>1</v>
@@ -4125,7 +4124,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4177,16 +4176,16 @@
         <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="V28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="b">
         <v>1</v>
@@ -4206,7 +4205,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4261,7 +4260,7 @@
         <v>51</v>
       </c>
       <c r="Y29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="b">
         <v>1</v>
@@ -4281,7 +4280,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -4336,7 +4335,7 @@
         <v>54</v>
       </c>
       <c r="Y30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="b">
         <v>1</v>
@@ -4356,7 +4355,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4411,7 +4410,7 @@
         <v>55</v>
       </c>
       <c r="Y31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="b">
         <v>1</v>
@@ -4431,7 +4430,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4483,10 +4482,10 @@
         <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="b">
         <v>1</v>
@@ -4506,7 +4505,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -4558,10 +4557,10 @@
         <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="b">
         <v>1</v>
@@ -4581,7 +4580,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C34">
         <v>13</v>
@@ -4633,10 +4632,10 @@
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="b">
         <v>1</v>
@@ -4656,7 +4655,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -4711,7 +4710,7 @@
         <v>61</v>
       </c>
       <c r="Y35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="b">
         <v>1</v>
@@ -4731,7 +4730,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -4786,7 +4785,7 @@
         <v>55</v>
       </c>
       <c r="Y36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="b">
         <v>1</v>
@@ -4806,7 +4805,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C37">
         <v>14</v>
@@ -4858,7 +4857,7 @@
         <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z37" t="b">
         <v>1</v>
@@ -4878,7 +4877,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C38">
         <v>14</v>
@@ -4930,7 +4929,7 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z38" t="b">
         <v>1</v>
@@ -4950,7 +4949,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -5002,7 +5001,7 @@
         <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z39" t="b">
         <v>1</v>
@@ -5022,7 +5021,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C40">
         <v>15</v>
@@ -5074,7 +5073,7 @@
         <v>31</v>
       </c>
       <c r="T40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z40" t="b">
         <v>1</v>
@@ -5094,7 +5093,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -5146,7 +5145,7 @@
         <v>31</v>
       </c>
       <c r="T41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z41" t="b">
         <v>1</v>
@@ -5166,7 +5165,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -5218,7 +5217,7 @@
         <v>31</v>
       </c>
       <c r="T42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z42" t="b">
         <v>1</v>
@@ -5238,7 +5237,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -5290,7 +5289,7 @@
         <v>31</v>
       </c>
       <c r="T43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z43" t="b">
         <v>1</v>
@@ -5310,7 +5309,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -5362,7 +5361,7 @@
         <v>31</v>
       </c>
       <c r="T44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z44" t="b">
         <v>1</v>
@@ -5382,7 +5381,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -5434,7 +5433,7 @@
         <v>31</v>
       </c>
       <c r="T45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z45" t="b">
         <v>1</v>
@@ -5454,7 +5453,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -5506,7 +5505,7 @@
         <v>31</v>
       </c>
       <c r="T46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z46" t="b">
         <v>1</v>
@@ -5526,7 +5525,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -5578,7 +5577,7 @@
         <v>31</v>
       </c>
       <c r="T47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z47" t="b">
         <v>1</v>
@@ -5598,7 +5597,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C48">
         <v>17</v>
@@ -5650,7 +5649,7 @@
         <v>31</v>
       </c>
       <c r="T48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z48" t="b">
         <v>1</v>
@@ -5670,7 +5669,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C49">
         <v>17</v>
@@ -5722,7 +5721,7 @@
         <v>31</v>
       </c>
       <c r="T49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z49" t="b">
         <v>1</v>
@@ -5742,7 +5741,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -5794,7 +5793,7 @@
         <v>31</v>
       </c>
       <c r="T50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z50" t="b">
         <v>1</v>
@@ -5814,7 +5813,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -5866,7 +5865,7 @@
         <v>31</v>
       </c>
       <c r="T51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z51" t="b">
         <v>1</v>
@@ -5886,7 +5885,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -5938,7 +5937,7 @@
         <v>31</v>
       </c>
       <c r="T52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z52" t="b">
         <v>1</v>
@@ -5958,7 +5957,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -6010,7 +6009,7 @@
         <v>31</v>
       </c>
       <c r="T53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z53" t="b">
         <v>1</v>
@@ -6030,7 +6029,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -6082,7 +6081,7 @@
         <v>31</v>
       </c>
       <c r="T54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z54" t="b">
         <v>1</v>
@@ -6102,7 +6101,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -6154,7 +6153,7 @@
         <v>31</v>
       </c>
       <c r="T55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z55" t="b">
         <v>1</v>
@@ -6174,7 +6173,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C56">
         <v>18</v>
@@ -6226,7 +6225,7 @@
         <v>31</v>
       </c>
       <c r="T56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z56" t="b">
         <v>1</v>
@@ -6246,7 +6245,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -6298,7 +6297,7 @@
         <v>31</v>
       </c>
       <c r="T57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -6318,7 +6317,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C58">
         <v>18</v>
@@ -6370,7 +6369,7 @@
         <v>31</v>
       </c>
       <c r="T58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z58" t="b">
         <v>1</v>
@@ -6390,7 +6389,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -6442,7 +6441,7 @@
         <v>31</v>
       </c>
       <c r="T59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z59" t="b">
         <v>1</v>
@@ -6462,7 +6461,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -6517,13 +6516,13 @@
         <v>61</v>
       </c>
       <c r="U60" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="V60" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Y60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z60" t="b">
         <v>1</v>
@@ -6543,7 +6542,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -6595,16 +6594,16 @@
         <v>31</v>
       </c>
       <c r="T61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="U61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="V61" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Y61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z61" t="b">
         <v>1</v>
@@ -6624,7 +6623,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C62">
         <v>19</v>
@@ -6676,16 +6675,16 @@
         <v>31</v>
       </c>
       <c r="T62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="U62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="V62" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Y62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z62" t="b">
         <v>1</v>
@@ -6727,7 +6726,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -6763,13 +6762,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R65" t="s">
         <v>32</v>
       </c>
       <c r="S65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W65">
         <v>180</v>
@@ -6792,7 +6791,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -6828,13 +6827,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R66" t="s">
         <v>32</v>
       </c>
       <c r="S66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W66">
         <v>181</v>
@@ -6857,7 +6856,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -6893,13 +6892,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R67" t="s">
         <v>32</v>
       </c>
       <c r="S67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W67">
         <v>182</v>
@@ -6922,7 +6921,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -6958,13 +6957,13 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R68" t="s">
         <v>32</v>
       </c>
       <c r="S68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W68">
         <v>183</v>
@@ -6987,7 +6986,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C69">
         <v>21</v>
@@ -7023,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R69" t="s">
         <v>32</v>
       </c>
       <c r="S69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W69">
         <v>184</v>
@@ -7052,7 +7051,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C70">
         <v>21</v>
@@ -7088,13 +7087,13 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R70" t="s">
         <v>32</v>
       </c>
       <c r="S70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W70">
         <v>185</v>
@@ -7117,7 +7116,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C71">
         <v>22</v>
@@ -7153,13 +7152,13 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R71" t="s">
         <v>32</v>
       </c>
       <c r="S71" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W71">
         <v>186</v>
@@ -7182,7 +7181,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C72">
         <v>22</v>
@@ -7218,13 +7217,13 @@
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R72" t="s">
         <v>32</v>
       </c>
       <c r="S72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W72">
         <v>187</v>
@@ -7247,7 +7246,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C73">
         <v>22</v>
@@ -7283,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R73" t="s">
         <v>32</v>
       </c>
       <c r="S73" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W73">
         <v>188</v>
@@ -7312,7 +7311,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C74">
         <v>23</v>
@@ -7348,13 +7347,13 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R74" t="s">
         <v>32</v>
       </c>
       <c r="S74" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W74">
         <v>189</v>
@@ -7377,7 +7376,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -7413,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R75" t="s">
         <v>32</v>
       </c>
       <c r="S75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W75">
         <v>190</v>
@@ -7442,7 +7441,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C76">
         <v>23</v>
@@ -7478,13 +7477,13 @@
         <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R76" t="s">
         <v>32</v>
       </c>
       <c r="S76" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W76">
         <v>191</v>
@@ -7507,7 +7506,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C77">
         <v>24</v>
@@ -7543,13 +7542,13 @@
         <v>3</v>
       </c>
       <c r="Q77" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R77" t="s">
         <v>32</v>
       </c>
       <c r="S77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W77">
         <v>192</v>
@@ -7572,7 +7571,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C78">
         <v>24</v>
@@ -7608,13 +7607,13 @@
         <v>3</v>
       </c>
       <c r="Q78" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R78" t="s">
         <v>32</v>
       </c>
       <c r="S78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W78">
         <v>193</v>
@@ -7637,7 +7636,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -7673,13 +7672,13 @@
         <v>3</v>
       </c>
       <c r="Q79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R79" t="s">
         <v>32</v>
       </c>
       <c r="S79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W79">
         <v>194</v>
@@ -7702,7 +7701,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C80">
         <v>25</v>
@@ -7738,13 +7737,13 @@
         <v>3</v>
       </c>
       <c r="Q80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R80" t="s">
         <v>32</v>
       </c>
       <c r="S80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W80">
         <v>195</v>
@@ -7767,7 +7766,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C81">
         <v>25</v>
@@ -7803,13 +7802,13 @@
         <v>3</v>
       </c>
       <c r="Q81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R81" t="s">
         <v>32</v>
       </c>
       <c r="S81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W81">
         <v>196</v>
@@ -7832,7 +7831,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C82">
         <v>25</v>
@@ -7868,13 +7867,13 @@
         <v>3</v>
       </c>
       <c r="Q82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R82" t="s">
         <v>32</v>
       </c>
       <c r="S82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W82">
         <v>197</v>
@@ -7897,7 +7896,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C83">
         <v>26</v>
@@ -7933,13 +7932,13 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R83" t="s">
         <v>32</v>
       </c>
       <c r="S83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W83">
         <v>198</v>
@@ -7962,7 +7961,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C84">
         <v>26</v>
@@ -7998,13 +7997,13 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R84" t="s">
         <v>32</v>
       </c>
       <c r="S84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W84">
         <v>199</v>
@@ -8027,7 +8026,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C85">
         <v>26</v>
@@ -8063,13 +8062,13 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R85" t="s">
         <v>32</v>
       </c>
       <c r="S85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W85">
         <v>200</v>
@@ -8092,7 +8091,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C86">
         <v>27</v>
@@ -8128,13 +8127,13 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R86" t="s">
         <v>32</v>
       </c>
       <c r="S86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W86">
         <v>201</v>
@@ -8157,7 +8156,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C87">
         <v>27</v>
@@ -8193,13 +8192,13 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R87" t="s">
         <v>32</v>
       </c>
       <c r="S87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W87">
         <v>202</v>
@@ -8222,7 +8221,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C88">
         <v>27</v>
@@ -8258,13 +8257,13 @@
         <v>0</v>
       </c>
       <c r="Q88" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R88" t="s">
         <v>32</v>
       </c>
       <c r="S88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="W88">
         <v>203</v>
@@ -8287,7 +8286,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -8323,16 +8322,16 @@
         <v>0</v>
       </c>
       <c r="Q89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R89" t="s">
         <v>32</v>
       </c>
       <c r="S89" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Z89" t="b">
         <v>0</v>
@@ -8352,7 +8351,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -8388,16 +8387,16 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R90" t="s">
         <v>32</v>
       </c>
       <c r="S90" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Z90" t="b">
         <v>0</v>
@@ -8417,7 +8416,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C91">
         <v>28</v>
@@ -8453,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="Q91" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R91" t="s">
         <v>32</v>
       </c>
       <c r="S91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Z91" t="b">
         <v>0</v>
@@ -8482,7 +8481,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C92">
         <v>29</v>
@@ -8518,16 +8517,16 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R92" t="s">
         <v>32</v>
       </c>
       <c r="S92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Z92" t="b">
         <v>0</v>
@@ -8547,7 +8546,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C93">
         <v>29</v>
@@ -8583,16 +8582,16 @@
         <v>0</v>
       </c>
       <c r="Q93" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R93" t="s">
         <v>32</v>
       </c>
       <c r="S93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Z93" t="b">
         <v>0</v>
@@ -8612,7 +8611,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -8648,16 +8647,16 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R94" t="s">
         <v>32</v>
       </c>
       <c r="S94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Z94" t="b">
         <v>0</v>
@@ -8677,7 +8676,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -8713,7 +8712,7 @@
         <v>2</v>
       </c>
       <c r="Q95" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R95" t="s">
         <v>32</v>
@@ -8722,10 +8721,10 @@
         <v>31</v>
       </c>
       <c r="T95" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Z95" t="b">
         <v>0</v>
@@ -8745,7 +8744,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -8781,7 +8780,7 @@
         <v>2</v>
       </c>
       <c r="Q96" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R96" t="s">
         <v>32</v>
@@ -8790,10 +8789,10 @@
         <v>31</v>
       </c>
       <c r="T96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z96" t="b">
         <v>0</v>
@@ -8813,7 +8812,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C97">
         <v>30</v>
@@ -8849,7 +8848,7 @@
         <v>2</v>
       </c>
       <c r="Q97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R97" t="s">
         <v>32</v>
@@ -8858,10 +8857,10 @@
         <v>31</v>
       </c>
       <c r="T97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z97" t="b">
         <v>0</v>
@@ -8881,7 +8880,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C98">
         <v>31</v>
@@ -8917,7 +8916,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R98" t="s">
         <v>32</v>
@@ -8926,7 +8925,7 @@
         <v>31</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W98">
         <v>204</v>
@@ -8949,7 +8948,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C99">
         <v>31</v>
@@ -8985,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R99" t="s">
         <v>32</v>
@@ -8994,7 +8993,7 @@
         <v>31</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W99">
         <v>205</v>
@@ -9017,7 +9016,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C100">
         <v>31</v>
@@ -9053,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R100" t="s">
         <v>32</v>
@@ -9062,7 +9061,7 @@
         <v>31</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W100">
         <v>206</v>
@@ -9085,7 +9084,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C101">
         <v>32</v>
@@ -9121,7 +9120,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R101" t="s">
         <v>32</v>
@@ -9130,10 +9129,10 @@
         <v>31</v>
       </c>
       <c r="T101" t="s">
+        <v>295</v>
+      </c>
+      <c r="V101" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="V101" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="Z101" t="b">
         <v>0</v>
@@ -9153,7 +9152,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -9189,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R102" t="s">
         <v>32</v>
@@ -9198,10 +9197,10 @@
         <v>31</v>
       </c>
       <c r="T102" t="s">
+        <v>296</v>
+      </c>
+      <c r="V102" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="V102" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="Z102" t="b">
         <v>0</v>
@@ -9221,7 +9220,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C103">
         <v>32</v>
@@ -9257,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R103" t="s">
         <v>32</v>
@@ -9266,10 +9265,10 @@
         <v>31</v>
       </c>
       <c r="T103" t="s">
+        <v>297</v>
+      </c>
+      <c r="V103" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="V103" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="Z103" t="b">
         <v>0</v>
@@ -9289,7 +9288,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C104">
         <v>33</v>
@@ -9325,7 +9324,7 @@
         <v>2</v>
       </c>
       <c r="Q104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R104" t="s">
         <v>32</v>
@@ -9334,10 +9333,10 @@
         <v>31</v>
       </c>
       <c r="T104" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Z104" t="b">
         <v>0</v>
@@ -9357,7 +9356,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C105">
         <v>33</v>
@@ -9393,7 +9392,7 @@
         <v>2</v>
       </c>
       <c r="Q105" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R105" t="s">
         <v>32</v>
@@ -9402,10 +9401,10 @@
         <v>31</v>
       </c>
       <c r="T105" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Z105" t="b">
         <v>0</v>
@@ -9425,7 +9424,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C106">
         <v>33</v>
@@ -9461,7 +9460,7 @@
         <v>2</v>
       </c>
       <c r="Q106" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="R106" t="s">
         <v>32</v>
@@ -9470,10 +9469,10 @@
         <v>31</v>
       </c>
       <c r="T106" t="s">
+        <v>304</v>
+      </c>
+      <c r="V106" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="V106" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="Z106" t="b">
         <v>0</v>
@@ -9493,7 +9492,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C107">
         <v>34</v>
@@ -9538,10 +9537,10 @@
         <v>31</v>
       </c>
       <c r="T107" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V107" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Z107" t="b">
         <v>0</v>
@@ -9561,7 +9560,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C108">
         <v>34</v>
@@ -9606,10 +9605,10 @@
         <v>31</v>
       </c>
       <c r="T108" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="V108" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Z108" t="b">
         <v>0</v>
@@ -9629,7 +9628,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C109">
         <v>34</v>
@@ -9674,10 +9673,10 @@
         <v>31</v>
       </c>
       <c r="T109" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V109" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Z109" t="b">
         <v>0</v>
@@ -9697,7 +9696,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C110">
         <v>35</v>
@@ -9742,10 +9741,10 @@
         <v>31</v>
       </c>
       <c r="T110" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y110" t="s">
         <v>331</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>334</v>
       </c>
       <c r="Z110" t="b">
         <v>0</v>
@@ -9765,7 +9764,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -9810,10 +9809,10 @@
         <v>31</v>
       </c>
       <c r="T111" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Y111" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z111" t="b">
         <v>0</v>
@@ -9833,7 +9832,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -9878,10 +9877,10 @@
         <v>31</v>
       </c>
       <c r="T112" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Y112" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Z112" t="b">
         <v>0</v>
@@ -9901,7 +9900,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C113">
         <v>36</v>
@@ -9946,10 +9945,10 @@
         <v>31</v>
       </c>
       <c r="T113" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="V113" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z113" t="b">
         <v>0</v>
@@ -9969,7 +9968,7 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C114">
         <v>36</v>
@@ -10014,10 +10013,10 @@
         <v>31</v>
       </c>
       <c r="T114" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="V114" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z114" t="b">
         <v>0</v>
@@ -10037,7 +10036,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C115">
         <v>36</v>
@@ -10082,10 +10081,10 @@
         <v>31</v>
       </c>
       <c r="T115" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V115" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z115" t="b">
         <v>0</v>
@@ -10105,7 +10104,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C116">
         <v>37</v>
@@ -10150,10 +10149,10 @@
         <v>31</v>
       </c>
       <c r="T116" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="V116" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Z116" t="b">
         <v>0</v>
@@ -10173,7 +10172,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C117">
         <v>37</v>
@@ -10218,10 +10217,10 @@
         <v>31</v>
       </c>
       <c r="T117" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V117" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Z117" t="b">
         <v>0</v>
@@ -10241,7 +10240,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C118">
         <v>37</v>
@@ -10286,10 +10285,10 @@
         <v>31</v>
       </c>
       <c r="T118" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="V118" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Z118" t="b">
         <v>0</v>
@@ -10309,7 +10308,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C119">
         <v>38</v>
@@ -10354,10 +10353,10 @@
         <v>31</v>
       </c>
       <c r="T119" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Y119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z119" t="b">
         <v>1</v>
@@ -10377,7 +10376,7 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C120">
         <v>38</v>
@@ -10422,10 +10421,10 @@
         <v>31</v>
       </c>
       <c r="T120" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Y120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z120" t="b">
         <v>1</v>
@@ -10445,7 +10444,7 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C121">
         <v>38</v>
@@ -10490,10 +10489,10 @@
         <v>31</v>
       </c>
       <c r="T121" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z121" t="b">
         <v>1</v>
@@ -10513,7 +10512,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C122">
         <v>39</v>
@@ -10558,16 +10557,16 @@
         <v>31</v>
       </c>
       <c r="T122" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="V122" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W122">
         <v>1</v>
       </c>
       <c r="Y122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z122" t="b">
         <v>0</v>
@@ -10587,7 +10586,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C123">
         <v>39</v>
@@ -10632,16 +10631,16 @@
         <v>31</v>
       </c>
       <c r="T123" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="V123" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W123">
         <v>1</v>
       </c>
       <c r="Y123" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z123" t="b">
         <v>0</v>
@@ -10661,7 +10660,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C124">
         <v>39</v>
@@ -10706,16 +10705,16 @@
         <v>31</v>
       </c>
       <c r="T124" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V124" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W124">
         <v>1</v>
       </c>
       <c r="Y124" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z124" t="b">
         <v>0</v>
@@ -10735,7 +10734,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C125">
         <v>40</v>
@@ -10787,10 +10786,10 @@
         <v>31</v>
       </c>
       <c r="T125" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Y125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z125" t="b">
         <v>0</v>
@@ -10810,7 +10809,7 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C126">
         <v>40</v>
@@ -10862,10 +10861,10 @@
         <v>31</v>
       </c>
       <c r="T126" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Y126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z126" t="b">
         <v>0</v>
@@ -10885,7 +10884,7 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C127">
         <v>40</v>
@@ -10937,10 +10936,10 @@
         <v>31</v>
       </c>
       <c r="T127" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Y127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z127" t="b">
         <v>0</v>
@@ -10960,7 +10959,7 @@
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C128">
         <v>41</v>
@@ -11005,10 +11004,10 @@
         <v>31</v>
       </c>
       <c r="T128" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y128" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z128" t="b">
         <v>1</v>
@@ -11028,7 +11027,7 @@
         <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C129">
         <v>41</v>
@@ -11073,10 +11072,10 @@
         <v>31</v>
       </c>
       <c r="T129" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Y129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z129" t="b">
         <v>1</v>
@@ -11096,7 +11095,7 @@
         <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C130">
         <v>41</v>
@@ -11141,10 +11140,10 @@
         <v>31</v>
       </c>
       <c r="T130" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Y130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z130" t="b">
         <v>1</v>
@@ -11578,11 +11577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
   <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="1">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11595,66 +11591,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
         <v>261</v>
-      </c>
-      <c r="D1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
         <v>263</v>
       </c>
-      <c r="C2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" t="s">
-        <v>266</v>
-      </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
         <v>263</v>
       </c>
-      <c r="D3" t="s">
-        <v>266</v>
-      </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
         <v>263</v>
-      </c>
-      <c r="E4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11665,13 +11661,13 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11682,13 +11678,13 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11699,13 +11695,13 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11716,13 +11712,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11730,16 +11726,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11747,16 +11743,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11767,13 +11763,13 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11784,13 +11780,13 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11801,13 +11797,13 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11818,13 +11814,13 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11835,7 +11831,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11843,16 +11839,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11863,13 +11859,13 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11880,13 +11876,13 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11897,13 +11893,13 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11914,13 +11910,13 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11928,16 +11924,16 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11945,16 +11941,16 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>436</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11962,16 +11958,16 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11979,16 +11975,16 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11996,16 +11992,16 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -12013,16 +12009,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -12030,16 +12026,16 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -12047,16 +12043,16 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -12064,16 +12060,16 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" t="s">
         <v>182</v>
       </c>
-      <c r="D32" t="s">
-        <v>185</v>
-      </c>
       <c r="E32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -12081,16 +12077,16 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -12098,16 +12094,16 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -12115,16 +12111,16 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -12132,16 +12128,16 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -12149,16 +12145,16 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -12166,16 +12162,16 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -12183,16 +12179,16 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -12200,16 +12196,16 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -12217,16 +12213,16 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12234,16 +12230,16 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -12251,16 +12247,16 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -12268,16 +12264,16 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12285,16 +12281,16 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12302,16 +12298,16 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12319,16 +12315,16 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12336,16 +12332,16 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12353,16 +12349,16 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12370,16 +12366,16 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12387,16 +12383,16 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12404,16 +12400,16 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -12421,16 +12417,16 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -12438,16 +12434,16 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -12455,16 +12451,16 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -12472,16 +12468,16 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -12489,16 +12485,16 @@
         <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -12506,16 +12502,16 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -12523,16 +12519,16 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -12540,16 +12536,16 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -12557,16 +12553,16 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -12574,16 +12570,16 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -12591,16 +12587,16 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -12608,16 +12604,16 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -12625,16 +12621,16 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -12642,16 +12638,16 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -12665,7 +12661,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -12673,7 +12669,7 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -12681,7 +12677,7 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -12689,7 +12685,7 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -12697,7 +12693,7 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -12705,7 +12701,7 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -12713,7 +12709,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -12721,7 +12717,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -12729,7 +12725,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -12737,7 +12733,7 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -12745,7 +12741,7 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -12753,7 +12749,7 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -12761,7 +12757,7 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -12769,7 +12765,7 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -12777,7 +12773,7 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -12785,7 +12781,7 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -12793,7 +12789,7 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -12801,7 +12797,7 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -12809,7 +12805,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -12817,7 +12813,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -12825,7 +12821,7 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -12833,7 +12829,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -12841,7 +12837,7 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -12849,7 +12845,7 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -12857,13 +12853,13 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="T93" s="1"/>
     </row>
@@ -12872,13 +12868,13 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E94" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="T94" s="1"/>
     </row>
@@ -12887,13 +12883,13 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E95" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="T95" s="1"/>
     </row>
@@ -12902,13 +12898,13 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T96" s="1"/>
     </row>
@@ -12917,13 +12913,13 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E97" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T97" s="1"/>
     </row>
@@ -12932,13 +12928,13 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D98" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E98" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T98" s="1"/>
     </row>
@@ -12947,13 +12943,13 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="T99" s="1"/>
     </row>
@@ -12962,13 +12958,13 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="T100" s="1"/>
     </row>
@@ -12977,13 +12973,13 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E101" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="T101" s="1"/>
     </row>
@@ -12992,13 +12988,13 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E102" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T102" s="1"/>
     </row>
@@ -13007,13 +13003,13 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D103" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E103" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T103" s="1"/>
     </row>
@@ -13022,13 +13018,13 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E104" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="T104" s="1"/>
     </row>
@@ -13037,13 +13033,13 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E105" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T105" s="1"/>
     </row>
@@ -13052,13 +13048,13 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D106" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E106" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T106" s="1"/>
     </row>
@@ -13067,13 +13063,13 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D107" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E107" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="T107" s="1"/>
     </row>
@@ -13082,13 +13078,13 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D108" t="s">
+        <v>308</v>
+      </c>
+      <c r="E108" t="s">
         <v>311</v>
-      </c>
-      <c r="E108" t="s">
-        <v>314</v>
       </c>
       <c r="T108" s="1"/>
     </row>
@@ -13097,13 +13093,13 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D109" t="s">
+        <v>308</v>
+      </c>
+      <c r="E109" t="s">
         <v>311</v>
-      </c>
-      <c r="E109" t="s">
-        <v>314</v>
       </c>
       <c r="T109" s="1"/>
     </row>
@@ -13112,13 +13108,13 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D110" t="s">
+        <v>308</v>
+      </c>
+      <c r="E110" t="s">
         <v>311</v>
-      </c>
-      <c r="E110" t="s">
-        <v>314</v>
       </c>
       <c r="T110" s="1"/>
     </row>
@@ -13127,10 +13123,10 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -13138,10 +13134,10 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -13149,10 +13145,10 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D113" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -13160,7 +13156,7 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -13168,7 +13164,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -13176,7 +13172,7 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -13184,10 +13180,10 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D117" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -13195,10 +13191,10 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D118" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -13206,10 +13202,10 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
+        <v>334</v>
+      </c>
+      <c r="D119" t="s">
         <v>337</v>
-      </c>
-      <c r="D119" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -13217,10 +13213,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D120" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -13228,10 +13224,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D121" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -13239,10 +13235,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D122" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -13250,16 +13246,16 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C123" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D123" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -13267,16 +13263,16 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D124" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E124" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -13284,16 +13280,16 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D125" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E125" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -13301,10 +13297,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D126" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -13312,10 +13308,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D127" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -13323,10 +13319,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -13334,13 +13330,13 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E129" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -13348,13 +13344,13 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E130" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -13362,13 +13358,13 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D131" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E131" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -13376,16 +13372,16 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C132" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E132" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -13393,16 +13389,16 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C133" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D133" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E133" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -13410,16 +13406,16 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D134" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E134" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8735CA0-B75D-4C09-A65C-8BF4C7962EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A9425-12D6-49AC-BA90-B17EADFE880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42660" yWindow="6810" windowWidth="13860" windowHeight="11385" activeTab="1" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
+    <workbookView xWindow="41760" yWindow="915" windowWidth="28800" windowHeight="27285" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="437">
   <si>
     <t>名字</t>
   </si>
@@ -594,18 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,0,Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Self</t>
   </si>
   <si>
@@ -951,18 +939,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>damageDecay,0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>damageDecay,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>damageDecay,0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectCount,4;spacing,1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,10 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DamageDecayDecorator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SalovEmitBDecorator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1479,10 +1455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cannon Napalm Bomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LCM-D Double Shoot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1663,6 +1635,22 @@
   </si>
   <si>
     <t>Explosive Rocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannon Lightning Lance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,0,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,0,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,0,Lightning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1997,7 +1985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2036,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G1" t="s">
         <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
@@ -2060,7 +2050,7 @@
         <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -2084,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="V1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="W1" t="s">
         <v>14</v>
@@ -2099,7 +2089,7 @@
         <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AA1" t="s">
         <v>16</v>
@@ -2122,10 +2112,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E2" t="s">
         <v>116</v>
@@ -2137,10 +2127,10 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="I2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
@@ -2152,7 +2142,7 @@
         <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -2176,10 +2166,10 @@
         <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="V2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W2" t="s">
         <v>22</v>
@@ -2191,7 +2181,7 @@
         <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AA2" t="s">
         <v>15</v>
@@ -2214,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -2262,10 +2252,10 @@
         <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="V3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="W3" t="s">
         <v>21</v>
@@ -2297,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2372,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2447,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2522,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2576,9 +2566,6 @@
       <c r="T7" t="s">
         <v>118</v>
       </c>
-      <c r="V7" t="s">
-        <v>253</v>
-      </c>
       <c r="Y7" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2654,9 +2641,6 @@
       <c r="T8" t="s">
         <v>122</v>
       </c>
-      <c r="V8" t="s">
-        <v>253</v>
-      </c>
       <c r="Y8" t="s">
         <v>52</v>
       </c>
@@ -2670,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -2678,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2732,9 +2716,6 @@
       <c r="T9" t="s">
         <v>123</v>
       </c>
-      <c r="V9" t="s">
-        <v>253</v>
-      </c>
       <c r="Y9" t="s">
         <v>52</v>
       </c>
@@ -2748,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -2756,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2828,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2900,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -3099,7 +3080,7 @@
         <v>150</v>
       </c>
       <c r="V14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3119,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3171,10 +3152,7 @@
         <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>432</v>
-      </c>
-      <c r="V15" t="s">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="Z15" t="b">
         <v>1</v>
@@ -3194,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3246,7 +3224,7 @@
         <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Y16" t="s">
         <v>62</v>
@@ -3269,7 +3247,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3321,7 +3299,7 @@
         <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Y17" t="s">
         <v>62</v>
@@ -3344,7 +3322,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -3396,7 +3374,7 @@
         <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Y18" t="s">
         <v>62</v>
@@ -3419,7 +3397,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3471,10 +3449,10 @@
         <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="V19" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
@@ -3494,7 +3472,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -3569,7 +3547,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -3644,7 +3622,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -3719,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -3774,10 +3752,10 @@
         <v>125</v>
       </c>
       <c r="U23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="V23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y23" t="s">
         <v>80</v>
@@ -3800,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -3855,10 +3833,10 @@
         <v>126</v>
       </c>
       <c r="U24" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="V24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s">
         <v>80</v>
@@ -3876,12 +3854,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -3936,10 +3914,10 @@
         <v>127</v>
       </c>
       <c r="U25" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="V25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s">
         <v>80</v>
@@ -3962,7 +3940,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4002,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="s">
         <v>30</v>
@@ -4014,13 +3992,7 @@
         <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>151</v>
-      </c>
-      <c r="U26" t="s">
-        <v>264</v>
-      </c>
-      <c r="V26" t="s">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="Y26" t="s">
         <v>80</v>
@@ -4043,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4083,7 +4055,7 @@
         <v>4</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="s">
         <v>30</v>
@@ -4095,13 +4067,7 @@
         <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>152</v>
-      </c>
-      <c r="U27" t="s">
-        <v>264</v>
-      </c>
-      <c r="V27" t="s">
-        <v>255</v>
+        <v>435</v>
       </c>
       <c r="Y27" t="s">
         <v>80</v>
@@ -4124,7 +4090,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4164,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="s">
         <v>30</v>
@@ -4176,13 +4142,7 @@
         <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>153</v>
-      </c>
-      <c r="U28" t="s">
-        <v>264</v>
-      </c>
-      <c r="V28" t="s">
-        <v>255</v>
+        <v>436</v>
       </c>
       <c r="Y28" t="s">
         <v>80</v>
@@ -4205,7 +4165,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4280,7 +4240,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -4355,7 +4315,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4430,7 +4390,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4505,7 +4465,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -4580,7 +4540,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C34">
         <v>13</v>
@@ -4655,7 +4615,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -4730,7 +4690,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -4805,7 +4765,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C37">
         <v>14</v>
@@ -4877,7 +4837,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C38">
         <v>14</v>
@@ -4949,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -5021,7 +4981,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C40">
         <v>15</v>
@@ -5093,7 +5053,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -5165,7 +5125,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -5237,7 +5197,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -5309,7 +5269,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -5381,7 +5341,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -5453,7 +5413,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -5525,7 +5485,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -5597,7 +5557,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C48">
         <v>17</v>
@@ -5669,7 +5629,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C49">
         <v>17</v>
@@ -5741,7 +5701,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -5813,7 +5773,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -5885,7 +5845,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -5957,7 +5917,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -6029,7 +5989,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -6101,7 +6061,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -6173,7 +6133,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C56">
         <v>18</v>
@@ -6245,7 +6205,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -6317,7 +6277,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C58">
         <v>18</v>
@@ -6389,7 +6349,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -6461,7 +6421,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -6516,10 +6476,10 @@
         <v>61</v>
       </c>
       <c r="U60" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="V60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y60" t="s">
         <v>115</v>
@@ -6542,7 +6502,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -6594,13 +6554,13 @@
         <v>31</v>
       </c>
       <c r="T61" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U61" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="V61" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y61" t="s">
         <v>115</v>
@@ -6623,7 +6583,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C62">
         <v>19</v>
@@ -6675,13 +6635,13 @@
         <v>31</v>
       </c>
       <c r="T62" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="U62" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="V62" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y62" t="s">
         <v>115</v>
@@ -6726,7 +6686,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -6762,13 +6722,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R65" t="s">
         <v>32</v>
       </c>
       <c r="S65" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W65">
         <v>180</v>
@@ -6791,7 +6751,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -6827,13 +6787,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R66" t="s">
         <v>32</v>
       </c>
       <c r="S66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W66">
         <v>181</v>
@@ -6856,7 +6816,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -6892,13 +6852,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R67" t="s">
         <v>32</v>
       </c>
       <c r="S67" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W67">
         <v>182</v>
@@ -6921,7 +6881,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -6957,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R68" t="s">
         <v>32</v>
       </c>
       <c r="S68" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W68">
         <v>183</v>
@@ -6986,7 +6946,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C69">
         <v>21</v>
@@ -7022,13 +6982,13 @@
         <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R69" t="s">
         <v>32</v>
       </c>
       <c r="S69" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W69">
         <v>184</v>
@@ -7051,7 +7011,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C70">
         <v>21</v>
@@ -7087,13 +7047,13 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R70" t="s">
         <v>32</v>
       </c>
       <c r="S70" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W70">
         <v>185</v>
@@ -7116,7 +7076,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C71">
         <v>22</v>
@@ -7152,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R71" t="s">
         <v>32</v>
       </c>
       <c r="S71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W71">
         <v>186</v>
@@ -7181,7 +7141,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C72">
         <v>22</v>
@@ -7217,13 +7177,13 @@
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R72" t="s">
         <v>32</v>
       </c>
       <c r="S72" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W72">
         <v>187</v>
@@ -7246,7 +7206,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C73">
         <v>22</v>
@@ -7282,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R73" t="s">
         <v>32</v>
       </c>
       <c r="S73" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W73">
         <v>188</v>
@@ -7311,7 +7271,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C74">
         <v>23</v>
@@ -7347,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R74" t="s">
         <v>32</v>
       </c>
       <c r="S74" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W74">
         <v>189</v>
@@ -7376,7 +7336,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -7412,13 +7372,13 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R75" t="s">
         <v>32</v>
       </c>
       <c r="S75" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W75">
         <v>190</v>
@@ -7441,7 +7401,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C76">
         <v>23</v>
@@ -7477,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R76" t="s">
         <v>32</v>
       </c>
       <c r="S76" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W76">
         <v>191</v>
@@ -7506,7 +7466,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C77">
         <v>24</v>
@@ -7542,13 +7502,13 @@
         <v>3</v>
       </c>
       <c r="Q77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R77" t="s">
         <v>32</v>
       </c>
       <c r="S77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W77">
         <v>192</v>
@@ -7571,7 +7531,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C78">
         <v>24</v>
@@ -7607,13 +7567,13 @@
         <v>3</v>
       </c>
       <c r="Q78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R78" t="s">
         <v>32</v>
       </c>
       <c r="S78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W78">
         <v>193</v>
@@ -7636,7 +7596,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -7672,13 +7632,13 @@
         <v>3</v>
       </c>
       <c r="Q79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R79" t="s">
         <v>32</v>
       </c>
       <c r="S79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W79">
         <v>194</v>
@@ -7701,7 +7661,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C80">
         <v>25</v>
@@ -7737,13 +7697,13 @@
         <v>3</v>
       </c>
       <c r="Q80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R80" t="s">
         <v>32</v>
       </c>
       <c r="S80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W80">
         <v>195</v>
@@ -7766,7 +7726,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C81">
         <v>25</v>
@@ -7802,13 +7762,13 @@
         <v>3</v>
       </c>
       <c r="Q81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R81" t="s">
         <v>32</v>
       </c>
       <c r="S81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W81">
         <v>196</v>
@@ -7831,7 +7791,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C82">
         <v>25</v>
@@ -7867,13 +7827,13 @@
         <v>3</v>
       </c>
       <c r="Q82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R82" t="s">
         <v>32</v>
       </c>
       <c r="S82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W82">
         <v>197</v>
@@ -7896,7 +7856,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C83">
         <v>26</v>
@@ -7932,13 +7892,13 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R83" t="s">
         <v>32</v>
       </c>
       <c r="S83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W83">
         <v>198</v>
@@ -7961,7 +7921,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C84">
         <v>26</v>
@@ -7997,13 +7957,13 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R84" t="s">
         <v>32</v>
       </c>
       <c r="S84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W84">
         <v>199</v>
@@ -8026,7 +7986,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C85">
         <v>26</v>
@@ -8062,13 +8022,13 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R85" t="s">
         <v>32</v>
       </c>
       <c r="S85" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W85">
         <v>200</v>
@@ -8091,7 +8051,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C86">
         <v>27</v>
@@ -8127,13 +8087,13 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R86" t="s">
         <v>32</v>
       </c>
       <c r="S86" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W86">
         <v>201</v>
@@ -8156,7 +8116,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C87">
         <v>27</v>
@@ -8192,13 +8152,13 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R87" t="s">
         <v>32</v>
       </c>
       <c r="S87" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W87">
         <v>202</v>
@@ -8221,7 +8181,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C88">
         <v>27</v>
@@ -8257,13 +8217,13 @@
         <v>0</v>
       </c>
       <c r="Q88" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R88" t="s">
         <v>32</v>
       </c>
       <c r="S88" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W88">
         <v>203</v>
@@ -8286,7 +8246,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -8322,16 +8282,16 @@
         <v>0</v>
       </c>
       <c r="Q89" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R89" t="s">
         <v>32</v>
       </c>
       <c r="S89" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Z89" t="b">
         <v>0</v>
@@ -8351,7 +8311,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -8387,16 +8347,16 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R90" t="s">
         <v>32</v>
       </c>
       <c r="S90" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Z90" t="b">
         <v>0</v>
@@ -8416,7 +8376,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C91">
         <v>28</v>
@@ -8452,16 +8412,16 @@
         <v>0</v>
       </c>
       <c r="Q91" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R91" t="s">
         <v>32</v>
       </c>
       <c r="S91" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Z91" t="b">
         <v>0</v>
@@ -8481,7 +8441,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C92">
         <v>29</v>
@@ -8517,16 +8477,16 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R92" t="s">
         <v>32</v>
       </c>
       <c r="S92" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Z92" t="b">
         <v>0</v>
@@ -8546,7 +8506,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C93">
         <v>29</v>
@@ -8582,16 +8542,16 @@
         <v>0</v>
       </c>
       <c r="Q93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R93" t="s">
         <v>32</v>
       </c>
       <c r="S93" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Z93" t="b">
         <v>0</v>
@@ -8611,7 +8571,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -8647,16 +8607,16 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R94" t="s">
         <v>32</v>
       </c>
       <c r="S94" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Z94" t="b">
         <v>0</v>
@@ -8676,7 +8636,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -8712,7 +8672,7 @@
         <v>2</v>
       </c>
       <c r="Q95" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R95" t="s">
         <v>32</v>
@@ -8721,10 +8681,10 @@
         <v>31</v>
       </c>
       <c r="T95" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Z95" t="b">
         <v>0</v>
@@ -8744,7 +8704,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -8780,7 +8740,7 @@
         <v>2</v>
       </c>
       <c r="Q96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R96" t="s">
         <v>32</v>
@@ -8789,10 +8749,10 @@
         <v>31</v>
       </c>
       <c r="T96" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Z96" t="b">
         <v>0</v>
@@ -8812,7 +8772,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C97">
         <v>30</v>
@@ -8848,7 +8808,7 @@
         <v>2</v>
       </c>
       <c r="Q97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R97" t="s">
         <v>32</v>
@@ -8857,10 +8817,10 @@
         <v>31</v>
       </c>
       <c r="T97" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Z97" t="b">
         <v>0</v>
@@ -8880,7 +8840,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C98">
         <v>31</v>
@@ -8916,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R98" t="s">
         <v>32</v>
@@ -8925,7 +8885,7 @@
         <v>31</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="W98">
         <v>204</v>
@@ -8948,7 +8908,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C99">
         <v>31</v>
@@ -8984,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R99" t="s">
         <v>32</v>
@@ -8993,7 +8953,7 @@
         <v>31</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="W99">
         <v>205</v>
@@ -9016,7 +8976,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C100">
         <v>31</v>
@@ -9052,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R100" t="s">
         <v>32</v>
@@ -9061,7 +9021,7 @@
         <v>31</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="W100">
         <v>206</v>
@@ -9084,7 +9044,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C101">
         <v>32</v>
@@ -9120,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R101" t="s">
         <v>32</v>
@@ -9129,10 +9089,10 @@
         <v>31</v>
       </c>
       <c r="T101" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z101" t="b">
         <v>0</v>
@@ -9152,7 +9112,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -9188,7 +9148,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R102" t="s">
         <v>32</v>
@@ -9197,10 +9157,10 @@
         <v>31</v>
       </c>
       <c r="T102" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Z102" t="b">
         <v>0</v>
@@ -9220,7 +9180,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C103">
         <v>32</v>
@@ -9256,7 +9216,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R103" t="s">
         <v>32</v>
@@ -9265,10 +9225,10 @@
         <v>31</v>
       </c>
       <c r="T103" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Z103" t="b">
         <v>0</v>
@@ -9288,7 +9248,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C104">
         <v>33</v>
@@ -9324,7 +9284,7 @@
         <v>2</v>
       </c>
       <c r="Q104" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R104" t="s">
         <v>32</v>
@@ -9333,10 +9293,10 @@
         <v>31</v>
       </c>
       <c r="T104" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Z104" t="b">
         <v>0</v>
@@ -9356,7 +9316,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C105">
         <v>33</v>
@@ -9392,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="Q105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R105" t="s">
         <v>32</v>
@@ -9401,10 +9361,10 @@
         <v>31</v>
       </c>
       <c r="T105" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Z105" t="b">
         <v>0</v>
@@ -9424,7 +9384,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C106">
         <v>33</v>
@@ -9460,7 +9420,7 @@
         <v>2</v>
       </c>
       <c r="Q106" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R106" t="s">
         <v>32</v>
@@ -9469,10 +9429,10 @@
         <v>31</v>
       </c>
       <c r="T106" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Z106" t="b">
         <v>0</v>
@@ -9492,7 +9452,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C107">
         <v>34</v>
@@ -9537,10 +9497,10 @@
         <v>31</v>
       </c>
       <c r="T107" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="V107" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z107" t="b">
         <v>0</v>
@@ -9560,7 +9520,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C108">
         <v>34</v>
@@ -9605,10 +9565,10 @@
         <v>31</v>
       </c>
       <c r="T108" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="V108" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z108" t="b">
         <v>0</v>
@@ -9628,7 +9588,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C109">
         <v>34</v>
@@ -9673,10 +9633,10 @@
         <v>31</v>
       </c>
       <c r="T109" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="V109" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Z109" t="b">
         <v>0</v>
@@ -9696,7 +9656,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C110">
         <v>35</v>
@@ -9741,10 +9701,10 @@
         <v>31</v>
       </c>
       <c r="T110" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Y110" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Z110" t="b">
         <v>0</v>
@@ -9764,7 +9724,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -9809,10 +9769,10 @@
         <v>31</v>
       </c>
       <c r="T111" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Y111" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Z111" t="b">
         <v>0</v>
@@ -9832,7 +9792,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -9877,10 +9837,10 @@
         <v>31</v>
       </c>
       <c r="T112" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Y112" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Z112" t="b">
         <v>0</v>
@@ -9900,7 +9860,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C113">
         <v>36</v>
@@ -9945,10 +9905,10 @@
         <v>31</v>
       </c>
       <c r="T113" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V113" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Z113" t="b">
         <v>0</v>
@@ -9968,7 +9928,7 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C114">
         <v>36</v>
@@ -10013,10 +9973,10 @@
         <v>31</v>
       </c>
       <c r="T114" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="V114" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Z114" t="b">
         <v>0</v>
@@ -10036,7 +9996,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C115">
         <v>36</v>
@@ -10081,10 +10041,10 @@
         <v>31</v>
       </c>
       <c r="T115" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="V115" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Z115" t="b">
         <v>0</v>
@@ -10104,7 +10064,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C116">
         <v>37</v>
@@ -10149,10 +10109,10 @@
         <v>31</v>
       </c>
       <c r="T116" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="V116" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Z116" t="b">
         <v>0</v>
@@ -10172,7 +10132,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C117">
         <v>37</v>
@@ -10217,10 +10177,10 @@
         <v>31</v>
       </c>
       <c r="T117" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="V117" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Z117" t="b">
         <v>0</v>
@@ -10240,7 +10200,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C118">
         <v>37</v>
@@ -10285,10 +10245,10 @@
         <v>31</v>
       </c>
       <c r="T118" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="V118" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Z118" t="b">
         <v>0</v>
@@ -10308,7 +10268,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C119">
         <v>38</v>
@@ -10353,7 +10313,7 @@
         <v>31</v>
       </c>
       <c r="T119" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Y119" t="s">
         <v>80</v>
@@ -10376,7 +10336,7 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C120">
         <v>38</v>
@@ -10421,7 +10381,7 @@
         <v>31</v>
       </c>
       <c r="T120" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Y120" t="s">
         <v>80</v>
@@ -10444,7 +10404,7 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C121">
         <v>38</v>
@@ -10489,7 +10449,7 @@
         <v>31</v>
       </c>
       <c r="T121" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Y121" t="s">
         <v>80</v>
@@ -10512,7 +10472,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C122">
         <v>39</v>
@@ -10557,10 +10517,10 @@
         <v>31</v>
       </c>
       <c r="T122" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="V122" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="W122">
         <v>1</v>
@@ -10586,7 +10546,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C123">
         <v>39</v>
@@ -10631,10 +10591,10 @@
         <v>31</v>
       </c>
       <c r="T123" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="V123" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="W123">
         <v>1</v>
@@ -10660,7 +10620,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C124">
         <v>39</v>
@@ -10705,10 +10665,10 @@
         <v>31</v>
       </c>
       <c r="T124" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="V124" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="W124">
         <v>1</v>
@@ -10734,7 +10694,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C125">
         <v>40</v>
@@ -10786,7 +10746,7 @@
         <v>31</v>
       </c>
       <c r="T125" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Y125" t="s">
         <v>80</v>
@@ -10809,7 +10769,7 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C126">
         <v>40</v>
@@ -10861,7 +10821,7 @@
         <v>31</v>
       </c>
       <c r="T126" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Y126" t="s">
         <v>80</v>
@@ -10884,7 +10844,7 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C127">
         <v>40</v>
@@ -10936,7 +10896,7 @@
         <v>31</v>
       </c>
       <c r="T127" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Y127" t="s">
         <v>80</v>
@@ -10959,7 +10919,7 @@
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C128">
         <v>41</v>
@@ -11004,7 +10964,7 @@
         <v>31</v>
       </c>
       <c r="T128" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Y128" t="s">
         <v>80</v>
@@ -11027,7 +10987,7 @@
         <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C129">
         <v>41</v>
@@ -11072,7 +11032,7 @@
         <v>31</v>
       </c>
       <c r="T129" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Y129" t="s">
         <v>80</v>
@@ -11095,7 +11055,7 @@
         <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C130">
         <v>41</v>
@@ -11140,7 +11100,7 @@
         <v>31</v>
       </c>
       <c r="T130" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Y130" t="s">
         <v>80</v>
@@ -11577,8 +11537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
   <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11591,66 +11551,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
         <v>257</v>
       </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>262</v>
-      </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
         <v>258</v>
       </c>
-      <c r="C3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" t="s">
-        <v>263</v>
-      </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11661,13 +11621,13 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11678,13 +11638,13 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11695,13 +11655,13 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11712,13 +11672,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11726,16 +11686,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11743,16 +11703,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11763,13 +11723,13 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11780,13 +11740,13 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11797,13 +11757,13 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11814,13 +11774,13 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11831,7 +11791,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11839,16 +11799,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11859,13 +11819,13 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11876,13 +11836,13 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11893,13 +11853,13 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11910,13 +11870,13 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11924,16 +11884,16 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11941,16 +11901,16 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11961,13 +11921,13 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11978,13 +11938,13 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11995,13 +11955,13 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -12012,13 +11972,13 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -12029,13 +11989,13 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -12046,13 +12006,13 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -12063,13 +12023,13 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" t="s">
         <v>179</v>
       </c>
-      <c r="D32" t="s">
-        <v>182</v>
-      </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -12080,13 +12040,13 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -12097,13 +12057,13 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -12114,13 +12074,13 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -12131,13 +12091,13 @@
         <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -12148,13 +12108,13 @@
         <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -12165,13 +12125,13 @@
         <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -12182,13 +12142,13 @@
         <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -12199,13 +12159,13 @@
         <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -12216,13 +12176,13 @@
         <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12233,13 +12193,13 @@
         <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -12250,13 +12210,13 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -12267,13 +12227,13 @@
         <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12284,13 +12244,13 @@
         <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12301,13 +12261,13 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12318,13 +12278,13 @@
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12335,13 +12295,13 @@
         <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12352,13 +12312,13 @@
         <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12369,13 +12329,13 @@
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12386,13 +12346,13 @@
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12403,13 +12363,13 @@
         <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -12420,13 +12380,13 @@
         <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -12437,13 +12397,13 @@
         <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -12454,13 +12414,13 @@
         <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -12471,13 +12431,13 @@
         <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -12488,13 +12448,13 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -12505,13 +12465,13 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -12522,13 +12482,13 @@
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -12539,13 +12499,13 @@
         <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -12556,13 +12516,13 @@
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -12573,13 +12533,13 @@
         <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -12590,13 +12550,13 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -12604,16 +12564,16 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -12621,16 +12581,16 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -12638,16 +12598,16 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -12661,7 +12621,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -12669,7 +12629,7 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -12677,7 +12637,7 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -12685,7 +12645,7 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -12693,7 +12653,7 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -12701,7 +12661,7 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -12709,7 +12669,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -12717,7 +12677,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -12725,7 +12685,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -12733,7 +12693,7 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -12741,7 +12701,7 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -12749,7 +12709,7 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -12757,7 +12717,7 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -12765,7 +12725,7 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -12773,7 +12733,7 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -12781,7 +12741,7 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -12789,7 +12749,7 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -12797,7 +12757,7 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -12805,7 +12765,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -12813,7 +12773,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -12821,7 +12781,7 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -12829,7 +12789,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -12837,7 +12797,7 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -12845,7 +12805,7 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -12853,13 +12813,13 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D93" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T93" s="1"/>
     </row>
@@ -12868,13 +12828,13 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E94" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="T94" s="1"/>
     </row>
@@ -12883,13 +12843,13 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="T95" s="1"/>
     </row>
@@ -12898,13 +12858,13 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="T96" s="1"/>
     </row>
@@ -12913,13 +12873,13 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="T97" s="1"/>
     </row>
@@ -12928,13 +12888,13 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="T98" s="1"/>
     </row>
@@ -12943,13 +12903,13 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E99" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="T99" s="1"/>
     </row>
@@ -12958,13 +12918,13 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="T100" s="1"/>
     </row>
@@ -12973,13 +12933,13 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D101" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E101" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="T101" s="1"/>
     </row>
@@ -12988,13 +12948,13 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D102" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="T102" s="1"/>
     </row>
@@ -13003,13 +12963,13 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="T103" s="1"/>
     </row>
@@ -13018,13 +12978,13 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="T104" s="1"/>
     </row>
@@ -13033,13 +12993,13 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D105" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E105" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="T105" s="1"/>
     </row>
@@ -13048,13 +13008,13 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D106" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E106" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="T106" s="1"/>
     </row>
@@ -13063,13 +13023,13 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D107" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E107" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="T107" s="1"/>
     </row>
@@ -13078,13 +13038,13 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E108" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="T108" s="1"/>
     </row>
@@ -13093,13 +13053,13 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E109" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="T109" s="1"/>
     </row>
@@ -13108,13 +13068,13 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D110" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E110" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="T110" s="1"/>
     </row>
@@ -13123,10 +13083,10 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D111" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -13134,10 +13094,10 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -13145,10 +13105,10 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -13156,7 +13116,7 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -13164,7 +13124,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -13172,7 +13132,7 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -13180,10 +13140,10 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D117" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -13191,10 +13151,10 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D118" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -13202,10 +13162,10 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D119" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -13213,10 +13173,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D120" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -13224,10 +13184,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D121" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -13235,10 +13195,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D122" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -13246,16 +13206,16 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
+        <v>342</v>
+      </c>
+      <c r="C123" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" t="s">
         <v>348</v>
       </c>
-      <c r="C123" t="s">
-        <v>193</v>
-      </c>
-      <c r="D123" t="s">
-        <v>354</v>
-      </c>
       <c r="E123" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -13263,16 +13223,16 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C124" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D124" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E124" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -13280,16 +13240,16 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C125" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D125" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E125" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -13297,10 +13257,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D126" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -13308,10 +13268,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D127" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -13319,10 +13279,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D128" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -13330,13 +13290,13 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
+        <v>361</v>
+      </c>
+      <c r="D129" t="s">
+        <v>416</v>
+      </c>
+      <c r="E129" t="s">
         <v>367</v>
-      </c>
-      <c r="D129" t="s">
-        <v>423</v>
-      </c>
-      <c r="E129" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -13344,13 +13304,13 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" t="s">
         <v>368</v>
       </c>
-      <c r="D130" t="s">
-        <v>374</v>
-      </c>
       <c r="E130" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -13358,13 +13318,13 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E131" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -13372,16 +13332,16 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
         <v>376</v>
       </c>
-      <c r="C132" t="s">
-        <v>382</v>
-      </c>
       <c r="D132" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E132" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -13389,16 +13349,16 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
+        <v>371</v>
+      </c>
+      <c r="C133" t="s">
+        <v>376</v>
+      </c>
+      <c r="D133" t="s">
+        <v>378</v>
+      </c>
+      <c r="E133" t="s">
         <v>377</v>
-      </c>
-      <c r="C133" t="s">
-        <v>382</v>
-      </c>
-      <c r="D133" t="s">
-        <v>384</v>
-      </c>
-      <c r="E133" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -13406,16 +13366,16 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>376</v>
+      </c>
+      <c r="D134" t="s">
         <v>378</v>
       </c>
-      <c r="C134" t="s">
-        <v>382</v>
-      </c>
-      <c r="D134" t="s">
-        <v>384</v>
-      </c>
       <c r="E134" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A9425-12D6-49AC-BA90-B17EADFE880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14370F-936A-48C7-B3F2-D159A488E90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41760" yWindow="915" windowWidth="28800" windowHeight="27285" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="437">
   <si>
     <t>名字</t>
   </si>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,1.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cannon Napalm Bomb Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,14 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,1.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6,0.5,Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,26 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,1,Lightning;12,1,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1.2,Lightning;20,1.2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,1.5,Lightning;25,1.5,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,1.8,Lightning;30,1.8,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,2,Lightning;34,2,Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40,1,Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1475,10 +1443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lightning Wave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rifle Shoot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1610,10 +1574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,0.8,Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,1,Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1651,6 +1611,46 @@
   </si>
   <si>
     <t>60,0,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0,Fire;8,1,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,0,Fire;12,2,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,0,Fire;20,2,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64,0,Fire;24,3,Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser Beam Plasma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0.8,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,1.5,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1.8,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2,Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2026,19 +2026,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G1" t="s">
         <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
@@ -2050,7 +2050,7 @@
         <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -2074,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="V1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="W1" t="s">
         <v>14</v>
@@ -2089,7 +2089,7 @@
         <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AA1" t="s">
         <v>16</v>
@@ -2112,25 +2112,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
@@ -2142,7 +2142,7 @@
         <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -2166,10 +2166,10 @@
         <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="V2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="W2" t="s">
         <v>22</v>
@@ -2181,7 +2181,7 @@
         <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AA2" t="s">
         <v>15</v>
@@ -2204,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -2252,10 +2252,10 @@
         <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="V3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="W3" t="s">
         <v>21</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2371,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E62" si="0">F5*H5</f>
+        <f>F5*H5</f>
         <v>16</v>
       </c>
       <c r="F5">
@@ -2437,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2446,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>F6*H6</f>
         <v>20</v>
       </c>
       <c r="F6">
@@ -2512,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>F7*H7</f>
         <v>20</v>
       </c>
       <c r="F7">
@@ -2564,7 +2564,7 @@
         <v>31</v>
       </c>
       <c r="T7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y7" t="s">
         <v>52</v>
@@ -2587,7 +2587,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>F8*H8</f>
         <v>26</v>
       </c>
       <c r="F8">
@@ -2639,7 +2639,7 @@
         <v>31</v>
       </c>
       <c r="T8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y8" t="s">
         <v>52</v>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -2662,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2671,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>F9*H9</f>
         <v>35</v>
       </c>
       <c r="F9">
@@ -2714,7 +2714,7 @@
         <v>31</v>
       </c>
       <c r="T9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
         <v>52</v>
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -2737,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>F10*H10</f>
         <v>20</v>
       </c>
       <c r="F10">
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z10" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2818,7 +2818,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>F11*H11</f>
         <v>25</v>
       </c>
       <c r="F11">
@@ -2861,7 +2861,7 @@
         <v>31</v>
       </c>
       <c r="T11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="b">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2890,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>F12*H12</f>
         <v>30</v>
       </c>
       <c r="F12">
@@ -2933,7 +2933,7 @@
         <v>31</v>
       </c>
       <c r="T12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="b">
         <v>1</v>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>F13*H13</f>
         <v>7</v>
       </c>
       <c r="F13">
@@ -3005,7 +3005,7 @@
         <v>31</v>
       </c>
       <c r="T13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z13" t="b">
         <v>1</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>F14*H14</f>
         <v>3</v>
       </c>
       <c r="F14">
@@ -3077,10 +3077,10 @@
         <v>31</v>
       </c>
       <c r="T14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="V14" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>F15*H15</f>
         <v>20</v>
       </c>
       <c r="F15">
@@ -3152,7 +3152,7 @@
         <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="Z15" t="b">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>F16*H16</f>
         <v>15</v>
       </c>
       <c r="F16">
@@ -3224,7 +3224,7 @@
         <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Y16" t="s">
         <v>62</v>
@@ -3247,7 +3247,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>F17*H17</f>
         <v>20</v>
       </c>
       <c r="F17">
@@ -3299,7 +3299,7 @@
         <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>427</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s">
         <v>62</v>
@@ -3322,7 +3322,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -3331,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>F18*H18</f>
         <v>25</v>
       </c>
       <c r="F18">
@@ -3374,7 +3374,7 @@
         <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>428</v>
+        <v>127</v>
       </c>
       <c r="Y18" t="s">
         <v>62</v>
@@ -3397,7 +3397,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>F19*H19</f>
         <v>3</v>
       </c>
       <c r="F19">
@@ -3449,10 +3449,10 @@
         <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="V19" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>F20*H20</f>
         <v>4</v>
       </c>
       <c r="F20">
@@ -3524,10 +3524,10 @@
         <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="Y20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z20" t="b">
         <v>1</v>
@@ -3547,7 +3547,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -3556,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>F21*H21</f>
         <v>5</v>
       </c>
       <c r="F21">
@@ -3599,10 +3599,10 @@
         <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>128</v>
+        <v>418</v>
       </c>
       <c r="Y21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z21" t="b">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -3631,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>F22*H22</f>
         <v>6</v>
       </c>
       <c r="F22">
@@ -3674,10 +3674,10 @@
         <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="Y22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z22" t="b">
         <v>1</v>
@@ -3697,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>F23*H23</f>
         <v>24</v>
       </c>
       <c r="F23">
@@ -3749,16 +3749,16 @@
         <v>31</v>
       </c>
       <c r="T23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U23" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="V23" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Y23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="b">
         <v>1</v>
@@ -3778,7 +3778,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -3787,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>F24*H24</f>
         <v>40</v>
       </c>
       <c r="F24">
@@ -3830,16 +3830,16 @@
         <v>31</v>
       </c>
       <c r="T24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U24" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="V24" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="b">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -3868,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>F25*H25</f>
         <v>60</v>
       </c>
       <c r="F25">
@@ -3911,16 +3911,16 @@
         <v>31</v>
       </c>
       <c r="T25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U25" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="V25" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="Y25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="b">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>F26*H26</f>
         <v>24</v>
       </c>
       <c r="F26">
@@ -3992,10 +3992,10 @@
         <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="Y26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="b">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4024,7 +4024,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>F27*H27</f>
         <v>36</v>
       </c>
       <c r="F27">
@@ -4067,10 +4067,10 @@
         <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="Y27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="b">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4099,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>F28*H28</f>
         <v>60</v>
       </c>
       <c r="F28">
@@ -4142,10 +4142,10 @@
         <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="Y28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="b">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4174,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>F29*H29</f>
         <v>12</v>
       </c>
       <c r="F29">
@@ -4220,7 +4220,7 @@
         <v>51</v>
       </c>
       <c r="Y29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="b">
         <v>1</v>
@@ -4240,7 +4240,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -4249,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>F30*H30</f>
         <v>16</v>
       </c>
       <c r="F30">
@@ -4295,7 +4295,7 @@
         <v>54</v>
       </c>
       <c r="Y30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="b">
         <v>1</v>
@@ -4315,7 +4315,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4324,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f>F31*H31</f>
         <v>20</v>
       </c>
       <c r="F31">
@@ -4370,7 +4370,7 @@
         <v>55</v>
       </c>
       <c r="Y31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="b">
         <v>1</v>
@@ -4390,7 +4390,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4399,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f>F32*H32</f>
         <v>24</v>
       </c>
       <c r="F32">
@@ -4442,10 +4442,10 @@
         <v>31</v>
       </c>
       <c r="T32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="b">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -4474,7 +4474,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f>F33*H33</f>
         <v>30</v>
       </c>
       <c r="F33">
@@ -4517,10 +4517,10 @@
         <v>31</v>
       </c>
       <c r="T33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="b">
         <v>1</v>
@@ -4540,7 +4540,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C34">
         <v>13</v>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f>F34*H34</f>
         <v>12</v>
       </c>
       <c r="F34">
@@ -4592,10 +4592,10 @@
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="b">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -4624,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>F35*H35</f>
         <v>16</v>
       </c>
       <c r="F35">
@@ -4670,7 +4670,7 @@
         <v>61</v>
       </c>
       <c r="Y35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="b">
         <v>1</v>
@@ -4690,7 +4690,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -4699,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f>F36*H36</f>
         <v>20</v>
       </c>
       <c r="F36">
@@ -4745,7 +4745,7 @@
         <v>55</v>
       </c>
       <c r="Y36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="b">
         <v>1</v>
@@ -4765,7 +4765,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C37">
         <v>14</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f>F37*H37</f>
         <v>15</v>
       </c>
       <c r="F37">
@@ -4817,7 +4817,7 @@
         <v>31</v>
       </c>
       <c r="T37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z37" t="b">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C38">
         <v>14</v>
@@ -4846,7 +4846,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f>F38*H38</f>
         <v>20</v>
       </c>
       <c r="F38">
@@ -4889,7 +4889,7 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z38" t="b">
         <v>1</v>
@@ -4909,7 +4909,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -4918,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f>F39*H39</f>
         <v>25</v>
       </c>
       <c r="F39">
@@ -4961,7 +4961,7 @@
         <v>31</v>
       </c>
       <c r="T39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z39" t="b">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C40">
         <v>15</v>
@@ -4990,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f>F40*H40</f>
         <v>18</v>
       </c>
       <c r="F40">
@@ -5033,7 +5033,7 @@
         <v>31</v>
       </c>
       <c r="T40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z40" t="b">
         <v>1</v>
@@ -5053,7 +5053,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -5062,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f>F41*H41</f>
         <v>24</v>
       </c>
       <c r="F41">
@@ -5105,7 +5105,7 @@
         <v>31</v>
       </c>
       <c r="T41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Z41" t="b">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f>F42*H42</f>
         <v>36</v>
       </c>
       <c r="F42">
@@ -5177,7 +5177,7 @@
         <v>31</v>
       </c>
       <c r="T42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Z42" t="b">
         <v>1</v>
@@ -5197,7 +5197,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f>F43*H43</f>
         <v>14</v>
       </c>
       <c r="F43">
@@ -5249,7 +5249,7 @@
         <v>31</v>
       </c>
       <c r="T43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Z43" t="b">
         <v>1</v>
@@ -5269,7 +5269,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -5278,7 +5278,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f>F44*H44</f>
         <v>20</v>
       </c>
       <c r="F44">
@@ -5321,7 +5321,7 @@
         <v>31</v>
       </c>
       <c r="T44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Z44" t="b">
         <v>1</v>
@@ -5341,7 +5341,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -5350,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f>F45*H45</f>
         <v>28</v>
       </c>
       <c r="F45">
@@ -5393,7 +5393,7 @@
         <v>31</v>
       </c>
       <c r="T45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z45" t="b">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -5422,7 +5422,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f>F46*H46</f>
         <v>36</v>
       </c>
       <c r="F46">
@@ -5465,7 +5465,7 @@
         <v>31</v>
       </c>
       <c r="T46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z46" t="b">
         <v>1</v>
@@ -5485,7 +5485,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -5494,7 +5494,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f>F47*H47</f>
         <v>48</v>
       </c>
       <c r="F47">
@@ -5537,7 +5537,7 @@
         <v>31</v>
       </c>
       <c r="T47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z47" t="b">
         <v>1</v>
@@ -5557,7 +5557,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C48">
         <v>17</v>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f>F48*H48</f>
         <v>20</v>
       </c>
       <c r="F48">
@@ -5594,7 +5594,7 @@
         <v>-1</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>31</v>
       </c>
       <c r="T48" t="s">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="Z48" t="b">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C49">
         <v>17</v>
@@ -5638,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f>F49*H49</f>
         <v>30</v>
       </c>
       <c r="F49">
@@ -5666,7 +5666,7 @@
         <v>-1</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>31</v>
       </c>
       <c r="T49" t="s">
-        <v>141</v>
+        <v>427</v>
       </c>
       <c r="Z49" t="b">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -5710,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f>F50*H50</f>
         <v>40</v>
       </c>
       <c r="F50">
@@ -5738,7 +5738,7 @@
         <v>-1</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>31</v>
       </c>
       <c r="T50" t="s">
-        <v>142</v>
+        <v>428</v>
       </c>
       <c r="Z50" t="b">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -5782,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f>F51*H51</f>
         <v>50</v>
       </c>
       <c r="F51">
@@ -5810,7 +5810,7 @@
         <v>-1</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>31</v>
       </c>
       <c r="T51" t="s">
-        <v>143</v>
+        <v>429</v>
       </c>
       <c r="Z51" t="b">
         <v>1</v>
@@ -5845,7 +5845,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -5854,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f>F52*H52</f>
         <v>64</v>
       </c>
       <c r="F52">
@@ -5882,7 +5882,7 @@
         <v>-1</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -5897,7 +5897,7 @@
         <v>31</v>
       </c>
       <c r="T52" t="s">
-        <v>144</v>
+        <v>430</v>
       </c>
       <c r="Z52" t="b">
         <v>1</v>
@@ -5917,7 +5917,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -5926,7 +5926,7 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f>F53*H53</f>
         <v>8</v>
       </c>
       <c r="F53">
@@ -5969,7 +5969,7 @@
         <v>31</v>
       </c>
       <c r="T53" t="s">
-        <v>129</v>
+        <v>434</v>
       </c>
       <c r="Z53" t="b">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -5998,7 +5998,7 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f>F54*H54</f>
         <v>10</v>
       </c>
       <c r="F54">
@@ -6041,7 +6041,7 @@
         <v>31</v>
       </c>
       <c r="T54" t="s">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="Z54" t="b">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f>F55*H55</f>
         <v>40</v>
       </c>
       <c r="F55">
@@ -6113,7 +6113,10 @@
         <v>31</v>
       </c>
       <c r="T55" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="V55" t="s">
+        <v>436</v>
       </c>
       <c r="Z55" t="b">
         <v>1</v>
@@ -6133,7 +6136,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C56">
         <v>18</v>
@@ -6142,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f>F56*H56</f>
         <v>50</v>
       </c>
       <c r="F56">
@@ -6185,7 +6188,10 @@
         <v>31</v>
       </c>
       <c r="T56" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="V56" t="s">
+        <v>436</v>
       </c>
       <c r="Z56" t="b">
         <v>1</v>
@@ -6205,7 +6211,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -6214,7 +6220,7 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f>F57*H57</f>
         <v>60</v>
       </c>
       <c r="F57">
@@ -6257,7 +6263,10 @@
         <v>31</v>
       </c>
       <c r="T57" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="V57" t="s">
+        <v>436</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -6277,7 +6286,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C58">
         <v>18</v>
@@ -6286,14 +6295,14 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f>F58*H58</f>
         <v>80</v>
       </c>
       <c r="F58">
         <v>80</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6329,7 +6338,7 @@
         <v>31</v>
       </c>
       <c r="T58" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Z58" t="b">
         <v>1</v>
@@ -6349,7 +6358,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -6358,14 +6367,14 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f>F59*H59</f>
         <v>100</v>
       </c>
       <c r="F59">
         <v>100</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6401,7 +6410,7 @@
         <v>31</v>
       </c>
       <c r="T59" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Z59" t="b">
         <v>1</v>
@@ -6421,7 +6430,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -6430,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f>F60*H60</f>
         <v>30</v>
       </c>
       <c r="F60">
@@ -6476,13 +6485,13 @@
         <v>61</v>
       </c>
       <c r="U60" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="V60" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Y60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z60" t="b">
         <v>1</v>
@@ -6502,7 +6511,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -6511,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f>F61*H61</f>
         <v>50</v>
       </c>
       <c r="F61">
@@ -6554,16 +6563,16 @@
         <v>31</v>
       </c>
       <c r="T61" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="U61" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="V61" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Y61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z61" t="b">
         <v>1</v>
@@ -6583,7 +6592,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C62">
         <v>19</v>
@@ -6592,7 +6601,7 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f>F62*H62</f>
         <v>70</v>
       </c>
       <c r="F62">
@@ -6635,16 +6644,16 @@
         <v>31</v>
       </c>
       <c r="T62" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="U62" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="V62" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Y62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z62" t="b">
         <v>1</v>
@@ -6686,7 +6695,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -6722,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R65" t="s">
         <v>32</v>
       </c>
       <c r="S65" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W65">
         <v>180</v>
@@ -6751,7 +6760,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -6787,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R66" t="s">
         <v>32</v>
       </c>
       <c r="S66" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W66">
         <v>181</v>
@@ -6816,7 +6825,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -6852,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R67" t="s">
         <v>32</v>
       </c>
       <c r="S67" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W67">
         <v>182</v>
@@ -6881,7 +6890,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -6917,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R68" t="s">
         <v>32</v>
       </c>
       <c r="S68" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W68">
         <v>183</v>
@@ -6946,7 +6955,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C69">
         <v>21</v>
@@ -6982,13 +6991,13 @@
         <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R69" t="s">
         <v>32</v>
       </c>
       <c r="S69" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W69">
         <v>184</v>
@@ -7011,7 +7020,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C70">
         <v>21</v>
@@ -7047,13 +7056,13 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R70" t="s">
         <v>32</v>
       </c>
       <c r="S70" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W70">
         <v>185</v>
@@ -7076,7 +7085,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C71">
         <v>22</v>
@@ -7112,13 +7121,13 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R71" t="s">
         <v>32</v>
       </c>
       <c r="S71" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W71">
         <v>186</v>
@@ -7141,7 +7150,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C72">
         <v>22</v>
@@ -7177,13 +7186,13 @@
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R72" t="s">
         <v>32</v>
       </c>
       <c r="S72" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W72">
         <v>187</v>
@@ -7206,7 +7215,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C73">
         <v>22</v>
@@ -7242,13 +7251,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R73" t="s">
         <v>32</v>
       </c>
       <c r="S73" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W73">
         <v>188</v>
@@ -7271,7 +7280,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C74">
         <v>23</v>
@@ -7307,13 +7316,13 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R74" t="s">
         <v>32</v>
       </c>
       <c r="S74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W74">
         <v>189</v>
@@ -7336,7 +7345,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -7372,13 +7381,13 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R75" t="s">
         <v>32</v>
       </c>
       <c r="S75" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W75">
         <v>190</v>
@@ -7401,7 +7410,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C76">
         <v>23</v>
@@ -7437,13 +7446,13 @@
         <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R76" t="s">
         <v>32</v>
       </c>
       <c r="S76" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W76">
         <v>191</v>
@@ -7466,7 +7475,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C77">
         <v>24</v>
@@ -7502,13 +7511,13 @@
         <v>3</v>
       </c>
       <c r="Q77" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R77" t="s">
         <v>32</v>
       </c>
       <c r="S77" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W77">
         <v>192</v>
@@ -7531,7 +7540,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C78">
         <v>24</v>
@@ -7567,13 +7576,13 @@
         <v>3</v>
       </c>
       <c r="Q78" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R78" t="s">
         <v>32</v>
       </c>
       <c r="S78" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W78">
         <v>193</v>
@@ -7596,7 +7605,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -7632,13 +7641,13 @@
         <v>3</v>
       </c>
       <c r="Q79" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R79" t="s">
         <v>32</v>
       </c>
       <c r="S79" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W79">
         <v>194</v>
@@ -7661,7 +7670,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C80">
         <v>25</v>
@@ -7697,13 +7706,13 @@
         <v>3</v>
       </c>
       <c r="Q80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R80" t="s">
         <v>32</v>
       </c>
       <c r="S80" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W80">
         <v>195</v>
@@ -7726,7 +7735,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C81">
         <v>25</v>
@@ -7762,13 +7771,13 @@
         <v>3</v>
       </c>
       <c r="Q81" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R81" t="s">
         <v>32</v>
       </c>
       <c r="S81" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W81">
         <v>196</v>
@@ -7791,7 +7800,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C82">
         <v>25</v>
@@ -7827,13 +7836,13 @@
         <v>3</v>
       </c>
       <c r="Q82" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="R82" t="s">
         <v>32</v>
       </c>
       <c r="S82" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W82">
         <v>197</v>
@@ -7856,7 +7865,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C83">
         <v>26</v>
@@ -7892,13 +7901,13 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R83" t="s">
         <v>32</v>
       </c>
       <c r="S83" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W83">
         <v>198</v>
@@ -7921,7 +7930,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C84">
         <v>26</v>
@@ -7957,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R84" t="s">
         <v>32</v>
       </c>
       <c r="S84" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W84">
         <v>199</v>
@@ -7986,7 +7995,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C85">
         <v>26</v>
@@ -8022,13 +8031,13 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R85" t="s">
         <v>32</v>
       </c>
       <c r="S85" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W85">
         <v>200</v>
@@ -8051,7 +8060,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C86">
         <v>27</v>
@@ -8087,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R86" t="s">
         <v>32</v>
       </c>
       <c r="S86" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W86">
         <v>201</v>
@@ -8116,7 +8125,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C87">
         <v>27</v>
@@ -8152,13 +8161,13 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R87" t="s">
         <v>32</v>
       </c>
       <c r="S87" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W87">
         <v>202</v>
@@ -8181,7 +8190,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C88">
         <v>27</v>
@@ -8217,13 +8226,13 @@
         <v>0</v>
       </c>
       <c r="Q88" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R88" t="s">
         <v>32</v>
       </c>
       <c r="S88" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="W88">
         <v>203</v>
@@ -8246,7 +8255,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -8282,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="Q89" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R89" t="s">
         <v>32</v>
       </c>
       <c r="S89" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Z89" t="b">
         <v>0</v>
@@ -8311,7 +8320,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -8347,16 +8356,16 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R90" t="s">
         <v>32</v>
       </c>
       <c r="S90" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Z90" t="b">
         <v>0</v>
@@ -8376,7 +8385,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C91">
         <v>28</v>
@@ -8412,16 +8421,16 @@
         <v>0</v>
       </c>
       <c r="Q91" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R91" t="s">
         <v>32</v>
       </c>
       <c r="S91" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Z91" t="b">
         <v>0</v>
@@ -8441,7 +8450,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C92">
         <v>29</v>
@@ -8477,16 +8486,16 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R92" t="s">
         <v>32</v>
       </c>
       <c r="S92" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Z92" t="b">
         <v>0</v>
@@ -8506,7 +8515,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C93">
         <v>29</v>
@@ -8542,16 +8551,16 @@
         <v>0</v>
       </c>
       <c r="Q93" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R93" t="s">
         <v>32</v>
       </c>
       <c r="S93" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Z93" t="b">
         <v>0</v>
@@ -8571,7 +8580,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -8607,16 +8616,16 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R94" t="s">
         <v>32</v>
       </c>
       <c r="S94" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Z94" t="b">
         <v>0</v>
@@ -8636,7 +8645,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -8672,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="Q95" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R95" t="s">
         <v>32</v>
@@ -8681,10 +8690,10 @@
         <v>31</v>
       </c>
       <c r="T95" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="Z95" t="b">
         <v>0</v>
@@ -8704,7 +8713,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -8740,7 +8749,7 @@
         <v>2</v>
       </c>
       <c r="Q96" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R96" t="s">
         <v>32</v>
@@ -8749,10 +8758,10 @@
         <v>31</v>
       </c>
       <c r="T96" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Z96" t="b">
         <v>0</v>
@@ -8772,7 +8781,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C97">
         <v>30</v>
@@ -8808,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="Q97" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R97" t="s">
         <v>32</v>
@@ -8817,10 +8826,10 @@
         <v>31</v>
       </c>
       <c r="T97" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Z97" t="b">
         <v>0</v>
@@ -8840,7 +8849,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C98">
         <v>31</v>
@@ -8876,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R98" t="s">
         <v>32</v>
@@ -8885,7 +8894,7 @@
         <v>31</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="W98">
         <v>204</v>
@@ -8908,7 +8917,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C99">
         <v>31</v>
@@ -8944,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R99" t="s">
         <v>32</v>
@@ -8953,7 +8962,7 @@
         <v>31</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="W99">
         <v>205</v>
@@ -8976,7 +8985,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C100">
         <v>31</v>
@@ -9012,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R100" t="s">
         <v>32</v>
@@ -9021,7 +9030,7 @@
         <v>31</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="W100">
         <v>206</v>
@@ -9044,7 +9053,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C101">
         <v>32</v>
@@ -9080,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R101" t="s">
         <v>32</v>
@@ -9089,10 +9098,10 @@
         <v>31</v>
       </c>
       <c r="T101" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Z101" t="b">
         <v>0</v>
@@ -9112,7 +9121,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -9148,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R102" t="s">
         <v>32</v>
@@ -9157,10 +9166,10 @@
         <v>31</v>
       </c>
       <c r="T102" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Z102" t="b">
         <v>0</v>
@@ -9180,7 +9189,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C103">
         <v>32</v>
@@ -9216,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R103" t="s">
         <v>32</v>
@@ -9225,10 +9234,10 @@
         <v>31</v>
       </c>
       <c r="T103" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Z103" t="b">
         <v>0</v>
@@ -9248,7 +9257,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C104">
         <v>33</v>
@@ -9284,7 +9293,7 @@
         <v>2</v>
       </c>
       <c r="Q104" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R104" t="s">
         <v>32</v>
@@ -9293,10 +9302,10 @@
         <v>31</v>
       </c>
       <c r="T104" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Z104" t="b">
         <v>0</v>
@@ -9316,7 +9325,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C105">
         <v>33</v>
@@ -9352,7 +9361,7 @@
         <v>2</v>
       </c>
       <c r="Q105" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R105" t="s">
         <v>32</v>
@@ -9361,10 +9370,10 @@
         <v>31</v>
       </c>
       <c r="T105" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Z105" t="b">
         <v>0</v>
@@ -9384,7 +9393,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C106">
         <v>33</v>
@@ -9420,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="Q106" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R106" t="s">
         <v>32</v>
@@ -9429,10 +9438,10 @@
         <v>31</v>
       </c>
       <c r="T106" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Z106" t="b">
         <v>0</v>
@@ -9452,7 +9461,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C107">
         <v>34</v>
@@ -9497,10 +9506,10 @@
         <v>31</v>
       </c>
       <c r="T107" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="V107" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Z107" t="b">
         <v>0</v>
@@ -9520,7 +9529,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C108">
         <v>34</v>
@@ -9565,10 +9574,10 @@
         <v>31</v>
       </c>
       <c r="T108" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="V108" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Z108" t="b">
         <v>0</v>
@@ -9588,7 +9597,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C109">
         <v>34</v>
@@ -9633,10 +9642,10 @@
         <v>31</v>
       </c>
       <c r="T109" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="V109" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Z109" t="b">
         <v>0</v>
@@ -9656,7 +9665,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C110">
         <v>35</v>
@@ -9701,10 +9710,10 @@
         <v>31</v>
       </c>
       <c r="T110" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Y110" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Z110" t="b">
         <v>0</v>
@@ -9724,7 +9733,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -9769,10 +9778,10 @@
         <v>31</v>
       </c>
       <c r="T111" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Y111" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Z111" t="b">
         <v>0</v>
@@ -9792,7 +9801,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -9837,10 +9846,10 @@
         <v>31</v>
       </c>
       <c r="T112" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Y112" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Z112" t="b">
         <v>0</v>
@@ -9860,7 +9869,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C113">
         <v>36</v>
@@ -9905,10 +9914,10 @@
         <v>31</v>
       </c>
       <c r="T113" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="V113" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Z113" t="b">
         <v>0</v>
@@ -9928,7 +9937,7 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C114">
         <v>36</v>
@@ -9973,10 +9982,10 @@
         <v>31</v>
       </c>
       <c r="T114" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="V114" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Z114" t="b">
         <v>0</v>
@@ -9996,7 +10005,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C115">
         <v>36</v>
@@ -10041,10 +10050,10 @@
         <v>31</v>
       </c>
       <c r="T115" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="V115" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Z115" t="b">
         <v>0</v>
@@ -10064,7 +10073,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C116">
         <v>37</v>
@@ -10109,10 +10118,10 @@
         <v>31</v>
       </c>
       <c r="T116" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="V116" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z116" t="b">
         <v>0</v>
@@ -10132,7 +10141,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C117">
         <v>37</v>
@@ -10177,10 +10186,10 @@
         <v>31</v>
       </c>
       <c r="T117" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="V117" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z117" t="b">
         <v>0</v>
@@ -10200,7 +10209,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C118">
         <v>37</v>
@@ -10245,10 +10254,10 @@
         <v>31</v>
       </c>
       <c r="T118" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="V118" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z118" t="b">
         <v>0</v>
@@ -10268,7 +10277,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C119">
         <v>38</v>
@@ -10313,10 +10322,10 @@
         <v>31</v>
       </c>
       <c r="T119" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Y119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z119" t="b">
         <v>1</v>
@@ -10336,7 +10345,7 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C120">
         <v>38</v>
@@ -10381,10 +10390,10 @@
         <v>31</v>
       </c>
       <c r="T120" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Y120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z120" t="b">
         <v>1</v>
@@ -10404,7 +10413,7 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C121">
         <v>38</v>
@@ -10449,10 +10458,10 @@
         <v>31</v>
       </c>
       <c r="T121" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Y121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z121" t="b">
         <v>1</v>
@@ -10472,7 +10481,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C122">
         <v>39</v>
@@ -10517,16 +10526,16 @@
         <v>31</v>
       </c>
       <c r="T122" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="V122" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="W122">
         <v>1</v>
       </c>
       <c r="Y122" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z122" t="b">
         <v>0</v>
@@ -10546,7 +10555,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C123">
         <v>39</v>
@@ -10591,16 +10600,16 @@
         <v>31</v>
       </c>
       <c r="T123" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V123" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="W123">
         <v>1</v>
       </c>
       <c r="Y123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z123" t="b">
         <v>0</v>
@@ -10620,7 +10629,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C124">
         <v>39</v>
@@ -10665,16 +10674,16 @@
         <v>31</v>
       </c>
       <c r="T124" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="V124" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="W124">
         <v>1</v>
       </c>
       <c r="Y124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z124" t="b">
         <v>0</v>
@@ -10694,7 +10703,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C125">
         <v>40</v>
@@ -10703,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <f t="shared" ref="E125:E127" si="1">F125*H125</f>
+        <f>F125*H125</f>
         <v>6</v>
       </c>
       <c r="F125">
@@ -10746,10 +10755,10 @@
         <v>31</v>
       </c>
       <c r="T125" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Y125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z125" t="b">
         <v>0</v>
@@ -10769,7 +10778,7 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C126">
         <v>40</v>
@@ -10778,7 +10787,7 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
+        <f>F126*H126</f>
         <v>8</v>
       </c>
       <c r="F126">
@@ -10821,10 +10830,10 @@
         <v>31</v>
       </c>
       <c r="T126" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Y126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z126" t="b">
         <v>0</v>
@@ -10844,7 +10853,7 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C127">
         <v>40</v>
@@ -10853,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
+        <f>F127*H127</f>
         <v>10</v>
       </c>
       <c r="F127">
@@ -10896,10 +10905,10 @@
         <v>31</v>
       </c>
       <c r="T127" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Y127" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z127" t="b">
         <v>0</v>
@@ -10919,7 +10928,7 @@
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C128">
         <v>41</v>
@@ -10964,10 +10973,10 @@
         <v>31</v>
       </c>
       <c r="T128" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Y128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z128" t="b">
         <v>1</v>
@@ -10987,7 +10996,7 @@
         <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C129">
         <v>41</v>
@@ -11032,10 +11041,10 @@
         <v>31</v>
       </c>
       <c r="T129" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Y129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z129" t="b">
         <v>1</v>
@@ -11055,7 +11064,7 @@
         <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C130">
         <v>41</v>
@@ -11100,10 +11109,10 @@
         <v>31</v>
       </c>
       <c r="T130" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Y130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z130" t="b">
         <v>1</v>
@@ -11537,80 +11546,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
   <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.125" customWidth="1"/>
     <col min="3" max="3" width="32.375" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="41.625" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11621,13 +11630,13 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11638,13 +11647,13 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11655,13 +11664,13 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11672,13 +11681,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11686,16 +11695,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11703,16 +11712,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11723,13 +11732,13 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11740,13 +11749,13 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11757,13 +11766,13 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11774,13 +11783,13 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11791,7 +11800,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11799,16 +11808,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11819,13 +11828,13 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11836,13 +11845,13 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11853,13 +11862,13 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11870,13 +11879,13 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11884,16 +11893,16 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11901,16 +11910,16 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11921,13 +11930,13 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11938,13 +11947,13 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11955,13 +11964,13 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11972,13 +11981,13 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11986,16 +11995,16 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -12003,16 +12012,16 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -12020,16 +12029,16 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -12037,16 +12046,16 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -12054,16 +12063,16 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -12071,16 +12080,16 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -12088,16 +12097,16 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -12105,16 +12114,16 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -12122,16 +12131,16 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -12139,16 +12148,16 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -12156,16 +12165,16 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -12173,16 +12182,16 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12190,16 +12199,16 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -12207,16 +12216,16 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -12224,16 +12233,16 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12241,16 +12250,16 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12258,16 +12267,16 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12275,16 +12284,16 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12292,16 +12301,16 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12309,16 +12318,16 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12326,16 +12335,16 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12343,16 +12352,16 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12360,16 +12369,16 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -12377,16 +12386,16 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -12394,16 +12403,16 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -12411,16 +12420,16 @@
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -12428,16 +12437,16 @@
         <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -12448,13 +12457,13 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -12465,13 +12474,13 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -12479,16 +12488,16 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -12496,16 +12505,16 @@
         <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -12513,16 +12522,16 @@
         <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -12530,16 +12539,16 @@
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E62" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -12547,16 +12556,16 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -12564,16 +12573,16 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -12581,16 +12590,16 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -12598,16 +12607,16 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -12621,7 +12630,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -12629,7 +12638,7 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -12637,7 +12646,7 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -12645,7 +12654,7 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -12653,7 +12662,7 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -12661,7 +12670,7 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -12669,7 +12678,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -12677,7 +12686,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -12685,7 +12694,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -12693,7 +12702,7 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -12701,7 +12710,7 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -12709,7 +12718,7 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -12717,7 +12726,7 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -12725,7 +12734,7 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -12733,7 +12742,7 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -12741,7 +12750,7 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -12749,7 +12758,7 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -12757,7 +12766,7 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -12765,7 +12774,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -12773,7 +12782,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -12781,7 +12790,7 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -12789,7 +12798,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -12797,7 +12806,7 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -12805,7 +12814,7 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -12813,13 +12822,13 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D93" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="T93" s="1"/>
     </row>
@@ -12828,13 +12837,13 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="T94" s="1"/>
     </row>
@@ -12843,13 +12852,13 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="T95" s="1"/>
     </row>
@@ -12858,13 +12867,13 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E96" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="T96" s="1"/>
     </row>
@@ -12873,13 +12882,13 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E97" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="T97" s="1"/>
     </row>
@@ -12888,13 +12897,13 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E98" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="T98" s="1"/>
     </row>
@@ -12903,13 +12912,13 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E99" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="T99" s="1"/>
     </row>
@@ -12918,13 +12927,13 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E100" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="T100" s="1"/>
     </row>
@@ -12933,13 +12942,13 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E101" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="T101" s="1"/>
     </row>
@@ -12948,13 +12957,13 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E102" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="T102" s="1"/>
     </row>
@@ -12963,13 +12972,13 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="T103" s="1"/>
     </row>
@@ -12978,13 +12987,13 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E104" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="T104" s="1"/>
     </row>
@@ -12993,13 +13002,13 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D105" t="s">
+        <v>287</v>
+      </c>
+      <c r="E105" t="s">
         <v>295</v>
-      </c>
-      <c r="E105" t="s">
-        <v>303</v>
       </c>
       <c r="T105" s="1"/>
     </row>
@@ -13008,13 +13017,13 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D106" t="s">
+        <v>287</v>
+      </c>
+      <c r="E106" t="s">
         <v>295</v>
-      </c>
-      <c r="E106" t="s">
-        <v>303</v>
       </c>
       <c r="T106" s="1"/>
     </row>
@@ -13023,13 +13032,13 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D107" t="s">
+        <v>287</v>
+      </c>
+      <c r="E107" t="s">
         <v>295</v>
-      </c>
-      <c r="E107" t="s">
-        <v>303</v>
       </c>
       <c r="T107" s="1"/>
     </row>
@@ -13038,13 +13047,13 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E108" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="T108" s="1"/>
     </row>
@@ -13053,13 +13062,13 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="T109" s="1"/>
     </row>
@@ -13068,13 +13077,13 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D110" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E110" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="T110" s="1"/>
     </row>
@@ -13083,10 +13092,10 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D111" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -13094,10 +13103,10 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -13105,10 +13114,10 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D113" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -13116,7 +13125,7 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -13124,7 +13133,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -13132,7 +13141,7 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -13140,10 +13149,10 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D117" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -13151,10 +13160,10 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D118" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -13162,10 +13171,10 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D119" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -13173,10 +13182,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D120" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -13184,10 +13193,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D121" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -13195,10 +13204,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D122" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -13206,16 +13215,16 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D123" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E123" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -13223,16 +13232,16 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D124" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E124" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -13240,16 +13249,16 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D125" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E125" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -13257,10 +13266,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D126" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -13268,10 +13277,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D127" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -13279,10 +13288,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D128" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -13290,13 +13299,13 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D129" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E129" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -13304,13 +13313,13 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D130" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E130" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -13318,13 +13327,13 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D131" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E131" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -13332,16 +13341,16 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C132" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D132" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E132" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -13349,16 +13358,16 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C133" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E133" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -13366,16 +13375,16 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C134" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D134" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E134" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14370F-936A-48C7-B3F2-D159A488E90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F52E3F-FEC6-4CD1-B8D2-CEA7059C3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="431">
   <si>
     <t>名字</t>
   </si>
@@ -502,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8,1,Physical;10,1,Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1374,14 +1370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20,0,Fire;8,2,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,0,Fire;12,3,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LightningFlash</t>
   </si>
   <si>
@@ -1530,10 +1518,6 @@
     <t>High-T Bombing</t>
   </si>
   <si>
-    <t>Red Flame Plasma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grenade_Ice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1543,14 +1527,6 @@
   </si>
   <si>
     <t>Beam_LightningPlasma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flame Plasma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lightning Beam Plasma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1985,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2026,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G1" t="s">
         <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
@@ -2050,7 +2026,7 @@
         <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
@@ -2074,10 +2050,10 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W1" t="s">
         <v>14</v>
@@ -2089,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA1" t="s">
         <v>16</v>
@@ -2112,10 +2088,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
         <v>115</v>
@@ -2127,10 +2103,10 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
@@ -2142,7 +2118,7 @@
         <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -2166,10 +2142,10 @@
         <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W2" t="s">
         <v>22</v>
@@ -2181,7 +2157,7 @@
         <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA2" t="s">
         <v>15</v>
@@ -2204,10 +2180,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -2252,10 +2228,10 @@
         <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W3" t="s">
         <v>21</v>
@@ -2287,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2296,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>F4*H4</f>
+        <f t="shared" ref="E4:E35" si="0">F4*H4</f>
         <v>12</v>
       </c>
       <c r="F4">
@@ -2362,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2371,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>F5*H5</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F5">
@@ -2437,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2446,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>F6*H6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F6">
@@ -2512,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2521,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>F7*H7</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F7">
@@ -2587,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2596,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>F8*H8</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F8">
@@ -2654,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="AD8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -2662,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2671,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>F9*H9</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F9">
@@ -2729,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -2737,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2746,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>F10*H10</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F10">
@@ -2809,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2818,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f>F11*H11</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F11">
@@ -2881,7 +2857,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2890,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <f>F12*H12</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F12">
@@ -2962,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>F13*H13</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F13">
@@ -3034,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>F14*H14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F14">
@@ -3077,10 +3053,10 @@
         <v>31</v>
       </c>
       <c r="T14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
@@ -3100,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3109,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>F15*H15</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F15">
@@ -3152,7 +3128,7 @@
         <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="Z15" t="b">
         <v>1</v>
@@ -3172,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3181,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>F16*H16</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F16">
@@ -3224,7 +3200,7 @@
         <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Y16" t="s">
         <v>62</v>
@@ -3247,7 +3223,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3256,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f>F17*H17</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F17">
@@ -3322,7 +3298,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -3331,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <f>F18*H18</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F18">
@@ -3397,7 +3373,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3406,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>F19*H19</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F19">
@@ -3449,10 +3425,10 @@
         <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
@@ -3472,7 +3448,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -3481,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>F20*H20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F20">
@@ -3524,7 +3500,7 @@
         <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Y20" t="s">
         <v>114</v>
@@ -3547,7 +3523,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -3556,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <f>F21*H21</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F21">
@@ -3599,7 +3575,7 @@
         <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Y21" t="s">
         <v>114</v>
@@ -3622,7 +3598,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -3631,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <f>F22*H22</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F22">
@@ -3674,7 +3650,7 @@
         <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Y22" t="s">
         <v>114</v>
@@ -3697,7 +3673,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -3706,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>F23*H23</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F23">
@@ -3752,10 +3728,10 @@
         <v>124</v>
       </c>
       <c r="U23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
         <v>79</v>
@@ -3778,7 +3754,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -3787,7 +3763,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f>F24*H24</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F24">
@@ -3833,10 +3809,10 @@
         <v>125</v>
       </c>
       <c r="U24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
         <v>79</v>
@@ -3859,7 +3835,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -3868,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <f>F25*H25</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F25">
@@ -3914,10 +3890,10 @@
         <v>126</v>
       </c>
       <c r="U25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
         <v>79</v>
@@ -3940,7 +3916,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -3949,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>F26*H26</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F26">
@@ -3992,7 +3968,7 @@
         <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Y26" t="s">
         <v>79</v>
@@ -4015,7 +3991,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4024,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <f>F27*H27</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F27">
@@ -4067,7 +4043,7 @@
         <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Y27" t="s">
         <v>79</v>
@@ -4090,7 +4066,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4099,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <f>F28*H28</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F28">
@@ -4142,7 +4118,7 @@
         <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Y28" t="s">
         <v>79</v>
@@ -4165,7 +4141,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4174,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>F29*H29</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F29">
@@ -4240,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -4249,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <f>F30*H30</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F30">
@@ -4315,7 +4291,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4324,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <f>F31*H31</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F31">
@@ -4390,7 +4366,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4399,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <f>F32*H32</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F32">
@@ -4465,7 +4441,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -4474,7 +4450,7 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <f>F33*H33</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F33">
@@ -4540,7 +4516,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C34">
         <v>13</v>
@@ -4549,17 +4525,17 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f>F34*H34</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F34">
         <v>6</v>
       </c>
       <c r="G34">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -4592,7 +4568,7 @@
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="Y34" t="s">
         <v>79</v>
@@ -4615,7 +4591,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -4624,17 +4600,17 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <f>F35*H35</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -4667,7 +4643,7 @@
         <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>337</v>
       </c>
       <c r="Y35" t="s">
         <v>79</v>
@@ -4690,7 +4666,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -4699,17 +4675,17 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f>F36*H36</f>
-        <v>20</v>
+        <f t="shared" ref="E36:E67" si="1">F36*H36</f>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -4742,7 +4718,7 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="Y36" t="s">
         <v>79</v>
@@ -4765,7 +4741,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C37">
         <v>14</v>
@@ -4774,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f>F37*H37</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F37">
@@ -4837,7 +4813,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C38">
         <v>14</v>
@@ -4846,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <f>F38*H38</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F38">
@@ -4909,7 +4885,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -4918,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <f>F39*H39</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F39">
@@ -4981,7 +4957,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C40">
         <v>15</v>
@@ -4990,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>F40*H40</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F40">
@@ -5033,7 +5009,7 @@
         <v>31</v>
       </c>
       <c r="T40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z40" t="b">
         <v>1</v>
@@ -5053,7 +5029,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -5062,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <f>F41*H41</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F41">
@@ -5105,7 +5081,7 @@
         <v>31</v>
       </c>
       <c r="T41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z41" t="b">
         <v>1</v>
@@ -5125,7 +5101,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -5134,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f>F42*H42</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F42">
@@ -5177,7 +5153,7 @@
         <v>31</v>
       </c>
       <c r="T42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z42" t="b">
         <v>1</v>
@@ -5197,7 +5173,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -5206,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f>F43*H43</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F43">
@@ -5249,7 +5225,7 @@
         <v>31</v>
       </c>
       <c r="T43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Z43" t="b">
         <v>1</v>
@@ -5269,7 +5245,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -5278,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <f>F44*H44</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F44">
@@ -5321,7 +5297,7 @@
         <v>31</v>
       </c>
       <c r="T44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z44" t="b">
         <v>1</v>
@@ -5341,7 +5317,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -5350,7 +5326,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <f>F45*H45</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="F45">
@@ -5393,7 +5369,7 @@
         <v>31</v>
       </c>
       <c r="T45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z45" t="b">
         <v>1</v>
@@ -5413,7 +5389,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -5422,7 +5398,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <f>F46*H46</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F46">
@@ -5465,7 +5441,7 @@
         <v>31</v>
       </c>
       <c r="T46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z46" t="b">
         <v>1</v>
@@ -5485,7 +5461,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -5494,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <f>F47*H47</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="F47">
@@ -5537,7 +5513,7 @@
         <v>31</v>
       </c>
       <c r="T47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z47" t="b">
         <v>1</v>
@@ -5557,7 +5533,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C48">
         <v>17</v>
@@ -5566,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f>F48*H48</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F48">
@@ -5609,7 +5585,7 @@
         <v>31</v>
       </c>
       <c r="T48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Z48" t="b">
         <v>1</v>
@@ -5629,7 +5605,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C49">
         <v>17</v>
@@ -5638,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <f>F49*H49</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F49">
@@ -5681,7 +5657,7 @@
         <v>31</v>
       </c>
       <c r="T49" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Z49" t="b">
         <v>1</v>
@@ -5701,7 +5677,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -5710,7 +5686,7 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <f>F50*H50</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="F50">
@@ -5753,7 +5729,7 @@
         <v>31</v>
       </c>
       <c r="T50" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Z50" t="b">
         <v>1</v>
@@ -5773,7 +5749,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -5782,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <f>F51*H51</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="F51">
@@ -5825,7 +5801,7 @@
         <v>31</v>
       </c>
       <c r="T51" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Z51" t="b">
         <v>1</v>
@@ -5845,7 +5821,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -5854,7 +5830,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f>F52*H52</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="F52">
@@ -5897,7 +5873,7 @@
         <v>31</v>
       </c>
       <c r="T52" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Z52" t="b">
         <v>1</v>
@@ -5917,7 +5893,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -5926,7 +5902,7 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <f>F53*H53</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F53">
@@ -5969,7 +5945,7 @@
         <v>31</v>
       </c>
       <c r="T53" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Z53" t="b">
         <v>1</v>
@@ -5989,7 +5965,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -5998,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <f>F54*H54</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F54">
@@ -6041,7 +6017,7 @@
         <v>31</v>
       </c>
       <c r="T54" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Z54" t="b">
         <v>1</v>
@@ -6061,7 +6037,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -6070,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <f>F55*H55</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="F55">
@@ -6113,10 +6089,10 @@
         <v>31</v>
       </c>
       <c r="T55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V55" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Z55" t="b">
         <v>1</v>
@@ -6136,7 +6112,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C56">
         <v>18</v>
@@ -6145,7 +6121,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>F56*H56</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="F56">
@@ -6188,10 +6164,10 @@
         <v>31</v>
       </c>
       <c r="T56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V56" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="b">
         <v>1</v>
@@ -6211,7 +6187,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -6220,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <f>F57*H57</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="F57">
@@ -6263,10 +6239,10 @@
         <v>31</v>
       </c>
       <c r="T57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V57" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -6286,7 +6262,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C58">
         <v>18</v>
@@ -6295,7 +6271,7 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <f>F58*H58</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="F58">
@@ -6338,7 +6314,7 @@
         <v>31</v>
       </c>
       <c r="T58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z58" t="b">
         <v>1</v>
@@ -6358,7 +6334,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -6367,7 +6343,7 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <f>F59*H59</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="F59">
@@ -6410,7 +6386,7 @@
         <v>31</v>
       </c>
       <c r="T59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z59" t="b">
         <v>1</v>
@@ -6430,7 +6406,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -6439,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f>F60*H60</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F60">
@@ -6485,10 +6461,10 @@
         <v>61</v>
       </c>
       <c r="U60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y60" t="s">
         <v>114</v>
@@ -6511,7 +6487,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -6520,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <f>F61*H61</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="F61">
@@ -6563,13 +6539,13 @@
         <v>31</v>
       </c>
       <c r="T61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y61" t="s">
         <v>114</v>
@@ -6592,7 +6568,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C62">
         <v>19</v>
@@ -6601,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <f>F62*H62</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="F62">
@@ -6644,13 +6620,13 @@
         <v>31</v>
       </c>
       <c r="T62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y62" t="s">
         <v>114</v>
@@ -6695,7 +6671,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -6731,13 +6707,13 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R65" t="s">
         <v>32</v>
       </c>
       <c r="S65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W65">
         <v>180</v>
@@ -6760,7 +6736,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -6796,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R66" t="s">
         <v>32</v>
       </c>
       <c r="S66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W66">
         <v>181</v>
@@ -6825,7 +6801,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -6861,13 +6837,13 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R67" t="s">
         <v>32</v>
       </c>
       <c r="S67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W67">
         <v>182</v>
@@ -6890,7 +6866,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -6926,13 +6902,13 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R68" t="s">
         <v>32</v>
       </c>
       <c r="S68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W68">
         <v>183</v>
@@ -6955,7 +6931,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C69">
         <v>21</v>
@@ -6991,13 +6967,13 @@
         <v>0</v>
       </c>
       <c r="Q69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R69" t="s">
         <v>32</v>
       </c>
       <c r="S69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W69">
         <v>184</v>
@@ -7020,7 +6996,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C70">
         <v>21</v>
@@ -7056,13 +7032,13 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R70" t="s">
         <v>32</v>
       </c>
       <c r="S70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W70">
         <v>185</v>
@@ -7085,7 +7061,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C71">
         <v>22</v>
@@ -7121,13 +7097,13 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R71" t="s">
         <v>32</v>
       </c>
       <c r="S71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W71">
         <v>186</v>
@@ -7150,7 +7126,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C72">
         <v>22</v>
@@ -7186,13 +7162,13 @@
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R72" t="s">
         <v>32</v>
       </c>
       <c r="S72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W72">
         <v>187</v>
@@ -7215,7 +7191,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C73">
         <v>22</v>
@@ -7251,13 +7227,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R73" t="s">
         <v>32</v>
       </c>
       <c r="S73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W73">
         <v>188</v>
@@ -7280,7 +7256,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C74">
         <v>23</v>
@@ -7316,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R74" t="s">
         <v>32</v>
       </c>
       <c r="S74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W74">
         <v>189</v>
@@ -7345,7 +7321,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -7381,13 +7357,13 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R75" t="s">
         <v>32</v>
       </c>
       <c r="S75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W75">
         <v>190</v>
@@ -7410,7 +7386,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C76">
         <v>23</v>
@@ -7446,13 +7422,13 @@
         <v>0</v>
       </c>
       <c r="Q76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R76" t="s">
         <v>32</v>
       </c>
       <c r="S76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W76">
         <v>191</v>
@@ -7475,7 +7451,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C77">
         <v>24</v>
@@ -7511,13 +7487,13 @@
         <v>3</v>
       </c>
       <c r="Q77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R77" t="s">
         <v>32</v>
       </c>
       <c r="S77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W77">
         <v>192</v>
@@ -7540,7 +7516,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C78">
         <v>24</v>
@@ -7576,13 +7552,13 @@
         <v>3</v>
       </c>
       <c r="Q78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R78" t="s">
         <v>32</v>
       </c>
       <c r="S78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W78">
         <v>193</v>
@@ -7605,7 +7581,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -7641,13 +7617,13 @@
         <v>3</v>
       </c>
       <c r="Q79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R79" t="s">
         <v>32</v>
       </c>
       <c r="S79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W79">
         <v>194</v>
@@ -7670,7 +7646,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C80">
         <v>25</v>
@@ -7706,13 +7682,13 @@
         <v>3</v>
       </c>
       <c r="Q80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R80" t="s">
         <v>32</v>
       </c>
       <c r="S80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W80">
         <v>195</v>
@@ -7735,7 +7711,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C81">
         <v>25</v>
@@ -7771,13 +7747,13 @@
         <v>3</v>
       </c>
       <c r="Q81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R81" t="s">
         <v>32</v>
       </c>
       <c r="S81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W81">
         <v>196</v>
@@ -7800,7 +7776,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C82">
         <v>25</v>
@@ -7836,13 +7812,13 @@
         <v>3</v>
       </c>
       <c r="Q82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R82" t="s">
         <v>32</v>
       </c>
       <c r="S82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W82">
         <v>197</v>
@@ -7865,7 +7841,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C83">
         <v>26</v>
@@ -7901,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R83" t="s">
         <v>32</v>
       </c>
       <c r="S83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W83">
         <v>198</v>
@@ -7930,7 +7906,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C84">
         <v>26</v>
@@ -7966,13 +7942,13 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R84" t="s">
         <v>32</v>
       </c>
       <c r="S84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W84">
         <v>199</v>
@@ -7995,7 +7971,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C85">
         <v>26</v>
@@ -8031,13 +8007,13 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R85" t="s">
         <v>32</v>
       </c>
       <c r="S85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W85">
         <v>200</v>
@@ -8060,7 +8036,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C86">
         <v>27</v>
@@ -8096,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R86" t="s">
         <v>32</v>
       </c>
       <c r="S86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W86">
         <v>201</v>
@@ -8125,7 +8101,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C87">
         <v>27</v>
@@ -8161,13 +8137,13 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R87" t="s">
         <v>32</v>
       </c>
       <c r="S87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W87">
         <v>202</v>
@@ -8190,7 +8166,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C88">
         <v>27</v>
@@ -8226,13 +8202,13 @@
         <v>0</v>
       </c>
       <c r="Q88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R88" t="s">
         <v>32</v>
       </c>
       <c r="S88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="W88">
         <v>203</v>
@@ -8255,7 +8231,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -8291,16 +8267,16 @@
         <v>0</v>
       </c>
       <c r="Q89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R89" t="s">
         <v>32</v>
       </c>
       <c r="S89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z89" t="b">
         <v>0</v>
@@ -8320,7 +8296,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -8356,16 +8332,16 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R90" t="s">
         <v>32</v>
       </c>
       <c r="S90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z90" t="b">
         <v>0</v>
@@ -8385,7 +8361,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C91">
         <v>28</v>
@@ -8421,16 +8397,16 @@
         <v>0</v>
       </c>
       <c r="Q91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R91" t="s">
         <v>32</v>
       </c>
       <c r="S91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z91" t="b">
         <v>0</v>
@@ -8450,7 +8426,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C92">
         <v>29</v>
@@ -8486,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R92" t="s">
         <v>32</v>
       </c>
       <c r="S92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z92" t="b">
         <v>0</v>
@@ -8515,7 +8491,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C93">
         <v>29</v>
@@ -8551,16 +8527,16 @@
         <v>0</v>
       </c>
       <c r="Q93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R93" t="s">
         <v>32</v>
       </c>
       <c r="S93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z93" t="b">
         <v>0</v>
@@ -8580,7 +8556,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -8616,16 +8592,16 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R94" t="s">
         <v>32</v>
       </c>
       <c r="S94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z94" t="b">
         <v>0</v>
@@ -8645,7 +8621,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -8681,7 +8657,7 @@
         <v>2</v>
       </c>
       <c r="Q95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R95" t="s">
         <v>32</v>
@@ -8690,10 +8666,10 @@
         <v>31</v>
       </c>
       <c r="T95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z95" t="b">
         <v>0</v>
@@ -8713,7 +8689,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -8749,7 +8725,7 @@
         <v>2</v>
       </c>
       <c r="Q96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R96" t="s">
         <v>32</v>
@@ -8758,10 +8734,10 @@
         <v>31</v>
       </c>
       <c r="T96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z96" t="b">
         <v>0</v>
@@ -8781,7 +8757,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C97">
         <v>30</v>
@@ -8817,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="Q97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R97" t="s">
         <v>32</v>
@@ -8826,10 +8802,10 @@
         <v>31</v>
       </c>
       <c r="T97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z97" t="b">
         <v>0</v>
@@ -8849,7 +8825,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C98">
         <v>31</v>
@@ -8885,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R98" t="s">
         <v>32</v>
@@ -8894,7 +8870,7 @@
         <v>31</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W98">
         <v>204</v>
@@ -8917,7 +8893,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C99">
         <v>31</v>
@@ -8953,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R99" t="s">
         <v>32</v>
@@ -8962,7 +8938,7 @@
         <v>31</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W99">
         <v>205</v>
@@ -8985,7 +8961,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C100">
         <v>31</v>
@@ -9021,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R100" t="s">
         <v>32</v>
@@ -9030,7 +9006,7 @@
         <v>31</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W100">
         <v>206</v>
@@ -9053,7 +9029,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C101">
         <v>32</v>
@@ -9089,7 +9065,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R101" t="s">
         <v>32</v>
@@ -9098,10 +9074,10 @@
         <v>31</v>
       </c>
       <c r="T101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z101" t="b">
         <v>0</v>
@@ -9121,7 +9097,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -9157,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R102" t="s">
         <v>32</v>
@@ -9166,10 +9142,10 @@
         <v>31</v>
       </c>
       <c r="T102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z102" t="b">
         <v>0</v>
@@ -9189,7 +9165,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C103">
         <v>32</v>
@@ -9225,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R103" t="s">
         <v>32</v>
@@ -9234,10 +9210,10 @@
         <v>31</v>
       </c>
       <c r="T103" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z103" t="b">
         <v>0</v>
@@ -9257,7 +9233,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C104">
         <v>33</v>
@@ -9293,7 +9269,7 @@
         <v>2</v>
       </c>
       <c r="Q104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R104" t="s">
         <v>32</v>
@@ -9302,10 +9278,10 @@
         <v>31</v>
       </c>
       <c r="T104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z104" t="b">
         <v>0</v>
@@ -9325,7 +9301,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C105">
         <v>33</v>
@@ -9361,7 +9337,7 @@
         <v>2</v>
       </c>
       <c r="Q105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R105" t="s">
         <v>32</v>
@@ -9370,10 +9346,10 @@
         <v>31</v>
       </c>
       <c r="T105" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z105" t="b">
         <v>0</v>
@@ -9393,7 +9369,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C106">
         <v>33</v>
@@ -9429,7 +9405,7 @@
         <v>2</v>
       </c>
       <c r="Q106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R106" t="s">
         <v>32</v>
@@ -9438,10 +9414,10 @@
         <v>31</v>
       </c>
       <c r="T106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z106" t="b">
         <v>0</v>
@@ -9461,7 +9437,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C107">
         <v>34</v>
@@ -9506,10 +9482,10 @@
         <v>31</v>
       </c>
       <c r="T107" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V107" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z107" t="b">
         <v>0</v>
@@ -9529,7 +9505,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C108">
         <v>34</v>
@@ -9574,10 +9550,10 @@
         <v>31</v>
       </c>
       <c r="T108" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z108" t="b">
         <v>0</v>
@@ -9597,7 +9573,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C109">
         <v>34</v>
@@ -9642,10 +9618,10 @@
         <v>31</v>
       </c>
       <c r="T109" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Z109" t="b">
         <v>0</v>
@@ -9665,7 +9641,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C110">
         <v>35</v>
@@ -9710,10 +9686,10 @@
         <v>31</v>
       </c>
       <c r="T110" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z110" t="b">
         <v>0</v>
@@ -9733,7 +9709,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -9778,10 +9754,10 @@
         <v>31</v>
       </c>
       <c r="T111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z111" t="b">
         <v>0</v>
@@ -9801,7 +9777,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -9846,10 +9822,10 @@
         <v>31</v>
       </c>
       <c r="T112" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y112" t="s">
         <v>316</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>317</v>
       </c>
       <c r="Z112" t="b">
         <v>0</v>
@@ -9869,7 +9845,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C113">
         <v>36</v>
@@ -9914,10 +9890,10 @@
         <v>31</v>
       </c>
       <c r="T113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z113" t="b">
         <v>0</v>
@@ -9937,7 +9913,7 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C114">
         <v>36</v>
@@ -9982,10 +9958,10 @@
         <v>31</v>
       </c>
       <c r="T114" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z114" t="b">
         <v>0</v>
@@ -10005,7 +9981,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C115">
         <v>36</v>
@@ -10050,10 +10026,10 @@
         <v>31</v>
       </c>
       <c r="T115" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z115" t="b">
         <v>0</v>
@@ -10073,7 +10049,7 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C116">
         <v>37</v>
@@ -10118,10 +10094,10 @@
         <v>31</v>
       </c>
       <c r="T116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V116" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z116" t="b">
         <v>0</v>
@@ -10141,7 +10117,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C117">
         <v>37</v>
@@ -10186,10 +10162,10 @@
         <v>31</v>
       </c>
       <c r="T117" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z117" t="b">
         <v>0</v>
@@ -10209,7 +10185,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C118">
         <v>37</v>
@@ -10254,10 +10230,10 @@
         <v>31</v>
       </c>
       <c r="T118" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V118" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z118" t="b">
         <v>0</v>
@@ -10269,210 +10245,6 @@
         <v>0</v>
       </c>
       <c r="AD118" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>134</v>
-      </c>
-      <c r="B119" t="s">
-        <v>410</v>
-      </c>
-      <c r="C119">
-        <v>38</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0.3</v>
-      </c>
-      <c r="K119">
-        <v>0.4</v>
-      </c>
-      <c r="L119">
-        <v>20</v>
-      </c>
-      <c r="M119">
-        <v>-1</v>
-      </c>
-      <c r="O119">
-        <v>8</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>30</v>
-      </c>
-      <c r="R119" t="s">
-        <v>32</v>
-      </c>
-      <c r="S119" t="s">
-        <v>31</v>
-      </c>
-      <c r="T119" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y119" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB119" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD119" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>135</v>
-      </c>
-      <c r="B120" t="s">
-        <v>406</v>
-      </c>
-      <c r="C120">
-        <v>38</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0.3</v>
-      </c>
-      <c r="K120">
-        <v>0.4</v>
-      </c>
-      <c r="L120">
-        <v>30</v>
-      </c>
-      <c r="M120">
-        <v>-1</v>
-      </c>
-      <c r="O120">
-        <v>8</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>30</v>
-      </c>
-      <c r="R120" t="s">
-        <v>32</v>
-      </c>
-      <c r="S120" t="s">
-        <v>31</v>
-      </c>
-      <c r="T120" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z120" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA120" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB120" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>136</v>
-      </c>
-      <c r="B121" t="s">
-        <v>406</v>
-      </c>
-      <c r="C121">
-        <v>38</v>
-      </c>
-      <c r="D121">
-        <v>3</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0.3</v>
-      </c>
-      <c r="K121">
-        <v>0.4</v>
-      </c>
-      <c r="L121">
-        <v>40</v>
-      </c>
-      <c r="M121">
-        <v>-1</v>
-      </c>
-      <c r="O121">
-        <v>8</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>30</v>
-      </c>
-      <c r="R121" t="s">
-        <v>32</v>
-      </c>
-      <c r="S121" t="s">
-        <v>31</v>
-      </c>
-      <c r="T121" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB121" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD121" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10481,7 +10253,7 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C122">
         <v>39</v>
@@ -10526,10 +10298,10 @@
         <v>31</v>
       </c>
       <c r="T122" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V122" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W122">
         <v>1</v>
@@ -10555,7 +10327,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C123">
         <v>39</v>
@@ -10600,10 +10372,10 @@
         <v>31</v>
       </c>
       <c r="T123" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V123" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W123">
         <v>1</v>
@@ -10629,7 +10401,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C124">
         <v>39</v>
@@ -10674,10 +10446,10 @@
         <v>31</v>
       </c>
       <c r="T124" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="V124" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W124">
         <v>1</v>
@@ -10703,7 +10475,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C125">
         <v>40</v>
@@ -10755,7 +10527,7 @@
         <v>31</v>
       </c>
       <c r="T125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y125" t="s">
         <v>79</v>
@@ -10778,7 +10550,7 @@
         <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C126">
         <v>40</v>
@@ -10830,7 +10602,7 @@
         <v>31</v>
       </c>
       <c r="T126" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y126" t="s">
         <v>79</v>
@@ -10853,7 +10625,7 @@
         <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C127">
         <v>40</v>
@@ -10905,7 +10677,7 @@
         <v>31</v>
       </c>
       <c r="T127" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y127" t="s">
         <v>79</v>
@@ -10923,276 +10695,72 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>143</v>
-      </c>
-      <c r="B128" t="s">
-        <v>411</v>
-      </c>
-      <c r="C128">
-        <v>41</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0.5</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128">
-        <v>20</v>
-      </c>
-      <c r="M128">
-        <v>-1</v>
-      </c>
-      <c r="O128">
-        <v>5</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>30</v>
-      </c>
-      <c r="R128" t="s">
-        <v>32</v>
-      </c>
-      <c r="S128" t="s">
-        <v>31</v>
-      </c>
-      <c r="T128" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y128" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z128" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA128" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB128" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD128" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>144</v>
-      </c>
-      <c r="B129" t="s">
-        <v>411</v>
-      </c>
-      <c r="C129">
-        <v>41</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0.5</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129">
-        <v>30</v>
-      </c>
-      <c r="M129">
-        <v>-1</v>
-      </c>
-      <c r="O129">
-        <v>5</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>30</v>
-      </c>
-      <c r="R129" t="s">
-        <v>32</v>
-      </c>
-      <c r="S129" t="s">
-        <v>31</v>
-      </c>
-      <c r="T129" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB129" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD129" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>145</v>
-      </c>
-      <c r="B130" t="s">
-        <v>411</v>
-      </c>
-      <c r="C130">
-        <v>41</v>
-      </c>
-      <c r="D130">
-        <v>3</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0.5</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130">
-        <v>40</v>
-      </c>
-      <c r="M130">
-        <v>-1</v>
-      </c>
-      <c r="O130">
-        <v>5</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>30</v>
-      </c>
-      <c r="R130" t="s">
-        <v>32</v>
-      </c>
-      <c r="S130" t="s">
-        <v>31</v>
-      </c>
-      <c r="T130" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y130" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB130" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD130" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD131" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD132" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD133" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD134" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD137" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD138" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD139" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD140" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD141" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD142" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD143" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD144" t="s">
         <v>48</v>
       </c>
@@ -11546,8 +11114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
   <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11560,66 +11128,66 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" t="s">
         <v>244</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>245</v>
       </c>
-      <c r="D1" t="s">
-        <v>246</v>
-      </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" t="s">
         <v>249</v>
       </c>
-      <c r="D2" t="s">
-        <v>250</v>
-      </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
         <v>246</v>
       </c>
-      <c r="D4" t="s">
-        <v>247</v>
-      </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -11630,13 +11198,13 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -11647,13 +11215,13 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
         <v>148</v>
-      </c>
-      <c r="E9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -11664,13 +11232,13 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -11681,13 +11249,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
         <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -11695,16 +11263,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
         <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -11712,16 +11280,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
         <v>152</v>
-      </c>
-      <c r="D13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -11732,13 +11300,13 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
         <v>157</v>
-      </c>
-      <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -11749,13 +11317,13 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
         <v>157</v>
-      </c>
-      <c r="D15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -11766,13 +11334,13 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
         <v>157</v>
-      </c>
-      <c r="D16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -11783,13 +11351,13 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
         <v>159</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -11800,7 +11368,7 @@
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -11808,16 +11376,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
         <v>161</v>
-      </c>
-      <c r="E19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -11828,13 +11396,13 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s">
         <v>148</v>
-      </c>
-      <c r="E20" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -11845,13 +11413,13 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
         <v>148</v>
-      </c>
-      <c r="E21" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -11862,13 +11430,13 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
         <v>148</v>
-      </c>
-      <c r="E22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -11879,13 +11447,13 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" t="s">
         <v>344</v>
-      </c>
-      <c r="D23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11893,16 +11461,16 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
         <v>159</v>
-      </c>
-      <c r="D24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -11910,16 +11478,16 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
         <v>159</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -11930,13 +11498,13 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
         <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -11947,13 +11515,13 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
         <v>165</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -11964,13 +11532,13 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
         <v>165</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -11981,13 +11549,13 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
         <v>165</v>
-      </c>
-      <c r="D29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -11998,13 +11566,13 @@
         <v>76</v>
       </c>
       <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
         <v>168</v>
-      </c>
-      <c r="D30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -12015,13 +11583,13 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
         <v>168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -12032,13 +11600,13 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
         <v>168</v>
-      </c>
-      <c r="D32" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -12049,13 +11617,13 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
         <v>148</v>
-      </c>
-      <c r="E33" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -12066,13 +11634,13 @@
         <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" t="s">
         <v>148</v>
-      </c>
-      <c r="E34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -12083,13 +11651,13 @@
         <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
         <v>148</v>
-      </c>
-      <c r="E35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -12100,13 +11668,13 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
         <v>148</v>
-      </c>
-      <c r="E36" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -12117,13 +11685,13 @@
         <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
         <v>148</v>
-      </c>
-      <c r="E37" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -12134,13 +11702,13 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -12151,13 +11719,13 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -12168,13 +11736,13 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -12185,13 +11753,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
         <v>174</v>
-      </c>
-      <c r="E41" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -12202,13 +11770,13 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
         <v>174</v>
-      </c>
-      <c r="E42" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -12219,13 +11787,13 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
         <v>174</v>
-      </c>
-      <c r="E43" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -12236,13 +11804,13 @@
         <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" t="s">
         <v>177</v>
-      </c>
-      <c r="E44" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -12253,13 +11821,13 @@
         <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" t="s">
         <v>177</v>
-      </c>
-      <c r="E45" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -12270,13 +11838,13 @@
         <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" t="s">
         <v>177</v>
-      </c>
-      <c r="E46" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -12287,13 +11855,13 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
         <v>180</v>
-      </c>
-      <c r="E47" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -12304,13 +11872,13 @@
         <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" t="s">
         <v>180</v>
-      </c>
-      <c r="E48" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -12321,13 +11889,13 @@
         <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" t="s">
         <v>180</v>
-      </c>
-      <c r="E49" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -12338,13 +11906,13 @@
         <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" t="s">
         <v>180</v>
-      </c>
-      <c r="E50" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12355,13 +11923,13 @@
         <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" t="s">
         <v>180</v>
-      </c>
-      <c r="E51" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -12372,13 +11940,13 @@
         <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" t="s">
         <v>183</v>
-      </c>
-      <c r="E52" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -12389,13 +11957,13 @@
         <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" t="s">
         <v>183</v>
-      </c>
-      <c r="E53" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -12406,13 +11974,13 @@
         <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" t="s">
         <v>183</v>
-      </c>
-      <c r="E54" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -12423,13 +11991,13 @@
         <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
         <v>183</v>
-      </c>
-      <c r="E55" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -12440,13 +12008,13 @@
         <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" t="s">
         <v>183</v>
-      </c>
-      <c r="E56" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -12457,13 +12025,13 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
         <v>159</v>
-      </c>
-      <c r="D57" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -12474,13 +12042,13 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
         <v>159</v>
-      </c>
-      <c r="D58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -12491,13 +12059,13 @@
         <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" t="s">
         <v>186</v>
-      </c>
-      <c r="E59" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -12508,13 +12076,13 @@
         <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" t="s">
         <v>186</v>
-      </c>
-      <c r="E60" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -12525,13 +12093,13 @@
         <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" t="s">
         <v>186</v>
-      </c>
-      <c r="E61" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -12542,13 +12110,13 @@
         <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" t="s">
         <v>186</v>
-      </c>
-      <c r="E62" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -12559,13 +12127,13 @@
         <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" t="s">
         <v>186</v>
-      </c>
-      <c r="E63" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -12573,16 +12141,16 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" t="s">
         <v>148</v>
-      </c>
-      <c r="E64" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -12590,16 +12158,16 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" t="s">
         <v>148</v>
-      </c>
-      <c r="E65" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -12607,16 +12175,16 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
         <v>148</v>
-      </c>
-      <c r="E66" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -12630,7 +12198,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -12638,7 +12206,7 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -12646,7 +12214,7 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -12654,7 +12222,7 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -12662,7 +12230,7 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -12670,7 +12238,7 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -12678,7 +12246,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -12686,7 +12254,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -12694,7 +12262,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -12702,7 +12270,7 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -12710,7 +12278,7 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -12718,7 +12286,7 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -12726,7 +12294,7 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
@@ -12734,7 +12302,7 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -12742,7 +12310,7 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -12750,7 +12318,7 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -12758,7 +12326,7 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -12766,7 +12334,7 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -12774,7 +12342,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -12782,7 +12350,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -12790,7 +12358,7 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -12798,7 +12366,7 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
@@ -12806,7 +12374,7 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
@@ -12814,7 +12382,7 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
@@ -12822,13 +12390,13 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T93" s="1"/>
     </row>
@@ -12837,13 +12405,13 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T94" s="1"/>
     </row>
@@ -12852,13 +12420,13 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T95" s="1"/>
     </row>
@@ -12867,13 +12435,13 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T96" s="1"/>
     </row>
@@ -12882,13 +12450,13 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T97" s="1"/>
     </row>
@@ -12897,13 +12465,13 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T98" s="1"/>
     </row>
@@ -12912,13 +12480,13 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E99" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T99" s="1"/>
     </row>
@@ -12927,13 +12495,13 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T100" s="1"/>
     </row>
@@ -12942,13 +12510,13 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T101" s="1"/>
     </row>
@@ -12957,13 +12525,13 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T102" s="1"/>
     </row>
@@ -12972,13 +12540,13 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T103" s="1"/>
     </row>
@@ -12987,13 +12555,13 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T104" s="1"/>
     </row>
@@ -13002,13 +12570,13 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E105" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T105" s="1"/>
     </row>
@@ -13017,13 +12585,13 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T106" s="1"/>
     </row>
@@ -13032,13 +12600,13 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T107" s="1"/>
     </row>
@@ -13047,13 +12615,13 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D108" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E108" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T108" s="1"/>
     </row>
@@ -13062,13 +12630,13 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T109" s="1"/>
     </row>
@@ -13077,13 +12645,13 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T110" s="1"/>
     </row>
@@ -13092,10 +12660,10 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
@@ -13103,10 +12671,10 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -13114,10 +12682,10 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -13125,7 +12693,7 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -13133,7 +12701,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -13141,7 +12709,7 @@
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -13149,10 +12717,10 @@
         <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -13160,10 +12728,10 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D118" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -13171,10 +12739,10 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -13182,10 +12750,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -13193,10 +12761,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -13204,10 +12772,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -13215,16 +12783,16 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -13232,16 +12800,16 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -13249,16 +12817,16 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -13266,10 +12834,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -13277,10 +12845,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D127" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -13288,10 +12856,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -13299,13 +12867,13 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D129" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E129" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -13313,13 +12881,13 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E130" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -13327,13 +12895,13 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E131" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -13341,16 +12909,16 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C132" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D132" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E132" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -13358,16 +12926,16 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C133" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E133" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -13375,16 +12943,16 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C134" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D134" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E134" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F52E3F-FEC6-4CD1-B8D2-CEA7059C3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4B44CE-9DBC-4DF4-A448-12BB63EF40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
   </bookViews>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="430">
   <si>
     <t>名字</t>
   </si>
@@ -1203,14 +1214,6 @@
     <t>三联飞锯 lvl.3</t>
   </si>
   <si>
-    <t>effectEffectiveTimes,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.3,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RotateColEffect_TripleSaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1219,10 +1222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effectEffectiveTimes,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三联球状闪电 lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1233,26 +1232,6 @@
     <t>三联球状闪电 lvl.3</t>
   </si>
   <si>
-    <t>1.5,0.5,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0.8,Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,0,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,0,Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高温火弹 Lvl.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1507,14 +1486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Triple Saw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triple Lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High-T Bombing</t>
   </si>
   <si>
@@ -1627,6 +1598,42 @@
   </si>
   <si>
     <t>Delay,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis,Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chassis,Repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗士一号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1959,10 +1966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD210"/>
+  <dimension ref="A1:AD211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2002,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G1" t="s">
         <v>49</v>
@@ -2088,10 +2096,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
         <v>115</v>
@@ -2103,7 +2111,7 @@
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I2" t="s">
         <v>276</v>
@@ -2180,10 +2188,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -2263,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2338,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2413,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2488,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2563,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2638,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2713,7 +2721,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2785,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2857,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -3076,7 +3084,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3110,7 +3118,7 @@
         <v>20</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>3</v>
@@ -3128,7 +3136,7 @@
         <v>31</v>
       </c>
       <c r="T15" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Z15" t="b">
         <v>1</v>
@@ -3148,7 +3156,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3200,7 +3208,7 @@
         <v>31</v>
       </c>
       <c r="T16" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="Y16" t="s">
         <v>62</v>
@@ -3223,7 +3231,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -3298,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -3373,7 +3381,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3425,10 +3433,10 @@
         <v>31</v>
       </c>
       <c r="T19" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="V19" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="Z19" t="b">
         <v>1</v>
@@ -3448,7 +3456,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -3500,7 +3508,7 @@
         <v>31</v>
       </c>
       <c r="T20" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Y20" t="s">
         <v>114</v>
@@ -3523,7 +3531,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -3575,7 +3583,7 @@
         <v>31</v>
       </c>
       <c r="T21" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="Y21" t="s">
         <v>114</v>
@@ -3598,7 +3606,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -3650,7 +3658,7 @@
         <v>31</v>
       </c>
       <c r="T22" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="Y22" t="s">
         <v>114</v>
@@ -3673,7 +3681,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -3754,7 +3762,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C24">
         <v>10</v>
@@ -3835,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -3916,7 +3924,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -3968,7 +3976,7 @@
         <v>31</v>
       </c>
       <c r="T26" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="Y26" t="s">
         <v>79</v>
@@ -3991,7 +3999,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4043,7 +4051,7 @@
         <v>31</v>
       </c>
       <c r="T27" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Y27" t="s">
         <v>79</v>
@@ -4066,7 +4074,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4118,7 +4126,7 @@
         <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Y28" t="s">
         <v>79</v>
@@ -4141,7 +4149,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C29">
         <v>12</v>
@@ -4216,7 +4224,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C30">
         <v>12</v>
@@ -4291,7 +4299,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -4366,7 +4374,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -4441,7 +4449,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -4516,7 +4524,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C34">
         <v>13</v>
@@ -4568,7 +4576,7 @@
         <v>31</v>
       </c>
       <c r="T34" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Y34" t="s">
         <v>79</v>
@@ -4591,7 +4599,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C35">
         <v>13</v>
@@ -4643,7 +4651,7 @@
         <v>31</v>
       </c>
       <c r="T35" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Y35" t="s">
         <v>79</v>
@@ -4666,7 +4674,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -4675,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E67" si="1">F36*H36</f>
+        <f t="shared" ref="E36:E62" si="1">F36*H36</f>
         <v>10</v>
       </c>
       <c r="F36">
@@ -4718,7 +4726,7 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
         <v>79</v>
@@ -4741,7 +4749,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C37">
         <v>14</v>
@@ -4813,7 +4821,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C38">
         <v>14</v>
@@ -4885,7 +4893,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -4957,7 +4965,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C40">
         <v>15</v>
@@ -5029,7 +5037,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -5101,7 +5109,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -5173,7 +5181,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -5245,7 +5253,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C44">
         <v>16</v>
@@ -5317,7 +5325,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C45">
         <v>16</v>
@@ -5389,7 +5397,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -5461,7 +5469,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -5533,7 +5541,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C48">
         <v>17</v>
@@ -5585,7 +5593,7 @@
         <v>31</v>
       </c>
       <c r="T48" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="Z48" t="b">
         <v>1</v>
@@ -5605,7 +5613,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C49">
         <v>17</v>
@@ -5657,7 +5665,7 @@
         <v>31</v>
       </c>
       <c r="T49" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Z49" t="b">
         <v>1</v>
@@ -5677,7 +5685,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -5729,7 +5737,7 @@
         <v>31</v>
       </c>
       <c r="T50" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Z50" t="b">
         <v>1</v>
@@ -5749,7 +5757,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -5801,7 +5809,7 @@
         <v>31</v>
       </c>
       <c r="T51" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="Z51" t="b">
         <v>1</v>
@@ -5821,7 +5829,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C52">
         <v>17</v>
@@ -5873,7 +5881,7 @@
         <v>31</v>
       </c>
       <c r="T52" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Z52" t="b">
         <v>1</v>
@@ -5893,7 +5901,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -5945,7 +5953,7 @@
         <v>31</v>
       </c>
       <c r="T53" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Z53" t="b">
         <v>1</v>
@@ -5965,7 +5973,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -6017,7 +6025,7 @@
         <v>31</v>
       </c>
       <c r="T54" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="Z54" t="b">
         <v>1</v>
@@ -6037,7 +6045,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -6092,7 +6100,7 @@
         <v>136</v>
       </c>
       <c r="V55" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Z55" t="b">
         <v>1</v>
@@ -6112,7 +6120,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C56">
         <v>18</v>
@@ -6167,7 +6175,7 @@
         <v>137</v>
       </c>
       <c r="V56" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Z56" t="b">
         <v>1</v>
@@ -6187,7 +6195,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C57">
         <v>18</v>
@@ -6242,7 +6250,7 @@
         <v>138</v>
       </c>
       <c r="V57" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="Z57" t="b">
         <v>1</v>
@@ -6262,7 +6270,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C58">
         <v>18</v>
@@ -6334,7 +6342,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -6406,7 +6414,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -6487,7 +6495,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -6568,7 +6576,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C62">
         <v>19</v>
@@ -6671,7 +6679,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -6736,7 +6744,7 @@
         <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C66">
         <v>20</v>
@@ -6801,7 +6809,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C67">
         <v>20</v>
@@ -6866,7 +6874,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C68">
         <v>21</v>
@@ -6931,7 +6939,7 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C69">
         <v>21</v>
@@ -6996,7 +7004,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C70">
         <v>21</v>
@@ -7061,7 +7069,7 @@
         <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C71">
         <v>22</v>
@@ -7126,7 +7134,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C72">
         <v>22</v>
@@ -7191,7 +7199,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C73">
         <v>22</v>
@@ -7256,7 +7264,7 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C74">
         <v>23</v>
@@ -7321,7 +7329,7 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -7386,7 +7394,7 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C76">
         <v>23</v>
@@ -7451,7 +7459,7 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C77">
         <v>24</v>
@@ -7516,7 +7524,7 @@
         <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C78">
         <v>24</v>
@@ -7581,7 +7589,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C79">
         <v>24</v>
@@ -7646,7 +7654,7 @@
         <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C80">
         <v>25</v>
@@ -7711,7 +7719,7 @@
         <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C81">
         <v>25</v>
@@ -7776,7 +7784,7 @@
         <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C82">
         <v>25</v>
@@ -7841,7 +7849,7 @@
         <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C83">
         <v>26</v>
@@ -7906,7 +7914,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C84">
         <v>26</v>
@@ -7971,7 +7979,7 @@
         <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C85">
         <v>26</v>
@@ -8036,7 +8044,7 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C86">
         <v>27</v>
@@ -8101,7 +8109,7 @@
         <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C87">
         <v>27</v>
@@ -8166,7 +8174,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C88">
         <v>27</v>
@@ -8231,7 +8239,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C89">
         <v>28</v>
@@ -8296,7 +8304,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -8361,7 +8369,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C91">
         <v>28</v>
@@ -8426,7 +8434,7 @@
         <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C92">
         <v>29</v>
@@ -8491,7 +8499,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C93">
         <v>29</v>
@@ -8556,7 +8564,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -8621,7 +8629,7 @@
         <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C95">
         <v>30</v>
@@ -8689,7 +8697,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C96">
         <v>30</v>
@@ -8757,7 +8765,7 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C97">
         <v>30</v>
@@ -8825,7 +8833,7 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C98">
         <v>31</v>
@@ -8893,7 +8901,7 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C99">
         <v>31</v>
@@ -8961,7 +8969,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C100">
         <v>31</v>
@@ -9029,7 +9037,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C101">
         <v>32</v>
@@ -9097,7 +9105,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -9165,7 +9173,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C103">
         <v>32</v>
@@ -9233,7 +9241,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C104">
         <v>33</v>
@@ -9301,7 +9309,7 @@
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C105">
         <v>33</v>
@@ -9369,7 +9377,7 @@
         <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C106">
         <v>33</v>
@@ -9437,7 +9445,7 @@
         <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C107">
         <v>34</v>
@@ -9505,7 +9513,7 @@
         <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C108">
         <v>34</v>
@@ -9573,7 +9581,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C109">
         <v>34</v>
@@ -9641,7 +9649,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C110">
         <v>35</v>
@@ -9709,7 +9717,7 @@
         <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -9727,10 +9735,10 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -9777,7 +9785,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C112">
         <v>35</v>
@@ -9795,10 +9803,10 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -9845,10 +9853,10 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C113">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -9866,16 +9874,16 @@
         <v>1</v>
       </c>
       <c r="K113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M113">
         <v>-1</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -9890,13 +9898,19 @@
         <v>31</v>
       </c>
       <c r="T113" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="V113" t="s">
-        <v>320</v>
+        <v>339</v>
+      </c>
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>79</v>
       </c>
       <c r="Z113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA113" t="b">
         <v>1</v>
@@ -9913,10 +9927,10 @@
         <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C114">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -9934,16 +9948,16 @@
         <v>1</v>
       </c>
       <c r="K114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M114">
         <v>-1</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -9958,13 +9972,19 @@
         <v>31</v>
       </c>
       <c r="T114" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="V114" t="s">
-        <v>320</v>
+        <v>339</v>
+      </c>
+      <c r="W114">
+        <v>1</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>79</v>
       </c>
       <c r="Z114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA114" t="b">
         <v>1</v>
@@ -9981,10 +10001,10 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C115">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -10002,16 +10022,16 @@
         <v>1</v>
       </c>
       <c r="K115">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M115">
         <v>-1</v>
       </c>
       <c r="O115">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -10026,13 +10046,19 @@
         <v>31</v>
       </c>
       <c r="T115" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="V115" t="s">
-        <v>320</v>
+        <v>339</v>
+      </c>
+      <c r="W115">
+        <v>1</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>79</v>
       </c>
       <c r="Z115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA115" t="b">
         <v>1</v>
@@ -10049,14 +10075,21 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C116">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
+      <c r="E116">
+        <f>F116*H116</f>
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>6</v>
+      </c>
       <c r="G116">
         <v>0</v>
       </c>
@@ -10067,19 +10100,19 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K116">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="L116">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M116">
         <v>-1</v>
       </c>
       <c r="O116">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -10094,10 +10127,10 @@
         <v>31</v>
       </c>
       <c r="T116" t="s">
-        <v>330</v>
-      </c>
-      <c r="V116" t="s">
-        <v>324</v>
+        <v>347</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>79</v>
       </c>
       <c r="Z116" t="b">
         <v>0</v>
@@ -10106,7 +10139,7 @@
         <v>1</v>
       </c>
       <c r="AB116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD116" t="s">
         <v>48</v>
@@ -10117,14 +10150,21 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C117">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
+      <c r="E117">
+        <f>F117*H117</f>
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
       <c r="G117">
         <v>0</v>
       </c>
@@ -10135,19 +10175,19 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K117">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="L117">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M117">
         <v>-1</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -10162,10 +10202,10 @@
         <v>31</v>
       </c>
       <c r="T117" t="s">
-        <v>331</v>
-      </c>
-      <c r="V117" t="s">
-        <v>324</v>
+        <v>348</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>79</v>
       </c>
       <c r="Z117" t="b">
         <v>0</v>
@@ -10174,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="AB117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD117" t="s">
         <v>48</v>
@@ -10185,14 +10225,21 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C118">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
+      <c r="E118">
+        <f>F118*H118</f>
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
       <c r="G118">
         <v>0</v>
       </c>
@@ -10203,19 +10250,19 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K118">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="L118">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M118">
         <v>-1</v>
       </c>
       <c r="O118">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -10230,10 +10277,10 @@
         <v>31</v>
       </c>
       <c r="T118" t="s">
-        <v>332</v>
-      </c>
-      <c r="V118" t="s">
-        <v>324</v>
+        <v>349</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>79</v>
       </c>
       <c r="Z118" t="b">
         <v>0</v>
@@ -10242,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="AB118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD118" t="s">
         <v>48</v>
@@ -10250,13 +10297,13 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="C122">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -10271,25 +10318,22 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O122">
         <v>99</v>
       </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
       <c r="Q122" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="R122" t="s">
         <v>32</v>
@@ -10297,20 +10341,8 @@
       <c r="S122" t="s">
         <v>31</v>
       </c>
-      <c r="T122" t="s">
-        <v>348</v>
-      </c>
-      <c r="V122" t="s">
-        <v>347</v>
-      </c>
-      <c r="W122">
-        <v>1</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>79</v>
-      </c>
       <c r="Z122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA122" t="b">
         <v>1</v>
@@ -10324,16 +10356,16 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="B123" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C123">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -10345,13 +10377,13 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M123">
         <v>-1</v>
@@ -10359,11 +10391,8 @@
       <c r="O123">
         <v>99</v>
       </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
       <c r="Q123" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="R123" t="s">
         <v>32</v>
@@ -10371,20 +10400,8 @@
       <c r="S123" t="s">
         <v>31</v>
       </c>
-      <c r="T123" t="s">
-        <v>349</v>
-      </c>
-      <c r="V123" t="s">
-        <v>347</v>
-      </c>
-      <c r="W123">
-        <v>1</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>79</v>
-      </c>
       <c r="Z123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA123" t="b">
         <v>1</v>
@@ -10393,126 +10410,52 @@
         <v>0</v>
       </c>
       <c r="AD123" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>139</v>
-      </c>
-      <c r="B124" t="s">
-        <v>402</v>
-      </c>
-      <c r="C124">
-        <v>39</v>
-      </c>
-      <c r="D124">
-        <v>3</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="K124">
-        <v>2</v>
-      </c>
-      <c r="L124">
-        <v>30</v>
-      </c>
-      <c r="M124">
-        <v>-1</v>
-      </c>
-      <c r="O124">
-        <v>99</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>30</v>
-      </c>
-      <c r="R124" t="s">
-        <v>32</v>
-      </c>
-      <c r="S124" t="s">
-        <v>31</v>
-      </c>
-      <c r="T124" t="s">
-        <v>350</v>
-      </c>
-      <c r="V124" t="s">
-        <v>347</v>
-      </c>
-      <c r="W124">
-        <v>1</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z124" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA124" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB124" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD124" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="B125" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="C125">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <f>F125*H125</f>
-        <v>6</v>
+        <f t="shared" ref="E125" si="2">F125*H125</f>
+        <v>12</v>
       </c>
       <c r="F125">
         <v>6</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
       </c>
       <c r="J125">
+        <v>0.5</v>
+      </c>
+      <c r="K125">
         <v>0.4</v>
       </c>
-      <c r="K125">
-        <v>0.5</v>
-      </c>
       <c r="L125">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M125">
         <v>-1</v>
       </c>
       <c r="O125">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -10527,13 +10470,13 @@
         <v>31</v>
       </c>
       <c r="T125" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="Y125" t="s">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA125" t="b">
         <v>1</v>
@@ -10547,65 +10490,62 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C126">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126">
-        <f>F126*H126</f>
-        <v>8</v>
+        <f t="shared" ref="E126:E127" si="3">F126*H126</f>
+        <v>24</v>
       </c>
       <c r="F126">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
       </c>
       <c r="J126">
+        <v>0.5</v>
+      </c>
+      <c r="K126">
         <v>0.4</v>
       </c>
-      <c r="K126">
-        <v>0.5</v>
-      </c>
       <c r="L126">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M126">
         <v>-1</v>
       </c>
       <c r="O126">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
       <c r="Q126" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="R126" t="s">
         <v>32</v>
       </c>
       <c r="S126" t="s">
-        <v>31</v>
-      </c>
-      <c r="T126" t="s">
-        <v>356</v>
+        <v>143</v>
       </c>
       <c r="Y126" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="Z126" t="b">
         <v>0</v>
@@ -10614,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="AB126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD126" t="s">
         <v>48</v>
@@ -10622,23 +10562,23 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="C127">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <f>F127*H127</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -10650,19 +10590,19 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="K127">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L127">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M127">
         <v>-1</v>
       </c>
       <c r="O127">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -10677,26 +10617,26 @@
         <v>31</v>
       </c>
       <c r="T127" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="Y127" t="s">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z127" t="b">
         <v>0</v>
       </c>
       <c r="AA127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD127" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="30:30" x14ac:dyDescent="0.2">
-      <c r="AD131" t="s">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD128" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11092,6 +11032,11 @@
     </row>
     <row r="210" spans="30:30" x14ac:dyDescent="0.2">
       <c r="AD210" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="30:30" x14ac:dyDescent="0.2">
+      <c r="AD211" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11114,7 +11059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B81CEFD-FC1F-4B37-A493-FEAF0C0F4163}">
   <dimension ref="A1:T134"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="D123" sqref="D123:D125"/>
     </sheetView>
   </sheetViews>
@@ -11376,7 +11321,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C19" t="s">
         <v>151</v>
@@ -11447,13 +11392,13 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D23" t="s">
         <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -11461,7 +11406,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C24" t="s">
         <v>158</v>
@@ -11478,7 +11423,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
@@ -12720,7 +12665,7 @@
         <v>317</v>
       </c>
       <c r="D117" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -12731,7 +12676,7 @@
         <v>318</v>
       </c>
       <c r="D118" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -12742,7 +12687,7 @@
         <v>319</v>
       </c>
       <c r="D119" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -12750,10 +12695,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D120" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -12761,10 +12706,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D121" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -12772,10 +12717,10 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -12783,13 +12728,13 @@
         <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C123" t="s">
         <v>181</v>
       </c>
       <c r="D123" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E123" t="s">
         <v>186</v>
@@ -12800,13 +12745,13 @@
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C124" t="s">
         <v>181</v>
       </c>
       <c r="D124" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E124" t="s">
         <v>186</v>
@@ -12817,13 +12762,13 @@
         <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C125" t="s">
         <v>181</v>
       </c>
       <c r="D125" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E125" t="s">
         <v>186</v>
@@ -12834,10 +12779,10 @@
         <v>137</v>
       </c>
       <c r="B126" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D126" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -12845,10 +12790,10 @@
         <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D127" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -12856,10 +12801,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D128" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -12867,13 +12812,13 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D129" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E129" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -12881,13 +12826,13 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D130" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E130" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -12895,13 +12840,13 @@
         <v>142</v>
       </c>
       <c r="B131" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E131" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -12909,16 +12854,16 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C132" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D132" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E132" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -12926,16 +12871,16 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C133" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D133" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E133" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -12943,16 +12888,16 @@
         <v>145</v>
       </c>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C134" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D134" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E134" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -5,32 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4B44CE-9DBC-4DF4-A448-12BB63EF40D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784FA347-1F0B-4DF1-854D-D40840C756D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
+    <workbookView minimized="1" xWindow="39585" yWindow="-1725" windowWidth="28800" windowHeight="27285" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1605,18 +1594,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chassis,Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,0,Physical</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chassis,Repair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>射击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1634,6 +1615,14 @@
   </si>
   <si>
     <t>维护机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate,Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate,Repair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1969,8 +1958,8 @@
   <dimension ref="A1:AD211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10300,7 +10289,7 @@
         <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C122">
         <v>89</v>
@@ -10359,7 +10348,7 @@
         <v>202</v>
       </c>
       <c r="B123" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C123">
         <v>90</v>
@@ -10418,7 +10407,7 @@
         <v>301</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C125">
         <v>91</v>
@@ -10473,7 +10462,7 @@
         <v>421</v>
       </c>
       <c r="Y125" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Z125" t="b">
         <v>1</v>
@@ -10493,7 +10482,7 @@
         <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C126">
         <v>92</v>
@@ -10545,7 +10534,7 @@
         <v>143</v>
       </c>
       <c r="Y126" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Z126" t="b">
         <v>0</v>
@@ -10565,7 +10554,7 @@
         <v>303</v>
       </c>
       <c r="B127" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C127">
         <v>93</v>
@@ -10617,10 +10606,10 @@
         <v>31</v>
       </c>
       <c r="T127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Y127" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Z127" t="b">
         <v>0</v>

--- a/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/SkillConfig.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F4F8B-C52D-4C96-A00D-06CFA4350212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AAD5D9-ED00-485D-A4E3-209D176361AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29550" yWindow="10125" windowWidth="21600" windowHeight="11385" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{85F091D7-8DEA-4479-A83C-808C693C032A}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="460">
   <si>
     <t>名字</t>
   </si>
@@ -1696,6 +1696,49 @@
   </si>
   <si>
     <t>MostTeammatesSurrounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nearest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Droid Shoot                     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,0,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,0,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orb Shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isolate,CastFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssaultMech Shoot E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssaultMech Shoot I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssaultMech Shoot F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,9 +2082,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2373,8 +2416,8 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E35" si="0">F4*I4</f>
-        <v>12</v>
+        <f>F4*I4/(K4+L4+3)</f>
+        <v>5.4545454545454541</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -2404,7 +2447,7 @@
         <v>-1</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2460,8 +2503,8 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" ref="E5:E62" si="0">F5*I5/(K5+L5+3)</f>
+        <v>7.2727272727272725</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -2491,7 +2534,7 @@
         <v>-1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2548,7 +2591,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2578,7 +2621,7 @@
         <v>-1</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2632,7 +2675,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -2662,7 +2705,7 @@
         <v>-1</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2713,7 +2756,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>5.7777777777777777</v>
       </c>
       <c r="F8">
         <v>26</v>
@@ -2743,7 +2786,7 @@
         <v>-1</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2794,7 +2837,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>7.7777777777777777</v>
       </c>
       <c r="F9">
         <v>35</v>
@@ -2824,7 +2867,7 @@
         <v>-1</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -2875,7 +2918,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -2905,7 +2948,7 @@
         <v>-1</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2953,7 +2996,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>6.5789473684210531</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -2983,7 +3026,7 @@
         <v>-1</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3031,7 +3074,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>7.8947368421052637</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -3061,7 +3104,7 @@
         <v>-1</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3109,7 +3152,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4.375</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -3139,7 +3182,7 @@
         <v>-1</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3184,7 +3227,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3214,7 +3257,7 @@
         <v>-1</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3262,7 +3305,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -3292,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3337,7 +3380,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3367,7 +3410,7 @@
         <v>-1</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3415,7 +3458,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -3445,7 +3488,7 @@
         <v>-1</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3493,7 +3536,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>9.2592592592592595</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -3523,7 +3566,7 @@
         <v>-1</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -3571,7 +3614,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -3601,7 +3644,7 @@
         <v>-1</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3649,7 +3692,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -3679,7 +3722,7 @@
         <v>-1</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3727,7 +3770,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -3757,7 +3800,7 @@
         <v>-1</v>
       </c>
       <c r="P21">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3805,7 +3848,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -3835,7 +3878,7 @@
         <v>-1</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3883,7 +3926,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>4.3636363636363633</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -3913,7 +3956,7 @@
         <v>-1</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -3967,7 +4010,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -3997,7 +4040,7 @@
         <v>-1</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -4051,7 +4094,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>10.909090909090908</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -4081,7 +4124,7 @@
         <v>-1</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -4135,7 +4178,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>5.1063829787234036</v>
       </c>
       <c r="F26">
         <v>24</v>
@@ -4165,7 +4208,7 @@
         <v>-1</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -4213,7 +4256,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>7.6595744680851059</v>
       </c>
       <c r="F27">
         <v>36</v>
@@ -4243,7 +4286,7 @@
         <v>-1</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4291,7 +4334,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>12.76595744680851</v>
       </c>
       <c r="F28">
         <v>60</v>
@@ -4321,7 +4364,7 @@
         <v>-1</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -4369,7 +4412,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -4399,7 +4442,7 @@
         <v>-1</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -4447,7 +4490,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -4477,7 +4520,7 @@
         <v>-1</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -4525,7 +4568,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -4555,7 +4598,7 @@
         <v>-1</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -4603,7 +4646,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>10.909090909090908</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -4633,7 +4676,7 @@
         <v>-1</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -4681,7 +4724,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>13.636363636363635</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -4711,7 +4754,7 @@
         <v>-1</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -4759,7 +4802,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1.9354838709677418</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -4789,7 +4832,7 @@
         <v>-1</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -4837,7 +4880,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2.5806451612903225</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -4867,7 +4910,7 @@
         <v>-1</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -4914,8 +4957,8 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E62" si="1">F36*I36</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3.225806451612903</v>
       </c>
       <c r="F36">
         <v>10</v>
@@ -4945,7 +4988,7 @@
         <v>-1</v>
       </c>
       <c r="P36">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -4992,8 +5035,8 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>3.9473684210526319</v>
       </c>
       <c r="F37">
         <v>15</v>
@@ -5023,7 +5066,7 @@
         <v>-1</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -5067,8 +5110,8 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>5.2631578947368425</v>
       </c>
       <c r="F38">
         <v>20</v>
@@ -5098,7 +5141,7 @@
         <v>-1</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -5142,8 +5185,8 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>6.5789473684210531</v>
       </c>
       <c r="F39">
         <v>25</v>
@@ -5173,7 +5216,7 @@
         <v>-1</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -5217,8 +5260,8 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>4.7368421052631584</v>
       </c>
       <c r="F40">
         <v>18</v>
@@ -5248,7 +5291,7 @@
         <v>-1</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -5292,8 +5335,8 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>6.3157894736842106</v>
       </c>
       <c r="F41">
         <v>24</v>
@@ -5323,7 +5366,7 @@
         <v>-1</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -5367,8 +5410,8 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>9.4736842105263168</v>
       </c>
       <c r="F42">
         <v>36</v>
@@ -5398,7 +5441,7 @@
         <v>-1</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -5442,8 +5485,8 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>4.2424242424242422</v>
       </c>
       <c r="F43">
         <v>14</v>
@@ -5473,7 +5516,7 @@
         <v>-1</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -5517,8 +5560,8 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>6.0606060606060606</v>
       </c>
       <c r="F44">
         <v>20</v>
@@ -5548,7 +5591,7 @@
         <v>-1</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -5592,8 +5635,8 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>8.4848484848484844</v>
       </c>
       <c r="F45">
         <v>28</v>
@@ -5623,7 +5666,7 @@
         <v>-1</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -5667,8 +5710,8 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>10.90909090909091</v>
       </c>
       <c r="F46">
         <v>36</v>
@@ -5698,7 +5741,7 @@
         <v>-1</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -5742,8 +5785,8 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f t="shared" si="0"/>
+        <v>14.545454545454547</v>
       </c>
       <c r="F47">
         <v>48</v>
@@ -5773,7 +5816,7 @@
         <v>-1</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -5817,8 +5860,8 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F48">
         <v>20</v>
@@ -5848,7 +5891,7 @@
         <v>-1</v>
       </c>
       <c r="P48">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -5892,8 +5935,8 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="F49">
         <v>30</v>
@@ -5923,7 +5966,7 @@
         <v>-1</v>
       </c>
       <c r="P49">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -5967,8 +6010,8 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="F50">
         <v>40</v>
@@ -5998,7 +6041,7 @@
         <v>-1</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -6042,8 +6085,8 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>13.888888888888889</v>
       </c>
       <c r="F51">
         <v>50</v>
@@ -6073,7 +6116,7 @@
         <v>-1</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -6117,8 +6160,8 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>17.777777777777779</v>
       </c>
       <c r="F52">
         <v>64</v>
@@ -6148,7 +6191,7 @@
         <v>-1</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -6192,8 +6235,8 @@
         <v>4</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>5.7142857142857144</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -6223,7 +6266,7 @@
         <v>-1</v>
       </c>
       <c r="P53">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -6267,8 +6310,8 @@
         <v>5</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>7.1428571428571432</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -6298,7 +6341,7 @@
         <v>-1</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -6342,8 +6385,8 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="F55">
         <v>40</v>
@@ -6373,7 +6416,7 @@
         <v>-1</v>
       </c>
       <c r="P55">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -6420,8 +6463,8 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="F56">
         <v>50</v>
@@ -6451,7 +6494,7 @@
         <v>-1</v>
       </c>
       <c r="P56">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -6498,8 +6541,8 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>60</v>
@@ -6529,7 +6572,7 @@
         <v>-1</v>
       </c>
       <c r="P57">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -6576,8 +6619,8 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="F58">
         <v>80</v>
@@ -6607,7 +6650,7 @@
         <v>-1</v>
       </c>
       <c r="P58">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -6651,8 +6694,8 @@
         <v>5</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="F59">
         <v>100</v>
@@ -6682,7 +6725,7 @@
         <v>-1</v>
       </c>
       <c r="P59">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -6726,8 +6769,8 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>8.5714285714285712</v>
       </c>
       <c r="F60">
         <v>30</v>
@@ -6757,7 +6800,7 @@
         <v>-1</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -6810,8 +6853,8 @@
         <v>2</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>14.285714285714286</v>
       </c>
       <c r="F61">
         <v>50</v>
@@ -6841,7 +6884,7 @@
         <v>-1</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -6894,8 +6937,8 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="F62">
         <v>70</v>
@@ -6925,7 +6968,7 @@
         <v>-1</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -9891,6 +9934,10 @@
       <c r="D107">
         <v>1</v>
       </c>
+      <c r="E107">
+        <f t="shared" ref="E107:E118" si="1">F107*I107/(K107+L107+3)</f>
+        <v>0</v>
+      </c>
       <c r="G107">
         <v>0</v>
       </c>
@@ -9916,7 +9963,7 @@
         <v>-1</v>
       </c>
       <c r="P107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -9962,6 +10009,10 @@
       <c r="D108">
         <v>2</v>
       </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G108">
         <v>0</v>
       </c>
@@ -9987,7 +10038,7 @@
         <v>-1</v>
       </c>
       <c r="P108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -10033,6 +10084,10 @@
       <c r="D109">
         <v>3</v>
       </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -10058,7 +10113,7 @@
         <v>-1</v>
       </c>
       <c r="P109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q109">
         <v>0</v>
@@ -10104,6 +10159,10 @@
       <c r="D110">
         <v>1</v>
       </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G110">
         <v>0.1</v>
       </c>
@@ -10129,7 +10188,7 @@
         <v>-1</v>
       </c>
       <c r="P110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -10175,6 +10234,10 @@
       <c r="D111">
         <v>2</v>
       </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G111">
         <v>0.1</v>
       </c>
@@ -10200,7 +10263,7 @@
         <v>-1</v>
       </c>
       <c r="P111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q111">
         <v>0</v>
@@ -10246,6 +10309,10 @@
       <c r="D112">
         <v>3</v>
       </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G112">
         <v>0.1</v>
       </c>
@@ -10271,7 +10338,7 @@
         <v>-1</v>
       </c>
       <c r="P112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q112">
         <v>0</v>
@@ -10317,6 +10384,10 @@
       <c r="D113">
         <v>1</v>
       </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -10394,6 +10465,10 @@
       <c r="D114">
         <v>2</v>
       </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G114">
         <v>0</v>
       </c>
@@ -10471,6 +10546,10 @@
       <c r="D115">
         <v>3</v>
       </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G115">
         <v>0</v>
       </c>
@@ -10549,11 +10628,11 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <f>F116*I116</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
       </c>
       <c r="F116">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -10580,7 +10659,7 @@
         <v>-1</v>
       </c>
       <c r="P116">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Q116">
         <v>0</v>
@@ -10627,11 +10706,11 @@
         <v>2</v>
       </c>
       <c r="E117">
-        <f>F117*I117</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6.4102564102564106</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10658,7 +10737,7 @@
         <v>-1</v>
       </c>
       <c r="P117">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -10705,11 +10784,11 @@
         <v>3</v>
       </c>
       <c r="E118">
-        <f>F118*I118</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>10.256410256410257</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10736,7 +10815,7 @@
         <v>-1</v>
       </c>
       <c r="P118">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -10766,6 +10845,21 @@
         <v>1</v>
       </c>
       <c r="AE118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE121" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10893,6 +10987,11 @@
         <v>48</v>
       </c>
     </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE124" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>301</v>
@@ -10907,11 +11006,11 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <f t="shared" ref="E125" si="2">F125*I125</f>
-        <v>12</v>
+        <f t="shared" ref="E125:E131" si="2">F125*I125/(K125+L125+3)</f>
+        <v>2.0512820512820515</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -10938,7 +11037,7 @@
         <v>-1</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q125">
         <v>0</v>
@@ -10985,17 +11084,17 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <f t="shared" ref="E126:E127" si="3">F126*I126</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G126">
         <v>0.2</v>
       </c>
       <c r="H126">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11016,7 +11115,7 @@
         <v>-1</v>
       </c>
       <c r="P126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -11025,7 +11124,7 @@
         <v>144</v>
       </c>
       <c r="S126" t="s">
-        <v>32</v>
+        <v>449</v>
       </c>
       <c r="T126" t="s">
         <v>143</v>
@@ -11063,11 +11162,11 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G127">
         <v>0.3</v>
@@ -11094,7 +11193,7 @@
         <v>-1</v>
       </c>
       <c r="P127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q127">
         <v>0</v>
@@ -11132,67 +11231,739 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>401</v>
+      </c>
+      <c r="B129" t="s">
+        <v>450</v>
+      </c>
+      <c r="C129">
+        <v>150</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="b">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0.5</v>
+      </c>
+      <c r="L129">
+        <v>0.7</v>
+      </c>
+      <c r="M129">
+        <v>5</v>
+      </c>
+      <c r="N129">
+        <v>-1</v>
+      </c>
+      <c r="P129">
+        <v>20</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129" t="s">
+        <v>30</v>
+      </c>
+      <c r="S129" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" t="s">
+        <v>31</v>
+      </c>
+      <c r="U129" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA129" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB129" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC129" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>402</v>
+      </c>
+      <c r="B130" t="s">
+        <v>450</v>
+      </c>
+      <c r="C130">
+        <v>150</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0.4</v>
+      </c>
+      <c r="L130">
+        <v>0.6</v>
+      </c>
+      <c r="M130">
+        <v>5</v>
+      </c>
+      <c r="N130">
+        <v>-1</v>
+      </c>
+      <c r="P130">
+        <v>20</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130" t="s">
+        <v>30</v>
+      </c>
+      <c r="S130" t="s">
+        <v>32</v>
+      </c>
+      <c r="T130" t="s">
+        <v>31</v>
+      </c>
+      <c r="U130" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA130" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB130" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC130" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>403</v>
+      </c>
+      <c r="B131" t="s">
+        <v>450</v>
+      </c>
+      <c r="C131">
+        <v>150</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="2"/>
+        <v>3.1578947368421053</v>
+      </c>
+      <c r="F131">
+        <v>12</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0.3</v>
+      </c>
+      <c r="L131">
+        <v>0.5</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>-1</v>
+      </c>
+      <c r="P131">
+        <v>20</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131" t="s">
+        <v>30</v>
+      </c>
+      <c r="S131" t="s">
+        <v>32</v>
+      </c>
+      <c r="T131" t="s">
+        <v>31</v>
+      </c>
+      <c r="U131" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>404</v>
+      </c>
+      <c r="B132" t="s">
+        <v>454</v>
+      </c>
+      <c r="C132">
+        <v>151</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132" si="3">F132*I132/(K132+L132+3)</f>
+        <v>2.1739130434782612</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+      <c r="J132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0.6</v>
+      </c>
+      <c r="M132">
+        <v>8</v>
+      </c>
+      <c r="N132">
+        <v>-1</v>
+      </c>
+      <c r="P132">
+        <v>15</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132" t="s">
+        <v>30</v>
+      </c>
+      <c r="S132" t="s">
+        <v>32</v>
+      </c>
+      <c r="T132" t="s">
+        <v>31</v>
+      </c>
+      <c r="U132" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA132" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB132" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC132" t="b">
+        <v>1</v>
+      </c>
       <c r="AE132" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>405</v>
+      </c>
+      <c r="B133" t="s">
+        <v>454</v>
+      </c>
+      <c r="C133">
+        <v>151</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ref="E133:E135" si="4">F133*I133/(K133+L133+3)</f>
+        <v>3.2608695652173916</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133">
+        <v>5</v>
+      </c>
+      <c r="J133" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0.6</v>
+      </c>
+      <c r="M133">
+        <v>8</v>
+      </c>
+      <c r="N133">
+        <v>-1</v>
+      </c>
+      <c r="P133">
+        <v>15</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133" t="s">
+        <v>30</v>
+      </c>
+      <c r="S133" t="s">
+        <v>32</v>
+      </c>
+      <c r="T133" t="s">
+        <v>31</v>
+      </c>
+      <c r="U133" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA133" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB133" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC133" t="b">
+        <v>1</v>
+      </c>
       <c r="AE133" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>406</v>
+      </c>
+      <c r="B134" t="s">
+        <v>454</v>
+      </c>
+      <c r="C134">
+        <v>151</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>4.3478260869565224</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+      <c r="J134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0.6</v>
+      </c>
+      <c r="M134">
+        <v>8</v>
+      </c>
+      <c r="N134">
+        <v>-1</v>
+      </c>
+      <c r="P134">
+        <v>15</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134" t="s">
+        <v>30</v>
+      </c>
+      <c r="S134" t="s">
+        <v>32</v>
+      </c>
+      <c r="T134" t="s">
+        <v>31</v>
+      </c>
+      <c r="U134" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA134" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB134" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC134" t="b">
+        <v>1</v>
+      </c>
       <c r="AE134" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>407</v>
+      </c>
+      <c r="B135" t="s">
+        <v>457</v>
+      </c>
+      <c r="C135">
+        <v>152</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0.6</v>
+      </c>
+      <c r="I135">
+        <v>8</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>12</v>
+      </c>
+      <c r="N135">
+        <v>-1</v>
+      </c>
+      <c r="P135">
+        <v>25</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135" t="s">
+        <v>30</v>
+      </c>
+      <c r="S135" t="s">
+        <v>32</v>
+      </c>
+      <c r="T135" t="s">
+        <v>31</v>
+      </c>
+      <c r="U135" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA135" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB135" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC135" t="b">
+        <v>1</v>
+      </c>
       <c r="AE135" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>408</v>
+      </c>
+      <c r="B136" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136">
+        <v>152</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ref="E136:E137" si="5">F136*I136/(K136+L136+3)</f>
+        <v>4.8</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0.6</v>
+      </c>
+      <c r="I136">
+        <v>8</v>
+      </c>
+      <c r="J136" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>12</v>
+      </c>
+      <c r="N136">
+        <v>-1</v>
+      </c>
+      <c r="P136">
+        <v>25</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136" t="s">
+        <v>30</v>
+      </c>
+      <c r="S136" t="s">
+        <v>32</v>
+      </c>
+      <c r="T136" t="s">
+        <v>31</v>
+      </c>
+      <c r="U136" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA136" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB136" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC136" t="b">
+        <v>1</v>
+      </c>
       <c r="AE136" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>409</v>
+      </c>
+      <c r="B137" t="s">
+        <v>459</v>
+      </c>
+      <c r="C137">
+        <v>152</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0.6</v>
+      </c>
+      <c r="I137">
+        <v>8</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>12</v>
+      </c>
+      <c r="N137">
+        <v>-1</v>
+      </c>
+      <c r="P137">
+        <v>25</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137" t="s">
+        <v>30</v>
+      </c>
+      <c r="S137" t="s">
+        <v>32</v>
+      </c>
+      <c r="T137" t="s">
+        <v>31</v>
+      </c>
+      <c r="U137" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC137" t="b">
+        <v>1</v>
+      </c>
       <c r="AE137" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE138" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE139" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE140" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE141" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE142" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE143" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="31:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="AE144" t="s">
         <v>48</v>
       </c>
@@ -11534,11 +12305,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S3 T1:T3" xr:uid="{6561B2DD-6CF0-40FA-B4C3-06F49A449C61}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:T3" xr:uid="{0FE7AA38-F8ED-425D-955A-C93B1EF51958}">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4:R1048576" xr:uid="{CF3D3C77-80B9-4F45-9AF8-9B23B973C93F}">
@@ -13403,11 +14171,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P8:Q134" xr:uid="{FA5CA984-16DD-470A-8333-44205480118F}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O134" xr:uid="{A15678F9-E526-438C-86D7-AADF47BEF524}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:Q134" xr:uid="{FA5CA984-16DD-470A-8333-44205480118F}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
